--- a/neck_Data.xlsx
+++ b/neck_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:IQ4"/>
+  <dimension ref="A1:GO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1027,922 +1027,598 @@
       <c r="GO1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>437.5761413574219</v>
+        <v>353.400146484375</v>
       </c>
       <c r="C2" t="n">
-        <v>437.9986877441406</v>
+        <v>352.411376953125</v>
       </c>
       <c r="D2" t="n">
-        <v>438.4874267578125</v>
+        <v>351.90380859375</v>
       </c>
       <c r="E2" t="n">
-        <v>439.0481872558594</v>
+        <v>351.7139282226562</v>
       </c>
       <c r="F2" t="n">
-        <v>439.6484985351562</v>
+        <v>351.6405944824219</v>
       </c>
       <c r="G2" t="n">
-        <v>440.4714660644531</v>
+        <v>351.6096496582031</v>
       </c>
       <c r="H2" t="n">
-        <v>441.1549682617188</v>
+        <v>351.5927124023438</v>
       </c>
       <c r="I2" t="n">
-        <v>441.6253662109375</v>
+        <v>351.6242065429688</v>
       </c>
       <c r="J2" t="n">
-        <v>441.9172973632812</v>
+        <v>351.6789245605469</v>
       </c>
       <c r="K2" t="n">
-        <v>441.7886962890625</v>
+        <v>351.7153625488281</v>
       </c>
       <c r="L2" t="n">
-        <v>441.6051635742188</v>
+        <v>351.7301940917969</v>
       </c>
       <c r="M2" t="n">
-        <v>441.4168701171875</v>
+        <v>351.7365112304688</v>
       </c>
       <c r="N2" t="n">
-        <v>441.2649841308594</v>
+        <v>351.735595703125</v>
       </c>
       <c r="O2" t="n">
-        <v>441.1251831054688</v>
+        <v>351.7328491210938</v>
       </c>
       <c r="P2" t="n">
-        <v>440.9324645996094</v>
+        <v>351.7297058105469</v>
       </c>
       <c r="Q2" t="n">
-        <v>439.8665771484375</v>
+        <v>351.7268371582031</v>
       </c>
       <c r="R2" t="n">
-        <v>438.2218017578125</v>
+        <v>351.7241821289062</v>
       </c>
       <c r="S2" t="n">
-        <v>436.3659057617188</v>
+        <v>351.7217407226562</v>
       </c>
       <c r="T2" t="n">
-        <v>434.5016784667969</v>
+        <v>351.71826171875</v>
       </c>
       <c r="U2" t="n">
-        <v>432.8630981445312</v>
+        <v>351.7167358398438</v>
       </c>
       <c r="V2" t="n">
-        <v>431.2732543945312</v>
+        <v>351.716064453125</v>
       </c>
       <c r="W2" t="n">
-        <v>429.7631225585938</v>
+        <v>351.7154541015625</v>
       </c>
       <c r="X2" t="n">
-        <v>427.9440307617188</v>
+        <v>351.7152099609375</v>
       </c>
       <c r="Y2" t="n">
-        <v>426.542236328125</v>
+        <v>351.715087890625</v>
       </c>
       <c r="Z2" t="n">
-        <v>425.9625854492188</v>
+        <v>351.7150268554688</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.3725891113281</v>
+        <v>351.7149353027344</v>
       </c>
       <c r="AB2" t="n">
-        <v>424.9960021972656</v>
+        <v>351.7149353027344</v>
       </c>
       <c r="AC2" t="n">
-        <v>424.4025268554688</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AD2" t="n">
-        <v>423.6380615234375</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AE2" t="n">
-        <v>422.7945556640625</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AF2" t="n">
-        <v>421.6665344238281</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AG2" t="n">
-        <v>421.1827392578125</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AH2" t="n">
-        <v>421.1015319824219</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AI2" t="n">
-        <v>421.3275146484375</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>421.64404296875</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AK2" t="n">
-        <v>422.0458679199219</v>
+        <v>351.7149047851562</v>
       </c>
       <c r="AL2" t="n">
-        <v>422.4882202148438</v>
+        <v>351.7147521972656</v>
       </c>
       <c r="AM2" t="n">
-        <v>422.948974609375</v>
+        <v>351.713623046875</v>
       </c>
       <c r="AN2" t="n">
-        <v>423.3812255859375</v>
+        <v>351.7130126953125</v>
       </c>
       <c r="AO2" t="n">
-        <v>423.7042846679688</v>
+        <v>351.71240234375</v>
       </c>
       <c r="AP2" t="n">
-        <v>424.0088500976562</v>
+        <v>351.716552734375</v>
       </c>
       <c r="AQ2" t="n">
-        <v>424.2435302734375</v>
+        <v>352.4609375</v>
       </c>
       <c r="AR2" t="n">
-        <v>424.5498352050781</v>
+        <v>365.6774597167969</v>
       </c>
       <c r="AS2" t="n">
-        <v>424.8218994140625</v>
+        <v>372.5867919921875</v>
       </c>
       <c r="AT2" t="n">
-        <v>425.1327209472656</v>
+        <v>385.989013671875</v>
       </c>
       <c r="AU2" t="n">
-        <v>425.3914184570312</v>
+        <v>392.587890625</v>
       </c>
       <c r="AV2" t="n">
-        <v>425.6094665527344</v>
+        <v>398.0115966796875</v>
       </c>
       <c r="AW2" t="n">
-        <v>425.78759765625</v>
+        <v>403.9998779296875</v>
       </c>
       <c r="AX2" t="n">
-        <v>426.0317687988281</v>
+        <v>411.112060546875</v>
       </c>
       <c r="AY2" t="n">
-        <v>426.2050170898438</v>
+        <v>417.8047485351562</v>
       </c>
       <c r="AZ2" t="n">
-        <v>426.3216552734375</v>
+        <v>423.1997680664062</v>
       </c>
       <c r="BA2" t="n">
-        <v>426.4622497558594</v>
+        <v>427.5421447753906</v>
       </c>
       <c r="BB2" t="n">
-        <v>426.6124267578125</v>
+        <v>432.9985046386719</v>
       </c>
       <c r="BC2" t="n">
-        <v>426.7521667480469</v>
+        <v>438.43994140625</v>
       </c>
       <c r="BD2" t="n">
-        <v>426.8758544921875</v>
+        <v>442.4192504882812</v>
       </c>
       <c r="BE2" t="n">
-        <v>426.7328491210938</v>
+        <v>447.1323852539062</v>
       </c>
       <c r="BF2" t="n">
-        <v>425.5343933105469</v>
+        <v>449.0997924804688</v>
       </c>
       <c r="BG2" t="n">
-        <v>423.3699951171875</v>
+        <v>449.2292785644531</v>
       </c>
       <c r="BH2" t="n">
-        <v>420.580810546875</v>
+        <v>446.18408203125</v>
       </c>
       <c r="BI2" t="n">
-        <v>417.8920288085938</v>
+        <v>443.1912841796875</v>
       </c>
       <c r="BJ2" t="n">
-        <v>415.2333984375</v>
+        <v>427.257080078125</v>
       </c>
       <c r="BK2" t="n">
-        <v>412.7954711914062</v>
+        <v>414.6304931640625</v>
       </c>
       <c r="BL2" t="n">
-        <v>410.3707275390625</v>
+        <v>405.3811950683594</v>
       </c>
       <c r="BM2" t="n">
-        <v>407.8599243164062</v>
+        <v>385.6450805664062</v>
       </c>
       <c r="BN2" t="n">
-        <v>405.2730712890625</v>
+        <v>375.1126403808594</v>
       </c>
       <c r="BO2" t="n">
-        <v>402.9702758789062</v>
+        <v>365.7160949707031</v>
       </c>
       <c r="BP2" t="n">
-        <v>400.3739624023438</v>
+        <v>356.6060180664062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>397.216552734375</v>
+        <v>347.2669067382812</v>
       </c>
       <c r="BR2" t="n">
-        <v>393.4639892578125</v>
+        <v>337.5154418945312</v>
       </c>
       <c r="BS2" t="n">
-        <v>387.1790161132812</v>
+        <v>327.5087890625</v>
       </c>
       <c r="BT2" t="n">
-        <v>381.6958312988281</v>
+        <v>316.9616394042969</v>
       </c>
       <c r="BU2" t="n">
-        <v>376.9485168457031</v>
+        <v>306.5721130371094</v>
       </c>
       <c r="BV2" t="n">
-        <v>373.4461059570312</v>
+        <v>296.6753234863281</v>
       </c>
       <c r="BW2" t="n">
-        <v>369.7291259765625</v>
+        <v>287.3744506835938</v>
       </c>
       <c r="BX2" t="n">
-        <v>365.6090087890625</v>
+        <v>279.067626953125</v>
       </c>
       <c r="BY2" t="n">
-        <v>359.842041015625</v>
+        <v>271.5657043457031</v>
       </c>
       <c r="BZ2" t="n">
-        <v>349.2962036132812</v>
+        <v>264.9517517089844</v>
       </c>
       <c r="CA2" t="n">
-        <v>339.1854858398438</v>
+        <v>258.9900512695312</v>
       </c>
       <c r="CB2" t="n">
-        <v>328.8624572753906</v>
+        <v>253.7725524902344</v>
       </c>
       <c r="CC2" t="n">
-        <v>324.6016845703125</v>
+        <v>249.1990966796875</v>
       </c>
       <c r="CD2" t="n">
-        <v>320.732421875</v>
+        <v>245.3527526855469</v>
       </c>
       <c r="CE2" t="n">
-        <v>316.8665466308594</v>
+        <v>242.3692474365234</v>
       </c>
       <c r="CF2" t="n">
-        <v>309.793701171875</v>
+        <v>240.1295166015625</v>
       </c>
       <c r="CG2" t="n">
-        <v>306.272705078125</v>
+        <v>238.679931640625</v>
       </c>
       <c r="CH2" t="n">
-        <v>303.0241088867188</v>
+        <v>238.0166931152344</v>
       </c>
       <c r="CI2" t="n">
-        <v>299.9991760253906</v>
+        <v>238.0013427734375</v>
       </c>
       <c r="CJ2" t="n">
-        <v>297.6127014160156</v>
+        <v>239.9562377929688</v>
       </c>
       <c r="CK2" t="n">
-        <v>295.7823791503906</v>
+        <v>243.5782775878906</v>
       </c>
       <c r="CL2" t="n">
-        <v>292.9472351074219</v>
+        <v>248.7500762939453</v>
       </c>
       <c r="CM2" t="n">
-        <v>292.072509765625</v>
+        <v>255.1814575195312</v>
       </c>
       <c r="CN2" t="n">
-        <v>291.4032287597656</v>
+        <v>262.2762756347656</v>
       </c>
       <c r="CO2" t="n">
-        <v>290.2301330566406</v>
+        <v>269.7387084960938</v>
       </c>
       <c r="CP2" t="n">
-        <v>289.7911376953125</v>
+        <v>277.4151000976562</v>
       </c>
       <c r="CQ2" t="n">
-        <v>289.2764282226562</v>
+        <v>289.8993530273438</v>
       </c>
       <c r="CR2" t="n">
-        <v>288.7835083007812</v>
+        <v>308.9599304199219</v>
       </c>
       <c r="CS2" t="n">
-        <v>288.1920166015625</v>
+        <v>315.5749206542969</v>
       </c>
       <c r="CT2" t="n">
-        <v>286.3961486816406</v>
+        <v>324.3589477539062</v>
       </c>
       <c r="CU2" t="n">
-        <v>285.2912292480469</v>
+        <v>333.8623657226562</v>
       </c>
       <c r="CV2" t="n">
-        <v>284.5104370117188</v>
+        <v>343.386962890625</v>
       </c>
       <c r="CW2" t="n">
-        <v>283.7294311523438</v>
+        <v>351.5783081054688</v>
       </c>
       <c r="CX2" t="n">
-        <v>283.6419372558594</v>
+        <v>357.951904296875</v>
       </c>
       <c r="CY2" t="n">
-        <v>283.5969543457031</v>
+        <v>364.6038818359375</v>
       </c>
       <c r="CZ2" t="n">
-        <v>283.5933532714844</v>
+        <v>371.0062255859375</v>
       </c>
       <c r="DA2" t="n">
-        <v>283.611328125</v>
+        <v>377.7523498535156</v>
       </c>
       <c r="DB2" t="n">
-        <v>283.6584777832031</v>
+        <v>390.1760559082031</v>
       </c>
       <c r="DC2" t="n">
-        <v>284.3189697265625</v>
+        <v>394.2852478027344</v>
       </c>
       <c r="DD2" t="n">
-        <v>284.9756469726562</v>
+        <v>398.940673828125</v>
       </c>
       <c r="DE2" t="n">
-        <v>285.9334716796875</v>
+        <v>402.9573974609375</v>
       </c>
       <c r="DF2" t="n">
-        <v>288.5980834960938</v>
+        <v>406.1568603515625</v>
       </c>
       <c r="DG2" t="n">
-        <v>289.9393920898438</v>
+        <v>408.8345336914062</v>
       </c>
       <c r="DH2" t="n">
-        <v>290.1636962890625</v>
+        <v>412.4293823242188</v>
       </c>
       <c r="DI2" t="n">
-        <v>290.3343200683594</v>
+        <v>413.6483459472656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>290.3686218261719</v>
+        <v>414.6490783691406</v>
       </c>
       <c r="DK2" t="n">
-        <v>290.3930053710938</v>
+        <v>415.5819702148438</v>
       </c>
       <c r="DL2" t="n">
-        <v>290.4399719238281</v>
+        <v>416.227783203125</v>
       </c>
       <c r="DM2" t="n">
-        <v>290.4652099609375</v>
+        <v>415.3847961425781</v>
       </c>
       <c r="DN2" t="n">
-        <v>290.5210571289062</v>
+        <v>410.5860595703125</v>
       </c>
       <c r="DO2" t="n">
-        <v>290.5500183105469</v>
+        <v>401.089599609375</v>
       </c>
       <c r="DP2" t="n">
-        <v>290.5809326171875</v>
+        <v>397.6325073242188</v>
       </c>
       <c r="DQ2" t="n">
-        <v>290.6485900878906</v>
+        <v>387.8421325683594</v>
       </c>
       <c r="DR2" t="n">
-        <v>290.6875610351562</v>
+        <v>383.3489379882812</v>
       </c>
       <c r="DS2" t="n">
-        <v>290.7832641601562</v>
+        <v>379.5507507324219</v>
       </c>
       <c r="DT2" t="n">
-        <v>290.8937683105469</v>
+        <v>372.559326171875</v>
       </c>
       <c r="DU2" t="n">
-        <v>290.9760437011719</v>
+        <v>369.0384521484375</v>
       </c>
       <c r="DV2" t="n">
-        <v>291.1102294921875</v>
+        <v>365.35498046875</v>
       </c>
       <c r="DW2" t="n">
-        <v>291.1483459472656</v>
+        <v>357.7060241699219</v>
       </c>
       <c r="DX2" t="n">
-        <v>291.1646118164062</v>
+        <v>353.60107421875</v>
       </c>
       <c r="DY2" t="n">
-        <v>291.1763610839844</v>
+        <v>345.0133666992188</v>
       </c>
       <c r="DZ2" t="n">
-        <v>291.1785583496094</v>
+        <v>340.6006164550781</v>
       </c>
       <c r="EA2" t="n">
-        <v>291.179931640625</v>
+        <v>331.6559448242188</v>
       </c>
       <c r="EB2" t="n">
-        <v>291.1817016601562</v>
+        <v>321.8976440429688</v>
       </c>
       <c r="EC2" t="n">
-        <v>291.1830139160156</v>
+        <v>317.2149353027344</v>
       </c>
       <c r="ED2" t="n">
-        <v>291.1836242675781</v>
+        <v>310.2449951171875</v>
       </c>
       <c r="EE2" t="n">
-        <v>291.1842651367188</v>
+        <v>308.1327819824219</v>
       </c>
       <c r="EF2" t="n">
-        <v>291.1855773925781</v>
+        <v>308.1730346679688</v>
       </c>
       <c r="EG2" t="n">
-        <v>291.1868896484375</v>
+        <v>318.0035400390625</v>
       </c>
       <c r="EH2" t="n">
-        <v>291.1883239746094</v>
+        <v>331.7714233398438</v>
       </c>
       <c r="EI2" t="n">
-        <v>291.1890258789062</v>
+        <v>336.4697875976562</v>
       </c>
       <c r="EJ2" t="n">
-        <v>291.1903686523438</v>
+        <v>340.6484375</v>
       </c>
       <c r="EK2" t="n">
-        <v>291.1904907226562</v>
+        <v>351.4239807128906</v>
       </c>
       <c r="EL2" t="n">
-        <v>291.1904602050781</v>
+        <v>357.7728271484375</v>
       </c>
       <c r="EM2" t="n">
-        <v>291.1898803710938</v>
+        <v>365.2293090820312</v>
       </c>
       <c r="EN2" t="n">
-        <v>291.1891174316406</v>
+        <v>366.8002014160156</v>
       </c>
       <c r="EO2" t="n">
-        <v>291.1883239746094</v>
+        <v>368.874267578125</v>
       </c>
       <c r="EP2" t="n">
-        <v>291.1871948242188</v>
+        <v>369.6119995117188</v>
       </c>
       <c r="EQ2" t="n">
-        <v>291.1847229003906</v>
+        <v>368.9822998046875</v>
       </c>
       <c r="ER2" t="n">
-        <v>291.1834716796875</v>
+        <v>367.1711730957031</v>
       </c>
       <c r="ES2" t="n">
-        <v>291.1790771484375</v>
+        <v>364.0054931640625</v>
       </c>
       <c r="ET2" t="n">
-        <v>291.1758728027344</v>
+        <v>353.2275085449219</v>
       </c>
       <c r="EU2" t="n">
-        <v>291.1678161621094</v>
+        <v>339.1820983886719</v>
       </c>
       <c r="EV2" t="n">
-        <v>291.1501159667969</v>
+        <v>328.0704345703125</v>
       </c>
       <c r="EW2" t="n">
-        <v>290.9430847167969</v>
+        <v>308.7489318847656</v>
       </c>
       <c r="EX2" t="n">
-        <v>290.5068359375</v>
+        <v>303.4461669921875</v>
       </c>
       <c r="EY2" t="n">
-        <v>290.1502990722656</v>
+        <v>299.2994384765625</v>
       </c>
       <c r="EZ2" t="n">
-        <v>289.3661499023438</v>
+        <v>291.5853271484375</v>
       </c>
       <c r="FA2" t="n">
-        <v>288.9912719726562</v>
+        <v>284.042724609375</v>
       </c>
       <c r="FB2" t="n">
-        <v>288.6181335449219</v>
+        <v>280.9815063476562</v>
       </c>
       <c r="FC2" t="n">
-        <v>288.0544128417969</v>
+        <v>276.9117126464844</v>
       </c>
       <c r="FD2" t="n">
-        <v>287.8538818359375</v>
+        <v>275.9189758300781</v>
       </c>
       <c r="FE2" t="n">
-        <v>287.7240295410156</v>
+        <v>274.7475280761719</v>
       </c>
       <c r="FF2" t="n">
-        <v>287.6519775390625</v>
+        <v>274.3945922851562</v>
       </c>
       <c r="FG2" t="n">
-        <v>287.5067749023438</v>
+        <v>277.4808044433594</v>
       </c>
       <c r="FH2" t="n">
-        <v>288.1701354980469</v>
+        <v>287.7313842773438</v>
       </c>
       <c r="FI2" t="n">
-        <v>291.6985473632812</v>
+        <v>295.1487731933594</v>
       </c>
       <c r="FJ2" t="n">
-        <v>295.8819274902344</v>
+        <v>306.9326477050781</v>
       </c>
       <c r="FK2" t="n">
-        <v>301.7885437011719</v>
+        <v>326.5250854492188</v>
       </c>
       <c r="FL2" t="n">
-        <v>306.2256164550781</v>
+        <v>332.2526550292969</v>
       </c>
       <c r="FM2" t="n">
-        <v>308.4126281738281</v>
+        <v>344.806884765625</v>
       </c>
       <c r="FN2" t="n">
-        <v>315.8515930175781</v>
+        <v>360.0233459472656</v>
       </c>
       <c r="FO2" t="n">
-        <v>319.1327819824219</v>
+        <v>367.286865234375</v>
       </c>
       <c r="FP2" t="n">
-        <v>326.9340209960938</v>
+        <v>372.7229309082031</v>
       </c>
       <c r="FQ2" t="n">
-        <v>340.3246459960938</v>
+        <v>383.0804138183594</v>
       </c>
       <c r="FR2" t="n">
-        <v>345.1131591796875</v>
+        <v>387.7266845703125</v>
       </c>
       <c r="FS2" t="n">
-        <v>358.822998046875</v>
+        <v>396.1371459960938</v>
       </c>
       <c r="FT2" t="n">
-        <v>371.9037475585938</v>
+        <v>403.3356323242188</v>
       </c>
       <c r="FU2" t="n">
-        <v>376.4356079101562</v>
+        <v>408.9033508300781</v>
       </c>
       <c r="FV2" t="n">
-        <v>386.1687622070312</v>
+        <v>410.3005981445312</v>
       </c>
       <c r="FW2" t="n">
-        <v>393.7897033691406</v>
+        <v>412.105224609375</v>
       </c>
       <c r="FX2" t="n">
-        <v>402.5225219726562</v>
+        <v>412.7544555664062</v>
       </c>
       <c r="FY2" t="n">
-        <v>406.1966247558594</v>
+        <v>411.9147033691406</v>
       </c>
       <c r="FZ2" t="n">
-        <v>409.7427368164062</v>
+        <v>408.4659118652344</v>
       </c>
       <c r="GA2" t="n">
-        <v>411.7723083496094</v>
+        <v>395.5581970214844</v>
       </c>
       <c r="GB2" t="n">
-        <v>412.6439819335938</v>
+        <v>387.2357788085938</v>
       </c>
       <c r="GC2" t="n">
-        <v>410.7938232421875</v>
+        <v>368.9739685058594</v>
       </c>
       <c r="GD2" t="n">
-        <v>403.2066040039062</v>
+        <v>359.4035339355469</v>
       </c>
       <c r="GE2" t="n">
-        <v>400.3074340820312</v>
+        <v>340.4336853027344</v>
       </c>
       <c r="GF2" t="n">
-        <v>389.4559936523438</v>
+        <v>323.8804626464844</v>
       </c>
       <c r="GG2" t="n">
-        <v>379.52587890625</v>
+        <v>310.5445251464844</v>
       </c>
       <c r="GH2" t="n">
-        <v>363.5222778320312</v>
+        <v>301.141357421875</v>
       </c>
       <c r="GI2" t="n">
-        <v>350.531005859375</v>
+        <v>298.3703002929688</v>
       </c>
       <c r="GJ2" t="n">
-        <v>334.9436950683594</v>
+        <v>296.4241333007812</v>
       </c>
       <c r="GK2" t="n">
-        <v>320.7371215820312</v>
+        <v>293.4955139160156</v>
       </c>
       <c r="GL2" t="n">
-        <v>305.283935546875</v>
+        <v>292.3596801757812</v>
       </c>
       <c r="GM2" t="n">
-        <v>295.1354675292969</v>
+        <v>290.86279296875</v>
       </c>
       <c r="GN2" t="n">
-        <v>285.3397216796875</v>
+        <v>289.829345703125</v>
       </c>
       <c r="GO2" t="n">
-        <v>281.6763000488281</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>280.7345275878906</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>279.8294372558594</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>279.3126831054688</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>281.5435791015625</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>292.0584106445312</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>298.3535461425781</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>302.8917846679688</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>307.1087646484375</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>309.0831909179688</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>321.0972900390625</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>332.8017578125</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>340.5894470214844</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>369.8865356445312</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>397.7470703125</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>411.1723327636719</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>421.5069885253906</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>431.0489196777344</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>440.1292419433594</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>443.3892822265625</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>447.2614135742188</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>445.5659484863281</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>441.9562072753906</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>424.6195068359375</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>408.9890747070312</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>380.0162048339844</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>361.8926696777344</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>348.14599609375</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>341.5188598632812</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>340.27392578125</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>343.8224792480469</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>352.1073913574219</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>360.7645263671875</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>368.0413818359375</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>369.9906005859375</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>371.9935302734375</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>372.9077758789062</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>375.981201171875</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>380.5441284179688</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>383.4878540039062</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>385.3636169433594</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>386.2119140625</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>386.3773803710938</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>386.8847351074219</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>387.7717895507812</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>387.8789978027344</v>
-      </c>
-      <c r="II2" t="n">
-        <v>387.8981018066406</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>387.970458984375</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>388.5953369140625</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>389.1564331054688</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>389.3314819335938</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>389.3049926757812</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>389.2626342773438</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>389.2349853515625</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>389.2039184570312</v>
+        <v>289.4276733398438</v>
       </c>
     </row>
     <row r="3">
@@ -1950,754 +1626,592 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>268.0809631347656</v>
+        <v>277.0077819824219</v>
       </c>
       <c r="C3" t="n">
-        <v>260.2991027832031</v>
+        <v>272.4743957519531</v>
       </c>
       <c r="D3" t="n">
-        <v>254.75244140625</v>
+        <v>270.2490539550781</v>
       </c>
       <c r="E3" t="n">
-        <v>250.8828125</v>
+        <v>269.5751037597656</v>
       </c>
       <c r="F3" t="n">
-        <v>247.6031646728516</v>
+        <v>269.4093627929688</v>
       </c>
       <c r="G3" t="n">
-        <v>244.7545318603516</v>
+        <v>269.388916015625</v>
       </c>
       <c r="H3" t="n">
-        <v>242.2862396240234</v>
+        <v>269.3968811035156</v>
       </c>
       <c r="I3" t="n">
-        <v>240.0627136230469</v>
+        <v>269.4431457519531</v>
       </c>
       <c r="J3" t="n">
-        <v>238.0351715087891</v>
+        <v>269.4965209960938</v>
       </c>
       <c r="K3" t="n">
-        <v>236.4797973632812</v>
+        <v>269.5519714355469</v>
       </c>
       <c r="L3" t="n">
-        <v>235.3317565917969</v>
+        <v>269.6129455566406</v>
       </c>
       <c r="M3" t="n">
-        <v>234.4479675292969</v>
+        <v>269.680908203125</v>
       </c>
       <c r="N3" t="n">
-        <v>233.3815002441406</v>
+        <v>269.7486267089844</v>
       </c>
       <c r="O3" t="n">
-        <v>232.2090454101562</v>
+        <v>269.8190002441406</v>
       </c>
       <c r="P3" t="n">
-        <v>231.0621337890625</v>
+        <v>269.8886108398438</v>
       </c>
       <c r="Q3" t="n">
-        <v>230.0174560546875</v>
+        <v>269.9551696777344</v>
       </c>
       <c r="R3" t="n">
-        <v>228.8815460205078</v>
+        <v>270.0209045410156</v>
       </c>
       <c r="S3" t="n">
-        <v>227.7658996582031</v>
+        <v>270.0865173339844</v>
       </c>
       <c r="T3" t="n">
-        <v>226.6406097412109</v>
+        <v>270.1539916992188</v>
       </c>
       <c r="U3" t="n">
-        <v>225.4875793457031</v>
+        <v>270.219970703125</v>
       </c>
       <c r="V3" t="n">
-        <v>224.2773742675781</v>
+        <v>270.2956848144531</v>
       </c>
       <c r="W3" t="n">
-        <v>223.0511627197266</v>
+        <v>270.368896484375</v>
       </c>
       <c r="X3" t="n">
-        <v>221.9267120361328</v>
+        <v>270.45068359375</v>
       </c>
       <c r="Y3" t="n">
-        <v>221.1323394775391</v>
+        <v>270.5321044921875</v>
       </c>
       <c r="Z3" t="n">
-        <v>220.6423950195312</v>
+        <v>270.6128845214844</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.3603363037109</v>
+        <v>270.6950378417969</v>
       </c>
       <c r="AB3" t="n">
-        <v>220.18994140625</v>
+        <v>270.7764282226562</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.0155944824219</v>
+        <v>270.8565979003906</v>
       </c>
       <c r="AD3" t="n">
-        <v>219.8364562988281</v>
+        <v>270.9370727539062</v>
       </c>
       <c r="AE3" t="n">
-        <v>219.6439514160156</v>
+        <v>271.0213928222656</v>
       </c>
       <c r="AF3" t="n">
-        <v>218.1261444091797</v>
+        <v>271.1025390625</v>
       </c>
       <c r="AG3" t="n">
-        <v>216.3346252441406</v>
+        <v>271.1797485351562</v>
       </c>
       <c r="AH3" t="n">
-        <v>213.729248046875</v>
+        <v>271.25830078125</v>
       </c>
       <c r="AI3" t="n">
-        <v>211.8236541748047</v>
+        <v>271.3350524902344</v>
       </c>
       <c r="AJ3" t="n">
-        <v>210.2363891601562</v>
+        <v>271.4149475097656</v>
       </c>
       <c r="AK3" t="n">
-        <v>208.7066802978516</v>
+        <v>271.4977416992188</v>
       </c>
       <c r="AL3" t="n">
-        <v>207.2800598144531</v>
+        <v>271.6445617675781</v>
       </c>
       <c r="AM3" t="n">
-        <v>206.1138458251953</v>
+        <v>271.8437805175781</v>
       </c>
       <c r="AN3" t="n">
-        <v>205.0174865722656</v>
+        <v>271.9367065429688</v>
       </c>
       <c r="AO3" t="n">
-        <v>204.2478790283203</v>
+        <v>272.0232543945312</v>
       </c>
       <c r="AP3" t="n">
-        <v>203.7808227539062</v>
+        <v>272.0635375976562</v>
       </c>
       <c r="AQ3" t="n">
-        <v>203.3523712158203</v>
+        <v>272.060791015625</v>
       </c>
       <c r="AR3" t="n">
-        <v>202.9398040771484</v>
+        <v>271.5454711914062</v>
       </c>
       <c r="AS3" t="n">
-        <v>202.5143737792969</v>
+        <v>271.3084411621094</v>
       </c>
       <c r="AT3" t="n">
-        <v>202.0821380615234</v>
+        <v>270.8279418945312</v>
       </c>
       <c r="AU3" t="n">
-        <v>201.6551208496094</v>
+        <v>270.5704956054688</v>
       </c>
       <c r="AV3" t="n">
-        <v>201.1981811523438</v>
+        <v>270.3649597167969</v>
       </c>
       <c r="AW3" t="n">
-        <v>200.6530151367188</v>
+        <v>270.1701354980469</v>
       </c>
       <c r="AX3" t="n">
-        <v>200.0629119873047</v>
+        <v>269.9785461425781</v>
       </c>
       <c r="AY3" t="n">
-        <v>199.4617767333984</v>
+        <v>269.7218322753906</v>
       </c>
       <c r="AZ3" t="n">
-        <v>199.0055389404297</v>
+        <v>269.406005859375</v>
       </c>
       <c r="BA3" t="n">
-        <v>198.5896606445312</v>
+        <v>269.0475769042969</v>
       </c>
       <c r="BB3" t="n">
-        <v>198.1161041259766</v>
+        <v>268.5693969726562</v>
       </c>
       <c r="BC3" t="n">
-        <v>197.619384765625</v>
+        <v>268.0338439941406</v>
       </c>
       <c r="BD3" t="n">
-        <v>197.1283874511719</v>
+        <v>267.5041198730469</v>
       </c>
       <c r="BE3" t="n">
-        <v>196.6840209960938</v>
+        <v>266.7901916503906</v>
       </c>
       <c r="BF3" t="n">
-        <v>196.2695770263672</v>
+        <v>266.6450805664062</v>
       </c>
       <c r="BG3" t="n">
-        <v>195.8806915283203</v>
+        <v>266.6243591308594</v>
       </c>
       <c r="BH3" t="n">
-        <v>195.5007629394531</v>
+        <v>266.6056823730469</v>
       </c>
       <c r="BI3" t="n">
-        <v>195.1282958984375</v>
+        <v>266.6002502441406</v>
       </c>
       <c r="BJ3" t="n">
-        <v>194.9501190185547</v>
+        <v>267.181884765625</v>
       </c>
       <c r="BK3" t="n">
-        <v>194.8716583251953</v>
+        <v>268.3203735351562</v>
       </c>
       <c r="BL3" t="n">
-        <v>194.8042297363281</v>
+        <v>269.0872192382812</v>
       </c>
       <c r="BM3" t="n">
-        <v>194.7102966308594</v>
+        <v>270.9577941894531</v>
       </c>
       <c r="BN3" t="n">
-        <v>194.6148834228516</v>
+        <v>271.8399353027344</v>
       </c>
       <c r="BO3" t="n">
-        <v>194.5233917236328</v>
+        <v>272.5442810058594</v>
       </c>
       <c r="BP3" t="n">
-        <v>194.4141693115234</v>
+        <v>273.4622497558594</v>
       </c>
       <c r="BQ3" t="n">
-        <v>194.2960510253906</v>
+        <v>274.6004333496094</v>
       </c>
       <c r="BR3" t="n">
-        <v>194.1735382080078</v>
+        <v>275.4957580566406</v>
       </c>
       <c r="BS3" t="n">
-        <v>193.6685028076172</v>
+        <v>275.9769592285156</v>
       </c>
       <c r="BT3" t="n">
-        <v>192.9112548828125</v>
+        <v>276.5014953613281</v>
       </c>
       <c r="BU3" t="n">
-        <v>191.8832244873047</v>
+        <v>276.7982788085938</v>
       </c>
       <c r="BV3" t="n">
-        <v>190.8756408691406</v>
+        <v>276.9549865722656</v>
       </c>
       <c r="BW3" t="n">
-        <v>190.1051940917969</v>
+        <v>277.1058959960938</v>
       </c>
       <c r="BX3" t="n">
-        <v>189.2557983398438</v>
+        <v>277.2914123535156</v>
       </c>
       <c r="BY3" t="n">
-        <v>188.6971588134766</v>
+        <v>277.4908752441406</v>
       </c>
       <c r="BZ3" t="n">
-        <v>187.3914031982422</v>
+        <v>277.6792602539062</v>
       </c>
       <c r="CA3" t="n">
-        <v>186.1318511962891</v>
+        <v>277.882080078125</v>
       </c>
       <c r="CB3" t="n">
-        <v>185.2580718994141</v>
+        <v>278.0967712402344</v>
       </c>
       <c r="CC3" t="n">
-        <v>184.8695526123047</v>
+        <v>278.3035583496094</v>
       </c>
       <c r="CD3" t="n">
-        <v>184.6626739501953</v>
+        <v>278.4906921386719</v>
       </c>
       <c r="CE3" t="n">
-        <v>184.5085296630859</v>
+        <v>278.6617431640625</v>
       </c>
       <c r="CF3" t="n">
-        <v>184.3768005371094</v>
+        <v>278.7887878417969</v>
       </c>
       <c r="CG3" t="n">
-        <v>184.3334655761719</v>
+        <v>278.8241271972656</v>
       </c>
       <c r="CH3" t="n">
-        <v>184.2869873046875</v>
+        <v>278.825927734375</v>
       </c>
       <c r="CI3" t="n">
-        <v>184.2359924316406</v>
+        <v>278.7617492675781</v>
       </c>
       <c r="CJ3" t="n">
-        <v>184.1745910644531</v>
+        <v>278.385009765625</v>
       </c>
       <c r="CK3" t="n">
-        <v>184.1099090576172</v>
+        <v>276.9216613769531</v>
       </c>
       <c r="CL3" t="n">
-        <v>183.8519592285156</v>
+        <v>275.1473693847656</v>
       </c>
       <c r="CM3" t="n">
-        <v>183.624755859375</v>
+        <v>273.1350402832031</v>
       </c>
       <c r="CN3" t="n">
-        <v>183.2435150146484</v>
+        <v>271.4917297363281</v>
       </c>
       <c r="CO3" t="n">
-        <v>182.4169464111328</v>
+        <v>270.5541381835938</v>
       </c>
       <c r="CP3" t="n">
-        <v>181.9842376708984</v>
+        <v>269.8507080078125</v>
       </c>
       <c r="CQ3" t="n">
-        <v>181.5734558105469</v>
+        <v>269.5026245117188</v>
       </c>
       <c r="CR3" t="n">
-        <v>181.1881408691406</v>
+        <v>269.2230834960938</v>
       </c>
       <c r="CS3" t="n">
-        <v>180.8246307373047</v>
+        <v>269.1361083984375</v>
       </c>
       <c r="CT3" t="n">
-        <v>180.1694946289062</v>
+        <v>269.0752258300781</v>
       </c>
       <c r="CU3" t="n">
-        <v>179.9491729736328</v>
+        <v>268.9964599609375</v>
       </c>
       <c r="CV3" t="n">
-        <v>179.7335968017578</v>
+        <v>268.89208984375</v>
       </c>
       <c r="CW3" t="n">
-        <v>179.5771942138672</v>
+        <v>268.8166809082031</v>
       </c>
       <c r="CX3" t="n">
-        <v>179.5575408935547</v>
+        <v>268.7782897949219</v>
       </c>
       <c r="CY3" t="n">
-        <v>179.54736328125</v>
+        <v>268.7549133300781</v>
       </c>
       <c r="CZ3" t="n">
-        <v>179.5471801757812</v>
+        <v>268.7153625488281</v>
       </c>
       <c r="DA3" t="n">
-        <v>179.5519866943359</v>
+        <v>268.6987609863281</v>
       </c>
       <c r="DB3" t="n">
-        <v>179.5633087158203</v>
+        <v>268.6974792480469</v>
       </c>
       <c r="DC3" t="n">
-        <v>179.5968627929688</v>
+        <v>268.7017822265625</v>
       </c>
       <c r="DD3" t="n">
-        <v>179.6212158203125</v>
+        <v>268.7598266601562</v>
       </c>
       <c r="DE3" t="n">
-        <v>179.6492309570312</v>
+        <v>268.8506164550781</v>
       </c>
       <c r="DF3" t="n">
-        <v>179.7079010009766</v>
+        <v>268.9923400878906</v>
       </c>
       <c r="DG3" t="n">
-        <v>179.7831726074219</v>
+        <v>269.18408203125</v>
       </c>
       <c r="DH3" t="n">
-        <v>179.8258819580078</v>
+        <v>269.6642150878906</v>
       </c>
       <c r="DI3" t="n">
-        <v>179.9213409423828</v>
+        <v>269.9448547363281</v>
       </c>
       <c r="DJ3" t="n">
-        <v>179.9697723388672</v>
+        <v>270.2357177734375</v>
       </c>
       <c r="DK3" t="n">
-        <v>180.0199279785156</v>
+        <v>270.5426940917969</v>
       </c>
       <c r="DL3" t="n">
-        <v>180.1435546875</v>
+        <v>270.8546447753906</v>
       </c>
       <c r="DM3" t="n">
-        <v>180.2166442871094</v>
+        <v>271.158203125</v>
       </c>
       <c r="DN3" t="n">
-        <v>180.4205474853516</v>
+        <v>271.3505554199219</v>
       </c>
       <c r="DO3" t="n">
-        <v>180.5383911132812</v>
+        <v>269.3194885253906</v>
       </c>
       <c r="DP3" t="n">
-        <v>180.7245941162109</v>
+        <v>265.6202392578125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>181.4334564208984</v>
+        <v>252.5393524169922</v>
       </c>
       <c r="DR3" t="n">
-        <v>181.8860778808594</v>
+        <v>245.1026611328125</v>
       </c>
       <c r="DS3" t="n">
-        <v>182.8144073486328</v>
+        <v>237.5106506347656</v>
       </c>
       <c r="DT3" t="n">
-        <v>183.7423706054688</v>
+        <v>224.3473358154297</v>
       </c>
       <c r="DU3" t="n">
-        <v>184.2430267333984</v>
+        <v>217.7202606201172</v>
       </c>
       <c r="DV3" t="n">
-        <v>185.0480346679688</v>
+        <v>210.8834838867188</v>
       </c>
       <c r="DW3" t="n">
-        <v>185.3165740966797</v>
+        <v>196.58935546875</v>
       </c>
       <c r="DX3" t="n">
-        <v>185.5145416259766</v>
+        <v>190.0517120361328</v>
       </c>
       <c r="DY3" t="n">
-        <v>185.8535308837891</v>
+        <v>180.6442108154297</v>
       </c>
       <c r="DZ3" t="n">
-        <v>185.9573516845703</v>
+        <v>178.5912170410156</v>
       </c>
       <c r="EA3" t="n">
-        <v>186.0012664794922</v>
+        <v>178.8625335693359</v>
       </c>
       <c r="EB3" t="n">
-        <v>186.02587890625</v>
+        <v>187.2921447753906</v>
       </c>
       <c r="EC3" t="n">
-        <v>186.0330963134766</v>
+        <v>194.4093627929688</v>
       </c>
       <c r="ED3" t="n">
-        <v>186.0368194580078</v>
+        <v>219.4593811035156</v>
       </c>
       <c r="EE3" t="n">
-        <v>186.0407867431641</v>
+        <v>246.6222991943359</v>
       </c>
       <c r="EF3" t="n">
-        <v>186.0525512695312</v>
+        <v>256.17138671875</v>
       </c>
       <c r="EG3" t="n">
-        <v>186.0687103271484</v>
+        <v>278.4043273925781</v>
       </c>
       <c r="EH3" t="n">
-        <v>186.0957183837891</v>
+        <v>289.0709533691406</v>
       </c>
       <c r="EI3" t="n">
-        <v>186.1313934326172</v>
+        <v>291.7226257324219</v>
       </c>
       <c r="EJ3" t="n">
-        <v>186.2084655761719</v>
+        <v>293.7403564453125</v>
       </c>
       <c r="EK3" t="n">
-        <v>186.2516479492188</v>
+        <v>296.2962646484375</v>
       </c>
       <c r="EL3" t="n">
-        <v>186.3764953613281</v>
+        <v>296.1588134765625</v>
       </c>
       <c r="EM3" t="n">
-        <v>186.6873016357422</v>
+        <v>294.8268737792969</v>
       </c>
       <c r="EN3" t="n">
-        <v>187.0141448974609</v>
+        <v>293.8198852539062</v>
       </c>
       <c r="EO3" t="n">
-        <v>187.2079315185547</v>
+        <v>292.1845703125</v>
       </c>
       <c r="EP3" t="n">
-        <v>187.3901672363281</v>
+        <v>291.7864685058594</v>
       </c>
       <c r="EQ3" t="n">
-        <v>187.7444305419922</v>
+        <v>291.5812072753906</v>
       </c>
       <c r="ER3" t="n">
-        <v>187.9293365478516</v>
+        <v>291.5895080566406</v>
       </c>
       <c r="ES3" t="n">
-        <v>188.3027496337891</v>
+        <v>292.487060546875</v>
       </c>
       <c r="ET3" t="n">
-        <v>188.4840545654297</v>
+        <v>297.4784851074219</v>
       </c>
       <c r="EU3" t="n">
-        <v>188.8474273681641</v>
+        <v>305.4249267578125</v>
       </c>
       <c r="EV3" t="n">
-        <v>189.2218017578125</v>
+        <v>310.4749145507812</v>
       </c>
       <c r="EW3" t="n">
-        <v>189.6087799072266</v>
+        <v>317.4463500976562</v>
       </c>
       <c r="EX3" t="n">
-        <v>189.9973602294922</v>
+        <v>319.4176330566406</v>
       </c>
       <c r="EY3" t="n">
-        <v>190.1949920654297</v>
+        <v>320.9773559570312</v>
       </c>
       <c r="EZ3" t="n">
-        <v>190.5710906982422</v>
+        <v>322.6906433105469</v>
       </c>
       <c r="FA3" t="n">
-        <v>190.7624053955078</v>
+        <v>323.4583129882812</v>
       </c>
       <c r="FB3" t="n">
-        <v>190.9442596435547</v>
+        <v>323.7614135742188</v>
       </c>
       <c r="FC3" t="n">
-        <v>191.1392364501953</v>
+        <v>321.2632751464844</v>
       </c>
       <c r="FD3" t="n">
-        <v>191.1229400634766</v>
+        <v>318.5083923339844</v>
       </c>
       <c r="FE3" t="n">
-        <v>190.9572601318359</v>
+        <v>311.0043029785156</v>
       </c>
       <c r="FF3" t="n">
-        <v>190.8425140380859</v>
+        <v>307.4323425292969</v>
       </c>
       <c r="FG3" t="n">
-        <v>190.6025848388672</v>
+        <v>301.6416015625</v>
       </c>
       <c r="FH3" t="n">
-        <v>190.4064636230469</v>
+        <v>298.1094665527344</v>
       </c>
       <c r="FI3" t="n">
-        <v>190.1269836425781</v>
+        <v>296.4205017089844</v>
       </c>
       <c r="FJ3" t="n">
-        <v>189.7979278564453</v>
+        <v>294.7777709960938</v>
       </c>
       <c r="FK3" t="n">
-        <v>189.2195587158203</v>
+        <v>290.1905212402344</v>
       </c>
       <c r="FL3" t="n">
-        <v>188.8867492675781</v>
+        <v>287.8893127441406</v>
       </c>
       <c r="FM3" t="n">
-        <v>188.7294311523438</v>
+        <v>284.8055114746094</v>
       </c>
       <c r="FN3" t="n">
-        <v>187.8827362060547</v>
+        <v>283.5032043457031</v>
       </c>
       <c r="FO3" t="n">
-        <v>187.4510498046875</v>
+        <v>282.6931762695312</v>
       </c>
       <c r="FP3" t="n">
-        <v>186.4661865234375</v>
+        <v>281.92333984375</v>
       </c>
       <c r="FQ3" t="n">
-        <v>184.6955718994141</v>
+        <v>279.7205505371094</v>
       </c>
       <c r="FR3" t="n">
-        <v>184.1168975830078</v>
+        <v>278.3149719238281</v>
       </c>
       <c r="FS3" t="n">
-        <v>182.7729187011719</v>
+        <v>273.7400817871094</v>
       </c>
       <c r="FT3" t="n">
-        <v>181.5815734863281</v>
+        <v>269.72314453125</v>
       </c>
       <c r="FU3" t="n">
-        <v>181.4605407714844</v>
+        <v>264.8997802734375</v>
       </c>
       <c r="FV3" t="n">
-        <v>180.9302368164062</v>
+        <v>262.4248962402344</v>
       </c>
       <c r="FW3" t="n">
-        <v>179.7976684570312</v>
+        <v>258.1127624511719</v>
       </c>
       <c r="FX3" t="n">
-        <v>172.1261291503906</v>
+        <v>256.4119262695312</v>
       </c>
       <c r="FY3" t="n">
-        <v>165.6943817138672</v>
+        <v>253.663818359375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>162.2003784179688</v>
+        <v>252.1445007324219</v>
       </c>
       <c r="GA3" t="n">
-        <v>159.5345611572266</v>
+        <v>248.4715423583984</v>
       </c>
       <c r="GB3" t="n">
-        <v>155.4621276855469</v>
+        <v>246.6410675048828</v>
       </c>
       <c r="GC3" t="n">
-        <v>153.9336853027344</v>
+        <v>244.7683258056641</v>
       </c>
       <c r="GD3" t="n">
-        <v>149.4898986816406</v>
+        <v>244.1298828125</v>
       </c>
       <c r="GE3" t="n">
-        <v>148.0691833496094</v>
+        <v>243.2135620117188</v>
       </c>
       <c r="GF3" t="n">
-        <v>143.6573333740234</v>
+        <v>242.5957183837891</v>
       </c>
       <c r="GG3" t="n">
-        <v>141.0887603759766</v>
+        <v>242.0447082519531</v>
       </c>
       <c r="GH3" t="n">
-        <v>138.4275817871094</v>
+        <v>241.2033996582031</v>
       </c>
       <c r="GI3" t="n">
-        <v>135.3678436279297</v>
+        <v>240.5975799560547</v>
       </c>
       <c r="GJ3" t="n">
-        <v>131.1180267333984</v>
+        <v>239.4941864013672</v>
       </c>
       <c r="GK3" t="n">
-        <v>123.6470718383789</v>
+        <v>235.5357971191406</v>
       </c>
       <c r="GL3" t="n">
-        <v>117.8525695800781</v>
+        <v>232.6337432861328</v>
       </c>
       <c r="GM3" t="n">
-        <v>114.4110794067383</v>
+        <v>226.7337493896484</v>
       </c>
       <c r="GN3" t="n">
-        <v>112.0287017822266</v>
+        <v>221.3009033203125</v>
       </c>
       <c r="GO3" t="n">
-        <v>111.0609283447266</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>110.5271453857422</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>109.3090286254883</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>107.8304672241211</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>105.5530776977539</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>105.4554672241211</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>107.0385131835938</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>109.9782028198242</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>117.6365356445312</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>125.4127655029297</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>191.4242858886719</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>219.9315185546875</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>233.7524108886719</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>273.4333801269531</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>302.0314025878906</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>298.9436950683594</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>289.1564331054688</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>283.8328552246094</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>281.9896240234375</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>281.6017761230469</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>287.3243713378906</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>290.967529296875</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>292.0239868164062</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>294.893798828125</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>296.8407592773438</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>299.3652954101562</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>300.33203125</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>300.7893981933594</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>299.5850830078125</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>292.2511291503906</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>279.4151916503906</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>274.3782043457031</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>272.2167663574219</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>271.6932983398438</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>271.5394897460938</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>273.3636169433594</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>275.8186645507812</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>281.1445617675781</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>286.6723327636719</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>288.7960510253906</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>289.6370849609375</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>290.7254943847656</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>293.5619201660156</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>295.2663879394531</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>295.6752624511719</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>295.7251586914062</v>
-      </c>
-      <c r="II3" t="n">
-        <v>295.739013671875</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>295.79833984375</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>296.313720703125</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>296.7871398925781</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>296.9649353027344</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>296.9674682617188</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>296.9668579101562</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>296.9663696289062</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>296.9657897949219</v>
+        <v>218.5850982666016</v>
       </c>
     </row>
     <row r="4">
@@ -2705,754 +2219,592 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>1338.144287109375</v>
+        <v>1045.668701171875</v>
       </c>
       <c r="C4" t="n">
-        <v>1343.967651367188</v>
+        <v>1050.1572265625</v>
       </c>
       <c r="D4" t="n">
-        <v>1350.040771484375</v>
+        <v>1052.5185546875</v>
       </c>
       <c r="E4" t="n">
-        <v>1356.473388671875</v>
+        <v>1053.610473632812</v>
       </c>
       <c r="F4" t="n">
-        <v>1363.389892578125</v>
+        <v>1054.04296875</v>
       </c>
       <c r="G4" t="n">
-        <v>1370.169555664062</v>
+        <v>1054.231323242188</v>
       </c>
       <c r="H4" t="n">
-        <v>1377.278198242188</v>
+        <v>1054.319091796875</v>
       </c>
       <c r="I4" t="n">
-        <v>1384.970458984375</v>
+        <v>1054.359619140625</v>
       </c>
       <c r="J4" t="n">
-        <v>1392.080078125</v>
+        <v>1054.37890625</v>
       </c>
       <c r="K4" t="n">
-        <v>1398.67236328125</v>
+        <v>1054.388305664062</v>
       </c>
       <c r="L4" t="n">
-        <v>1403.265014648438</v>
+        <v>1054.392944335938</v>
       </c>
       <c r="M4" t="n">
-        <v>1406.562255859375</v>
+        <v>1054.395263671875</v>
       </c>
       <c r="N4" t="n">
-        <v>1408.834716796875</v>
+        <v>1054.396484375</v>
       </c>
       <c r="O4" t="n">
-        <v>1410.566284179688</v>
+        <v>1054.397094726562</v>
       </c>
       <c r="P4" t="n">
-        <v>1411.37939453125</v>
+        <v>1054.3974609375</v>
       </c>
       <c r="Q4" t="n">
-        <v>1411.663818359375</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="R4" t="n">
-        <v>1411.76806640625</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="S4" t="n">
-        <v>1411.808471679688</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="T4" t="n">
-        <v>1411.790649414062</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.48681640625</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="V4" t="n">
-        <v>1409.29443359375</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="W4" t="n">
-        <v>1404.977783203125</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="X4" t="n">
-        <v>1397.66845703125</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1389.651489257812</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="Z4" t="n">
-        <v>1379.862915039062</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1369.405517578125</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AB4" t="n">
-        <v>1358.614501953125</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1348.064331054688</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1337.989990234375</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AE4" t="n">
-        <v>1329.291015625</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1321.296875</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AG4" t="n">
-        <v>1313.7919921875</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1304.79345703125</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1296.302124023438</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1288.619140625</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1280.8974609375</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AL4" t="n">
-        <v>1272.515380859375</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AM4" t="n">
-        <v>1264.067749023438</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AN4" t="n">
-        <v>1255.859619140625</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AO4" t="n">
-        <v>1248.525024414062</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1241.634521484375</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1235.55712890625</v>
+        <v>1054.397705078125</v>
       </c>
       <c r="AR4" t="n">
-        <v>1230.001098632812</v>
+        <v>1057.05078125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1224.842529296875</v>
+        <v>1059.441650390625</v>
       </c>
       <c r="AT4" t="n">
-        <v>1220.286376953125</v>
+        <v>1071.819213867188</v>
       </c>
       <c r="AU4" t="n">
-        <v>1216.274780273438</v>
+        <v>1079.738647460938</v>
       </c>
       <c r="AV4" t="n">
-        <v>1213.439208984375</v>
+        <v>1086.23828125</v>
       </c>
       <c r="AW4" t="n">
-        <v>1211.233642578125</v>
+        <v>1090.7578125</v>
       </c>
       <c r="AX4" t="n">
-        <v>1208.3056640625</v>
+        <v>1094.274291992188</v>
       </c>
       <c r="AY4" t="n">
-        <v>1206.137939453125</v>
+        <v>1097.646728515625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1204.431396484375</v>
+        <v>1102.00634765625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1202.338623046875</v>
+        <v>1107.1396484375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1200.079223632812</v>
+        <v>1112.94677734375</v>
       </c>
       <c r="BC4" t="n">
-        <v>1197.736572265625</v>
+        <v>1117.43359375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1195.545654296875</v>
+        <v>1120.77978515625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1194.188720703125</v>
+        <v>1124.732177734375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1193.515869140625</v>
+        <v>1125.90869140625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1193.218139648438</v>
+        <v>1126.237670898438</v>
       </c>
       <c r="BH4" t="n">
-        <v>1193.076416015625</v>
+        <v>1126.93408203125</v>
       </c>
       <c r="BI4" t="n">
-        <v>1193.007080078125</v>
+        <v>1127.269287109375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1192.972534179688</v>
+        <v>1128.104736328125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1192.943115234375</v>
+        <v>1128.764038085938</v>
       </c>
       <c r="BL4" t="n">
-        <v>1192.967529296875</v>
+        <v>1128.906494140625</v>
       </c>
       <c r="BM4" t="n">
-        <v>1193.0107421875</v>
+        <v>1129.0029296875</v>
       </c>
       <c r="BN4" t="n">
-        <v>1193.05029296875</v>
+        <v>1129.014282226562</v>
       </c>
       <c r="BO4" t="n">
-        <v>1193.056640625</v>
+        <v>1129.01806640625</v>
       </c>
       <c r="BP4" t="n">
-        <v>1193.050048828125</v>
+        <v>1129.018798828125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1193.008666992188</v>
+        <v>1128.918212890625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1192.791259765625</v>
+        <v>1128.791625976562</v>
       </c>
       <c r="BS4" t="n">
-        <v>1189.364501953125</v>
+        <v>1128.607666015625</v>
       </c>
       <c r="BT4" t="n">
-        <v>1184.037841796875</v>
+        <v>1128.352783203125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1178.604614257812</v>
+        <v>1127.85693359375</v>
       </c>
       <c r="BV4" t="n">
-        <v>1173.8173828125</v>
+        <v>1127.296875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1170.312744140625</v>
+        <v>1126.748291015625</v>
       </c>
       <c r="BX4" t="n">
-        <v>1167.32421875</v>
+        <v>1126.187744140625</v>
       </c>
       <c r="BY4" t="n">
-        <v>1164.120239257812</v>
+        <v>1125.658813476562</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1159.612182617188</v>
+        <v>1125.175415039062</v>
       </c>
       <c r="CA4" t="n">
-        <v>1156.169921875</v>
+        <v>1124.70361328125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1154.869140625</v>
+        <v>1124.22998046875</v>
       </c>
       <c r="CC4" t="n">
-        <v>1154.31640625</v>
+        <v>1123.996948242188</v>
       </c>
       <c r="CD4" t="n">
-        <v>1153.7822265625</v>
+        <v>1123.88916015625</v>
       </c>
       <c r="CE4" t="n">
-        <v>1153.338500976562</v>
+        <v>1123.840209960938</v>
       </c>
       <c r="CF4" t="n">
-        <v>1152.171142578125</v>
+        <v>1123.81982421875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1151.561401367188</v>
+        <v>1123.811401367188</v>
       </c>
       <c r="CH4" t="n">
-        <v>1150.966064453125</v>
+        <v>1123.885498046875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1150.316162109375</v>
+        <v>1125.011474609375</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1149.64892578125</v>
+        <v>1129.172485351562</v>
       </c>
       <c r="CK4" t="n">
-        <v>1148.995483398438</v>
+        <v>1135.327270507812</v>
       </c>
       <c r="CL4" t="n">
-        <v>1147.638916015625</v>
+        <v>1142.250732421875</v>
       </c>
       <c r="CM4" t="n">
-        <v>1146.97314453125</v>
+        <v>1148.5732421875</v>
       </c>
       <c r="CN4" t="n">
-        <v>1146.321044921875</v>
+        <v>1153.806274414062</v>
       </c>
       <c r="CO4" t="n">
-        <v>1145.11474609375</v>
+        <v>1157.972900390625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1144.49169921875</v>
+        <v>1161.030395507812</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1144.216552734375</v>
+        <v>1162.592163085938</v>
       </c>
       <c r="CR4" t="n">
-        <v>1144.080444335938</v>
+        <v>1164.5712890625</v>
       </c>
       <c r="CS4" t="n">
-        <v>1144.0166015625</v>
+        <v>1165.473266601562</v>
       </c>
       <c r="CT4" t="n">
-        <v>1143.973388671875</v>
+        <v>1165.96826171875</v>
       </c>
       <c r="CU4" t="n">
-        <v>1143.966918945312</v>
+        <v>1166.255249023438</v>
       </c>
       <c r="CV4" t="n">
-        <v>1143.9638671875</v>
+        <v>1166.4541015625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1143.962890625</v>
+        <v>1166.599853515625</v>
       </c>
       <c r="CX4" t="n">
-        <v>1143.96435546875</v>
+        <v>1166.696044921875</v>
       </c>
       <c r="CY4" t="n">
-        <v>1143.978759765625</v>
+        <v>1166.744140625</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1143.99755859375</v>
+        <v>1166.768310546875</v>
       </c>
       <c r="DA4" t="n">
-        <v>1144.097778320312</v>
+        <v>1166.664794921875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1144.316284179688</v>
+        <v>1166.38623046875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1144.94970703125</v>
+        <v>1166.216552734375</v>
       </c>
       <c r="DD4" t="n">
-        <v>1145.406372070312</v>
+        <v>1164.805297851562</v>
       </c>
       <c r="DE4" t="n">
-        <v>1145.932861328125</v>
+        <v>1162.711181640625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1147.013427734375</v>
+        <v>1158.58642578125</v>
       </c>
       <c r="DG4" t="n">
-        <v>1148.070678710938</v>
+        <v>1152.522705078125</v>
       </c>
       <c r="DH4" t="n">
-        <v>1148.61181640625</v>
+        <v>1136.951049804688</v>
       </c>
       <c r="DI4" t="n">
-        <v>1149.70166015625</v>
+        <v>1127.868041992188</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1150.246459960938</v>
+        <v>1118.4912109375</v>
       </c>
       <c r="DK4" t="n">
-        <v>1150.80908203125</v>
+        <v>1108.65283203125</v>
       </c>
       <c r="DL4" t="n">
-        <v>1151.910400390625</v>
+        <v>1098.77783203125</v>
       </c>
       <c r="DM4" t="n">
-        <v>1152.494750976562</v>
+        <v>1088.614013671875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1153.6591796875</v>
+        <v>1074.313354492188</v>
       </c>
       <c r="DO4" t="n">
-        <v>1154.288818359375</v>
+        <v>1052.5302734375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1154.98681640625</v>
+        <v>1046.3115234375</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1156.627197265625</v>
+        <v>1038.58154296875</v>
       </c>
       <c r="DR4" t="n">
-        <v>1157.691162109375</v>
+        <v>1035.846923828125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1160.492919921875</v>
+        <v>1033.25</v>
       </c>
       <c r="DT4" t="n">
-        <v>1163.991943359375</v>
+        <v>1028.610595703125</v>
       </c>
       <c r="DU4" t="n">
-        <v>1166.833374023438</v>
+        <v>1027.16748046875</v>
       </c>
       <c r="DV4" t="n">
-        <v>1171.939453125</v>
+        <v>1026.5537109375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1173.447998046875</v>
+        <v>1026.1953125</v>
       </c>
       <c r="DX4" t="n">
-        <v>1174.09228515625</v>
+        <v>1026.162841796875</v>
       </c>
       <c r="DY4" t="n">
-        <v>1174.535766601562</v>
+        <v>1027.067138671875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1174.605346679688</v>
+        <v>1030.3310546875</v>
       </c>
       <c r="EA4" t="n">
-        <v>1174.638916015625</v>
+        <v>1040.073486328125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1174.663330078125</v>
+        <v>1048.413330078125</v>
       </c>
       <c r="EC4" t="n">
-        <v>1174.66943359375</v>
+        <v>1051.617919921875</v>
       </c>
       <c r="ED4" t="n">
-        <v>1174.67041015625</v>
+        <v>1057.428466796875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1174.6708984375</v>
+        <v>1064.831298828125</v>
       </c>
       <c r="EF4" t="n">
-        <v>1174.671264648438</v>
+        <v>1071.1337890625</v>
       </c>
       <c r="EG4" t="n">
-        <v>1174.67138671875</v>
+        <v>1102.541748046875</v>
       </c>
       <c r="EH4" t="n">
-        <v>1174.67138671875</v>
+        <v>1135.781127929688</v>
       </c>
       <c r="EI4" t="n">
-        <v>1174.67138671875</v>
+        <v>1150.052368164062</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1174.671020507812</v>
+        <v>1164.920654296875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1174.670654296875</v>
+        <v>1206.419921875</v>
       </c>
       <c r="EL4" t="n">
-        <v>1174.669677734375</v>
+        <v>1229.797241210938</v>
       </c>
       <c r="EM4" t="n">
-        <v>1174.66748046875</v>
+        <v>1255.796142578125</v>
       </c>
       <c r="EN4" t="n">
-        <v>1174.66552734375</v>
+        <v>1262.833862304688</v>
       </c>
       <c r="EO4" t="n">
-        <v>1174.66455078125</v>
+        <v>1272.982666015625</v>
       </c>
       <c r="EP4" t="n">
-        <v>1174.66357421875</v>
+        <v>1276.833862304688</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1174.660888671875</v>
+        <v>1278.993896484375</v>
       </c>
       <c r="ER4" t="n">
-        <v>1174.657348632812</v>
+        <v>1278.457153320312</v>
       </c>
       <c r="ES4" t="n">
-        <v>1174.576904296875</v>
+        <v>1275.310302734375</v>
       </c>
       <c r="ET4" t="n">
-        <v>1174.500244140625</v>
+        <v>1261.302124023438</v>
       </c>
       <c r="EU4" t="n">
-        <v>1174.324584960938</v>
+        <v>1241.017822265625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1174.129760742188</v>
+        <v>1226.078369140625</v>
       </c>
       <c r="EW4" t="n">
-        <v>1173.937255859375</v>
+        <v>1198.946899414062</v>
       </c>
       <c r="EX4" t="n">
-        <v>1173.7421875</v>
+        <v>1190.89111328125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1173.63818359375</v>
+        <v>1183.68359375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1173.415283203125</v>
+        <v>1169.59814453125</v>
       </c>
       <c r="FA4" t="n">
-        <v>1173.215087890625</v>
+        <v>1153.885375976562</v>
       </c>
       <c r="FB4" t="n">
-        <v>1172.817138671875</v>
+        <v>1146.322998046875</v>
       </c>
       <c r="FC4" t="n">
-        <v>1170.58837890625</v>
+        <v>1131.229858398438</v>
       </c>
       <c r="FD4" t="n">
-        <v>1167.616943359375</v>
+        <v>1122.873779296875</v>
       </c>
       <c r="FE4" t="n">
-        <v>1163.82958984375</v>
+        <v>1104.50146484375</v>
       </c>
       <c r="FF4" t="n">
-        <v>1161.278198242188</v>
+        <v>1094.51953125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1155.976318359375</v>
+        <v>1072.583984375</v>
       </c>
       <c r="FH4" t="n">
-        <v>1151.777099609375</v>
+        <v>1044.240112304688</v>
       </c>
       <c r="FI4" t="n">
-        <v>1145.675048828125</v>
+        <v>1030.029907226562</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1138.462158203125</v>
+        <v>1011.943969726562</v>
       </c>
       <c r="FK4" t="n">
-        <v>1125.555419921875</v>
+        <v>990.7455444335938</v>
       </c>
       <c r="FL4" t="n">
-        <v>1118.23681640625</v>
+        <v>985.1571044921875</v>
       </c>
       <c r="FM4" t="n">
-        <v>1114.815185546875</v>
+        <v>972.027099609375</v>
       </c>
       <c r="FN4" t="n">
-        <v>1103.134033203125</v>
+        <v>953.5233764648438</v>
       </c>
       <c r="FO4" t="n">
-        <v>1098.18798828125</v>
+        <v>945.0111083984375</v>
       </c>
       <c r="FP4" t="n">
-        <v>1086.149536132812</v>
+        <v>936.1224365234375</v>
       </c>
       <c r="FQ4" t="n">
-        <v>1062.267578125</v>
+        <v>921.8518676757812</v>
       </c>
       <c r="FR4" t="n">
-        <v>1052.705932617188</v>
+        <v>915.0421142578125</v>
       </c>
       <c r="FS4" t="n">
-        <v>1029.0517578125</v>
+        <v>900.3580322265625</v>
       </c>
       <c r="FT4" t="n">
-        <v>999.6815185546875</v>
+        <v>887.8182983398438</v>
       </c>
       <c r="FU4" t="n">
-        <v>991.6557006835938</v>
+        <v>877.6072998046875</v>
       </c>
       <c r="FV4" t="n">
-        <v>977.9451904296875</v>
+        <v>872.5938720703125</v>
       </c>
       <c r="FW4" t="n">
-        <v>966.035400390625</v>
+        <v>861.7455444335938</v>
       </c>
       <c r="FX4" t="n">
-        <v>947.9988403320312</v>
+        <v>856.715087890625</v>
       </c>
       <c r="FY4" t="n">
-        <v>937.2535400390625</v>
+        <v>846.6814575195312</v>
       </c>
       <c r="FZ4" t="n">
-        <v>924.7034301757812</v>
+        <v>840.508056640625</v>
       </c>
       <c r="GA4" t="n">
-        <v>910.2802734375</v>
+        <v>825.509765625</v>
       </c>
       <c r="GB4" t="n">
-        <v>888.8980712890625</v>
+        <v>816.7150268554688</v>
       </c>
       <c r="GC4" t="n">
-        <v>881.58349609375</v>
+        <v>799.2774658203125</v>
       </c>
       <c r="GD4" t="n">
-        <v>859.2369995117188</v>
+        <v>791.4371337890625</v>
       </c>
       <c r="GE4" t="n">
-        <v>850.273193359375</v>
+        <v>777.8177490234375</v>
       </c>
       <c r="GF4" t="n">
-        <v>826.391845703125</v>
+        <v>767.4990234375</v>
       </c>
       <c r="GG4" t="n">
-        <v>809.9581298828125</v>
+        <v>757.6405639648438</v>
       </c>
       <c r="GH4" t="n">
-        <v>793.4150390625</v>
+        <v>746.4302978515625</v>
       </c>
       <c r="GI4" t="n">
-        <v>777.2901611328125</v>
+        <v>740.8110961914062</v>
       </c>
       <c r="GJ4" t="n">
-        <v>761.176513671875</v>
+        <v>735.2484130859375</v>
       </c>
       <c r="GK4" t="n">
-        <v>748.80712890625</v>
+        <v>723.19970703125</v>
       </c>
       <c r="GL4" t="n">
-        <v>742.2457275390625</v>
+        <v>716.3896484375</v>
       </c>
       <c r="GM4" t="n">
-        <v>736.6836547851562</v>
+        <v>697.6680908203125</v>
       </c>
       <c r="GN4" t="n">
-        <v>729.0142822265625</v>
+        <v>678.3076171875</v>
       </c>
       <c r="GO4" t="n">
-        <v>724.2254028320312</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>721.3331298828125</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>714.671875</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>706.6878662109375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>694.4908447265625</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>669.2815551757812</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>649.0946044921875</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>626.2320556640625</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>599.671142578125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>585.2271728515625</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>546.535888671875</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>539.0323486328125</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>539.7611083984375</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>552.087646484375</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>585.2627563476562</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>614.8404541015625</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>650.31494140625</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>681.698486328125</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>703.200927734375</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>709.8455810546875</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>716.7076416015625</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>716.6854248046875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>715.1484375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>691.0269775390625</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>668.5196533203125</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>641.6693725585938</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>631.2327880859375</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>626.0562744140625</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>625.6318359375</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>629.2008056640625</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>648.56201171875</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>660.0968017578125</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>667.0993041992188</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>672.7462158203125</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>676.0401611328125</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>684.1844482421875</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>687.272216796875</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>694.568115234375</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>708.177490234375</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>716.9537353515625</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>724.1085205078125</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>730.6048583984375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>742.8211059570312</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>747.81201171875</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>750.3087158203125</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>750.484375</v>
-      </c>
-      <c r="II4" t="n">
-        <v>750.396728515625</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>749.6094970703125</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>742.7518310546875</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>736.5592651367188</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>734.25927734375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>734.2252807617188</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>734.2303466796875</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>734.23486328125</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>734.2396850585938</v>
+        <v>670.06884765625</v>
       </c>
     </row>
   </sheetData>

--- a/neck_Data.xlsx
+++ b/neck_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GO4"/>
+  <dimension ref="A1:JM4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,10 +434,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>START</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>0</v>
@@ -1025,1786 +1023,2698 @@
         <v>0</v>
       </c>
       <c r="GO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>236.7241516113281</v>
       </c>
       <c r="B2" t="n">
-        <v>353.400146484375</v>
+        <v>236.90283203125</v>
       </c>
       <c r="C2" t="n">
-        <v>352.411376953125</v>
+        <v>236.9131164550781</v>
       </c>
       <c r="D2" t="n">
-        <v>351.90380859375</v>
+        <v>236.9129638671875</v>
       </c>
       <c r="E2" t="n">
-        <v>351.7139282226562</v>
+        <v>236.91357421875</v>
       </c>
       <c r="F2" t="n">
-        <v>351.6405944824219</v>
+        <v>236.914794921875</v>
       </c>
       <c r="G2" t="n">
-        <v>351.6096496582031</v>
+        <v>236.9159851074219</v>
       </c>
       <c r="H2" t="n">
-        <v>351.5927124023438</v>
+        <v>236.9161834716797</v>
       </c>
       <c r="I2" t="n">
-        <v>351.6242065429688</v>
+        <v>236.9166717529297</v>
       </c>
       <c r="J2" t="n">
-        <v>351.6789245605469</v>
+        <v>236.9170837402344</v>
       </c>
       <c r="K2" t="n">
-        <v>351.7153625488281</v>
+        <v>236.9177551269531</v>
       </c>
       <c r="L2" t="n">
-        <v>351.7301940917969</v>
+        <v>236.9175415039062</v>
       </c>
       <c r="M2" t="n">
-        <v>351.7365112304688</v>
+        <v>236.917236328125</v>
       </c>
       <c r="N2" t="n">
-        <v>351.735595703125</v>
+        <v>236.9169616699219</v>
       </c>
       <c r="O2" t="n">
-        <v>351.7328491210938</v>
+        <v>236.9166412353516</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7297058105469</v>
+        <v>236.9164276123047</v>
       </c>
       <c r="Q2" t="n">
-        <v>351.7268371582031</v>
+        <v>236.9161834716797</v>
       </c>
       <c r="R2" t="n">
-        <v>351.7241821289062</v>
+        <v>236.9159545898438</v>
       </c>
       <c r="S2" t="n">
-        <v>351.7217407226562</v>
+        <v>236.8965454101562</v>
       </c>
       <c r="T2" t="n">
-        <v>351.71826171875</v>
+        <v>236.6660766601562</v>
       </c>
       <c r="U2" t="n">
-        <v>351.7167358398438</v>
+        <v>236.3198547363281</v>
       </c>
       <c r="V2" t="n">
-        <v>351.716064453125</v>
+        <v>236.0451965332031</v>
       </c>
       <c r="W2" t="n">
-        <v>351.7154541015625</v>
+        <v>236.6535949707031</v>
       </c>
       <c r="X2" t="n">
-        <v>351.7152099609375</v>
+        <v>238.6322326660156</v>
       </c>
       <c r="Y2" t="n">
-        <v>351.715087890625</v>
+        <v>241.2469787597656</v>
       </c>
       <c r="Z2" t="n">
-        <v>351.7150268554688</v>
+        <v>243.5847473144531</v>
       </c>
       <c r="AA2" t="n">
-        <v>351.7149353027344</v>
+        <v>245.6863403320312</v>
       </c>
       <c r="AB2" t="n">
-        <v>351.7149353027344</v>
+        <v>247.5050964355469</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.7149047851562</v>
+        <v>249.0588226318359</v>
       </c>
       <c r="AD2" t="n">
-        <v>351.7149047851562</v>
+        <v>251.1248474121094</v>
       </c>
       <c r="AE2" t="n">
-        <v>351.7149047851562</v>
+        <v>253.3842315673828</v>
       </c>
       <c r="AF2" t="n">
-        <v>351.7149047851562</v>
+        <v>255.6665344238281</v>
       </c>
       <c r="AG2" t="n">
-        <v>351.7149047851562</v>
+        <v>257.7676086425781</v>
       </c>
       <c r="AH2" t="n">
-        <v>351.7149047851562</v>
+        <v>259.7807006835938</v>
       </c>
       <c r="AI2" t="n">
-        <v>351.7149047851562</v>
+        <v>261.7803649902344</v>
       </c>
       <c r="AJ2" t="n">
-        <v>351.7149047851562</v>
+        <v>263.8321533203125</v>
       </c>
       <c r="AK2" t="n">
-        <v>351.7149047851562</v>
+        <v>265.7758178710938</v>
       </c>
       <c r="AL2" t="n">
-        <v>351.7147521972656</v>
+        <v>268.5442810058594</v>
       </c>
       <c r="AM2" t="n">
-        <v>351.713623046875</v>
+        <v>271.4762878417969</v>
       </c>
       <c r="AN2" t="n">
-        <v>351.7130126953125</v>
+        <v>274.8170776367188</v>
       </c>
       <c r="AO2" t="n">
-        <v>351.71240234375</v>
+        <v>278.0023193359375</v>
       </c>
       <c r="AP2" t="n">
-        <v>351.716552734375</v>
+        <v>281.0925903320312</v>
       </c>
       <c r="AQ2" t="n">
-        <v>352.4609375</v>
+        <v>284.07080078125</v>
       </c>
       <c r="AR2" t="n">
-        <v>365.6774597167969</v>
+        <v>286.7414855957031</v>
       </c>
       <c r="AS2" t="n">
-        <v>372.5867919921875</v>
+        <v>289.4105529785156</v>
       </c>
       <c r="AT2" t="n">
-        <v>385.989013671875</v>
+        <v>291.5783386230469</v>
       </c>
       <c r="AU2" t="n">
-        <v>392.587890625</v>
+        <v>293.0918579101562</v>
       </c>
       <c r="AV2" t="n">
-        <v>398.0115966796875</v>
+        <v>294.4885864257812</v>
       </c>
       <c r="AW2" t="n">
-        <v>403.9998779296875</v>
+        <v>295.6571960449219</v>
       </c>
       <c r="AX2" t="n">
-        <v>411.112060546875</v>
+        <v>296.5489501953125</v>
       </c>
       <c r="AY2" t="n">
-        <v>417.8047485351562</v>
+        <v>297.11279296875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>423.1997680664062</v>
+        <v>297.5095825195312</v>
       </c>
       <c r="BA2" t="n">
-        <v>427.5421447753906</v>
+        <v>297.841552734375</v>
       </c>
       <c r="BB2" t="n">
-        <v>432.9985046386719</v>
+        <v>298.6403198242188</v>
       </c>
       <c r="BC2" t="n">
-        <v>438.43994140625</v>
+        <v>300.1094665527344</v>
       </c>
       <c r="BD2" t="n">
-        <v>442.4192504882812</v>
+        <v>302.5059204101562</v>
       </c>
       <c r="BE2" t="n">
-        <v>447.1323852539062</v>
+        <v>304.5042724609375</v>
       </c>
       <c r="BF2" t="n">
-        <v>449.0997924804688</v>
+        <v>306.5362548828125</v>
       </c>
       <c r="BG2" t="n">
-        <v>449.2292785644531</v>
+        <v>308.6020202636719</v>
       </c>
       <c r="BH2" t="n">
-        <v>446.18408203125</v>
+        <v>311.290771484375</v>
       </c>
       <c r="BI2" t="n">
-        <v>443.1912841796875</v>
+        <v>315.4416198730469</v>
       </c>
       <c r="BJ2" t="n">
-        <v>427.257080078125</v>
+        <v>317.1388549804688</v>
       </c>
       <c r="BK2" t="n">
-        <v>414.6304931640625</v>
+        <v>319.3069763183594</v>
       </c>
       <c r="BL2" t="n">
-        <v>405.3811950683594</v>
+        <v>322.4273681640625</v>
       </c>
       <c r="BM2" t="n">
-        <v>385.6450805664062</v>
+        <v>325.2521362304688</v>
       </c>
       <c r="BN2" t="n">
-        <v>375.1126403808594</v>
+        <v>328.0346069335938</v>
       </c>
       <c r="BO2" t="n">
-        <v>365.7160949707031</v>
+        <v>330.7648010253906</v>
       </c>
       <c r="BP2" t="n">
-        <v>356.6060180664062</v>
+        <v>333.5972290039062</v>
       </c>
       <c r="BQ2" t="n">
-        <v>347.2669067382812</v>
+        <v>336.2799072265625</v>
       </c>
       <c r="BR2" t="n">
-        <v>337.5154418945312</v>
+        <v>339.027099609375</v>
       </c>
       <c r="BS2" t="n">
-        <v>327.5087890625</v>
+        <v>342.1570434570312</v>
       </c>
       <c r="BT2" t="n">
-        <v>316.9616394042969</v>
+        <v>345.1594543457031</v>
       </c>
       <c r="BU2" t="n">
-        <v>306.5721130371094</v>
+        <v>348.3597106933594</v>
       </c>
       <c r="BV2" t="n">
-        <v>296.6753234863281</v>
+        <v>350.9661254882812</v>
       </c>
       <c r="BW2" t="n">
-        <v>287.3744506835938</v>
+        <v>352.9833374023438</v>
       </c>
       <c r="BX2" t="n">
-        <v>279.067626953125</v>
+        <v>354.7528686523438</v>
       </c>
       <c r="BY2" t="n">
-        <v>271.5657043457031</v>
+        <v>356.5125732421875</v>
       </c>
       <c r="BZ2" t="n">
-        <v>264.9517517089844</v>
+        <v>358.2216186523438</v>
       </c>
       <c r="CA2" t="n">
-        <v>258.9900512695312</v>
+        <v>359.9902954101562</v>
       </c>
       <c r="CB2" t="n">
-        <v>253.7725524902344</v>
+        <v>361.420654296875</v>
       </c>
       <c r="CC2" t="n">
-        <v>249.1990966796875</v>
+        <v>362.3212890625</v>
       </c>
       <c r="CD2" t="n">
-        <v>245.3527526855469</v>
+        <v>363.2137451171875</v>
       </c>
       <c r="CE2" t="n">
-        <v>242.3692474365234</v>
+        <v>363.543212890625</v>
       </c>
       <c r="CF2" t="n">
-        <v>240.1295166015625</v>
+        <v>363.8042602539062</v>
       </c>
       <c r="CG2" t="n">
-        <v>238.679931640625</v>
+        <v>363.8600463867188</v>
       </c>
       <c r="CH2" t="n">
-        <v>238.0166931152344</v>
+        <v>364.1000671386719</v>
       </c>
       <c r="CI2" t="n">
-        <v>238.0013427734375</v>
+        <v>364.6393432617188</v>
       </c>
       <c r="CJ2" t="n">
-        <v>239.9562377929688</v>
+        <v>365.2077941894531</v>
       </c>
       <c r="CK2" t="n">
-        <v>243.5782775878906</v>
+        <v>365.4176635742188</v>
       </c>
       <c r="CL2" t="n">
-        <v>248.7500762939453</v>
+        <v>365.2984313964844</v>
       </c>
       <c r="CM2" t="n">
-        <v>255.1814575195312</v>
+        <v>364.9891967773438</v>
       </c>
       <c r="CN2" t="n">
-        <v>262.2762756347656</v>
+        <v>363.8199462890625</v>
       </c>
       <c r="CO2" t="n">
-        <v>269.7387084960938</v>
+        <v>362.336669921875</v>
       </c>
       <c r="CP2" t="n">
-        <v>277.4151000976562</v>
+        <v>360.8619384765625</v>
       </c>
       <c r="CQ2" t="n">
-        <v>289.8993530273438</v>
+        <v>359.5621337890625</v>
       </c>
       <c r="CR2" t="n">
-        <v>308.9599304199219</v>
+        <v>357.51123046875</v>
       </c>
       <c r="CS2" t="n">
-        <v>315.5749206542969</v>
+        <v>355.59814453125</v>
       </c>
       <c r="CT2" t="n">
-        <v>324.3589477539062</v>
+        <v>353.6447143554688</v>
       </c>
       <c r="CU2" t="n">
-        <v>333.8623657226562</v>
+        <v>351.8328552246094</v>
       </c>
       <c r="CV2" t="n">
-        <v>343.386962890625</v>
+        <v>350.2265625</v>
       </c>
       <c r="CW2" t="n">
-        <v>351.5783081054688</v>
+        <v>348.6198425292969</v>
       </c>
       <c r="CX2" t="n">
-        <v>357.951904296875</v>
+        <v>347.4426574707031</v>
       </c>
       <c r="CY2" t="n">
-        <v>364.6038818359375</v>
+        <v>345.2344360351562</v>
       </c>
       <c r="CZ2" t="n">
-        <v>371.0062255859375</v>
+        <v>344.1081237792969</v>
       </c>
       <c r="DA2" t="n">
-        <v>377.7523498535156</v>
+        <v>342.0579528808594</v>
       </c>
       <c r="DB2" t="n">
-        <v>390.1760559082031</v>
+        <v>340.9560546875</v>
       </c>
       <c r="DC2" t="n">
-        <v>394.2852478027344</v>
+        <v>339.7855224609375</v>
       </c>
       <c r="DD2" t="n">
-        <v>398.940673828125</v>
+        <v>338.7432250976562</v>
       </c>
       <c r="DE2" t="n">
-        <v>402.9573974609375</v>
+        <v>337.7728881835938</v>
       </c>
       <c r="DF2" t="n">
-        <v>406.1568603515625</v>
+        <v>336.8751525878906</v>
       </c>
       <c r="DG2" t="n">
-        <v>408.8345336914062</v>
+        <v>336.0643920898438</v>
       </c>
       <c r="DH2" t="n">
-        <v>412.4293823242188</v>
+        <v>334.982666015625</v>
       </c>
       <c r="DI2" t="n">
-        <v>413.6483459472656</v>
+        <v>334.6291809082031</v>
       </c>
       <c r="DJ2" t="n">
-        <v>414.6490783691406</v>
+        <v>334.3108520507812</v>
       </c>
       <c r="DK2" t="n">
-        <v>415.5819702148438</v>
+        <v>334.0294799804688</v>
       </c>
       <c r="DL2" t="n">
-        <v>416.227783203125</v>
+        <v>333.7072143554688</v>
       </c>
       <c r="DM2" t="n">
-        <v>415.3847961425781</v>
+        <v>333.3734130859375</v>
       </c>
       <c r="DN2" t="n">
-        <v>410.5860595703125</v>
+        <v>332.9671630859375</v>
       </c>
       <c r="DO2" t="n">
-        <v>401.089599609375</v>
+        <v>332.4020080566406</v>
       </c>
       <c r="DP2" t="n">
-        <v>397.6325073242188</v>
+        <v>332.1412963867188</v>
       </c>
       <c r="DQ2" t="n">
-        <v>387.8421325683594</v>
+        <v>331.8390197753906</v>
       </c>
       <c r="DR2" t="n">
-        <v>383.3489379882812</v>
+        <v>331.6978149414062</v>
       </c>
       <c r="DS2" t="n">
-        <v>379.5507507324219</v>
+        <v>331.6593627929688</v>
       </c>
       <c r="DT2" t="n">
-        <v>372.559326171875</v>
+        <v>331.5812377929688</v>
       </c>
       <c r="DU2" t="n">
-        <v>369.0384521484375</v>
+        <v>331.5669555664062</v>
       </c>
       <c r="DV2" t="n">
-        <v>365.35498046875</v>
+        <v>331.5632934570312</v>
       </c>
       <c r="DW2" t="n">
-        <v>357.7060241699219</v>
+        <v>331.5616455078125</v>
       </c>
       <c r="DX2" t="n">
-        <v>353.60107421875</v>
+        <v>331.5618896484375</v>
       </c>
       <c r="DY2" t="n">
-        <v>345.0133666992188</v>
+        <v>331.5623474121094</v>
       </c>
       <c r="DZ2" t="n">
-        <v>340.6006164550781</v>
+        <v>331.5633544921875</v>
       </c>
       <c r="EA2" t="n">
-        <v>331.6559448242188</v>
+        <v>331.5650634765625</v>
       </c>
       <c r="EB2" t="n">
-        <v>321.8976440429688</v>
+        <v>331.5679931640625</v>
       </c>
       <c r="EC2" t="n">
-        <v>317.2149353027344</v>
+        <v>331.9371948242188</v>
       </c>
       <c r="ED2" t="n">
-        <v>310.2449951171875</v>
+        <v>332.3605041503906</v>
       </c>
       <c r="EE2" t="n">
-        <v>308.1327819824219</v>
+        <v>334.5419311523438</v>
       </c>
       <c r="EF2" t="n">
-        <v>308.1730346679688</v>
+        <v>335.40869140625</v>
       </c>
       <c r="EG2" t="n">
-        <v>318.0035400390625</v>
+        <v>336.2910461425781</v>
       </c>
       <c r="EH2" t="n">
-        <v>331.7714233398438</v>
+        <v>336.5560302734375</v>
       </c>
       <c r="EI2" t="n">
-        <v>336.4697875976562</v>
+        <v>337.1008605957031</v>
       </c>
       <c r="EJ2" t="n">
-        <v>340.6484375</v>
+        <v>337.4175720214844</v>
       </c>
       <c r="EK2" t="n">
-        <v>351.4239807128906</v>
+        <v>338.2078552246094</v>
       </c>
       <c r="EL2" t="n">
-        <v>357.7728271484375</v>
+        <v>338.7667236328125</v>
       </c>
       <c r="EM2" t="n">
-        <v>365.2293090820312</v>
+        <v>339.4545288085938</v>
       </c>
       <c r="EN2" t="n">
-        <v>366.8002014160156</v>
+        <v>339.7504272460938</v>
       </c>
       <c r="EO2" t="n">
-        <v>368.874267578125</v>
+        <v>339.840087890625</v>
       </c>
       <c r="EP2" t="n">
-        <v>369.6119995117188</v>
+        <v>339.8295288085938</v>
       </c>
       <c r="EQ2" t="n">
-        <v>368.9822998046875</v>
+        <v>339.8543701171875</v>
       </c>
       <c r="ER2" t="n">
-        <v>367.1711730957031</v>
+        <v>339.9075622558594</v>
       </c>
       <c r="ES2" t="n">
-        <v>364.0054931640625</v>
+        <v>339.9347534179688</v>
       </c>
       <c r="ET2" t="n">
-        <v>353.2275085449219</v>
+        <v>339.9539794921875</v>
       </c>
       <c r="EU2" t="n">
-        <v>339.1820983886719</v>
+        <v>339.9581909179688</v>
       </c>
       <c r="EV2" t="n">
-        <v>328.0704345703125</v>
+        <v>339.9580688476562</v>
       </c>
       <c r="EW2" t="n">
-        <v>308.7489318847656</v>
+        <v>339.9573364257812</v>
       </c>
       <c r="EX2" t="n">
-        <v>303.4461669921875</v>
+        <v>339.9570922851562</v>
       </c>
       <c r="EY2" t="n">
-        <v>299.2994384765625</v>
+        <v>339.9572448730469</v>
       </c>
       <c r="EZ2" t="n">
-        <v>291.5853271484375</v>
+        <v>339.9603881835938</v>
       </c>
       <c r="FA2" t="n">
-        <v>284.042724609375</v>
+        <v>339.9642333984375</v>
       </c>
       <c r="FB2" t="n">
-        <v>280.9815063476562</v>
+        <v>339.9661254882812</v>
       </c>
       <c r="FC2" t="n">
-        <v>276.9117126464844</v>
+        <v>339.9682006835938</v>
       </c>
       <c r="FD2" t="n">
-        <v>275.9189758300781</v>
+        <v>339.9736328125</v>
       </c>
       <c r="FE2" t="n">
-        <v>274.7475280761719</v>
+        <v>339.9886779785156</v>
       </c>
       <c r="FF2" t="n">
-        <v>274.3945922851562</v>
+        <v>340.0131530761719</v>
       </c>
       <c r="FG2" t="n">
-        <v>277.4808044433594</v>
+        <v>340.0259704589844</v>
       </c>
       <c r="FH2" t="n">
-        <v>287.7313842773438</v>
+        <v>340.05078125</v>
       </c>
       <c r="FI2" t="n">
-        <v>295.1487731933594</v>
+        <v>340.0976867675781</v>
       </c>
       <c r="FJ2" t="n">
-        <v>306.9326477050781</v>
+        <v>340.1627197265625</v>
       </c>
       <c r="FK2" t="n">
-        <v>326.5250854492188</v>
+        <v>340.30615234375</v>
       </c>
       <c r="FL2" t="n">
-        <v>332.2526550292969</v>
+        <v>340.3893432617188</v>
       </c>
       <c r="FM2" t="n">
-        <v>344.806884765625</v>
+        <v>340.5456848144531</v>
       </c>
       <c r="FN2" t="n">
-        <v>360.0233459472656</v>
+        <v>340.6317443847656</v>
       </c>
       <c r="FO2" t="n">
-        <v>367.286865234375</v>
+        <v>340.6798706054688</v>
       </c>
       <c r="FP2" t="n">
-        <v>372.7229309082031</v>
+        <v>340.7327880859375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>383.0804138183594</v>
+        <v>340.7678833007812</v>
       </c>
       <c r="FR2" t="n">
-        <v>387.7266845703125</v>
+        <v>340.78173828125</v>
       </c>
       <c r="FS2" t="n">
-        <v>396.1371459960938</v>
+        <v>340.8098754882812</v>
       </c>
       <c r="FT2" t="n">
-        <v>403.3356323242188</v>
+        <v>340.8182067871094</v>
       </c>
       <c r="FU2" t="n">
-        <v>408.9033508300781</v>
+        <v>340.8377685546875</v>
       </c>
       <c r="FV2" t="n">
-        <v>410.3005981445312</v>
+        <v>340.8477172851562</v>
       </c>
       <c r="FW2" t="n">
-        <v>412.105224609375</v>
+        <v>340.8794555664062</v>
       </c>
       <c r="FX2" t="n">
-        <v>412.7544555664062</v>
+        <v>340.9014282226562</v>
       </c>
       <c r="FY2" t="n">
-        <v>411.9147033691406</v>
+        <v>340.9225158691406</v>
       </c>
       <c r="FZ2" t="n">
-        <v>408.4659118652344</v>
+        <v>340.9335632324219</v>
       </c>
       <c r="GA2" t="n">
-        <v>395.5581970214844</v>
+        <v>340.9603576660156</v>
       </c>
       <c r="GB2" t="n">
-        <v>387.2357788085938</v>
+        <v>340.9730224609375</v>
       </c>
       <c r="GC2" t="n">
-        <v>368.9739685058594</v>
+        <v>340.9920959472656</v>
       </c>
       <c r="GD2" t="n">
-        <v>359.4035339355469</v>
+        <v>340.9937133789062</v>
       </c>
       <c r="GE2" t="n">
-        <v>340.4336853027344</v>
+        <v>340.9912109375</v>
       </c>
       <c r="GF2" t="n">
-        <v>323.8804626464844</v>
+        <v>340.9906005859375</v>
       </c>
       <c r="GG2" t="n">
-        <v>310.5445251464844</v>
+        <v>340.989990234375</v>
       </c>
       <c r="GH2" t="n">
-        <v>301.141357421875</v>
+        <v>340.97900390625</v>
       </c>
       <c r="GI2" t="n">
-        <v>298.3703002929688</v>
+        <v>340.9426879882812</v>
       </c>
       <c r="GJ2" t="n">
-        <v>296.4241333007812</v>
+        <v>340.9255676269531</v>
       </c>
       <c r="GK2" t="n">
-        <v>293.4955139160156</v>
+        <v>340.8822326660156</v>
       </c>
       <c r="GL2" t="n">
-        <v>292.3596801757812</v>
+        <v>340.7880249023438</v>
       </c>
       <c r="GM2" t="n">
-        <v>290.86279296875</v>
+        <v>340.6234436035156</v>
       </c>
       <c r="GN2" t="n">
-        <v>289.829345703125</v>
+        <v>340.1447143554688</v>
       </c>
       <c r="GO2" t="n">
-        <v>289.4276733398438</v>
+        <v>339.4530029296875</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>337.972412109375</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>336.4925842285156</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>335.7978515625</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>335.50390625</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>335.1224365234375</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>334.8811340332031</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>334.3416748046875</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>333.5866088867188</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>332.8086853027344</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>330.8955078125</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>329.4776916503906</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>328.9095458984375</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>328.237548828125</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>327.61279296875</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>327.1434326171875</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>325.78564453125</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>325.6835632324219</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>325.6673889160156</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>325.6729736328125</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>325.5356140136719</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>325.4711608886719</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>325.3598022460938</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>325.2392883300781</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>325.0831298828125</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>324.9793090820312</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>324.7191162109375</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>322.3722534179688</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>319.0898132324219</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>315.5799560546875</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>311.7218322753906</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>306.897216796875</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>301.4037780761719</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>297.9193115234375</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>290.2183837890625</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>283.0558776855469</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>277.865478515625</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>273.6043701171875</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>270.6825561523438</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>265.7819519042969</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>264.1723937988281</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>261.1622314453125</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>258.6422424316406</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>256.275634765625</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>255.5990905761719</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>258.8081665039062</v>
+      </c>
+      <c r="II2" t="n">
+        <v>260.2162170410156</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>262.345703125</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>268.8993530273438</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>278.08837890625</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>285.2239685058594</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>278.3216857910156</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>268.3739624023438</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>253.4640808105469</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>239.9771728515625</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>233.7044372558594</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>233.1509552001953</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>235.9237060546875</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>232.3481750488281</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>220.8901062011719</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>199.5244598388672</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>180.790771484375</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>162.9574279785156</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>153.5126495361328</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>154.283447265625</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>168.0279388427734</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>177.6206207275391</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>184.2094116210938</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>189.7936401367188</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>195.5955200195312</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>206.8401794433594</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>211.1655883789062</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>212.6609497070312</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>211.5536651611328</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>208.6224060058594</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>204.5249938964844</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>198.6985626220703</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>108.4714202880859</v>
       </c>
       <c r="B3" t="n">
-        <v>277.0077819824219</v>
+        <v>108.3780746459961</v>
       </c>
       <c r="C3" t="n">
-        <v>272.4743957519531</v>
+        <v>108.3863983154297</v>
       </c>
       <c r="D3" t="n">
-        <v>270.2490539550781</v>
+        <v>108.3838043212891</v>
       </c>
       <c r="E3" t="n">
-        <v>269.5751037597656</v>
+        <v>108.3842620849609</v>
       </c>
       <c r="F3" t="n">
-        <v>269.4093627929688</v>
+        <v>108.3860015869141</v>
       </c>
       <c r="G3" t="n">
-        <v>269.388916015625</v>
+        <v>108.3891677856445</v>
       </c>
       <c r="H3" t="n">
-        <v>269.3968811035156</v>
+        <v>108.3907928466797</v>
       </c>
       <c r="I3" t="n">
-        <v>269.4431457519531</v>
+        <v>108.3921661376953</v>
       </c>
       <c r="J3" t="n">
-        <v>269.4965209960938</v>
+        <v>108.3933792114258</v>
       </c>
       <c r="K3" t="n">
-        <v>269.5519714355469</v>
+        <v>108.3951187133789</v>
       </c>
       <c r="L3" t="n">
-        <v>269.6129455566406</v>
+        <v>108.395133972168</v>
       </c>
       <c r="M3" t="n">
-        <v>269.680908203125</v>
+        <v>108.394905090332</v>
       </c>
       <c r="N3" t="n">
-        <v>269.7486267089844</v>
+        <v>108.3946533203125</v>
       </c>
       <c r="O3" t="n">
-        <v>269.8190002441406</v>
+        <v>108.3934097290039</v>
       </c>
       <c r="P3" t="n">
-        <v>269.8886108398438</v>
+        <v>108.3920059204102</v>
       </c>
       <c r="Q3" t="n">
-        <v>269.9551696777344</v>
+        <v>108.3905410766602</v>
       </c>
       <c r="R3" t="n">
-        <v>270.0209045410156</v>
+        <v>108.3881607055664</v>
       </c>
       <c r="S3" t="n">
-        <v>270.0865173339844</v>
+        <v>108.3553848266602</v>
       </c>
       <c r="T3" t="n">
-        <v>270.1539916992188</v>
+        <v>107.9797058105469</v>
       </c>
       <c r="U3" t="n">
-        <v>270.219970703125</v>
+        <v>107.3028335571289</v>
       </c>
       <c r="V3" t="n">
-        <v>270.2956848144531</v>
+        <v>106.5401382446289</v>
       </c>
       <c r="W3" t="n">
-        <v>270.368896484375</v>
+        <v>105.7721862792969</v>
       </c>
       <c r="X3" t="n">
-        <v>270.45068359375</v>
+        <v>105.0676422119141</v>
       </c>
       <c r="Y3" t="n">
-        <v>270.5321044921875</v>
+        <v>104.3903274536133</v>
       </c>
       <c r="Z3" t="n">
-        <v>270.6128845214844</v>
+        <v>103.7129287719727</v>
       </c>
       <c r="AA3" t="n">
-        <v>270.6950378417969</v>
+        <v>102.9695816040039</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.7764282226562</v>
+        <v>102.2858047485352</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.8565979003906</v>
+        <v>101.6557235717773</v>
       </c>
       <c r="AD3" t="n">
-        <v>270.9370727539062</v>
+        <v>101.0620956420898</v>
       </c>
       <c r="AE3" t="n">
-        <v>271.0213928222656</v>
+        <v>100.3891067504883</v>
       </c>
       <c r="AF3" t="n">
-        <v>271.1025390625</v>
+        <v>99.80588531494141</v>
       </c>
       <c r="AG3" t="n">
-        <v>271.1797485351562</v>
+        <v>99.32899475097656</v>
       </c>
       <c r="AH3" t="n">
-        <v>271.25830078125</v>
+        <v>99.05771636962891</v>
       </c>
       <c r="AI3" t="n">
-        <v>271.3350524902344</v>
+        <v>98.96974182128906</v>
       </c>
       <c r="AJ3" t="n">
-        <v>271.4149475097656</v>
+        <v>98.95970916748047</v>
       </c>
       <c r="AK3" t="n">
-        <v>271.4977416992188</v>
+        <v>99.46328735351562</v>
       </c>
       <c r="AL3" t="n">
-        <v>271.6445617675781</v>
+        <v>100.6999435424805</v>
       </c>
       <c r="AM3" t="n">
-        <v>271.8437805175781</v>
+        <v>102.7844009399414</v>
       </c>
       <c r="AN3" t="n">
-        <v>271.9367065429688</v>
+        <v>105.2495193481445</v>
       </c>
       <c r="AO3" t="n">
-        <v>272.0232543945312</v>
+        <v>108.1480484008789</v>
       </c>
       <c r="AP3" t="n">
-        <v>272.0635375976562</v>
+        <v>111.1035919189453</v>
       </c>
       <c r="AQ3" t="n">
-        <v>272.060791015625</v>
+        <v>114.0875396728516</v>
       </c>
       <c r="AR3" t="n">
-        <v>271.5454711914062</v>
+        <v>117.1174926757812</v>
       </c>
       <c r="AS3" t="n">
-        <v>271.3084411621094</v>
+        <v>121.421875</v>
       </c>
       <c r="AT3" t="n">
-        <v>270.8279418945312</v>
+        <v>127.3833160400391</v>
       </c>
       <c r="AU3" t="n">
-        <v>270.5704956054688</v>
+        <v>134.6375885009766</v>
       </c>
       <c r="AV3" t="n">
-        <v>270.3649597167969</v>
+        <v>146.9881134033203</v>
       </c>
       <c r="AW3" t="n">
-        <v>270.1701354980469</v>
+        <v>159.0661163330078</v>
       </c>
       <c r="AX3" t="n">
-        <v>269.9785461425781</v>
+        <v>166.4399719238281</v>
       </c>
       <c r="AY3" t="n">
-        <v>269.7218322753906</v>
+        <v>170.6650848388672</v>
       </c>
       <c r="AZ3" t="n">
-        <v>269.406005859375</v>
+        <v>173.2983703613281</v>
       </c>
       <c r="BA3" t="n">
-        <v>269.0475769042969</v>
+        <v>175.3369140625</v>
       </c>
       <c r="BB3" t="n">
-        <v>268.5693969726562</v>
+        <v>177.2327423095703</v>
       </c>
       <c r="BC3" t="n">
-        <v>268.0338439941406</v>
+        <v>178.9170837402344</v>
       </c>
       <c r="BD3" t="n">
-        <v>267.5041198730469</v>
+        <v>179.790283203125</v>
       </c>
       <c r="BE3" t="n">
-        <v>266.7901916503906</v>
+        <v>180.1343536376953</v>
       </c>
       <c r="BF3" t="n">
-        <v>266.6450805664062</v>
+        <v>179.4336395263672</v>
       </c>
       <c r="BG3" t="n">
-        <v>266.6243591308594</v>
+        <v>178.6363525390625</v>
       </c>
       <c r="BH3" t="n">
-        <v>266.6056823730469</v>
+        <v>178.5256652832031</v>
       </c>
       <c r="BI3" t="n">
-        <v>266.6002502441406</v>
+        <v>179.932861328125</v>
       </c>
       <c r="BJ3" t="n">
-        <v>267.181884765625</v>
+        <v>181.4210815429688</v>
       </c>
       <c r="BK3" t="n">
-        <v>268.3203735351562</v>
+        <v>183.1568145751953</v>
       </c>
       <c r="BL3" t="n">
-        <v>269.0872192382812</v>
+        <v>185.3420867919922</v>
       </c>
       <c r="BM3" t="n">
-        <v>270.9577941894531</v>
+        <v>187.4644470214844</v>
       </c>
       <c r="BN3" t="n">
-        <v>271.8399353027344</v>
+        <v>189.3140411376953</v>
       </c>
       <c r="BO3" t="n">
-        <v>272.5442810058594</v>
+        <v>191.3643798828125</v>
       </c>
       <c r="BP3" t="n">
-        <v>273.4622497558594</v>
+        <v>193.4185638427734</v>
       </c>
       <c r="BQ3" t="n">
-        <v>274.6004333496094</v>
+        <v>195.5442810058594</v>
       </c>
       <c r="BR3" t="n">
-        <v>275.4957580566406</v>
+        <v>197.3971252441406</v>
       </c>
       <c r="BS3" t="n">
-        <v>275.9769592285156</v>
+        <v>199.7910461425781</v>
       </c>
       <c r="BT3" t="n">
-        <v>276.5014953613281</v>
+        <v>202.6129302978516</v>
       </c>
       <c r="BU3" t="n">
-        <v>276.7982788085938</v>
+        <v>204.5923004150391</v>
       </c>
       <c r="BV3" t="n">
-        <v>276.9549865722656</v>
+        <v>206.1165771484375</v>
       </c>
       <c r="BW3" t="n">
-        <v>277.1058959960938</v>
+        <v>207.1669311523438</v>
       </c>
       <c r="BX3" t="n">
-        <v>277.2914123535156</v>
+        <v>207.9497375488281</v>
       </c>
       <c r="BY3" t="n">
-        <v>277.4908752441406</v>
+        <v>208.6826629638672</v>
       </c>
       <c r="BZ3" t="n">
-        <v>277.6792602539062</v>
+        <v>209.3647003173828</v>
       </c>
       <c r="CA3" t="n">
-        <v>277.882080078125</v>
+        <v>210.2373504638672</v>
       </c>
       <c r="CB3" t="n">
-        <v>278.0967712402344</v>
+        <v>210.7799377441406</v>
       </c>
       <c r="CC3" t="n">
-        <v>278.3035583496094</v>
+        <v>211.1459503173828</v>
       </c>
       <c r="CD3" t="n">
-        <v>278.4906921386719</v>
+        <v>211.4182586669922</v>
       </c>
       <c r="CE3" t="n">
-        <v>278.6617431640625</v>
+        <v>211.5706634521484</v>
       </c>
       <c r="CF3" t="n">
-        <v>278.7887878417969</v>
+        <v>211.6024627685547</v>
       </c>
       <c r="CG3" t="n">
-        <v>278.8241271972656</v>
+        <v>211.7604522705078</v>
       </c>
       <c r="CH3" t="n">
-        <v>278.825927734375</v>
+        <v>211.993896484375</v>
       </c>
       <c r="CI3" t="n">
-        <v>278.7617492675781</v>
+        <v>212.1517639160156</v>
       </c>
       <c r="CJ3" t="n">
-        <v>278.385009765625</v>
+        <v>212.2663726806641</v>
       </c>
       <c r="CK3" t="n">
-        <v>276.9216613769531</v>
+        <v>212.7136993408203</v>
       </c>
       <c r="CL3" t="n">
-        <v>275.1473693847656</v>
+        <v>213.7279052734375</v>
       </c>
       <c r="CM3" t="n">
-        <v>273.1350402832031</v>
+        <v>214.6407928466797</v>
       </c>
       <c r="CN3" t="n">
-        <v>271.4917297363281</v>
+        <v>215.6442565917969</v>
       </c>
       <c r="CO3" t="n">
-        <v>270.5541381835938</v>
+        <v>216.3701171875</v>
       </c>
       <c r="CP3" t="n">
-        <v>269.8507080078125</v>
+        <v>217.6920013427734</v>
       </c>
       <c r="CQ3" t="n">
-        <v>269.5026245117188</v>
+        <v>218.7361755371094</v>
       </c>
       <c r="CR3" t="n">
-        <v>269.2230834960938</v>
+        <v>219.7267608642578</v>
       </c>
       <c r="CS3" t="n">
-        <v>269.1361083984375</v>
+        <v>220.7794647216797</v>
       </c>
       <c r="CT3" t="n">
-        <v>269.0752258300781</v>
+        <v>221.4106903076172</v>
       </c>
       <c r="CU3" t="n">
-        <v>268.9964599609375</v>
+        <v>221.7743988037109</v>
       </c>
       <c r="CV3" t="n">
-        <v>268.89208984375</v>
+        <v>221.9908599853516</v>
       </c>
       <c r="CW3" t="n">
-        <v>268.8166809082031</v>
+        <v>222.0876007080078</v>
       </c>
       <c r="CX3" t="n">
-        <v>268.7782897949219</v>
+        <v>222.2225952148438</v>
       </c>
       <c r="CY3" t="n">
-        <v>268.7549133300781</v>
+        <v>222.8159942626953</v>
       </c>
       <c r="CZ3" t="n">
-        <v>268.7153625488281</v>
+        <v>223.2402191162109</v>
       </c>
       <c r="DA3" t="n">
-        <v>268.6987609863281</v>
+        <v>224.1361999511719</v>
       </c>
       <c r="DB3" t="n">
-        <v>268.6974792480469</v>
+        <v>224.7394104003906</v>
       </c>
       <c r="DC3" t="n">
-        <v>268.7017822265625</v>
+        <v>225.3390960693359</v>
       </c>
       <c r="DD3" t="n">
-        <v>268.7598266601562</v>
+        <v>225.8243103027344</v>
       </c>
       <c r="DE3" t="n">
-        <v>268.8506164550781</v>
+        <v>226.0605621337891</v>
       </c>
       <c r="DF3" t="n">
-        <v>268.9923400878906</v>
+        <v>226.2193908691406</v>
       </c>
       <c r="DG3" t="n">
-        <v>269.18408203125</v>
+        <v>226.4032287597656</v>
       </c>
       <c r="DH3" t="n">
-        <v>269.6642150878906</v>
+        <v>226.5853271484375</v>
       </c>
       <c r="DI3" t="n">
-        <v>269.9448547363281</v>
+        <v>226.6620483398438</v>
       </c>
       <c r="DJ3" t="n">
-        <v>270.2357177734375</v>
+        <v>226.6815643310547</v>
       </c>
       <c r="DK3" t="n">
-        <v>270.5426940917969</v>
+        <v>226.7037811279297</v>
       </c>
       <c r="DL3" t="n">
-        <v>270.8546447753906</v>
+        <v>226.7242431640625</v>
       </c>
       <c r="DM3" t="n">
-        <v>271.158203125</v>
+        <v>226.7447052001953</v>
       </c>
       <c r="DN3" t="n">
-        <v>271.3505554199219</v>
+        <v>226.7645568847656</v>
       </c>
       <c r="DO3" t="n">
-        <v>269.3194885253906</v>
+        <v>226.7956390380859</v>
       </c>
       <c r="DP3" t="n">
-        <v>265.6202392578125</v>
+        <v>226.8358917236328</v>
       </c>
       <c r="DQ3" t="n">
-        <v>252.5393524169922</v>
+        <v>226.9510345458984</v>
       </c>
       <c r="DR3" t="n">
-        <v>245.1026611328125</v>
+        <v>227.0081634521484</v>
       </c>
       <c r="DS3" t="n">
-        <v>237.5106506347656</v>
+        <v>227.0363616943359</v>
       </c>
       <c r="DT3" t="n">
-        <v>224.3473358154297</v>
+        <v>227.0592498779297</v>
       </c>
       <c r="DU3" t="n">
-        <v>217.7202606201172</v>
+        <v>227.0648345947266</v>
       </c>
       <c r="DV3" t="n">
-        <v>210.8834838867188</v>
+        <v>227.0676574707031</v>
       </c>
       <c r="DW3" t="n">
-        <v>196.58935546875</v>
+        <v>227.0709533691406</v>
       </c>
       <c r="DX3" t="n">
-        <v>190.0517120361328</v>
+        <v>227.0730895996094</v>
       </c>
       <c r="DY3" t="n">
-        <v>180.6442108154297</v>
+        <v>227.0735321044922</v>
       </c>
       <c r="DZ3" t="n">
-        <v>178.5912170410156</v>
+        <v>227.0738983154297</v>
       </c>
       <c r="EA3" t="n">
-        <v>178.8625335693359</v>
+        <v>227.0739288330078</v>
       </c>
       <c r="EB3" t="n">
-        <v>187.2921447753906</v>
+        <v>227.0739288330078</v>
       </c>
       <c r="EC3" t="n">
-        <v>194.4093627929688</v>
+        <v>227.0647888183594</v>
       </c>
       <c r="ED3" t="n">
-        <v>219.4593811035156</v>
+        <v>227.0540161132812</v>
       </c>
       <c r="EE3" t="n">
-        <v>246.6222991943359</v>
+        <v>227.0103149414062</v>
       </c>
       <c r="EF3" t="n">
-        <v>256.17138671875</v>
+        <v>226.9672088623047</v>
       </c>
       <c r="EG3" t="n">
-        <v>278.4043273925781</v>
+        <v>226.9450836181641</v>
       </c>
       <c r="EH3" t="n">
-        <v>289.0709533691406</v>
+        <v>226.9454498291016</v>
       </c>
       <c r="EI3" t="n">
-        <v>291.7226257324219</v>
+        <v>226.9465942382812</v>
       </c>
       <c r="EJ3" t="n">
-        <v>293.7403564453125</v>
+        <v>226.9468688964844</v>
       </c>
       <c r="EK3" t="n">
-        <v>296.2962646484375</v>
+        <v>226.9468231201172</v>
       </c>
       <c r="EL3" t="n">
-        <v>296.1588134765625</v>
+        <v>226.9466552734375</v>
       </c>
       <c r="EM3" t="n">
-        <v>294.8268737792969</v>
+        <v>226.9460754394531</v>
       </c>
       <c r="EN3" t="n">
-        <v>293.8198852539062</v>
+        <v>226.8386535644531</v>
       </c>
       <c r="EO3" t="n">
-        <v>292.1845703125</v>
+        <v>226.7766418457031</v>
       </c>
       <c r="EP3" t="n">
-        <v>291.7864685058594</v>
+        <v>226.6090393066406</v>
       </c>
       <c r="EQ3" t="n">
-        <v>291.5812072753906</v>
+        <v>226.4811401367188</v>
       </c>
       <c r="ER3" t="n">
-        <v>291.5895080566406</v>
+        <v>226.2335510253906</v>
       </c>
       <c r="ES3" t="n">
-        <v>292.487060546875</v>
+        <v>226.1082611083984</v>
       </c>
       <c r="ET3" t="n">
-        <v>297.4784851074219</v>
+        <v>225.9148101806641</v>
       </c>
       <c r="EU3" t="n">
-        <v>305.4249267578125</v>
+        <v>225.8772888183594</v>
       </c>
       <c r="EV3" t="n">
-        <v>310.4749145507812</v>
+        <v>225.8451080322266</v>
       </c>
       <c r="EW3" t="n">
-        <v>317.4463500976562</v>
+        <v>225.7594909667969</v>
       </c>
       <c r="EX3" t="n">
-        <v>319.4176330566406</v>
+        <v>225.7064056396484</v>
       </c>
       <c r="EY3" t="n">
-        <v>320.9773559570312</v>
+        <v>225.6479034423828</v>
       </c>
       <c r="EZ3" t="n">
-        <v>322.6906433105469</v>
+        <v>225.5900115966797</v>
       </c>
       <c r="FA3" t="n">
-        <v>323.4583129882812</v>
+        <v>225.5308685302734</v>
       </c>
       <c r="FB3" t="n">
-        <v>323.7614135742188</v>
+        <v>225.5014495849609</v>
       </c>
       <c r="FC3" t="n">
-        <v>321.2632751464844</v>
+        <v>225.4686737060547</v>
       </c>
       <c r="FD3" t="n">
-        <v>318.5083923339844</v>
+        <v>225.4076690673828</v>
       </c>
       <c r="FE3" t="n">
-        <v>311.0043029785156</v>
+        <v>225.3128814697266</v>
       </c>
       <c r="FF3" t="n">
-        <v>307.4323425292969</v>
+        <v>225.2605133056641</v>
       </c>
       <c r="FG3" t="n">
-        <v>301.6416015625</v>
+        <v>225.2351379394531</v>
       </c>
       <c r="FH3" t="n">
-        <v>298.1094665527344</v>
+        <v>225.1425476074219</v>
       </c>
       <c r="FI3" t="n">
-        <v>296.4205017089844</v>
+        <v>225.0434112548828</v>
       </c>
       <c r="FJ3" t="n">
-        <v>294.7777709960938</v>
+        <v>224.9434661865234</v>
       </c>
       <c r="FK3" t="n">
-        <v>290.1905212402344</v>
+        <v>224.8744201660156</v>
       </c>
       <c r="FL3" t="n">
-        <v>287.8893127441406</v>
+        <v>224.8485107421875</v>
       </c>
       <c r="FM3" t="n">
-        <v>284.8055114746094</v>
+        <v>224.7979278564453</v>
       </c>
       <c r="FN3" t="n">
-        <v>283.5032043457031</v>
+        <v>224.785888671875</v>
       </c>
       <c r="FO3" t="n">
-        <v>282.6931762695312</v>
+        <v>224.7728881835938</v>
       </c>
       <c r="FP3" t="n">
-        <v>281.92333984375</v>
+        <v>224.74462890625</v>
       </c>
       <c r="FQ3" t="n">
-        <v>279.7205505371094</v>
+        <v>224.7204437255859</v>
       </c>
       <c r="FR3" t="n">
-        <v>278.3149719238281</v>
+        <v>224.7120361328125</v>
       </c>
       <c r="FS3" t="n">
-        <v>273.7400817871094</v>
+        <v>224.6981048583984</v>
       </c>
       <c r="FT3" t="n">
-        <v>269.72314453125</v>
+        <v>224.6955108642578</v>
       </c>
       <c r="FU3" t="n">
-        <v>264.8997802734375</v>
+        <v>224.6905670166016</v>
       </c>
       <c r="FV3" t="n">
-        <v>262.4248962402344</v>
+        <v>224.6883239746094</v>
       </c>
       <c r="FW3" t="n">
-        <v>258.1127624511719</v>
+        <v>224.6790466308594</v>
       </c>
       <c r="FX3" t="n">
-        <v>256.4119262695312</v>
+        <v>224.6745300292969</v>
       </c>
       <c r="FY3" t="n">
-        <v>253.663818359375</v>
+        <v>224.6707153320312</v>
       </c>
       <c r="FZ3" t="n">
-        <v>252.1445007324219</v>
+        <v>224.6683502197266</v>
       </c>
       <c r="GA3" t="n">
-        <v>248.4715423583984</v>
+        <v>224.6603851318359</v>
       </c>
       <c r="GB3" t="n">
-        <v>246.6410675048828</v>
+        <v>224.6565856933594</v>
       </c>
       <c r="GC3" t="n">
-        <v>244.7683258056641</v>
+        <v>224.6493682861328</v>
       </c>
       <c r="GD3" t="n">
-        <v>244.1298828125</v>
+        <v>224.6490325927734</v>
       </c>
       <c r="GE3" t="n">
-        <v>243.2135620117188</v>
+        <v>224.65087890625</v>
       </c>
       <c r="GF3" t="n">
-        <v>242.5957183837891</v>
+        <v>224.6512603759766</v>
       </c>
       <c r="GG3" t="n">
-        <v>242.0447082519531</v>
+        <v>224.6514129638672</v>
       </c>
       <c r="GH3" t="n">
-        <v>241.2033996582031</v>
+        <v>224.6515502929688</v>
       </c>
       <c r="GI3" t="n">
-        <v>240.5975799560547</v>
+        <v>224.6517181396484</v>
       </c>
       <c r="GJ3" t="n">
-        <v>239.4941864013672</v>
+        <v>224.6517639160156</v>
       </c>
       <c r="GK3" t="n">
-        <v>235.5357971191406</v>
+        <v>224.6518402099609</v>
       </c>
       <c r="GL3" t="n">
-        <v>232.6337432861328</v>
+        <v>224.6519317626953</v>
       </c>
       <c r="GM3" t="n">
-        <v>226.7337493896484</v>
+        <v>224.6520233154297</v>
       </c>
       <c r="GN3" t="n">
-        <v>221.3009033203125</v>
+        <v>224.6521911621094</v>
       </c>
       <c r="GO3" t="n">
-        <v>218.5850982666016</v>
+        <v>224.6522521972656</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>224.6522369384766</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>224.6522216796875</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>224.6522216796875</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>224.6522216796875</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>224.6521911621094</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>224.6521606445312</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>224.6520843505859</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>224.6518859863281</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>224.631591796875</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>224.5496063232422</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>224.2214508056641</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>223.935791015625</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>223.5538024902344</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>222.09619140625</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>221.6294708251953</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>220.4695129394531</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>220.1544647216797</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>219.3528289794922</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>217.2641296386719</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>212.1951904296875</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>209.5369567871094</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>205.7581787109375</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>204.0025024414062</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>203.1950836181641</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>202.8025054931641</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>199.0569305419922</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>194.3589630126953</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>191.8626098632812</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>190.2866363525391</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>188.9883422851562</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>187.3277893066406</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>184.7129211425781</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>183.1175994873047</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>176.1180267333984</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>168.4916381835938</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>163.9682312011719</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>161.578125</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>158.5282592773438</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>149.0564270019531</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>146.4855804443359</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>141.8046417236328</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>136.9578399658203</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>130.7581176757812</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>124.09326171875</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>116.4509582519531</v>
+      </c>
+      <c r="II3" t="n">
+        <v>107.816650390625</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>99.21945953369141</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>93.78971862792969</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>97.23324584960938</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>108.9729919433594</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>160.3784942626953</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>194.4015655517578</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>208.9636077880859</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>201.5037384033203</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>188.683837890625</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>176.8283538818359</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>160.2371215820312</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>140.5861663818359</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>123.9190292358398</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>106.3306503295898</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>104.031852722168</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>129.5649261474609</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>167.8236389160156</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>200.8308563232422</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>243.2167053222656</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>256.7741394042969</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>253.3674163818359</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>247.6908874511719</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>246.5431518554688</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>248.6460723876953</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>252.1260223388672</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>254.21533203125</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>254.9258728027344</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>255.5369873046875</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>256.3164367675781</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>257.3785400390625</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>949.623291015625</v>
       </c>
       <c r="B4" t="n">
-        <v>1045.668701171875</v>
+        <v>950.0448608398438</v>
       </c>
       <c r="C4" t="n">
-        <v>1050.1572265625</v>
+        <v>950.1556396484375</v>
       </c>
       <c r="D4" t="n">
-        <v>1052.5185546875</v>
+        <v>950.15966796875</v>
       </c>
       <c r="E4" t="n">
-        <v>1053.610473632812</v>
+        <v>950.1741333007812</v>
       </c>
       <c r="F4" t="n">
-        <v>1054.04296875</v>
+        <v>950.1962890625</v>
       </c>
       <c r="G4" t="n">
-        <v>1054.231323242188</v>
+        <v>950.2184448242188</v>
       </c>
       <c r="H4" t="n">
-        <v>1054.319091796875</v>
+        <v>950.2288818359375</v>
       </c>
       <c r="I4" t="n">
-        <v>1054.359619140625</v>
+        <v>950.2381591796875</v>
       </c>
       <c r="J4" t="n">
-        <v>1054.37890625</v>
+        <v>950.2464599609375</v>
       </c>
       <c r="K4" t="n">
-        <v>1054.388305664062</v>
+        <v>950.2578735351562</v>
       </c>
       <c r="L4" t="n">
-        <v>1054.392944335938</v>
+        <v>950.256591796875</v>
       </c>
       <c r="M4" t="n">
-        <v>1054.395263671875</v>
+        <v>950.2535400390625</v>
       </c>
       <c r="N4" t="n">
-        <v>1054.396484375</v>
+        <v>950.2505493164062</v>
       </c>
       <c r="O4" t="n">
-        <v>1054.397094726562</v>
+        <v>950.2469482421875</v>
       </c>
       <c r="P4" t="n">
-        <v>1054.3974609375</v>
+        <v>950.242431640625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.397705078125</v>
+        <v>950.2373046875</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.397705078125</v>
+        <v>950.2252197265625</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.397705078125</v>
+        <v>949.9896240234375</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.397705078125</v>
+        <v>947.2863159179688</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.397705078125</v>
+        <v>942.4542236328125</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.397705078125</v>
+        <v>937.0682373046875</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.397705078125</v>
+        <v>931.7069091796875</v>
       </c>
       <c r="X4" t="n">
-        <v>1054.397705078125</v>
+        <v>926.8419189453125</v>
       </c>
       <c r="Y4" t="n">
-        <v>1054.397705078125</v>
+        <v>922.212646484375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1054.397705078125</v>
+        <v>917.6287841796875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1054.397705078125</v>
+        <v>912.65087890625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1054.397705078125</v>
+        <v>908.1192626953125</v>
       </c>
       <c r="AC4" t="n">
-        <v>1054.397705078125</v>
+        <v>903.9828491210938</v>
       </c>
       <c r="AD4" t="n">
-        <v>1054.397705078125</v>
+        <v>900.1199951171875</v>
       </c>
       <c r="AE4" t="n">
-        <v>1054.397705078125</v>
+        <v>895.780517578125</v>
       </c>
       <c r="AF4" t="n">
-        <v>1054.397705078125</v>
+        <v>892.0535278320312</v>
       </c>
       <c r="AG4" t="n">
-        <v>1054.397705078125</v>
+        <v>889.02001953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1054.397705078125</v>
+        <v>887.2999267578125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1054.397705078125</v>
+        <v>886.7376708984375</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1054.397705078125</v>
+        <v>886.665283203125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1054.397705078125</v>
+        <v>889.8327026367188</v>
       </c>
       <c r="AL4" t="n">
-        <v>1054.397705078125</v>
+        <v>897.695556640625</v>
       </c>
       <c r="AM4" t="n">
-        <v>1054.397705078125</v>
+        <v>911.1444091796875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1054.397705078125</v>
+        <v>927.3435668945312</v>
       </c>
       <c r="AO4" t="n">
-        <v>1054.397705078125</v>
+        <v>947.1993408203125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1054.397705078125</v>
+        <v>968.3857421875</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1054.397705078125</v>
+        <v>990.761962890625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1057.05078125</v>
+        <v>1013.82080078125</v>
       </c>
       <c r="AS4" t="n">
-        <v>1059.441650390625</v>
+        <v>1038.1689453125</v>
       </c>
       <c r="AT4" t="n">
-        <v>1071.819213867188</v>
+        <v>1064.402221679688</v>
       </c>
       <c r="AU4" t="n">
-        <v>1079.738647460938</v>
+        <v>1091.92236328125</v>
       </c>
       <c r="AV4" t="n">
-        <v>1086.23828125</v>
+        <v>1135.675903320312</v>
       </c>
       <c r="AW4" t="n">
-        <v>1090.7578125</v>
+        <v>1181.79541015625</v>
       </c>
       <c r="AX4" t="n">
-        <v>1094.274291992188</v>
+        <v>1222.389038085938</v>
       </c>
       <c r="AY4" t="n">
-        <v>1097.646728515625</v>
+        <v>1251.545288085938</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1102.00634765625</v>
+        <v>1273.265380859375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1107.1396484375</v>
+        <v>1291.615600585938</v>
       </c>
       <c r="BB4" t="n">
-        <v>1112.94677734375</v>
+        <v>1320.08251953125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1117.43359375</v>
+        <v>1351.17724609375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1120.77978515625</v>
+        <v>1380.055297851562</v>
       </c>
       <c r="BE4" t="n">
-        <v>1124.732177734375</v>
+        <v>1402.781005859375</v>
       </c>
       <c r="BF4" t="n">
-        <v>1125.90869140625</v>
+        <v>1422.041259765625</v>
       </c>
       <c r="BG4" t="n">
-        <v>1126.237670898438</v>
+        <v>1442.88330078125</v>
       </c>
       <c r="BH4" t="n">
-        <v>1126.93408203125</v>
+        <v>1460.562744140625</v>
       </c>
       <c r="BI4" t="n">
-        <v>1127.269287109375</v>
+        <v>1495.0185546875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1128.104736328125</v>
+        <v>1509.531982421875</v>
       </c>
       <c r="BK4" t="n">
-        <v>1128.764038085938</v>
+        <v>1524.3427734375</v>
       </c>
       <c r="BL4" t="n">
-        <v>1128.906494140625</v>
+        <v>1546.265380859375</v>
       </c>
       <c r="BM4" t="n">
-        <v>1129.0029296875</v>
+        <v>1569.103759765625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1129.014282226562</v>
+        <v>1587.849243164062</v>
       </c>
       <c r="BO4" t="n">
-        <v>1129.01806640625</v>
+        <v>1605.171020507812</v>
       </c>
       <c r="BP4" t="n">
-        <v>1129.018798828125</v>
+        <v>1626.621337890625</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1128.918212890625</v>
+        <v>1648.49267578125</v>
       </c>
       <c r="BR4" t="n">
-        <v>1128.791625976562</v>
+        <v>1668.5615234375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1128.607666015625</v>
+        <v>1687.7158203125</v>
       </c>
       <c r="BT4" t="n">
-        <v>1128.352783203125</v>
+        <v>1704.39404296875</v>
       </c>
       <c r="BU4" t="n">
-        <v>1127.85693359375</v>
+        <v>1720.697875976562</v>
       </c>
       <c r="BV4" t="n">
-        <v>1127.296875</v>
+        <v>1742.08251953125</v>
       </c>
       <c r="BW4" t="n">
-        <v>1126.748291015625</v>
+        <v>1767.741455078125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1126.187744140625</v>
+        <v>1792.721313476562</v>
       </c>
       <c r="BY4" t="n">
-        <v>1125.658813476562</v>
+        <v>1813.253173828125</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1125.175415039062</v>
+        <v>1828.113525390625</v>
       </c>
       <c r="CA4" t="n">
-        <v>1124.70361328125</v>
+        <v>1841.813720703125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1124.22998046875</v>
+        <v>1854.0947265625</v>
       </c>
       <c r="CC4" t="n">
-        <v>1123.996948242188</v>
+        <v>1866.362060546875</v>
       </c>
       <c r="CD4" t="n">
-        <v>1123.88916015625</v>
+        <v>1878.795043945312</v>
       </c>
       <c r="CE4" t="n">
-        <v>1123.840209960938</v>
+        <v>1896.94140625</v>
       </c>
       <c r="CF4" t="n">
-        <v>1123.81982421875</v>
+        <v>1914.6669921875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1123.811401367188</v>
+        <v>1933.1962890625</v>
       </c>
       <c r="CH4" t="n">
-        <v>1123.885498046875</v>
+        <v>1951.374755859375</v>
       </c>
       <c r="CI4" t="n">
-        <v>1125.011474609375</v>
+        <v>1962.474731445312</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1129.172485351562</v>
+        <v>1970.0283203125</v>
       </c>
       <c r="CK4" t="n">
-        <v>1135.327270507812</v>
+        <v>1977.09814453125</v>
       </c>
       <c r="CL4" t="n">
-        <v>1142.250732421875</v>
+        <v>1986.152099609375</v>
       </c>
       <c r="CM4" t="n">
-        <v>1148.5732421875</v>
+        <v>1995.852416992188</v>
       </c>
       <c r="CN4" t="n">
-        <v>1153.806274414062</v>
+        <v>2007.504272460938</v>
       </c>
       <c r="CO4" t="n">
-        <v>1157.972900390625</v>
+        <v>2016.94140625</v>
       </c>
       <c r="CP4" t="n">
-        <v>1161.030395507812</v>
+        <v>2026.559814453125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1162.592163085938</v>
+        <v>2035.3271484375</v>
       </c>
       <c r="CR4" t="n">
-        <v>1164.5712890625</v>
+        <v>2043.83935546875</v>
       </c>
       <c r="CS4" t="n">
-        <v>1165.473266601562</v>
+        <v>2052.51318359375</v>
       </c>
       <c r="CT4" t="n">
-        <v>1165.96826171875</v>
+        <v>2071.232177734375</v>
       </c>
       <c r="CU4" t="n">
-        <v>1166.255249023438</v>
+        <v>2087.196044921875</v>
       </c>
       <c r="CV4" t="n">
-        <v>1166.4541015625</v>
+        <v>2099.90966796875</v>
       </c>
       <c r="CW4" t="n">
-        <v>1166.599853515625</v>
+        <v>2108.4990234375</v>
       </c>
       <c r="CX4" t="n">
-        <v>1166.696044921875</v>
+        <v>2118.6142578125</v>
       </c>
       <c r="CY4" t="n">
-        <v>1166.744140625</v>
+        <v>2140.92724609375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1166.768310546875</v>
+        <v>2151.45556640625</v>
       </c>
       <c r="DA4" t="n">
-        <v>1166.664794921875</v>
+        <v>2163.779296875</v>
       </c>
       <c r="DB4" t="n">
-        <v>1166.38623046875</v>
+        <v>2168.03076171875</v>
       </c>
       <c r="DC4" t="n">
-        <v>1166.216552734375</v>
+        <v>2171.546875</v>
       </c>
       <c r="DD4" t="n">
-        <v>1164.805297851562</v>
+        <v>2174.762939453125</v>
       </c>
       <c r="DE4" t="n">
-        <v>1162.711181640625</v>
+        <v>2177.996337890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>1158.58642578125</v>
+        <v>2180.39208984375</v>
       </c>
       <c r="DG4" t="n">
-        <v>1152.522705078125</v>
+        <v>2184.303466796875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1136.951049804688</v>
+        <v>2192.85986328125</v>
       </c>
       <c r="DI4" t="n">
-        <v>1127.868041992188</v>
+        <v>2195.168212890625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1118.4912109375</v>
+        <v>2195.7392578125</v>
       </c>
       <c r="DK4" t="n">
-        <v>1108.65283203125</v>
+        <v>2196.67138671875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1098.77783203125</v>
+        <v>2197.55029296875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1088.614013671875</v>
+        <v>2197.975341796875</v>
       </c>
       <c r="DN4" t="n">
-        <v>1074.313354492188</v>
+        <v>2198.35546875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1052.5302734375</v>
+        <v>2199.30224609375</v>
       </c>
       <c r="DP4" t="n">
-        <v>1046.3115234375</v>
+        <v>2199.74072265625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1038.58154296875</v>
+        <v>2200.7265625</v>
       </c>
       <c r="DR4" t="n">
-        <v>1035.846923828125</v>
+        <v>2201.3037109375</v>
       </c>
       <c r="DS4" t="n">
-        <v>1033.25</v>
+        <v>2201.85302734375</v>
       </c>
       <c r="DT4" t="n">
-        <v>1028.610595703125</v>
+        <v>2202.989990234375</v>
       </c>
       <c r="DU4" t="n">
-        <v>1027.16748046875</v>
+        <v>2203.16650390625</v>
       </c>
       <c r="DV4" t="n">
-        <v>1026.5537109375</v>
+        <v>2203.3193359375</v>
       </c>
       <c r="DW4" t="n">
-        <v>1026.1953125</v>
+        <v>2203.584716796875</v>
       </c>
       <c r="DX4" t="n">
-        <v>1026.162841796875</v>
+        <v>2203.5791015625</v>
       </c>
       <c r="DY4" t="n">
-        <v>1027.067138671875</v>
+        <v>2203.572265625</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1030.3310546875</v>
+        <v>2203.55712890625</v>
       </c>
       <c r="EA4" t="n">
-        <v>1040.073486328125</v>
+        <v>2203.5439453125</v>
       </c>
       <c r="EB4" t="n">
-        <v>1048.413330078125</v>
+        <v>2203.525146484375</v>
       </c>
       <c r="EC4" t="n">
-        <v>1051.617919921875</v>
+        <v>2201.934814453125</v>
       </c>
       <c r="ED4" t="n">
-        <v>1057.428466796875</v>
+        <v>2200.082763671875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1064.831298828125</v>
+        <v>2192.630615234375</v>
       </c>
       <c r="EF4" t="n">
-        <v>1071.1337890625</v>
+        <v>2185.3349609375</v>
       </c>
       <c r="EG4" t="n">
-        <v>1102.541748046875</v>
+        <v>2181.615478515625</v>
       </c>
       <c r="EH4" t="n">
-        <v>1135.781127929688</v>
+        <v>2181.6669921875</v>
       </c>
       <c r="EI4" t="n">
-        <v>1150.052368164062</v>
+        <v>2181.849853515625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1164.920654296875</v>
+        <v>2181.89892578125</v>
       </c>
       <c r="EK4" t="n">
-        <v>1206.419921875</v>
+        <v>2181.91845703125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1229.797241210938</v>
+        <v>2181.920166015625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1255.796142578125</v>
+        <v>2181.92041015625</v>
       </c>
       <c r="EN4" t="n">
-        <v>1262.833862304688</v>
+        <v>2181.875</v>
       </c>
       <c r="EO4" t="n">
-        <v>1272.982666015625</v>
+        <v>2181.828125</v>
       </c>
       <c r="EP4" t="n">
-        <v>1276.833862304688</v>
+        <v>2181.2802734375</v>
       </c>
       <c r="EQ4" t="n">
-        <v>1278.993896484375</v>
+        <v>2177.510009765625</v>
       </c>
       <c r="ER4" t="n">
-        <v>1278.457153320312</v>
+        <v>2169.17822265625</v>
       </c>
       <c r="ES4" t="n">
-        <v>1275.310302734375</v>
+        <v>2165.666259765625</v>
       </c>
       <c r="ET4" t="n">
-        <v>1261.302124023438</v>
+        <v>2163.2607421875</v>
       </c>
       <c r="EU4" t="n">
-        <v>1241.017822265625</v>
+        <v>2162.7890625</v>
       </c>
       <c r="EV4" t="n">
-        <v>1226.078369140625</v>
+        <v>2162.78662109375</v>
       </c>
       <c r="EW4" t="n">
-        <v>1198.946899414062</v>
+        <v>2162.86767578125</v>
       </c>
       <c r="EX4" t="n">
-        <v>1190.89111328125</v>
+        <v>2162.901611328125</v>
       </c>
       <c r="EY4" t="n">
-        <v>1183.68359375</v>
+        <v>2162.91015625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>1169.59814453125</v>
+        <v>2162.900390625</v>
       </c>
       <c r="FA4" t="n">
-        <v>1153.885375976562</v>
+        <v>2162.84130859375</v>
       </c>
       <c r="FB4" t="n">
-        <v>1146.322998046875</v>
+        <v>2162.800537109375</v>
       </c>
       <c r="FC4" t="n">
-        <v>1131.229858398438</v>
+        <v>2162.75830078125</v>
       </c>
       <c r="FD4" t="n">
-        <v>1122.873779296875</v>
+        <v>2162.7275390625</v>
       </c>
       <c r="FE4" t="n">
-        <v>1104.50146484375</v>
+        <v>2162.709716796875</v>
       </c>
       <c r="FF4" t="n">
-        <v>1094.51953125</v>
+        <v>2162.696533203125</v>
       </c>
       <c r="FG4" t="n">
-        <v>1072.583984375</v>
+        <v>2162.69482421875</v>
       </c>
       <c r="FH4" t="n">
-        <v>1044.240112304688</v>
+        <v>2162.681640625</v>
       </c>
       <c r="FI4" t="n">
-        <v>1030.029907226562</v>
+        <v>2162.21728515625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>1011.943969726562</v>
+        <v>2161.7880859375</v>
       </c>
       <c r="FK4" t="n">
-        <v>990.7455444335938</v>
+        <v>2161.050537109375</v>
       </c>
       <c r="FL4" t="n">
-        <v>985.1571044921875</v>
+        <v>2160.51318359375</v>
       </c>
       <c r="FM4" t="n">
-        <v>972.027099609375</v>
+        <v>2159.49365234375</v>
       </c>
       <c r="FN4" t="n">
-        <v>953.5233764648438</v>
+        <v>2158.94970703125</v>
       </c>
       <c r="FO4" t="n">
-        <v>945.0111083984375</v>
+        <v>2158.14208984375</v>
       </c>
       <c r="FP4" t="n">
-        <v>936.1224365234375</v>
+        <v>2156.47607421875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>921.8518676757812</v>
+        <v>2154.96142578125</v>
       </c>
       <c r="FR4" t="n">
-        <v>915.0421142578125</v>
+        <v>2154.0556640625</v>
       </c>
       <c r="FS4" t="n">
-        <v>900.3580322265625</v>
+        <v>2152.2919921875</v>
       </c>
       <c r="FT4" t="n">
-        <v>887.8182983398438</v>
+        <v>2151.9580078125</v>
       </c>
       <c r="FU4" t="n">
-        <v>877.6072998046875</v>
+        <v>2151.2919921875</v>
       </c>
       <c r="FV4" t="n">
-        <v>872.5938720703125</v>
+        <v>2150.98095703125</v>
       </c>
       <c r="FW4" t="n">
-        <v>861.7455444335938</v>
+        <v>2149.686279296875</v>
       </c>
       <c r="FX4" t="n">
-        <v>856.715087890625</v>
+        <v>2149.052734375</v>
       </c>
       <c r="FY4" t="n">
-        <v>846.6814575195312</v>
+        <v>2148.51806640625</v>
       </c>
       <c r="FZ4" t="n">
-        <v>840.508056640625</v>
+        <v>2148.1865234375</v>
       </c>
       <c r="GA4" t="n">
-        <v>825.509765625</v>
+        <v>2147.071533203125</v>
       </c>
       <c r="GB4" t="n">
-        <v>816.7150268554688</v>
+        <v>2146.53857421875</v>
       </c>
       <c r="GC4" t="n">
-        <v>799.2774658203125</v>
+        <v>2145.5283203125</v>
       </c>
       <c r="GD4" t="n">
-        <v>791.4371337890625</v>
+        <v>2145.48291015625</v>
       </c>
       <c r="GE4" t="n">
-        <v>777.8177490234375</v>
+        <v>2145.74072265625</v>
       </c>
       <c r="GF4" t="n">
-        <v>767.4990234375</v>
+        <v>2145.7939453125</v>
       </c>
       <c r="GG4" t="n">
-        <v>757.6405639648438</v>
+        <v>2145.8154296875</v>
       </c>
       <c r="GH4" t="n">
-        <v>746.4302978515625</v>
+        <v>2145.835693359375</v>
       </c>
       <c r="GI4" t="n">
-        <v>740.8110961914062</v>
+        <v>2145.859375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>735.2484130859375</v>
+        <v>2145.865234375</v>
       </c>
       <c r="GK4" t="n">
-        <v>723.19970703125</v>
+        <v>2145.87646484375</v>
       </c>
       <c r="GL4" t="n">
-        <v>716.3896484375</v>
+        <v>2145.89013671875</v>
       </c>
       <c r="GM4" t="n">
-        <v>697.6680908203125</v>
+        <v>2145.9033203125</v>
       </c>
       <c r="GN4" t="n">
-        <v>678.3076171875</v>
+        <v>2145.92724609375</v>
       </c>
       <c r="GO4" t="n">
-        <v>670.06884765625</v>
+        <v>2145.93408203125</v>
+      </c>
+      <c r="GP4" t="n">
+        <v>2145.93212890625</v>
+      </c>
+      <c r="GQ4" t="n">
+        <v>2145.931396484375</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2145.93115234375</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2145.93115234375</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2145.93115234375</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2145.927734375</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2145.92041015625</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2145.89501953125</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2143.061767578125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2131.69140625</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2112.2236328125</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2101.324462890625</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2085.12744140625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2052.8623046875</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2037.8720703125</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>1999.477416992188</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>1978.452758789062</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>1922.55712890625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>1869.102294921875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>1835.502075195312</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>1817.0107421875</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>1774.234130859375</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>1729.998657226562</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>1704.7412109375</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>1693.453735351562</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>1662.306396484375</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>1626.3017578125</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>1592.03759765625</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>1554.113403320312</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>1517.404052734375</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>1478.685302734375</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>1438.668579101562</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>1416.87109375</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>1374.509521484375</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>1339.590698242188</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>1294.458984375</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>1262.602783203125</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>1229.423828125</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>1174.82177734375</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>1157.612060546875</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>1118.948974609375</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>1078.02197265625</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>1028.337646484375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>974.454833984375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>916.8455810546875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>858.407958984375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>809.84521484375</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>768.226318359375</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>727.3909301757812</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>686.3294677734375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>613.2431640625</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>581.6578369140625</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>570.6563720703125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>575.1539916992188</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>584.0833740234375</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>596.765625</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>620.740478515625</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>647.2884521484375</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>660.2380981445312</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>658.1032104492188</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>655.3023681640625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>652.2972412109375</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>651.4969482421875</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>666.8585815429688</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>730.45166015625</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>780.5383911132812</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>818.6400146484375</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>851.9462890625</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>881.84423828125</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>910.5531005859375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>916.7095336914062</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>915.8869018554688</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>902.6478271484375</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>876.01220703125</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>842.8693237304688</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>801.2919921875</v>
       </c>
     </row>
   </sheetData>

--- a/neck_Data.xlsx
+++ b/neck_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JM4"/>
+  <dimension ref="A1:GQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,2690 +1031,1802 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="GR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="HZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="II1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IM1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IN1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IO1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IP1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IQ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IR1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IT1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IU1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IV1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IW1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IX1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IY1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JB1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JE1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JF1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JI1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JJ1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JL1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="JM1" s="1" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>236.7241516113281</v>
+        <v>408.3970642089844</v>
       </c>
       <c r="B2" t="n">
-        <v>236.90283203125</v>
+        <v>407.212158203125</v>
       </c>
       <c r="C2" t="n">
-        <v>236.9131164550781</v>
+        <v>406.3389282226562</v>
       </c>
       <c r="D2" t="n">
-        <v>236.9129638671875</v>
+        <v>405.3923950195312</v>
       </c>
       <c r="E2" t="n">
-        <v>236.91357421875</v>
+        <v>404.3621215820312</v>
       </c>
       <c r="F2" t="n">
-        <v>236.914794921875</v>
+        <v>403.1634216308594</v>
       </c>
       <c r="G2" t="n">
-        <v>236.9159851074219</v>
+        <v>401.6947021484375</v>
       </c>
       <c r="H2" t="n">
-        <v>236.9161834716797</v>
+        <v>400.0396118164062</v>
       </c>
       <c r="I2" t="n">
-        <v>236.9166717529297</v>
+        <v>397.9103088378906</v>
       </c>
       <c r="J2" t="n">
-        <v>236.9170837402344</v>
+        <v>394.5791625976562</v>
       </c>
       <c r="K2" t="n">
-        <v>236.9177551269531</v>
+        <v>390.4386596679688</v>
       </c>
       <c r="L2" t="n">
-        <v>236.9175415039062</v>
+        <v>385.6856994628906</v>
       </c>
       <c r="M2" t="n">
-        <v>236.917236328125</v>
+        <v>380.8403930664062</v>
       </c>
       <c r="N2" t="n">
-        <v>236.9169616699219</v>
+        <v>371.4008178710938</v>
       </c>
       <c r="O2" t="n">
-        <v>236.9166412353516</v>
+        <v>362.1237182617188</v>
       </c>
       <c r="P2" t="n">
-        <v>236.9164276123047</v>
+        <v>356.5789489746094</v>
       </c>
       <c r="Q2" t="n">
-        <v>236.9161834716797</v>
+        <v>353.5421447753906</v>
       </c>
       <c r="R2" t="n">
-        <v>236.9159545898438</v>
+        <v>352.0103759765625</v>
       </c>
       <c r="S2" t="n">
-        <v>236.8965454101562</v>
+        <v>351.1758117675781</v>
       </c>
       <c r="T2" t="n">
-        <v>236.6660766601562</v>
+        <v>350.6049194335938</v>
       </c>
       <c r="U2" t="n">
-        <v>236.3198547363281</v>
+        <v>350.2139892578125</v>
       </c>
       <c r="V2" t="n">
-        <v>236.0451965332031</v>
+        <v>349.8789978027344</v>
       </c>
       <c r="W2" t="n">
-        <v>236.6535949707031</v>
+        <v>349.5650939941406</v>
       </c>
       <c r="X2" t="n">
-        <v>238.6322326660156</v>
+        <v>349.2737426757812</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.2469787597656</v>
+        <v>349.0719299316406</v>
       </c>
       <c r="Z2" t="n">
-        <v>243.5847473144531</v>
+        <v>348.9115905761719</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.6863403320312</v>
+        <v>348.8027648925781</v>
       </c>
       <c r="AB2" t="n">
-        <v>247.5050964355469</v>
+        <v>348.7384643554688</v>
       </c>
       <c r="AC2" t="n">
-        <v>249.0588226318359</v>
+        <v>348.7103881835938</v>
       </c>
       <c r="AD2" t="n">
-        <v>251.1248474121094</v>
+        <v>348.7008972167969</v>
       </c>
       <c r="AE2" t="n">
-        <v>253.3842315673828</v>
+        <v>348.861328125</v>
       </c>
       <c r="AF2" t="n">
-        <v>255.6665344238281</v>
+        <v>349.8462219238281</v>
       </c>
       <c r="AG2" t="n">
-        <v>257.7676086425781</v>
+        <v>351.4825439453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>259.7807006835938</v>
+        <v>353.3412170410156</v>
       </c>
       <c r="AI2" t="n">
-        <v>261.7803649902344</v>
+        <v>355.0970458984375</v>
       </c>
       <c r="AJ2" t="n">
-        <v>263.8321533203125</v>
+        <v>356.9047546386719</v>
       </c>
       <c r="AK2" t="n">
-        <v>265.7758178710938</v>
+        <v>358.6319580078125</v>
       </c>
       <c r="AL2" t="n">
-        <v>268.5442810058594</v>
+        <v>360.0365905761719</v>
       </c>
       <c r="AM2" t="n">
-        <v>271.4762878417969</v>
+        <v>361.1173095703125</v>
       </c>
       <c r="AN2" t="n">
-        <v>274.8170776367188</v>
+        <v>361.7594909667969</v>
       </c>
       <c r="AO2" t="n">
-        <v>278.0023193359375</v>
+        <v>362.1575317382812</v>
       </c>
       <c r="AP2" t="n">
-        <v>281.0925903320312</v>
+        <v>362.4052429199219</v>
       </c>
       <c r="AQ2" t="n">
-        <v>284.07080078125</v>
+        <v>362.584716796875</v>
       </c>
       <c r="AR2" t="n">
-        <v>286.7414855957031</v>
+        <v>362.7148132324219</v>
       </c>
       <c r="AS2" t="n">
-        <v>289.4105529785156</v>
+        <v>361.8749389648438</v>
       </c>
       <c r="AT2" t="n">
-        <v>291.5783386230469</v>
+        <v>359.7952880859375</v>
       </c>
       <c r="AU2" t="n">
-        <v>293.0918579101562</v>
+        <v>356.4980773925781</v>
       </c>
       <c r="AV2" t="n">
-        <v>294.4885864257812</v>
+        <v>352.5079040527344</v>
       </c>
       <c r="AW2" t="n">
-        <v>295.6571960449219</v>
+        <v>348.0560913085938</v>
       </c>
       <c r="AX2" t="n">
-        <v>296.5489501953125</v>
+        <v>339.9309692382812</v>
       </c>
       <c r="AY2" t="n">
-        <v>297.11279296875</v>
+        <v>332.6193237304688</v>
       </c>
       <c r="AZ2" t="n">
-        <v>297.5095825195312</v>
+        <v>324.1693115234375</v>
       </c>
       <c r="BA2" t="n">
-        <v>297.841552734375</v>
+        <v>315.3488159179688</v>
       </c>
       <c r="BB2" t="n">
-        <v>298.6403198242188</v>
+        <v>306.417724609375</v>
       </c>
       <c r="BC2" t="n">
-        <v>300.1094665527344</v>
+        <v>298.9088745117188</v>
       </c>
       <c r="BD2" t="n">
-        <v>302.5059204101562</v>
+        <v>292.9129943847656</v>
       </c>
       <c r="BE2" t="n">
-        <v>304.5042724609375</v>
+        <v>285.1520385742188</v>
       </c>
       <c r="BF2" t="n">
-        <v>306.5362548828125</v>
+        <v>276.4177551269531</v>
       </c>
       <c r="BG2" t="n">
-        <v>308.6020202636719</v>
+        <v>268.9739074707031</v>
       </c>
       <c r="BH2" t="n">
-        <v>311.290771484375</v>
+        <v>262.6680603027344</v>
       </c>
       <c r="BI2" t="n">
-        <v>315.4416198730469</v>
+        <v>257.9224243164062</v>
       </c>
       <c r="BJ2" t="n">
-        <v>317.1388549804688</v>
+        <v>254.2360687255859</v>
       </c>
       <c r="BK2" t="n">
-        <v>319.3069763183594</v>
+        <v>251.1318054199219</v>
       </c>
       <c r="BL2" t="n">
-        <v>322.4273681640625</v>
+        <v>248.3341674804688</v>
       </c>
       <c r="BM2" t="n">
-        <v>325.2521362304688</v>
+        <v>244.7550811767578</v>
       </c>
       <c r="BN2" t="n">
-        <v>328.0346069335938</v>
+        <v>241.7172393798828</v>
       </c>
       <c r="BO2" t="n">
-        <v>330.7648010253906</v>
+        <v>239.3058166503906</v>
       </c>
       <c r="BP2" t="n">
-        <v>333.5972290039062</v>
+        <v>237.2906341552734</v>
       </c>
       <c r="BQ2" t="n">
-        <v>336.2799072265625</v>
+        <v>235.7823486328125</v>
       </c>
       <c r="BR2" t="n">
-        <v>339.027099609375</v>
+        <v>234.6160125732422</v>
       </c>
       <c r="BS2" t="n">
-        <v>342.1570434570312</v>
+        <v>233.8287963867188</v>
       </c>
       <c r="BT2" t="n">
-        <v>345.1594543457031</v>
+        <v>233.1851501464844</v>
       </c>
       <c r="BU2" t="n">
-        <v>348.3597106933594</v>
+        <v>232.7462463378906</v>
       </c>
       <c r="BV2" t="n">
-        <v>350.9661254882812</v>
+        <v>232.5028686523438</v>
       </c>
       <c r="BW2" t="n">
-        <v>352.9833374023438</v>
+        <v>232.3681793212891</v>
       </c>
       <c r="BX2" t="n">
-        <v>354.7528686523438</v>
+        <v>232.218017578125</v>
       </c>
       <c r="BY2" t="n">
-        <v>356.5125732421875</v>
+        <v>232.0288391113281</v>
       </c>
       <c r="BZ2" t="n">
-        <v>358.2216186523438</v>
+        <v>231.8458862304688</v>
       </c>
       <c r="CA2" t="n">
-        <v>359.9902954101562</v>
+        <v>231.6472473144531</v>
       </c>
       <c r="CB2" t="n">
-        <v>361.420654296875</v>
+        <v>231.4583435058594</v>
       </c>
       <c r="CC2" t="n">
-        <v>362.3212890625</v>
+        <v>231.2723999023438</v>
       </c>
       <c r="CD2" t="n">
-        <v>363.2137451171875</v>
+        <v>231.0782623291016</v>
       </c>
       <c r="CE2" t="n">
-        <v>363.543212890625</v>
+        <v>230.894287109375</v>
       </c>
       <c r="CF2" t="n">
-        <v>363.8042602539062</v>
+        <v>230.7316284179688</v>
       </c>
       <c r="CG2" t="n">
-        <v>363.8600463867188</v>
+        <v>230.7119140625</v>
       </c>
       <c r="CH2" t="n">
-        <v>364.1000671386719</v>
+        <v>230.7441711425781</v>
       </c>
       <c r="CI2" t="n">
-        <v>364.6393432617188</v>
+        <v>230.7906799316406</v>
       </c>
       <c r="CJ2" t="n">
-        <v>365.2077941894531</v>
+        <v>230.8433227539062</v>
       </c>
       <c r="CK2" t="n">
-        <v>365.4176635742188</v>
+        <v>230.9079284667969</v>
       </c>
       <c r="CL2" t="n">
-        <v>365.2984313964844</v>
+        <v>231.0439300537109</v>
       </c>
       <c r="CM2" t="n">
-        <v>364.9891967773438</v>
+        <v>231.1111145019531</v>
       </c>
       <c r="CN2" t="n">
-        <v>363.8199462890625</v>
+        <v>231.17626953125</v>
       </c>
       <c r="CO2" t="n">
-        <v>362.336669921875</v>
+        <v>231.2413177490234</v>
       </c>
       <c r="CP2" t="n">
-        <v>360.8619384765625</v>
+        <v>231.3047485351562</v>
       </c>
       <c r="CQ2" t="n">
-        <v>359.5621337890625</v>
+        <v>231.3713684082031</v>
       </c>
       <c r="CR2" t="n">
-        <v>357.51123046875</v>
+        <v>231.5055541992188</v>
       </c>
       <c r="CS2" t="n">
-        <v>355.59814453125</v>
+        <v>231.5715789794922</v>
       </c>
       <c r="CT2" t="n">
-        <v>353.6447143554688</v>
+        <v>231.6332092285156</v>
       </c>
       <c r="CU2" t="n">
-        <v>351.8328552246094</v>
+        <v>231.6950225830078</v>
       </c>
       <c r="CV2" t="n">
-        <v>350.2265625</v>
+        <v>231.7290954589844</v>
       </c>
       <c r="CW2" t="n">
-        <v>348.6198425292969</v>
+        <v>231.7767486572266</v>
       </c>
       <c r="CX2" t="n">
-        <v>347.4426574707031</v>
+        <v>232.0728302001953</v>
       </c>
       <c r="CY2" t="n">
-        <v>345.2344360351562</v>
+        <v>233.1572723388672</v>
       </c>
       <c r="CZ2" t="n">
-        <v>344.1081237792969</v>
+        <v>234.488037109375</v>
       </c>
       <c r="DA2" t="n">
-        <v>342.0579528808594</v>
+        <v>236.1239624023438</v>
       </c>
       <c r="DB2" t="n">
-        <v>340.9560546875</v>
+        <v>237.7677612304688</v>
       </c>
       <c r="DC2" t="n">
-        <v>339.7855224609375</v>
+        <v>239.1506958007812</v>
       </c>
       <c r="DD2" t="n">
-        <v>338.7432250976562</v>
+        <v>240.6177978515625</v>
       </c>
       <c r="DE2" t="n">
-        <v>337.7728881835938</v>
+        <v>242.5164642333984</v>
       </c>
       <c r="DF2" t="n">
-        <v>336.8751525878906</v>
+        <v>244.5348968505859</v>
       </c>
       <c r="DG2" t="n">
-        <v>336.0643920898438</v>
+        <v>246.9904174804688</v>
       </c>
       <c r="DH2" t="n">
-        <v>334.982666015625</v>
+        <v>250.0234680175781</v>
       </c>
       <c r="DI2" t="n">
-        <v>334.6291809082031</v>
+        <v>253.5986633300781</v>
       </c>
       <c r="DJ2" t="n">
-        <v>334.3108520507812</v>
+        <v>257.3036804199219</v>
       </c>
       <c r="DK2" t="n">
-        <v>334.0294799804688</v>
+        <v>261.8207092285156</v>
       </c>
       <c r="DL2" t="n">
-        <v>333.7072143554688</v>
+        <v>271.5719299316406</v>
       </c>
       <c r="DM2" t="n">
-        <v>333.3734130859375</v>
+        <v>277.3423767089844</v>
       </c>
       <c r="DN2" t="n">
-        <v>332.9671630859375</v>
+        <v>287.5756225585938</v>
       </c>
       <c r="DO2" t="n">
-        <v>332.4020080566406</v>
+        <v>298.406982421875</v>
       </c>
       <c r="DP2" t="n">
-        <v>332.1412963867188</v>
+        <v>313.6099243164062</v>
       </c>
       <c r="DQ2" t="n">
-        <v>331.8390197753906</v>
+        <v>319.6174621582031</v>
       </c>
       <c r="DR2" t="n">
-        <v>331.6978149414062</v>
+        <v>325.7630920410156</v>
       </c>
       <c r="DS2" t="n">
-        <v>331.6593627929688</v>
+        <v>339.6248779296875</v>
       </c>
       <c r="DT2" t="n">
-        <v>331.5812377929688</v>
+        <v>346.7156372070312</v>
       </c>
       <c r="DU2" t="n">
-        <v>331.5669555664062</v>
+        <v>353.6593322753906</v>
       </c>
       <c r="DV2" t="n">
-        <v>331.5632934570312</v>
+        <v>365.7335815429688</v>
       </c>
       <c r="DW2" t="n">
-        <v>331.5616455078125</v>
+        <v>375.2715454101562</v>
       </c>
       <c r="DX2" t="n">
-        <v>331.5618896484375</v>
+        <v>379.7120361328125</v>
       </c>
       <c r="DY2" t="n">
-        <v>331.5623474121094</v>
+        <v>384.0931701660156</v>
       </c>
       <c r="DZ2" t="n">
-        <v>331.5633544921875</v>
+        <v>389.0014953613281</v>
       </c>
       <c r="EA2" t="n">
-        <v>331.5650634765625</v>
+        <v>390.5907897949219</v>
       </c>
       <c r="EB2" t="n">
-        <v>331.5679931640625</v>
+        <v>393.89697265625</v>
       </c>
       <c r="EC2" t="n">
-        <v>331.9371948242188</v>
+        <v>395.1451110839844</v>
       </c>
       <c r="ED2" t="n">
-        <v>332.3605041503906</v>
+        <v>396.7013854980469</v>
       </c>
       <c r="EE2" t="n">
-        <v>334.5419311523438</v>
+        <v>397.4015808105469</v>
       </c>
       <c r="EF2" t="n">
-        <v>335.40869140625</v>
+        <v>398.1294250488281</v>
       </c>
       <c r="EG2" t="n">
-        <v>336.2910461425781</v>
+        <v>399.2073974609375</v>
       </c>
       <c r="EH2" t="n">
-        <v>336.5560302734375</v>
+        <v>397.8617553710938</v>
       </c>
       <c r="EI2" t="n">
-        <v>337.1008605957031</v>
+        <v>388.020263671875</v>
       </c>
       <c r="EJ2" t="n">
-        <v>337.4175720214844</v>
+        <v>380.6159057617188</v>
       </c>
       <c r="EK2" t="n">
-        <v>338.2078552246094</v>
+        <v>371.6289978027344</v>
       </c>
       <c r="EL2" t="n">
-        <v>338.7667236328125</v>
+        <v>367.2174377441406</v>
       </c>
       <c r="EM2" t="n">
-        <v>339.4545288085938</v>
+        <v>353.5970458984375</v>
       </c>
       <c r="EN2" t="n">
-        <v>339.7504272460938</v>
+        <v>345.2626037597656</v>
       </c>
       <c r="EO2" t="n">
-        <v>339.840087890625</v>
+        <v>331.2268676757812</v>
       </c>
       <c r="EP2" t="n">
-        <v>339.8295288085938</v>
+        <v>324.6237487792969</v>
       </c>
       <c r="EQ2" t="n">
-        <v>339.8543701171875</v>
+        <v>312.0371398925781</v>
       </c>
       <c r="ER2" t="n">
-        <v>339.9075622558594</v>
+        <v>304.3712463378906</v>
       </c>
       <c r="ES2" t="n">
-        <v>339.9347534179688</v>
+        <v>292.5850219726562</v>
       </c>
       <c r="ET2" t="n">
-        <v>339.9539794921875</v>
+        <v>288.3778076171875</v>
       </c>
       <c r="EU2" t="n">
-        <v>339.9581909179688</v>
+        <v>284.1750183105469</v>
       </c>
       <c r="EV2" t="n">
-        <v>339.9580688476562</v>
+        <v>274.7360534667969</v>
       </c>
       <c r="EW2" t="n">
-        <v>339.9573364257812</v>
+        <v>263.0566101074219</v>
       </c>
       <c r="EX2" t="n">
-        <v>339.9570922851562</v>
+        <v>256.9977111816406</v>
       </c>
       <c r="EY2" t="n">
-        <v>339.9572448730469</v>
+        <v>244.4537506103516</v>
       </c>
       <c r="EZ2" t="n">
-        <v>339.9603881835938</v>
+        <v>231.4983520507812</v>
       </c>
       <c r="FA2" t="n">
-        <v>339.9642333984375</v>
+        <v>225.2449340820312</v>
       </c>
       <c r="FB2" t="n">
-        <v>339.9661254882812</v>
+        <v>219.9584045410156</v>
       </c>
       <c r="FC2" t="n">
-        <v>339.9682006835938</v>
+        <v>211.8573608398438</v>
       </c>
       <c r="FD2" t="n">
-        <v>339.9736328125</v>
+        <v>206.7796630859375</v>
       </c>
       <c r="FE2" t="n">
-        <v>339.9886779785156</v>
+        <v>205.3193359375</v>
       </c>
       <c r="FF2" t="n">
-        <v>340.0131530761719</v>
+        <v>204.4532470703125</v>
       </c>
       <c r="FG2" t="n">
-        <v>340.0259704589844</v>
+        <v>204.4649047851562</v>
       </c>
       <c r="FH2" t="n">
-        <v>340.05078125</v>
+        <v>205.8507080078125</v>
       </c>
       <c r="FI2" t="n">
-        <v>340.0976867675781</v>
+        <v>209.3478698730469</v>
       </c>
       <c r="FJ2" t="n">
-        <v>340.1627197265625</v>
+        <v>226.2343444824219</v>
       </c>
       <c r="FK2" t="n">
-        <v>340.30615234375</v>
+        <v>239.3125152587891</v>
       </c>
       <c r="FL2" t="n">
-        <v>340.3893432617188</v>
+        <v>261.7983093261719</v>
       </c>
       <c r="FM2" t="n">
-        <v>340.5456848144531</v>
+        <v>270.7544860839844</v>
       </c>
       <c r="FN2" t="n">
-        <v>340.6317443847656</v>
+        <v>279.7811584472656</v>
       </c>
       <c r="FO2" t="n">
-        <v>340.6798706054688</v>
+        <v>302.1556701660156</v>
       </c>
       <c r="FP2" t="n">
-        <v>340.7327880859375</v>
+        <v>338.2744750976562</v>
       </c>
       <c r="FQ2" t="n">
-        <v>340.7678833007812</v>
+        <v>358.247314453125</v>
       </c>
       <c r="FR2" t="n">
-        <v>340.78173828125</v>
+        <v>386.8322143554688</v>
       </c>
       <c r="FS2" t="n">
-        <v>340.8098754882812</v>
+        <v>398.1545715332031</v>
       </c>
       <c r="FT2" t="n">
-        <v>340.8182067871094</v>
+        <v>409.080322265625</v>
       </c>
       <c r="FU2" t="n">
-        <v>340.8377685546875</v>
+        <v>437.8919067382812</v>
       </c>
       <c r="FV2" t="n">
-        <v>340.8477172851562</v>
+        <v>447.1099243164062</v>
       </c>
       <c r="FW2" t="n">
-        <v>340.8794555664062</v>
+        <v>460.8417053222656</v>
       </c>
       <c r="FX2" t="n">
-        <v>340.9014282226562</v>
+        <v>472.033447265625</v>
       </c>
       <c r="FY2" t="n">
-        <v>340.9225158691406</v>
+        <v>476.1277770996094</v>
       </c>
       <c r="FZ2" t="n">
-        <v>340.9335632324219</v>
+        <v>479.572509765625</v>
       </c>
       <c r="GA2" t="n">
-        <v>340.9603576660156</v>
+        <v>483.2621765136719</v>
       </c>
       <c r="GB2" t="n">
-        <v>340.9730224609375</v>
+        <v>483.7506103515625</v>
       </c>
       <c r="GC2" t="n">
-        <v>340.9920959472656</v>
+        <v>483.3526916503906</v>
       </c>
       <c r="GD2" t="n">
-        <v>340.9937133789062</v>
+        <v>478.1568603515625</v>
       </c>
       <c r="GE2" t="n">
-        <v>340.9912109375</v>
+        <v>472.9048461914062</v>
       </c>
       <c r="GF2" t="n">
-        <v>340.9906005859375</v>
+        <v>466.0298461914062</v>
       </c>
       <c r="GG2" t="n">
-        <v>340.989990234375</v>
+        <v>441.0941162109375</v>
       </c>
       <c r="GH2" t="n">
-        <v>340.97900390625</v>
+        <v>427.1789245605469</v>
       </c>
       <c r="GI2" t="n">
-        <v>340.9426879882812</v>
+        <v>405.0490112304688</v>
       </c>
       <c r="GJ2" t="n">
-        <v>340.9255676269531</v>
+        <v>395.1412353515625</v>
       </c>
       <c r="GK2" t="n">
-        <v>340.8822326660156</v>
+        <v>378.3301086425781</v>
       </c>
       <c r="GL2" t="n">
-        <v>340.7880249023438</v>
+        <v>369.7484130859375</v>
       </c>
       <c r="GM2" t="n">
-        <v>340.6234436035156</v>
+        <v>352.5848388671875</v>
       </c>
       <c r="GN2" t="n">
-        <v>340.1447143554688</v>
+        <v>339.048583984375</v>
       </c>
       <c r="GO2" t="n">
-        <v>339.4530029296875</v>
+        <v>334.2837219238281</v>
       </c>
       <c r="GP2" t="n">
-        <v>337.972412109375</v>
+        <v>328.191162109375</v>
       </c>
       <c r="GQ2" t="n">
-        <v>336.4925842285156</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>335.7978515625</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>335.50390625</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>335.1224365234375</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>334.8811340332031</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>334.3416748046875</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>333.5866088867188</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>332.8086853027344</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>330.8955078125</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>329.4776916503906</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>328.9095458984375</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>328.237548828125</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>327.61279296875</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>327.1434326171875</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>325.78564453125</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>325.6835632324219</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>325.6673889160156</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>325.6729736328125</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>325.5356140136719</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>325.4711608886719</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>325.3598022460938</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>325.2392883300781</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>325.0831298828125</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>324.9793090820312</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>324.7191162109375</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>322.3722534179688</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>319.0898132324219</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>315.5799560546875</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>311.7218322753906</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>306.897216796875</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>301.4037780761719</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>297.9193115234375</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>290.2183837890625</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>283.0558776855469</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>277.865478515625</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>273.6043701171875</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>270.6825561523438</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>265.7819519042969</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>264.1723937988281</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>261.1622314453125</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>258.6422424316406</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>256.275634765625</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>255.5990905761719</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>258.8081665039062</v>
-      </c>
-      <c r="II2" t="n">
-        <v>260.2162170410156</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>262.345703125</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>268.8993530273438</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>278.08837890625</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>285.2239685058594</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>278.3216857910156</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>268.3739624023438</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>253.4640808105469</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>239.9771728515625</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>233.7044372558594</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>233.1509552001953</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>235.9237060546875</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>232.3481750488281</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>220.8901062011719</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>199.5244598388672</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>180.790771484375</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>162.9574279785156</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>153.5126495361328</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>154.283447265625</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>168.0279388427734</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>177.6206207275391</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>184.2094116210938</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>189.7936401367188</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>195.5955200195312</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>206.8401794433594</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>211.1655883789062</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>212.6609497070312</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>211.5536651611328</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>208.6224060058594</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>204.5249938964844</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>198.6985626220703</v>
+        <v>321.9725952148438</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>108.4714202880859</v>
+        <v>244.2400054931641</v>
       </c>
       <c r="B3" t="n">
-        <v>108.3780746459961</v>
+        <v>241.5977935791016</v>
       </c>
       <c r="C3" t="n">
-        <v>108.3863983154297</v>
+        <v>238.5875549316406</v>
       </c>
       <c r="D3" t="n">
-        <v>108.3838043212891</v>
+        <v>236.7956390380859</v>
       </c>
       <c r="E3" t="n">
-        <v>108.3842620849609</v>
+        <v>235.5735168457031</v>
       </c>
       <c r="F3" t="n">
-        <v>108.3860015869141</v>
+        <v>234.4340362548828</v>
       </c>
       <c r="G3" t="n">
-        <v>108.3891677856445</v>
+        <v>232.4902496337891</v>
       </c>
       <c r="H3" t="n">
-        <v>108.3907928466797</v>
+        <v>229.9286193847656</v>
       </c>
       <c r="I3" t="n">
-        <v>108.3921661376953</v>
+        <v>226.75</v>
       </c>
       <c r="J3" t="n">
-        <v>108.3933792114258</v>
+        <v>222.4091644287109</v>
       </c>
       <c r="K3" t="n">
-        <v>108.3951187133789</v>
+        <v>217.204345703125</v>
       </c>
       <c r="L3" t="n">
-        <v>108.395133972168</v>
+        <v>211.3308868408203</v>
       </c>
       <c r="M3" t="n">
-        <v>108.394905090332</v>
+        <v>204.9441375732422</v>
       </c>
       <c r="N3" t="n">
-        <v>108.3946533203125</v>
+        <v>193.1340179443359</v>
       </c>
       <c r="O3" t="n">
-        <v>108.3934097290039</v>
+        <v>181.0659942626953</v>
       </c>
       <c r="P3" t="n">
-        <v>108.3920059204102</v>
+        <v>170.6711273193359</v>
       </c>
       <c r="Q3" t="n">
-        <v>108.3905410766602</v>
+        <v>164.3162536621094</v>
       </c>
       <c r="R3" t="n">
-        <v>108.3881607055664</v>
+        <v>160.0433502197266</v>
       </c>
       <c r="S3" t="n">
-        <v>108.3553848266602</v>
+        <v>156.6924285888672</v>
       </c>
       <c r="T3" t="n">
-        <v>107.9797058105469</v>
+        <v>153.2146606445312</v>
       </c>
       <c r="U3" t="n">
-        <v>107.3028335571289</v>
+        <v>149.569580078125</v>
       </c>
       <c r="V3" t="n">
-        <v>106.5401382446289</v>
+        <v>145.79248046875</v>
       </c>
       <c r="W3" t="n">
-        <v>105.7721862792969</v>
+        <v>142.3654174804688</v>
       </c>
       <c r="X3" t="n">
-        <v>105.0676422119141</v>
+        <v>139.447509765625</v>
       </c>
       <c r="Y3" t="n">
-        <v>104.3903274536133</v>
+        <v>136.9815521240234</v>
       </c>
       <c r="Z3" t="n">
-        <v>103.7129287719727</v>
+        <v>134.8940887451172</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.9695816040039</v>
+        <v>133.2873687744141</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.2858047485352</v>
+        <v>131.9443664550781</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.6557235717773</v>
+        <v>130.8990783691406</v>
       </c>
       <c r="AD3" t="n">
-        <v>101.0620956420898</v>
+        <v>130.1845397949219</v>
       </c>
       <c r="AE3" t="n">
-        <v>100.3891067504883</v>
+        <v>129.6975250244141</v>
       </c>
       <c r="AF3" t="n">
-        <v>99.80588531494141</v>
+        <v>129.2252044677734</v>
       </c>
       <c r="AG3" t="n">
-        <v>99.32899475097656</v>
+        <v>128.8942260742188</v>
       </c>
       <c r="AH3" t="n">
-        <v>99.05771636962891</v>
+        <v>128.6683654785156</v>
       </c>
       <c r="AI3" t="n">
-        <v>98.96974182128906</v>
+        <v>128.2888488769531</v>
       </c>
       <c r="AJ3" t="n">
-        <v>98.95970916748047</v>
+        <v>127.7705993652344</v>
       </c>
       <c r="AK3" t="n">
-        <v>99.46328735351562</v>
+        <v>127.1441040039062</v>
       </c>
       <c r="AL3" t="n">
-        <v>100.6999435424805</v>
+        <v>126.4958267211914</v>
       </c>
       <c r="AM3" t="n">
-        <v>102.7844009399414</v>
+        <v>125.8632507324219</v>
       </c>
       <c r="AN3" t="n">
-        <v>105.2495193481445</v>
+        <v>125.2608642578125</v>
       </c>
       <c r="AO3" t="n">
-        <v>108.1480484008789</v>
+        <v>124.7136917114258</v>
       </c>
       <c r="AP3" t="n">
-        <v>111.1035919189453</v>
+        <v>124.2751846313477</v>
       </c>
       <c r="AQ3" t="n">
-        <v>114.0875396728516</v>
+        <v>123.8956527709961</v>
       </c>
       <c r="AR3" t="n">
-        <v>117.1174926757812</v>
+        <v>123.6692886352539</v>
       </c>
       <c r="AS3" t="n">
-        <v>121.421875</v>
+        <v>123.9192581176758</v>
       </c>
       <c r="AT3" t="n">
-        <v>127.3833160400391</v>
+        <v>124.461296081543</v>
       </c>
       <c r="AU3" t="n">
-        <v>134.6375885009766</v>
+        <v>125.7955856323242</v>
       </c>
       <c r="AV3" t="n">
-        <v>146.9881134033203</v>
+        <v>127.1592254638672</v>
       </c>
       <c r="AW3" t="n">
-        <v>159.0661163330078</v>
+        <v>128.4922943115234</v>
       </c>
       <c r="AX3" t="n">
-        <v>166.4399719238281</v>
+        <v>129.5105285644531</v>
       </c>
       <c r="AY3" t="n">
-        <v>170.6650848388672</v>
+        <v>130.7243347167969</v>
       </c>
       <c r="AZ3" t="n">
-        <v>173.2983703613281</v>
+        <v>131.9483184814453</v>
       </c>
       <c r="BA3" t="n">
-        <v>175.3369140625</v>
+        <v>133.251953125</v>
       </c>
       <c r="BB3" t="n">
-        <v>177.2327423095703</v>
+        <v>134.5927124023438</v>
       </c>
       <c r="BC3" t="n">
-        <v>178.9170837402344</v>
+        <v>136.2324066162109</v>
       </c>
       <c r="BD3" t="n">
-        <v>179.790283203125</v>
+        <v>137.5899810791016</v>
       </c>
       <c r="BE3" t="n">
-        <v>180.1343536376953</v>
+        <v>138.2761688232422</v>
       </c>
       <c r="BF3" t="n">
-        <v>179.4336395263672</v>
+        <v>138.2833557128906</v>
       </c>
       <c r="BG3" t="n">
-        <v>178.6363525390625</v>
+        <v>138.0981750488281</v>
       </c>
       <c r="BH3" t="n">
-        <v>178.5256652832031</v>
+        <v>137.6657104492188</v>
       </c>
       <c r="BI3" t="n">
-        <v>179.932861328125</v>
+        <v>137.3491973876953</v>
       </c>
       <c r="BJ3" t="n">
-        <v>181.4210815429688</v>
+        <v>137.0060424804688</v>
       </c>
       <c r="BK3" t="n">
-        <v>183.1568145751953</v>
+        <v>136.8687286376953</v>
       </c>
       <c r="BL3" t="n">
-        <v>185.3420867919922</v>
+        <v>136.7729339599609</v>
       </c>
       <c r="BM3" t="n">
-        <v>187.4644470214844</v>
+        <v>136.8078765869141</v>
       </c>
       <c r="BN3" t="n">
-        <v>189.3140411376953</v>
+        <v>136.9735565185547</v>
       </c>
       <c r="BO3" t="n">
-        <v>191.3643798828125</v>
+        <v>137.1471252441406</v>
       </c>
       <c r="BP3" t="n">
-        <v>193.4185638427734</v>
+        <v>137.3172607421875</v>
       </c>
       <c r="BQ3" t="n">
-        <v>195.5442810058594</v>
+        <v>137.4561614990234</v>
       </c>
       <c r="BR3" t="n">
-        <v>197.3971252441406</v>
+        <v>137.5478515625</v>
       </c>
       <c r="BS3" t="n">
-        <v>199.7910461425781</v>
+        <v>137.6252136230469</v>
       </c>
       <c r="BT3" t="n">
-        <v>202.6129302978516</v>
+        <v>137.7047119140625</v>
       </c>
       <c r="BU3" t="n">
-        <v>204.5923004150391</v>
+        <v>137.7813110351562</v>
       </c>
       <c r="BV3" t="n">
-        <v>206.1165771484375</v>
+        <v>137.8570709228516</v>
       </c>
       <c r="BW3" t="n">
-        <v>207.1669311523438</v>
+        <v>137.984619140625</v>
       </c>
       <c r="BX3" t="n">
-        <v>207.9497375488281</v>
+        <v>138.1460876464844</v>
       </c>
       <c r="BY3" t="n">
-        <v>208.6826629638672</v>
+        <v>138.3395080566406</v>
       </c>
       <c r="BZ3" t="n">
-        <v>209.3647003173828</v>
+        <v>138.5717468261719</v>
       </c>
       <c r="CA3" t="n">
-        <v>210.2373504638672</v>
+        <v>138.8614501953125</v>
       </c>
       <c r="CB3" t="n">
-        <v>210.7799377441406</v>
+        <v>139.1783905029297</v>
       </c>
       <c r="CC3" t="n">
-        <v>211.1459503173828</v>
+        <v>139.5287628173828</v>
       </c>
       <c r="CD3" t="n">
-        <v>211.4182586669922</v>
+        <v>139.8991394042969</v>
       </c>
       <c r="CE3" t="n">
-        <v>211.5706634521484</v>
+        <v>140.2603149414062</v>
       </c>
       <c r="CF3" t="n">
-        <v>211.6024627685547</v>
+        <v>140.6222991943359</v>
       </c>
       <c r="CG3" t="n">
-        <v>211.7604522705078</v>
+        <v>140.9911346435547</v>
       </c>
       <c r="CH3" t="n">
-        <v>211.993896484375</v>
+        <v>141.3606719970703</v>
       </c>
       <c r="CI3" t="n">
-        <v>212.1517639160156</v>
+        <v>141.7343292236328</v>
       </c>
       <c r="CJ3" t="n">
-        <v>212.2663726806641</v>
+        <v>142.1065368652344</v>
       </c>
       <c r="CK3" t="n">
-        <v>212.7136993408203</v>
+        <v>142.4024658203125</v>
       </c>
       <c r="CL3" t="n">
-        <v>213.7279052734375</v>
+        <v>142.7638702392578</v>
       </c>
       <c r="CM3" t="n">
-        <v>214.6407928466797</v>
+        <v>142.9938049316406</v>
       </c>
       <c r="CN3" t="n">
-        <v>215.6442565917969</v>
+        <v>143.2262725830078</v>
       </c>
       <c r="CO3" t="n">
-        <v>216.3701171875</v>
+        <v>143.3619232177734</v>
       </c>
       <c r="CP3" t="n">
-        <v>217.6920013427734</v>
+        <v>143.4768676757812</v>
       </c>
       <c r="CQ3" t="n">
-        <v>218.7361755371094</v>
+        <v>143.5898590087891</v>
       </c>
       <c r="CR3" t="n">
-        <v>219.7267608642578</v>
+        <v>143.82080078125</v>
       </c>
       <c r="CS3" t="n">
-        <v>220.7794647216797</v>
+        <v>143.9080810546875</v>
       </c>
       <c r="CT3" t="n">
-        <v>221.4106903076172</v>
+        <v>143.9808502197266</v>
       </c>
       <c r="CU3" t="n">
-        <v>221.7743988037109</v>
+        <v>144.0557403564453</v>
       </c>
       <c r="CV3" t="n">
-        <v>221.9908599853516</v>
+        <v>144.0994873046875</v>
       </c>
       <c r="CW3" t="n">
-        <v>222.0876007080078</v>
+        <v>144.1092376708984</v>
       </c>
       <c r="CX3" t="n">
-        <v>222.2225952148438</v>
+        <v>144.1167602539062</v>
       </c>
       <c r="CY3" t="n">
-        <v>222.8159942626953</v>
+        <v>144.1181335449219</v>
       </c>
       <c r="CZ3" t="n">
-        <v>223.2402191162109</v>
+        <v>144.1174468994141</v>
       </c>
       <c r="DA3" t="n">
-        <v>224.1361999511719</v>
+        <v>144.1163940429688</v>
       </c>
       <c r="DB3" t="n">
-        <v>224.7394104003906</v>
+        <v>144.1152038574219</v>
       </c>
       <c r="DC3" t="n">
-        <v>225.3390960693359</v>
+        <v>144.1120910644531</v>
       </c>
       <c r="DD3" t="n">
-        <v>225.8243103027344</v>
+        <v>144.1080780029297</v>
       </c>
       <c r="DE3" t="n">
-        <v>226.0605621337891</v>
+        <v>144.1030120849609</v>
       </c>
       <c r="DF3" t="n">
-        <v>226.2193908691406</v>
+        <v>144.0976715087891</v>
       </c>
       <c r="DG3" t="n">
-        <v>226.4032287597656</v>
+        <v>144.0917663574219</v>
       </c>
       <c r="DH3" t="n">
-        <v>226.5853271484375</v>
+        <v>144.0840606689453</v>
       </c>
       <c r="DI3" t="n">
-        <v>226.6620483398438</v>
+        <v>144.0646514892578</v>
       </c>
       <c r="DJ3" t="n">
-        <v>226.6815643310547</v>
+        <v>143.9488830566406</v>
       </c>
       <c r="DK3" t="n">
-        <v>226.7037811279297</v>
+        <v>143.7870025634766</v>
       </c>
       <c r="DL3" t="n">
-        <v>226.7242431640625</v>
+        <v>143.2419281005859</v>
       </c>
       <c r="DM3" t="n">
-        <v>226.7447052001953</v>
+        <v>142.9558715820312</v>
       </c>
       <c r="DN3" t="n">
-        <v>226.7645568847656</v>
+        <v>143.7559356689453</v>
       </c>
       <c r="DO3" t="n">
-        <v>226.7956390380859</v>
+        <v>144.7039184570312</v>
       </c>
       <c r="DP3" t="n">
-        <v>226.8358917236328</v>
+        <v>145.6322021484375</v>
       </c>
       <c r="DQ3" t="n">
-        <v>226.9510345458984</v>
+        <v>145.7694702148438</v>
       </c>
       <c r="DR3" t="n">
-        <v>227.0081634521484</v>
+        <v>145.5754089355469</v>
       </c>
       <c r="DS3" t="n">
-        <v>227.0363616943359</v>
+        <v>144.909912109375</v>
       </c>
       <c r="DT3" t="n">
-        <v>227.0592498779297</v>
+        <v>144.6066284179688</v>
       </c>
       <c r="DU3" t="n">
-        <v>227.0648345947266</v>
+        <v>144.25390625</v>
       </c>
       <c r="DV3" t="n">
-        <v>227.0676574707031</v>
+        <v>140.8247375488281</v>
       </c>
       <c r="DW3" t="n">
-        <v>227.0709533691406</v>
+        <v>135.8255310058594</v>
       </c>
       <c r="DX3" t="n">
-        <v>227.0730895996094</v>
+        <v>134.0219879150391</v>
       </c>
       <c r="DY3" t="n">
-        <v>227.0735321044922</v>
+        <v>132.9365081787109</v>
       </c>
       <c r="DZ3" t="n">
-        <v>227.0738983154297</v>
+        <v>131.7955780029297</v>
       </c>
       <c r="EA3" t="n">
-        <v>227.0739288330078</v>
+        <v>131.3401336669922</v>
       </c>
       <c r="EB3" t="n">
-        <v>227.0739288330078</v>
+        <v>130.3278045654297</v>
       </c>
       <c r="EC3" t="n">
-        <v>227.0647888183594</v>
+        <v>129.7385406494141</v>
       </c>
       <c r="ED3" t="n">
-        <v>227.0540161132812</v>
+        <v>128.3341369628906</v>
       </c>
       <c r="EE3" t="n">
-        <v>227.0103149414062</v>
+        <v>127.4429626464844</v>
       </c>
       <c r="EF3" t="n">
-        <v>226.9672088623047</v>
+        <v>126.4423522949219</v>
       </c>
       <c r="EG3" t="n">
-        <v>226.9450836181641</v>
+        <v>124.5228881835938</v>
       </c>
       <c r="EH3" t="n">
-        <v>226.9454498291016</v>
+        <v>124.2955932617188</v>
       </c>
       <c r="EI3" t="n">
-        <v>226.9465942382812</v>
+        <v>123.6207427978516</v>
       </c>
       <c r="EJ3" t="n">
-        <v>226.9468688964844</v>
+        <v>123.3111038208008</v>
       </c>
       <c r="EK3" t="n">
-        <v>226.9468231201172</v>
+        <v>122.3844223022461</v>
       </c>
       <c r="EL3" t="n">
-        <v>226.9466552734375</v>
+        <v>122.0866012573242</v>
       </c>
       <c r="EM3" t="n">
-        <v>226.9460754394531</v>
+        <v>119.6541061401367</v>
       </c>
       <c r="EN3" t="n">
-        <v>226.8386535644531</v>
+        <v>118.4915924072266</v>
       </c>
       <c r="EO3" t="n">
-        <v>226.7766418457031</v>
+        <v>117.4541015625</v>
       </c>
       <c r="EP3" t="n">
-        <v>226.6090393066406</v>
+        <v>118.4433670043945</v>
       </c>
       <c r="EQ3" t="n">
-        <v>226.4811401367188</v>
+        <v>118.7890548706055</v>
       </c>
       <c r="ER3" t="n">
-        <v>226.2335510253906</v>
+        <v>118.2781829833984</v>
       </c>
       <c r="ES3" t="n">
-        <v>226.1082611083984</v>
+        <v>118.0422592163086</v>
       </c>
       <c r="ET3" t="n">
-        <v>225.9148101806641</v>
+        <v>118.3603363037109</v>
       </c>
       <c r="EU3" t="n">
-        <v>225.8772888183594</v>
+        <v>118.5360717773438</v>
       </c>
       <c r="EV3" t="n">
-        <v>225.8451080322266</v>
+        <v>117.2243423461914</v>
       </c>
       <c r="EW3" t="n">
-        <v>225.7594909667969</v>
+        <v>115.015380859375</v>
       </c>
       <c r="EX3" t="n">
-        <v>225.7064056396484</v>
+        <v>113.3388442993164</v>
       </c>
       <c r="EY3" t="n">
-        <v>225.6479034423828</v>
+        <v>109.21826171875</v>
       </c>
       <c r="EZ3" t="n">
-        <v>225.5900115966797</v>
+        <v>104.5612258911133</v>
       </c>
       <c r="FA3" t="n">
-        <v>225.5308685302734</v>
+        <v>101.7887802124023</v>
       </c>
       <c r="FB3" t="n">
-        <v>225.5014495849609</v>
+        <v>98.94709777832031</v>
       </c>
       <c r="FC3" t="n">
-        <v>225.4686737060547</v>
+        <v>97.68392181396484</v>
       </c>
       <c r="FD3" t="n">
-        <v>225.4076690673828</v>
+        <v>100.3019027709961</v>
       </c>
       <c r="FE3" t="n">
-        <v>225.3128814697266</v>
+        <v>103.9527587890625</v>
       </c>
       <c r="FF3" t="n">
-        <v>225.2605133056641</v>
+        <v>113.7979049682617</v>
       </c>
       <c r="FG3" t="n">
-        <v>225.2351379394531</v>
+        <v>119.4426803588867</v>
       </c>
       <c r="FH3" t="n">
-        <v>225.1425476074219</v>
+        <v>131.6500701904297</v>
       </c>
       <c r="FI3" t="n">
-        <v>225.0434112548828</v>
+        <v>138.4314117431641</v>
       </c>
       <c r="FJ3" t="n">
-        <v>224.9434661865234</v>
+        <v>159.0625762939453</v>
       </c>
       <c r="FK3" t="n">
-        <v>224.8744201660156</v>
+        <v>174.157958984375</v>
       </c>
       <c r="FL3" t="n">
-        <v>224.8485107421875</v>
+        <v>195.7043914794922</v>
       </c>
       <c r="FM3" t="n">
-        <v>224.7979278564453</v>
+        <v>202.3051452636719</v>
       </c>
       <c r="FN3" t="n">
-        <v>224.785888671875</v>
+        <v>207.6619262695312</v>
       </c>
       <c r="FO3" t="n">
-        <v>224.7728881835938</v>
+        <v>218.7636413574219</v>
       </c>
       <c r="FP3" t="n">
-        <v>224.74462890625</v>
+        <v>234.8518981933594</v>
       </c>
       <c r="FQ3" t="n">
-        <v>224.7204437255859</v>
+        <v>241.3850555419922</v>
       </c>
       <c r="FR3" t="n">
-        <v>224.7120361328125</v>
+        <v>242.0652618408203</v>
       </c>
       <c r="FS3" t="n">
-        <v>224.6981048583984</v>
+        <v>237.2874603271484</v>
       </c>
       <c r="FT3" t="n">
-        <v>224.6955108642578</v>
+        <v>231.3535461425781</v>
       </c>
       <c r="FU3" t="n">
-        <v>224.6905670166016</v>
+        <v>219.0441436767578</v>
       </c>
       <c r="FV3" t="n">
-        <v>224.6883239746094</v>
+        <v>217.0700988769531</v>
       </c>
       <c r="FW3" t="n">
-        <v>224.6790466308594</v>
+        <v>218.1232147216797</v>
       </c>
       <c r="FX3" t="n">
-        <v>224.6745300292969</v>
+        <v>220.5976104736328</v>
       </c>
       <c r="FY3" t="n">
-        <v>224.6707153320312</v>
+        <v>222.1697845458984</v>
       </c>
       <c r="FZ3" t="n">
-        <v>224.6683502197266</v>
+        <v>223.7793121337891</v>
       </c>
       <c r="GA3" t="n">
-        <v>224.6603851318359</v>
+        <v>225.8302307128906</v>
       </c>
       <c r="GB3" t="n">
-        <v>224.6565856933594</v>
+        <v>226.1446533203125</v>
       </c>
       <c r="GC3" t="n">
-        <v>224.6493682861328</v>
+        <v>226.0843658447266</v>
       </c>
       <c r="GD3" t="n">
-        <v>224.6490325927734</v>
+        <v>225.8388519287109</v>
       </c>
       <c r="GE3" t="n">
-        <v>224.65087890625</v>
+        <v>225.7003784179688</v>
       </c>
       <c r="GF3" t="n">
-        <v>224.6512603759766</v>
+        <v>225.5582885742188</v>
       </c>
       <c r="GG3" t="n">
-        <v>224.6514129638672</v>
+        <v>228.2265167236328</v>
       </c>
       <c r="GH3" t="n">
-        <v>224.6515502929688</v>
+        <v>231.7865447998047</v>
       </c>
       <c r="GI3" t="n">
-        <v>224.6517181396484</v>
+        <v>238.8663024902344</v>
       </c>
       <c r="GJ3" t="n">
-        <v>224.6517639160156</v>
+        <v>240.3814849853516</v>
       </c>
       <c r="GK3" t="n">
-        <v>224.6518402099609</v>
+        <v>244.4493408203125</v>
       </c>
       <c r="GL3" t="n">
-        <v>224.6519317626953</v>
+        <v>246.2336883544922</v>
       </c>
       <c r="GM3" t="n">
-        <v>224.6520233154297</v>
+        <v>247.6142730712891</v>
       </c>
       <c r="GN3" t="n">
-        <v>224.6521911621094</v>
+        <v>247.8759155273438</v>
       </c>
       <c r="GO3" t="n">
-        <v>224.6522521972656</v>
+        <v>247.0393676757812</v>
       </c>
       <c r="GP3" t="n">
-        <v>224.6522369384766</v>
+        <v>242.1788940429688</v>
       </c>
       <c r="GQ3" t="n">
-        <v>224.6522216796875</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>224.6522216796875</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>224.6522216796875</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>224.6521911621094</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>224.6521606445312</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>224.6520843505859</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>224.6518859863281</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>224.631591796875</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>224.5496063232422</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>224.2214508056641</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>223.935791015625</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>223.5538024902344</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>222.09619140625</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>221.6294708251953</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>220.4695129394531</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>220.1544647216797</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>219.3528289794922</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>217.2641296386719</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>212.1951904296875</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>209.5369567871094</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>205.7581787109375</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>204.0025024414062</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>203.1950836181641</v>
-      </c>
-      <c r="HN3" t="n">
-        <v>202.8025054931641</v>
-      </c>
-      <c r="HO3" t="n">
-        <v>199.0569305419922</v>
-      </c>
-      <c r="HP3" t="n">
-        <v>194.3589630126953</v>
-      </c>
-      <c r="HQ3" t="n">
-        <v>191.8626098632812</v>
-      </c>
-      <c r="HR3" t="n">
-        <v>190.2866363525391</v>
-      </c>
-      <c r="HS3" t="n">
-        <v>188.9883422851562</v>
-      </c>
-      <c r="HT3" t="n">
-        <v>187.3277893066406</v>
-      </c>
-      <c r="HU3" t="n">
-        <v>184.7129211425781</v>
-      </c>
-      <c r="HV3" t="n">
-        <v>183.1175994873047</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>176.1180267333984</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>168.4916381835938</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>163.9682312011719</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>161.578125</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>158.5282592773438</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>149.0564270019531</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>146.4855804443359</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>141.8046417236328</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>136.9578399658203</v>
-      </c>
-      <c r="IF3" t="n">
-        <v>130.7581176757812</v>
-      </c>
-      <c r="IG3" t="n">
-        <v>124.09326171875</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>116.4509582519531</v>
-      </c>
-      <c r="II3" t="n">
-        <v>107.816650390625</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>99.21945953369141</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>93.78971862792969</v>
-      </c>
-      <c r="IL3" t="n">
-        <v>97.23324584960938</v>
-      </c>
-      <c r="IM3" t="n">
-        <v>108.9729919433594</v>
-      </c>
-      <c r="IN3" t="n">
-        <v>160.3784942626953</v>
-      </c>
-      <c r="IO3" t="n">
-        <v>194.4015655517578</v>
-      </c>
-      <c r="IP3" t="n">
-        <v>208.9636077880859</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>201.5037384033203</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>188.683837890625</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>176.8283538818359</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>160.2371215820312</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>140.5861663818359</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>123.9190292358398</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>106.3306503295898</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>104.031852722168</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>129.5649261474609</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>167.8236389160156</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>200.8308563232422</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>243.2167053222656</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>256.7741394042969</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>253.3674163818359</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>247.6908874511719</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>246.5431518554688</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>248.6460723876953</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>252.1260223388672</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>254.21533203125</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>254.9258728027344</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>255.5369873046875</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>256.3164367675781</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>257.3785400390625</v>
+        <v>231.9430541992188</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>949.623291015625</v>
+        <v>1179.1669921875</v>
       </c>
       <c r="B4" t="n">
-        <v>950.0448608398438</v>
+        <v>1174.833618164062</v>
       </c>
       <c r="C4" t="n">
-        <v>950.1556396484375</v>
+        <v>1171.876953125</v>
       </c>
       <c r="D4" t="n">
-        <v>950.15966796875</v>
+        <v>1168.330078125</v>
       </c>
       <c r="E4" t="n">
-        <v>950.1741333007812</v>
+        <v>1163.72216796875</v>
       </c>
       <c r="F4" t="n">
-        <v>950.1962890625</v>
+        <v>1158.4462890625</v>
       </c>
       <c r="G4" t="n">
-        <v>950.2184448242188</v>
+        <v>1152.867919921875</v>
       </c>
       <c r="H4" t="n">
-        <v>950.2288818359375</v>
+        <v>1147.56689453125</v>
       </c>
       <c r="I4" t="n">
-        <v>950.2381591796875</v>
+        <v>1143.708862304688</v>
       </c>
       <c r="J4" t="n">
-        <v>950.2464599609375</v>
+        <v>1141.873413085938</v>
       </c>
       <c r="K4" t="n">
-        <v>950.2578735351562</v>
+        <v>1141.617553710938</v>
       </c>
       <c r="L4" t="n">
-        <v>950.256591796875</v>
+        <v>1144.807983398438</v>
       </c>
       <c r="M4" t="n">
-        <v>950.2535400390625</v>
+        <v>1152.072998046875</v>
       </c>
       <c r="N4" t="n">
-        <v>950.2505493164062</v>
+        <v>1173.27197265625</v>
       </c>
       <c r="O4" t="n">
-        <v>950.2469482421875</v>
+        <v>1199.14990234375</v>
       </c>
       <c r="P4" t="n">
-        <v>950.242431640625</v>
+        <v>1220.981201171875</v>
       </c>
       <c r="Q4" t="n">
-        <v>950.2373046875</v>
+        <v>1235.92041015625</v>
       </c>
       <c r="R4" t="n">
-        <v>950.2252197265625</v>
+        <v>1245.987060546875</v>
       </c>
       <c r="S4" t="n">
-        <v>949.9896240234375</v>
+        <v>1254.509765625</v>
       </c>
       <c r="T4" t="n">
-        <v>947.2863159179688</v>
+        <v>1264.068481445312</v>
       </c>
       <c r="U4" t="n">
-        <v>942.4542236328125</v>
+        <v>1275.079833984375</v>
       </c>
       <c r="V4" t="n">
-        <v>937.0682373046875</v>
+        <v>1287.171142578125</v>
       </c>
       <c r="W4" t="n">
-        <v>931.7069091796875</v>
+        <v>1298.864013671875</v>
       </c>
       <c r="X4" t="n">
-        <v>926.8419189453125</v>
+        <v>1309.779174804688</v>
       </c>
       <c r="Y4" t="n">
-        <v>922.212646484375</v>
+        <v>1318.302734375</v>
       </c>
       <c r="Z4" t="n">
-        <v>917.6287841796875</v>
+        <v>1325.352294921875</v>
       </c>
       <c r="AA4" t="n">
-        <v>912.65087890625</v>
+        <v>1330.127807617188</v>
       </c>
       <c r="AB4" t="n">
-        <v>908.1192626953125</v>
+        <v>1333.102661132812</v>
       </c>
       <c r="AC4" t="n">
-        <v>903.9828491210938</v>
+        <v>1334.509765625</v>
       </c>
       <c r="AD4" t="n">
-        <v>900.1199951171875</v>
+        <v>1335.184936523438</v>
       </c>
       <c r="AE4" t="n">
-        <v>895.780517578125</v>
+        <v>1335.501953125</v>
       </c>
       <c r="AF4" t="n">
-        <v>892.0535278320312</v>
+        <v>1335.649780273438</v>
       </c>
       <c r="AG4" t="n">
-        <v>889.02001953125</v>
+        <v>1335.71875</v>
       </c>
       <c r="AH4" t="n">
-        <v>887.2999267578125</v>
+        <v>1334.744018554688</v>
       </c>
       <c r="AI4" t="n">
-        <v>886.7376708984375</v>
+        <v>1331.045654296875</v>
       </c>
       <c r="AJ4" t="n">
-        <v>886.665283203125</v>
+        <v>1325.301025390625</v>
       </c>
       <c r="AK4" t="n">
-        <v>889.8327026367188</v>
+        <v>1318.132568359375</v>
       </c>
       <c r="AL4" t="n">
-        <v>897.695556640625</v>
+        <v>1310.693359375</v>
       </c>
       <c r="AM4" t="n">
-        <v>911.1444091796875</v>
+        <v>1303.472412109375</v>
       </c>
       <c r="AN4" t="n">
-        <v>927.3435668945312</v>
+        <v>1296.650146484375</v>
       </c>
       <c r="AO4" t="n">
-        <v>947.1993408203125</v>
+        <v>1290.506591796875</v>
       </c>
       <c r="AP4" t="n">
-        <v>968.3857421875</v>
+        <v>1285.621459960938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>990.761962890625</v>
+        <v>1281.3994140625</v>
       </c>
       <c r="AR4" t="n">
-        <v>1013.82080078125</v>
+        <v>1277.795654296875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1038.1689453125</v>
+        <v>1274.876708984375</v>
       </c>
       <c r="AT4" t="n">
-        <v>1064.402221679688</v>
+        <v>1273.009399414062</v>
       </c>
       <c r="AU4" t="n">
-        <v>1091.92236328125</v>
+        <v>1272.09619140625</v>
       </c>
       <c r="AV4" t="n">
-        <v>1135.675903320312</v>
+        <v>1271.683837890625</v>
       </c>
       <c r="AW4" t="n">
-        <v>1181.79541015625</v>
+        <v>1271.49560546875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1222.389038085938</v>
+        <v>1271.970581054688</v>
       </c>
       <c r="AY4" t="n">
-        <v>1251.545288085938</v>
+        <v>1272.5498046875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1273.265380859375</v>
+        <v>1274.63916015625</v>
       </c>
       <c r="BA4" t="n">
-        <v>1291.615600585938</v>
+        <v>1278.30859375</v>
       </c>
       <c r="BB4" t="n">
-        <v>1320.08251953125</v>
+        <v>1286.48095703125</v>
       </c>
       <c r="BC4" t="n">
-        <v>1351.17724609375</v>
+        <v>1293.174194335938</v>
       </c>
       <c r="BD4" t="n">
-        <v>1380.055297851562</v>
+        <v>1298.827392578125</v>
       </c>
       <c r="BE4" t="n">
-        <v>1402.781005859375</v>
+        <v>1305.172119140625</v>
       </c>
       <c r="BF4" t="n">
-        <v>1422.041259765625</v>
+        <v>1311.080078125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1442.88330078125</v>
+        <v>1317.38037109375</v>
       </c>
       <c r="BH4" t="n">
-        <v>1460.562744140625</v>
+        <v>1322.475341796875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1495.0185546875</v>
+        <v>1326.160888671875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1509.531982421875</v>
+        <v>1329.085205078125</v>
       </c>
       <c r="BK4" t="n">
-        <v>1524.3427734375</v>
+        <v>1332.309814453125</v>
       </c>
       <c r="BL4" t="n">
-        <v>1546.265380859375</v>
+        <v>1335.257080078125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1569.103759765625</v>
+        <v>1337.801635742188</v>
       </c>
       <c r="BN4" t="n">
-        <v>1587.849243164062</v>
+        <v>1340.99755859375</v>
       </c>
       <c r="BO4" t="n">
-        <v>1605.171020507812</v>
+        <v>1343.78271484375</v>
       </c>
       <c r="BP4" t="n">
-        <v>1626.621337890625</v>
+        <v>1346.2705078125</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1648.49267578125</v>
+        <v>1348.224609375</v>
       </c>
       <c r="BR4" t="n">
-        <v>1668.5615234375</v>
+        <v>1349.44384765625</v>
       </c>
       <c r="BS4" t="n">
-        <v>1687.7158203125</v>
+        <v>1350.204956054688</v>
       </c>
       <c r="BT4" t="n">
-        <v>1704.39404296875</v>
+        <v>1350.796142578125</v>
       </c>
       <c r="BU4" t="n">
-        <v>1720.697875976562</v>
+        <v>1351.282836914062</v>
       </c>
       <c r="BV4" t="n">
-        <v>1742.08251953125</v>
+        <v>1351.516357421875</v>
       </c>
       <c r="BW4" t="n">
-        <v>1767.741455078125</v>
+        <v>1351.594970703125</v>
       </c>
       <c r="BX4" t="n">
-        <v>1792.721313476562</v>
+        <v>1351.670043945312</v>
       </c>
       <c r="BY4" t="n">
-        <v>1813.253173828125</v>
+        <v>1351.738525390625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1828.113525390625</v>
+        <v>1351.812255859375</v>
       </c>
       <c r="CA4" t="n">
-        <v>1841.813720703125</v>
+        <v>1351.915283203125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1854.0947265625</v>
+        <v>1352.035034179688</v>
       </c>
       <c r="CC4" t="n">
-        <v>1866.362060546875</v>
+        <v>1352.166015625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1878.795043945312</v>
+        <v>1352.299560546875</v>
       </c>
       <c r="CE4" t="n">
-        <v>1896.94140625</v>
+        <v>1352.43798828125</v>
       </c>
       <c r="CF4" t="n">
-        <v>1914.6669921875</v>
+        <v>1352.637451171875</v>
       </c>
       <c r="CG4" t="n">
-        <v>1933.1962890625</v>
+        <v>1352.923583984375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1951.374755859375</v>
+        <v>1353.372436523438</v>
       </c>
       <c r="CI4" t="n">
-        <v>1962.474731445312</v>
+        <v>1353.94873046875</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1970.0283203125</v>
+        <v>1354.601318359375</v>
       </c>
       <c r="CK4" t="n">
-        <v>1977.09814453125</v>
+        <v>1355.444213867188</v>
       </c>
       <c r="CL4" t="n">
-        <v>1986.152099609375</v>
+        <v>1357.215698242188</v>
       </c>
       <c r="CM4" t="n">
-        <v>1995.852416992188</v>
+        <v>1358.0908203125</v>
       </c>
       <c r="CN4" t="n">
-        <v>2007.504272460938</v>
+        <v>1358.937377929688</v>
       </c>
       <c r="CO4" t="n">
-        <v>2016.94140625</v>
+        <v>1359.783813476562</v>
       </c>
       <c r="CP4" t="n">
-        <v>2026.559814453125</v>
+        <v>1360.61572265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2035.3271484375</v>
+        <v>1361.452880859375</v>
       </c>
       <c r="CR4" t="n">
-        <v>2043.83935546875</v>
+        <v>1363.081420898438</v>
       </c>
       <c r="CS4" t="n">
-        <v>2052.51318359375</v>
+        <v>1363.8818359375</v>
       </c>
       <c r="CT4" t="n">
-        <v>2071.232177734375</v>
+        <v>1364.615478515625</v>
       </c>
       <c r="CU4" t="n">
-        <v>2087.196044921875</v>
+        <v>1365.320922851562</v>
       </c>
       <c r="CV4" t="n">
-        <v>2099.90966796875</v>
+        <v>1365.534912109375</v>
       </c>
       <c r="CW4" t="n">
-        <v>2108.4990234375</v>
+        <v>1365.593627929688</v>
       </c>
       <c r="CX4" t="n">
-        <v>2118.6142578125</v>
+        <v>1365.5986328125</v>
       </c>
       <c r="CY4" t="n">
-        <v>2140.92724609375</v>
+        <v>1365.592529296875</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2151.45556640625</v>
+        <v>1365.5849609375</v>
       </c>
       <c r="DA4" t="n">
-        <v>2163.779296875</v>
+        <v>1365.576293945312</v>
       </c>
       <c r="DB4" t="n">
-        <v>2168.03076171875</v>
+        <v>1365.565307617188</v>
       </c>
       <c r="DC4" t="n">
-        <v>2171.546875</v>
+        <v>1365.528930664062</v>
       </c>
       <c r="DD4" t="n">
-        <v>2174.762939453125</v>
+        <v>1365.480834960938</v>
       </c>
       <c r="DE4" t="n">
-        <v>2177.996337890625</v>
+        <v>1365.417724609375</v>
       </c>
       <c r="DF4" t="n">
-        <v>2180.39208984375</v>
+        <v>1365.350463867188</v>
       </c>
       <c r="DG4" t="n">
-        <v>2184.303466796875</v>
+        <v>1365.27490234375</v>
       </c>
       <c r="DH4" t="n">
-        <v>2192.85986328125</v>
+        <v>1365.1728515625</v>
       </c>
       <c r="DI4" t="n">
-        <v>2195.168212890625</v>
+        <v>1364.904052734375</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2195.7392578125</v>
+        <v>1363.266357421875</v>
       </c>
       <c r="DK4" t="n">
-        <v>2196.67138671875</v>
+        <v>1360.97265625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2197.55029296875</v>
+        <v>1353.08349609375</v>
       </c>
       <c r="DM4" t="n">
-        <v>2197.975341796875</v>
+        <v>1348.6904296875</v>
       </c>
       <c r="DN4" t="n">
-        <v>2198.35546875</v>
+        <v>1344.493530273438</v>
       </c>
       <c r="DO4" t="n">
-        <v>2199.30224609375</v>
+        <v>1340.830322265625</v>
       </c>
       <c r="DP4" t="n">
-        <v>2199.74072265625</v>
+        <v>1333.23779296875</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2200.7265625</v>
+        <v>1327.913940429688</v>
       </c>
       <c r="DR4" t="n">
-        <v>2201.3037109375</v>
+        <v>1322.247802734375</v>
       </c>
       <c r="DS4" t="n">
-        <v>2201.85302734375</v>
+        <v>1311.659790039062</v>
       </c>
       <c r="DT4" t="n">
-        <v>2202.989990234375</v>
+        <v>1307.4150390625</v>
       </c>
       <c r="DU4" t="n">
-        <v>2203.16650390625</v>
+        <v>1303.540771484375</v>
       </c>
       <c r="DV4" t="n">
-        <v>2203.3193359375</v>
+        <v>1297.369384765625</v>
       </c>
       <c r="DW4" t="n">
-        <v>2203.584716796875</v>
+        <v>1290.68701171875</v>
       </c>
       <c r="DX4" t="n">
-        <v>2203.5791015625</v>
+        <v>1288.01171875</v>
       </c>
       <c r="DY4" t="n">
-        <v>2203.572265625</v>
+        <v>1285.29052734375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2203.55712890625</v>
+        <v>1279.424560546875</v>
       </c>
       <c r="EA4" t="n">
-        <v>2203.5439453125</v>
+        <v>1275.300537109375</v>
       </c>
       <c r="EB4" t="n">
-        <v>2203.525146484375</v>
+        <v>1264.419311523438</v>
       </c>
       <c r="EC4" t="n">
-        <v>2201.934814453125</v>
+        <v>1257.806030273438</v>
       </c>
       <c r="ED4" t="n">
-        <v>2200.082763671875</v>
+        <v>1242.092529296875</v>
       </c>
       <c r="EE4" t="n">
-        <v>2192.630615234375</v>
+        <v>1232.275634765625</v>
       </c>
       <c r="EF4" t="n">
-        <v>2185.3349609375</v>
+        <v>1221.426025390625</v>
       </c>
       <c r="EG4" t="n">
-        <v>2181.615478515625</v>
+        <v>1199.76171875</v>
       </c>
       <c r="EH4" t="n">
-        <v>2181.6669921875</v>
+        <v>1188.8134765625</v>
       </c>
       <c r="EI4" t="n">
-        <v>2181.849853515625</v>
+        <v>1155.796875</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2181.89892578125</v>
+        <v>1134.242065429688</v>
       </c>
       <c r="EK4" t="n">
-        <v>2181.91845703125</v>
+        <v>1092.97021484375</v>
       </c>
       <c r="EL4" t="n">
-        <v>2181.920166015625</v>
+        <v>1078.1435546875</v>
       </c>
       <c r="EM4" t="n">
-        <v>2181.92041015625</v>
+        <v>1041.505859375</v>
       </c>
       <c r="EN4" t="n">
-        <v>2181.875</v>
+        <v>1022.940246582031</v>
       </c>
       <c r="EO4" t="n">
-        <v>2181.828125</v>
+        <v>989.0574951171875</v>
       </c>
       <c r="EP4" t="n">
-        <v>2181.2802734375</v>
+        <v>978.494384765625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2177.510009765625</v>
+        <v>958.5186767578125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2169.17822265625</v>
+        <v>948.1029052734375</v>
       </c>
       <c r="ES4" t="n">
-        <v>2165.666259765625</v>
+        <v>930.1110229492188</v>
       </c>
       <c r="ET4" t="n">
-        <v>2163.2607421875</v>
+        <v>920.54150390625</v>
       </c>
       <c r="EU4" t="n">
-        <v>2162.7890625</v>
+        <v>910.4734497070312</v>
       </c>
       <c r="EV4" t="n">
-        <v>2162.78662109375</v>
+        <v>887.897216796875</v>
       </c>
       <c r="EW4" t="n">
-        <v>2162.86767578125</v>
+        <v>862.0363159179688</v>
       </c>
       <c r="EX4" t="n">
-        <v>2162.901611328125</v>
+        <v>848.8239135742188</v>
       </c>
       <c r="EY4" t="n">
-        <v>2162.91015625</v>
+        <v>821.7662353515625</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2162.900390625</v>
+        <v>793.5807495117188</v>
       </c>
       <c r="FA4" t="n">
-        <v>2162.84130859375</v>
+        <v>777.6370239257812</v>
       </c>
       <c r="FB4" t="n">
-        <v>2162.800537109375</v>
+        <v>761.8153076171875</v>
       </c>
       <c r="FC4" t="n">
-        <v>2162.75830078125</v>
+        <v>734.44677734375</v>
       </c>
       <c r="FD4" t="n">
-        <v>2162.7275390625</v>
+        <v>716.2463989257812</v>
       </c>
       <c r="FE4" t="n">
-        <v>2162.709716796875</v>
+        <v>710.8529052734375</v>
       </c>
       <c r="FF4" t="n">
-        <v>2162.696533203125</v>
+        <v>707.7108154296875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2162.69482421875</v>
+        <v>707.9349365234375</v>
       </c>
       <c r="FH4" t="n">
-        <v>2162.681640625</v>
+        <v>714.4282836914062</v>
       </c>
       <c r="FI4" t="n">
-        <v>2162.21728515625</v>
+        <v>720.337890625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2161.7880859375</v>
+        <v>732.62158203125</v>
       </c>
       <c r="FK4" t="n">
-        <v>2161.050537109375</v>
+        <v>736.3556518554688</v>
       </c>
       <c r="FL4" t="n">
-        <v>2160.51318359375</v>
+        <v>740.33056640625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2159.49365234375</v>
+        <v>741.912353515625</v>
       </c>
       <c r="FN4" t="n">
-        <v>2158.94970703125</v>
+        <v>743.703857421875</v>
       </c>
       <c r="FO4" t="n">
-        <v>2158.14208984375</v>
+        <v>749.433837890625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2156.47607421875</v>
+        <v>763.2491455078125</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2154.96142578125</v>
+        <v>772.3372192382812</v>
       </c>
       <c r="FR4" t="n">
-        <v>2154.0556640625</v>
+        <v>793.5477294921875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2152.2919921875</v>
+        <v>805.5433959960938</v>
       </c>
       <c r="FT4" t="n">
-        <v>2151.9580078125</v>
+        <v>817.032470703125</v>
       </c>
       <c r="FU4" t="n">
-        <v>2151.2919921875</v>
+        <v>836.7892456054688</v>
       </c>
       <c r="FV4" t="n">
-        <v>2150.98095703125</v>
+        <v>843.2254638671875</v>
       </c>
       <c r="FW4" t="n">
-        <v>2149.686279296875</v>
+        <v>853.5164184570312</v>
       </c>
       <c r="FX4" t="n">
-        <v>2149.052734375</v>
+        <v>860.291748046875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2148.51806640625</v>
+        <v>863.2227783203125</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2148.1865234375</v>
+        <v>865.29345703125</v>
       </c>
       <c r="GA4" t="n">
-        <v>2147.071533203125</v>
+        <v>866.9296875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2146.53857421875</v>
+        <v>867.0723876953125</v>
       </c>
       <c r="GC4" t="n">
-        <v>2145.5283203125</v>
+        <v>862.4498901367188</v>
       </c>
       <c r="GD4" t="n">
-        <v>2145.48291015625</v>
+        <v>847.5737915039062</v>
       </c>
       <c r="GE4" t="n">
-        <v>2145.74072265625</v>
+        <v>839.3722534179688</v>
       </c>
       <c r="GF4" t="n">
-        <v>2145.7939453125</v>
+        <v>830.9849853515625</v>
       </c>
       <c r="GG4" t="n">
-        <v>2145.8154296875</v>
+        <v>818.6236572265625</v>
       </c>
       <c r="GH4" t="n">
-        <v>2145.835693359375</v>
+        <v>811.8299560546875</v>
       </c>
       <c r="GI4" t="n">
-        <v>2145.859375</v>
+        <v>795.7192993164062</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2145.865234375</v>
+        <v>786.4503784179688</v>
       </c>
       <c r="GK4" t="n">
-        <v>2145.87646484375</v>
+        <v>764.1544189453125</v>
       </c>
       <c r="GL4" t="n">
-        <v>2145.89013671875</v>
+        <v>753.391845703125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2145.9033203125</v>
+        <v>736.9996337890625</v>
       </c>
       <c r="GN4" t="n">
-        <v>2145.92724609375</v>
+        <v>727.3192138671875</v>
       </c>
       <c r="GO4" t="n">
-        <v>2145.93408203125</v>
+        <v>724.2742919921875</v>
       </c>
       <c r="GP4" t="n">
-        <v>2145.93212890625</v>
+        <v>720.6468505859375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2145.931396484375</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>2145.93115234375</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>2145.93115234375</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>2145.93115234375</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>2145.927734375</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>2145.92041015625</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>2145.89501953125</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>2143.061767578125</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>2131.69140625</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>2112.2236328125</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>2101.324462890625</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>2085.12744140625</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>2052.8623046875</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>2037.8720703125</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>1999.477416992188</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>1978.452758789062</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>1922.55712890625</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>1869.102294921875</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>1835.502075195312</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>1817.0107421875</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>1774.234130859375</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>1729.998657226562</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>1704.7412109375</v>
-      </c>
-      <c r="HN4" t="n">
-        <v>1693.453735351562</v>
-      </c>
-      <c r="HO4" t="n">
-        <v>1662.306396484375</v>
-      </c>
-      <c r="HP4" t="n">
-        <v>1626.3017578125</v>
-      </c>
-      <c r="HQ4" t="n">
-        <v>1592.03759765625</v>
-      </c>
-      <c r="HR4" t="n">
-        <v>1554.113403320312</v>
-      </c>
-      <c r="HS4" t="n">
-        <v>1517.404052734375</v>
-      </c>
-      <c r="HT4" t="n">
-        <v>1478.685302734375</v>
-      </c>
-      <c r="HU4" t="n">
-        <v>1438.668579101562</v>
-      </c>
-      <c r="HV4" t="n">
-        <v>1416.87109375</v>
-      </c>
-      <c r="HW4" t="n">
-        <v>1374.509521484375</v>
-      </c>
-      <c r="HX4" t="n">
-        <v>1339.590698242188</v>
-      </c>
-      <c r="HY4" t="n">
-        <v>1294.458984375</v>
-      </c>
-      <c r="HZ4" t="n">
-        <v>1262.602783203125</v>
-      </c>
-      <c r="IA4" t="n">
-        <v>1229.423828125</v>
-      </c>
-      <c r="IB4" t="n">
-        <v>1174.82177734375</v>
-      </c>
-      <c r="IC4" t="n">
-        <v>1157.612060546875</v>
-      </c>
-      <c r="ID4" t="n">
-        <v>1118.948974609375</v>
-      </c>
-      <c r="IE4" t="n">
-        <v>1078.02197265625</v>
-      </c>
-      <c r="IF4" t="n">
-        <v>1028.337646484375</v>
-      </c>
-      <c r="IG4" t="n">
-        <v>974.454833984375</v>
-      </c>
-      <c r="IH4" t="n">
-        <v>916.8455810546875</v>
-      </c>
-      <c r="II4" t="n">
-        <v>858.407958984375</v>
-      </c>
-      <c r="IJ4" t="n">
-        <v>809.84521484375</v>
-      </c>
-      <c r="IK4" t="n">
-        <v>768.226318359375</v>
-      </c>
-      <c r="IL4" t="n">
-        <v>727.3909301757812</v>
-      </c>
-      <c r="IM4" t="n">
-        <v>686.3294677734375</v>
-      </c>
-      <c r="IN4" t="n">
-        <v>613.2431640625</v>
-      </c>
-      <c r="IO4" t="n">
-        <v>581.6578369140625</v>
-      </c>
-      <c r="IP4" t="n">
-        <v>570.6563720703125</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>575.1539916992188</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>584.0833740234375</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>596.765625</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>620.740478515625</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>647.2884521484375</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>660.2380981445312</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>658.1032104492188</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>655.3023681640625</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>652.2972412109375</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>651.4969482421875</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>666.8585815429688</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>730.45166015625</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>780.5383911132812</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>818.6400146484375</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>851.9462890625</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>881.84423828125</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>910.5531005859375</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>916.7095336914062</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>915.8869018554688</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>902.6478271484375</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>876.01220703125</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>842.8693237304688</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>801.2919921875</v>
+        <v>719.8065185546875</v>
       </c>
     </row>
   </sheetData>

--- a/neck_Data.xlsx
+++ b/neck_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:GQ4"/>
+  <dimension ref="A1:LD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,1802 +1031,3206 @@
       <c r="GQ1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="GR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="GZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="HZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="II1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>408.3970642089844</v>
+        <v>341.4157104492188</v>
       </c>
       <c r="B2" t="n">
-        <v>407.212158203125</v>
+        <v>335.67919921875</v>
       </c>
       <c r="C2" t="n">
-        <v>406.3389282226562</v>
+        <v>332.5799255371094</v>
       </c>
       <c r="D2" t="n">
-        <v>405.3923950195312</v>
+        <v>330.9918212890625</v>
       </c>
       <c r="E2" t="n">
-        <v>404.3621215820312</v>
+        <v>330.1203002929688</v>
       </c>
       <c r="F2" t="n">
-        <v>403.1634216308594</v>
+        <v>329.4667358398438</v>
       </c>
       <c r="G2" t="n">
-        <v>401.6947021484375</v>
+        <v>329.0888061523438</v>
       </c>
       <c r="H2" t="n">
-        <v>400.0396118164062</v>
+        <v>328.8490600585938</v>
       </c>
       <c r="I2" t="n">
-        <v>397.9103088378906</v>
+        <v>328.9338684082031</v>
       </c>
       <c r="J2" t="n">
-        <v>394.5791625976562</v>
+        <v>329.003662109375</v>
       </c>
       <c r="K2" t="n">
-        <v>390.4386596679688</v>
+        <v>329.4093627929688</v>
       </c>
       <c r="L2" t="n">
-        <v>385.6856994628906</v>
+        <v>329.9690551757812</v>
       </c>
       <c r="M2" t="n">
-        <v>380.8403930664062</v>
+        <v>330.6268310546875</v>
       </c>
       <c r="N2" t="n">
-        <v>371.4008178710938</v>
+        <v>331.3464660644531</v>
       </c>
       <c r="O2" t="n">
-        <v>362.1237182617188</v>
+        <v>331.7200317382812</v>
       </c>
       <c r="P2" t="n">
-        <v>356.5789489746094</v>
+        <v>332.0509033203125</v>
       </c>
       <c r="Q2" t="n">
-        <v>353.5421447753906</v>
+        <v>332.1519165039062</v>
       </c>
       <c r="R2" t="n">
-        <v>352.0103759765625</v>
+        <v>332.218994140625</v>
       </c>
       <c r="S2" t="n">
-        <v>351.1758117675781</v>
+        <v>332.1786193847656</v>
       </c>
       <c r="T2" t="n">
-        <v>350.6049194335938</v>
+        <v>332.06640625</v>
       </c>
       <c r="U2" t="n">
-        <v>350.2139892578125</v>
+        <v>331.8103332519531</v>
       </c>
       <c r="V2" t="n">
-        <v>349.8789978027344</v>
+        <v>331.1759643554688</v>
       </c>
       <c r="W2" t="n">
-        <v>349.5650939941406</v>
+        <v>330.3555908203125</v>
       </c>
       <c r="X2" t="n">
-        <v>349.2737426757812</v>
+        <v>328.7614440917969</v>
       </c>
       <c r="Y2" t="n">
-        <v>349.0719299316406</v>
+        <v>326.8114624023438</v>
       </c>
       <c r="Z2" t="n">
-        <v>348.9115905761719</v>
+        <v>325.1721496582031</v>
       </c>
       <c r="AA2" t="n">
-        <v>348.8027648925781</v>
+        <v>323.8190002441406</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.7384643554688</v>
+        <v>322.2191162109375</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.7103881835938</v>
+        <v>320.8228759765625</v>
       </c>
       <c r="AD2" t="n">
-        <v>348.7008972167969</v>
+        <v>319.6546936035156</v>
       </c>
       <c r="AE2" t="n">
-        <v>348.861328125</v>
+        <v>318.6811828613281</v>
       </c>
       <c r="AF2" t="n">
-        <v>349.8462219238281</v>
+        <v>318.0573425292969</v>
       </c>
       <c r="AG2" t="n">
-        <v>351.4825439453125</v>
+        <v>317.6091003417969</v>
       </c>
       <c r="AH2" t="n">
-        <v>353.3412170410156</v>
+        <v>317.2911682128906</v>
       </c>
       <c r="AI2" t="n">
-        <v>355.0970458984375</v>
+        <v>317.0705261230469</v>
       </c>
       <c r="AJ2" t="n">
-        <v>356.9047546386719</v>
+        <v>316.7501831054688</v>
       </c>
       <c r="AK2" t="n">
-        <v>358.6319580078125</v>
+        <v>316.5993041992188</v>
       </c>
       <c r="AL2" t="n">
-        <v>360.0365905761719</v>
+        <v>316.5335998535156</v>
       </c>
       <c r="AM2" t="n">
-        <v>361.1173095703125</v>
+        <v>316.5058288574219</v>
       </c>
       <c r="AN2" t="n">
-        <v>361.7594909667969</v>
+        <v>316.521728515625</v>
       </c>
       <c r="AO2" t="n">
-        <v>362.1575317382812</v>
+        <v>316.6359252929688</v>
       </c>
       <c r="AP2" t="n">
-        <v>362.4052429199219</v>
+        <v>317.3264770507812</v>
       </c>
       <c r="AQ2" t="n">
-        <v>362.584716796875</v>
+        <v>318.6897277832031</v>
       </c>
       <c r="AR2" t="n">
-        <v>362.7148132324219</v>
+        <v>320.3742065429688</v>
       </c>
       <c r="AS2" t="n">
-        <v>361.8749389648438</v>
+        <v>321.8875427246094</v>
       </c>
       <c r="AT2" t="n">
-        <v>359.7952880859375</v>
+        <v>323.2770385742188</v>
       </c>
       <c r="AU2" t="n">
-        <v>356.4980773925781</v>
+        <v>324.2696533203125</v>
       </c>
       <c r="AV2" t="n">
-        <v>352.5079040527344</v>
+        <v>325.0575256347656</v>
       </c>
       <c r="AW2" t="n">
-        <v>348.0560913085938</v>
+        <v>325.7943725585938</v>
       </c>
       <c r="AX2" t="n">
-        <v>339.9309692382812</v>
+        <v>326.36865234375</v>
       </c>
       <c r="AY2" t="n">
-        <v>332.6193237304688</v>
+        <v>326.6440124511719</v>
       </c>
       <c r="AZ2" t="n">
-        <v>324.1693115234375</v>
+        <v>326.8147583007812</v>
       </c>
       <c r="BA2" t="n">
-        <v>315.3488159179688</v>
+        <v>326.8915405273438</v>
       </c>
       <c r="BB2" t="n">
-        <v>306.417724609375</v>
+        <v>326.9237060546875</v>
       </c>
       <c r="BC2" t="n">
-        <v>298.9088745117188</v>
+        <v>326.9313354492188</v>
       </c>
       <c r="BD2" t="n">
-        <v>292.9129943847656</v>
+        <v>326.9287719726562</v>
       </c>
       <c r="BE2" t="n">
-        <v>285.1520385742188</v>
+        <v>326.8866577148438</v>
       </c>
       <c r="BF2" t="n">
-        <v>276.4177551269531</v>
+        <v>326.7517395019531</v>
       </c>
       <c r="BG2" t="n">
-        <v>268.9739074707031</v>
+        <v>326.4578552246094</v>
       </c>
       <c r="BH2" t="n">
-        <v>262.6680603027344</v>
+        <v>326.0939025878906</v>
       </c>
       <c r="BI2" t="n">
-        <v>257.9224243164062</v>
+        <v>325.5743408203125</v>
       </c>
       <c r="BJ2" t="n">
-        <v>254.2360687255859</v>
+        <v>324.9788818359375</v>
       </c>
       <c r="BK2" t="n">
-        <v>251.1318054199219</v>
+        <v>324.2959899902344</v>
       </c>
       <c r="BL2" t="n">
-        <v>248.3341674804688</v>
+        <v>323.7096557617188</v>
       </c>
       <c r="BM2" t="n">
-        <v>244.7550811767578</v>
+        <v>323.2943420410156</v>
       </c>
       <c r="BN2" t="n">
-        <v>241.7172393798828</v>
+        <v>323.0065307617188</v>
       </c>
       <c r="BO2" t="n">
-        <v>239.3058166503906</v>
+        <v>322.7412109375</v>
       </c>
       <c r="BP2" t="n">
-        <v>237.2906341552734</v>
+        <v>322.5369567871094</v>
       </c>
       <c r="BQ2" t="n">
-        <v>235.7823486328125</v>
+        <v>322.3633117675781</v>
       </c>
       <c r="BR2" t="n">
-        <v>234.6160125732422</v>
+        <v>322.2839660644531</v>
       </c>
       <c r="BS2" t="n">
-        <v>233.8287963867188</v>
+        <v>322.2464599609375</v>
       </c>
       <c r="BT2" t="n">
-        <v>233.1851501464844</v>
+        <v>322.209228515625</v>
       </c>
       <c r="BU2" t="n">
-        <v>232.7462463378906</v>
+        <v>322.171875</v>
       </c>
       <c r="BV2" t="n">
-        <v>232.5028686523438</v>
+        <v>322.1393432617188</v>
       </c>
       <c r="BW2" t="n">
-        <v>232.3681793212891</v>
+        <v>322.1089477539062</v>
       </c>
       <c r="BX2" t="n">
-        <v>232.218017578125</v>
+        <v>322.0661926269531</v>
       </c>
       <c r="BY2" t="n">
-        <v>232.0288391113281</v>
+        <v>322.0458679199219</v>
       </c>
       <c r="BZ2" t="n">
-        <v>231.8458862304688</v>
+        <v>322.02294921875</v>
       </c>
       <c r="CA2" t="n">
-        <v>231.6472473144531</v>
+        <v>321.9762573242188</v>
       </c>
       <c r="CB2" t="n">
-        <v>231.4583435058594</v>
+        <v>321.9533081054688</v>
       </c>
       <c r="CC2" t="n">
-        <v>231.2723999023438</v>
+        <v>321.9293518066406</v>
       </c>
       <c r="CD2" t="n">
-        <v>231.0782623291016</v>
+        <v>321.9032592773438</v>
       </c>
       <c r="CE2" t="n">
-        <v>230.894287109375</v>
+        <v>321.8782348632812</v>
       </c>
       <c r="CF2" t="n">
-        <v>230.7316284179688</v>
+        <v>321.8548583984375</v>
       </c>
       <c r="CG2" t="n">
-        <v>230.7119140625</v>
+        <v>321.83056640625</v>
       </c>
       <c r="CH2" t="n">
-        <v>230.7441711425781</v>
+        <v>321.8057250976562</v>
       </c>
       <c r="CI2" t="n">
-        <v>230.7906799316406</v>
+        <v>321.7792358398438</v>
       </c>
       <c r="CJ2" t="n">
-        <v>230.8433227539062</v>
+        <v>321.7510986328125</v>
       </c>
       <c r="CK2" t="n">
-        <v>230.9079284667969</v>
+        <v>321.722900390625</v>
       </c>
       <c r="CL2" t="n">
-        <v>231.0439300537109</v>
+        <v>321.6953125</v>
       </c>
       <c r="CM2" t="n">
-        <v>231.1111145019531</v>
+        <v>321.6641540527344</v>
       </c>
       <c r="CN2" t="n">
-        <v>231.17626953125</v>
+        <v>321.6323852539062</v>
       </c>
       <c r="CO2" t="n">
-        <v>231.2413177490234</v>
+        <v>321.6000061035156</v>
       </c>
       <c r="CP2" t="n">
-        <v>231.3047485351562</v>
+        <v>321.5638427734375</v>
       </c>
       <c r="CQ2" t="n">
-        <v>231.3713684082031</v>
+        <v>321.5279846191406</v>
       </c>
       <c r="CR2" t="n">
-        <v>231.5055541992188</v>
+        <v>321.4747314453125</v>
       </c>
       <c r="CS2" t="n">
-        <v>231.5715789794922</v>
+        <v>321.4179077148438</v>
       </c>
       <c r="CT2" t="n">
-        <v>231.6332092285156</v>
+        <v>321.3625793457031</v>
       </c>
       <c r="CU2" t="n">
-        <v>231.6950225830078</v>
+        <v>321.3065795898438</v>
       </c>
       <c r="CV2" t="n">
-        <v>231.7290954589844</v>
+        <v>321.2317504882812</v>
       </c>
       <c r="CW2" t="n">
-        <v>231.7767486572266</v>
+        <v>321.1498413085938</v>
       </c>
       <c r="CX2" t="n">
-        <v>232.0728302001953</v>
+        <v>321.0683898925781</v>
       </c>
       <c r="CY2" t="n">
-        <v>233.1572723388672</v>
+        <v>320.9831237792969</v>
       </c>
       <c r="CZ2" t="n">
-        <v>234.488037109375</v>
+        <v>320.9015502929688</v>
       </c>
       <c r="DA2" t="n">
-        <v>236.1239624023438</v>
+        <v>320.82275390625</v>
       </c>
       <c r="DB2" t="n">
-        <v>237.7677612304688</v>
+        <v>320.6627807617188</v>
       </c>
       <c r="DC2" t="n">
-        <v>239.1506958007812</v>
+        <v>320.583251953125</v>
       </c>
       <c r="DD2" t="n">
-        <v>240.6177978515625</v>
+        <v>320.4998779296875</v>
       </c>
       <c r="DE2" t="n">
-        <v>242.5164642333984</v>
+        <v>320.4165649414062</v>
       </c>
       <c r="DF2" t="n">
-        <v>244.5348968505859</v>
+        <v>320.3375854492188</v>
       </c>
       <c r="DG2" t="n">
-        <v>246.9904174804688</v>
+        <v>320.25732421875</v>
       </c>
       <c r="DH2" t="n">
-        <v>250.0234680175781</v>
+        <v>320.1368713378906</v>
       </c>
       <c r="DI2" t="n">
-        <v>253.5986633300781</v>
+        <v>319.9876098632812</v>
       </c>
       <c r="DJ2" t="n">
-        <v>257.3036804199219</v>
+        <v>319.8403625488281</v>
       </c>
       <c r="DK2" t="n">
-        <v>261.8207092285156</v>
+        <v>319.5579223632812</v>
       </c>
       <c r="DL2" t="n">
-        <v>271.5719299316406</v>
+        <v>319.2660217285156</v>
       </c>
       <c r="DM2" t="n">
-        <v>277.3423767089844</v>
+        <v>319.1342468261719</v>
       </c>
       <c r="DN2" t="n">
-        <v>287.5756225585938</v>
+        <v>318.9424133300781</v>
       </c>
       <c r="DO2" t="n">
-        <v>298.406982421875</v>
+        <v>318.8835144042969</v>
       </c>
       <c r="DP2" t="n">
-        <v>313.6099243164062</v>
+        <v>318.8150329589844</v>
       </c>
       <c r="DQ2" t="n">
-        <v>319.6174621582031</v>
+        <v>318.7458190917969</v>
       </c>
       <c r="DR2" t="n">
-        <v>325.7630920410156</v>
+        <v>318.6776428222656</v>
       </c>
       <c r="DS2" t="n">
-        <v>339.6248779296875</v>
+        <v>318.6047973632812</v>
       </c>
       <c r="DT2" t="n">
-        <v>346.7156372070312</v>
+        <v>318.4636840820312</v>
       </c>
       <c r="DU2" t="n">
-        <v>353.6593322753906</v>
+        <v>318.39892578125</v>
       </c>
       <c r="DV2" t="n">
-        <v>365.7335815429688</v>
+        <v>318.2643432617188</v>
       </c>
       <c r="DW2" t="n">
-        <v>375.2715454101562</v>
+        <v>318.2005004882812</v>
       </c>
       <c r="DX2" t="n">
-        <v>379.7120361328125</v>
+        <v>318.1375732421875</v>
       </c>
       <c r="DY2" t="n">
-        <v>384.0931701660156</v>
+        <v>318.001220703125</v>
       </c>
       <c r="DZ2" t="n">
-        <v>389.0014953613281</v>
+        <v>317.9301147460938</v>
       </c>
       <c r="EA2" t="n">
-        <v>390.5907897949219</v>
+        <v>317.7664794921875</v>
       </c>
       <c r="EB2" t="n">
-        <v>393.89697265625</v>
+        <v>317.6940307617188</v>
       </c>
       <c r="EC2" t="n">
-        <v>395.1451110839844</v>
+        <v>317.5997314453125</v>
       </c>
       <c r="ED2" t="n">
-        <v>396.7013854980469</v>
+        <v>317.421142578125</v>
       </c>
       <c r="EE2" t="n">
-        <v>397.4015808105469</v>
+        <v>317.3310852050781</v>
       </c>
       <c r="EF2" t="n">
-        <v>398.1294250488281</v>
+        <v>317.1551818847656</v>
       </c>
       <c r="EG2" t="n">
-        <v>399.2073974609375</v>
+        <v>317.0648498535156</v>
       </c>
       <c r="EH2" t="n">
-        <v>397.8617553710938</v>
+        <v>317.0012512207031</v>
       </c>
       <c r="EI2" t="n">
-        <v>388.020263671875</v>
+        <v>316.9491882324219</v>
       </c>
       <c r="EJ2" t="n">
-        <v>380.6159057617188</v>
+        <v>316.9590148925781</v>
       </c>
       <c r="EK2" t="n">
-        <v>371.6289978027344</v>
+        <v>316.9535827636719</v>
       </c>
       <c r="EL2" t="n">
-        <v>367.2174377441406</v>
+        <v>316.9502258300781</v>
       </c>
       <c r="EM2" t="n">
-        <v>353.5970458984375</v>
+        <v>316.9629821777344</v>
       </c>
       <c r="EN2" t="n">
-        <v>345.2626037597656</v>
+        <v>316.9709777832031</v>
       </c>
       <c r="EO2" t="n">
-        <v>331.2268676757812</v>
+        <v>316.9790649414062</v>
       </c>
       <c r="EP2" t="n">
-        <v>324.6237487792969</v>
+        <v>316.9841918945312</v>
       </c>
       <c r="EQ2" t="n">
-        <v>312.0371398925781</v>
+        <v>316.9967956542969</v>
       </c>
       <c r="ER2" t="n">
-        <v>304.3712463378906</v>
+        <v>317.0095520019531</v>
       </c>
       <c r="ES2" t="n">
-        <v>292.5850219726562</v>
+        <v>317.0149536132812</v>
       </c>
       <c r="ET2" t="n">
-        <v>288.3778076171875</v>
+        <v>317.0248413085938</v>
       </c>
       <c r="EU2" t="n">
-        <v>284.1750183105469</v>
+        <v>317.0297546386719</v>
       </c>
       <c r="EV2" t="n">
-        <v>274.7360534667969</v>
+        <v>317.0339660644531</v>
       </c>
       <c r="EW2" t="n">
-        <v>263.0566101074219</v>
+        <v>317.0433654785156</v>
       </c>
       <c r="EX2" t="n">
-        <v>256.9977111816406</v>
+        <v>317.0594482421875</v>
       </c>
       <c r="EY2" t="n">
-        <v>244.4537506103516</v>
+        <v>317.0769653320312</v>
       </c>
       <c r="EZ2" t="n">
-        <v>231.4983520507812</v>
+        <v>317.0826110839844</v>
       </c>
       <c r="FA2" t="n">
-        <v>225.2449340820312</v>
+        <v>317.0869750976562</v>
       </c>
       <c r="FB2" t="n">
-        <v>219.9584045410156</v>
+        <v>317.0870056152344</v>
       </c>
       <c r="FC2" t="n">
-        <v>211.8573608398438</v>
+        <v>317.0860900878906</v>
       </c>
       <c r="FD2" t="n">
-        <v>206.7796630859375</v>
+        <v>317.08447265625</v>
       </c>
       <c r="FE2" t="n">
-        <v>205.3193359375</v>
+        <v>317.0832824707031</v>
       </c>
       <c r="FF2" t="n">
-        <v>204.4532470703125</v>
+        <v>317.0819396972656</v>
       </c>
       <c r="FG2" t="n">
-        <v>204.4649047851562</v>
+        <v>317.0761413574219</v>
       </c>
       <c r="FH2" t="n">
-        <v>205.8507080078125</v>
+        <v>317.0703735351562</v>
       </c>
       <c r="FI2" t="n">
-        <v>209.3478698730469</v>
+        <v>316.9576416015625</v>
       </c>
       <c r="FJ2" t="n">
-        <v>226.2343444824219</v>
+        <v>316.7678527832031</v>
       </c>
       <c r="FK2" t="n">
-        <v>239.3125152587891</v>
+        <v>316.6392211914062</v>
       </c>
       <c r="FL2" t="n">
-        <v>261.7983093261719</v>
+        <v>316.1016540527344</v>
       </c>
       <c r="FM2" t="n">
-        <v>270.7544860839844</v>
+        <v>315.6121520996094</v>
       </c>
       <c r="FN2" t="n">
-        <v>279.7811584472656</v>
+        <v>314.8493041992188</v>
       </c>
       <c r="FO2" t="n">
-        <v>302.1556701660156</v>
+        <v>314.6268005371094</v>
       </c>
       <c r="FP2" t="n">
-        <v>338.2744750976562</v>
+        <v>314.5162353515625</v>
       </c>
       <c r="FQ2" t="n">
-        <v>358.247314453125</v>
+        <v>314.4879760742188</v>
       </c>
       <c r="FR2" t="n">
-        <v>386.8322143554688</v>
+        <v>314.48388671875</v>
       </c>
       <c r="FS2" t="n">
-        <v>398.1545715332031</v>
+        <v>314.4843139648438</v>
       </c>
       <c r="FT2" t="n">
-        <v>409.080322265625</v>
+        <v>314.4850463867188</v>
       </c>
       <c r="FU2" t="n">
-        <v>437.8919067382812</v>
+        <v>314.4861145019531</v>
       </c>
       <c r="FV2" t="n">
-        <v>447.1099243164062</v>
+        <v>314.4867858886719</v>
       </c>
       <c r="FW2" t="n">
-        <v>460.8417053222656</v>
+        <v>314.4883117675781</v>
       </c>
       <c r="FX2" t="n">
-        <v>472.033447265625</v>
+        <v>314.4893493652344</v>
       </c>
       <c r="FY2" t="n">
-        <v>476.1277770996094</v>
+        <v>314.4921264648438</v>
       </c>
       <c r="FZ2" t="n">
-        <v>479.572509765625</v>
+        <v>314.4934997558594</v>
       </c>
       <c r="GA2" t="n">
-        <v>483.2621765136719</v>
+        <v>314.49609375</v>
       </c>
       <c r="GB2" t="n">
-        <v>483.7506103515625</v>
+        <v>314.4973449707031</v>
       </c>
       <c r="GC2" t="n">
-        <v>483.3526916503906</v>
+        <v>314.5000610351562</v>
       </c>
       <c r="GD2" t="n">
-        <v>478.1568603515625</v>
+        <v>314.5015869140625</v>
       </c>
       <c r="GE2" t="n">
-        <v>472.9048461914062</v>
+        <v>314.5034484863281</v>
       </c>
       <c r="GF2" t="n">
-        <v>466.0298461914062</v>
+        <v>314.5037536621094</v>
       </c>
       <c r="GG2" t="n">
-        <v>441.0941162109375</v>
+        <v>314.5037231445312</v>
       </c>
       <c r="GH2" t="n">
-        <v>427.1789245605469</v>
+        <v>314.5037231445312</v>
       </c>
       <c r="GI2" t="n">
-        <v>405.0490112304688</v>
+        <v>314.5036926269531</v>
       </c>
       <c r="GJ2" t="n">
-        <v>395.1412353515625</v>
+        <v>314.503662109375</v>
       </c>
       <c r="GK2" t="n">
-        <v>378.3301086425781</v>
+        <v>314.5036315917969</v>
       </c>
       <c r="GL2" t="n">
-        <v>369.7484130859375</v>
+        <v>314.5036315917969</v>
       </c>
       <c r="GM2" t="n">
-        <v>352.5848388671875</v>
+        <v>314.5036010742188</v>
       </c>
       <c r="GN2" t="n">
-        <v>339.048583984375</v>
+        <v>314.5036010742188</v>
       </c>
       <c r="GO2" t="n">
-        <v>334.2837219238281</v>
+        <v>314.5032653808594</v>
       </c>
       <c r="GP2" t="n">
-        <v>328.191162109375</v>
+        <v>314.5025939941406</v>
       </c>
       <c r="GQ2" t="n">
-        <v>321.9725952148438</v>
+        <v>314.4978942871094</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>314.4955139160156</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>314.4908752441406</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>314.4876708984375</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>314.4860229492188</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>314.4835205078125</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>314.4801025390625</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>314.4776916503906</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>314.4768676757812</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>314.4758911132812</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>314.4747924804688</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>314.4742736816406</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>314.47314453125</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>314.4718322753906</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>314.4700622558594</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>314.4717407226562</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>314.4748840332031</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>314.4747009277344</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>314.4745178222656</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>314.4732666015625</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>314.4719543457031</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>314.4703369140625</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>314.4695739746094</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>314.4674682617188</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>314.4652709960938</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>314.4629821777344</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>314.4607849121094</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>314.4584655761719</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>314.4557189941406</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>314.4530639648438</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>314.4502563476562</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>314.4471435546875</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>314.4440002441406</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>314.4423217773438</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>314.4391479492188</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>314.4357604980469</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>314.4285278320312</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>314.4232788085938</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>314.4113464355469</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>314.3964233398438</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>314.3786010742188</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>314.3607177734375</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>314.3441162109375</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>314.3281555175781</v>
+      </c>
+      <c r="II2" t="n">
+        <v>314.3119506835938</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>314.2953491210938</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>314.2768859863281</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>314.258544921875</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>314.2314147949219</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>314.21337890625</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>314.1966247558594</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>314.1855163574219</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>314.1846008300781</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>314.1850280761719</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>314.1861877441406</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>314.1866760253906</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>314.18701171875</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>314.18994140625</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>314.1931457519531</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>314.1960144042969</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>314.1981811523438</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>314.1983032226562</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>314.1983032226562</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>314.1978149414062</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>314.1898498535156</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>314.1636962890625</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>314.1272277832031</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>314.0927124023438</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>314.0200805664062</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>313.78857421875</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>313.3875732421875</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>312.9136657714844</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>312.4308166503906</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>311.9747924804688</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>311.7631225585938</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>311.6158142089844</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>311.5734558105469</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>311.553466796875</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>311.5565795898438</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>311.5628051757812</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>311.5680541992188</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>311.5741271972656</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>311.5743713378906</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>311.5741577148438</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>311.5578918457031</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>311.5154724121094</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>311.4757385253906</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>311.4468688964844</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>311.3568725585938</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>311.0596923828125</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>309.6220703125</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>306.8376159667969</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>306.3552551269531</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>305.7235107421875</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>305.40478515625</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>305.2048950195312</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>304.9589233398438</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>304.5729064941406</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>304.3817749023438</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>305.3908081054688</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>308.36669921875</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>313.3908996582031</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>318.7683410644531</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>322.1834106445312</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>324.6438903808594</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>326.3900451660156</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>327.5307922363281</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>327.7221069335938</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>325.7066650390625</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>322.6015930175781</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>320.7037658691406</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>317.1883544921875</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>313.8320922851562</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>311.8976440429688</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>309.5957336425781</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>308.7563171386719</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>308.3052062988281</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>307.9757995605469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>244.2400054931641</v>
+        <v>176.4213256835938</v>
       </c>
       <c r="B3" t="n">
-        <v>241.5977935791016</v>
+        <v>173.0287322998047</v>
       </c>
       <c r="C3" t="n">
-        <v>238.5875549316406</v>
+        <v>172.3586120605469</v>
       </c>
       <c r="D3" t="n">
-        <v>236.7956390380859</v>
+        <v>173.0521697998047</v>
       </c>
       <c r="E3" t="n">
-        <v>235.5735168457031</v>
+        <v>174.1908874511719</v>
       </c>
       <c r="F3" t="n">
-        <v>234.4340362548828</v>
+        <v>176.6848907470703</v>
       </c>
       <c r="G3" t="n">
-        <v>232.4902496337891</v>
+        <v>179.5757141113281</v>
       </c>
       <c r="H3" t="n">
-        <v>229.9286193847656</v>
+        <v>182.2479858398438</v>
       </c>
       <c r="I3" t="n">
-        <v>226.75</v>
+        <v>184.9903259277344</v>
       </c>
       <c r="J3" t="n">
-        <v>222.4091644287109</v>
+        <v>188.015380859375</v>
       </c>
       <c r="K3" t="n">
-        <v>217.204345703125</v>
+        <v>192.7366180419922</v>
       </c>
       <c r="L3" t="n">
-        <v>211.3308868408203</v>
+        <v>197.4456329345703</v>
       </c>
       <c r="M3" t="n">
-        <v>204.9441375732422</v>
+        <v>202.24560546875</v>
       </c>
       <c r="N3" t="n">
-        <v>193.1340179443359</v>
+        <v>205.3798217773438</v>
       </c>
       <c r="O3" t="n">
-        <v>181.0659942626953</v>
+        <v>207.4192657470703</v>
       </c>
       <c r="P3" t="n">
-        <v>170.6711273193359</v>
+        <v>208.6260528564453</v>
       </c>
       <c r="Q3" t="n">
-        <v>164.3162536621094</v>
+        <v>208.3698272705078</v>
       </c>
       <c r="R3" t="n">
-        <v>160.0433502197266</v>
+        <v>206.9243469238281</v>
       </c>
       <c r="S3" t="n">
-        <v>156.6924285888672</v>
+        <v>206.2222442626953</v>
       </c>
       <c r="T3" t="n">
-        <v>153.2146606445312</v>
+        <v>205.9533996582031</v>
       </c>
       <c r="U3" t="n">
-        <v>149.569580078125</v>
+        <v>206.1926116943359</v>
       </c>
       <c r="V3" t="n">
-        <v>145.79248046875</v>
+        <v>207.0742797851562</v>
       </c>
       <c r="W3" t="n">
-        <v>142.3654174804688</v>
+        <v>210.1886291503906</v>
       </c>
       <c r="X3" t="n">
-        <v>139.447509765625</v>
+        <v>213.6457672119141</v>
       </c>
       <c r="Y3" t="n">
-        <v>136.9815521240234</v>
+        <v>216.7426452636719</v>
       </c>
       <c r="Z3" t="n">
-        <v>134.8940887451172</v>
+        <v>220.2987976074219</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.2873687744141</v>
+        <v>224.2847747802734</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.9443664550781</v>
+        <v>227.6392517089844</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.8990783691406</v>
+        <v>231.0756530761719</v>
       </c>
       <c r="AD3" t="n">
-        <v>130.1845397949219</v>
+        <v>233.676513671875</v>
       </c>
       <c r="AE3" t="n">
-        <v>129.6975250244141</v>
+        <v>235.18115234375</v>
       </c>
       <c r="AF3" t="n">
-        <v>129.2252044677734</v>
+        <v>236.5723266601562</v>
       </c>
       <c r="AG3" t="n">
-        <v>128.8942260742188</v>
+        <v>237.7558135986328</v>
       </c>
       <c r="AH3" t="n">
-        <v>128.6683654785156</v>
+        <v>238.7725067138672</v>
       </c>
       <c r="AI3" t="n">
-        <v>128.2888488769531</v>
+        <v>239.4140625</v>
       </c>
       <c r="AJ3" t="n">
-        <v>127.7705993652344</v>
+        <v>239.7355346679688</v>
       </c>
       <c r="AK3" t="n">
-        <v>127.1441040039062</v>
+        <v>239.8852081298828</v>
       </c>
       <c r="AL3" t="n">
-        <v>126.4958267211914</v>
+        <v>239.9563446044922</v>
       </c>
       <c r="AM3" t="n">
-        <v>125.8632507324219</v>
+        <v>239.9914398193359</v>
       </c>
       <c r="AN3" t="n">
-        <v>125.2608642578125</v>
+        <v>240.021484375</v>
       </c>
       <c r="AO3" t="n">
-        <v>124.7136917114258</v>
+        <v>240.0550537109375</v>
       </c>
       <c r="AP3" t="n">
-        <v>124.2751846313477</v>
+        <v>240.0877532958984</v>
       </c>
       <c r="AQ3" t="n">
-        <v>123.8956527709961</v>
+        <v>240.1197357177734</v>
       </c>
       <c r="AR3" t="n">
-        <v>123.6692886352539</v>
+        <v>240.1549835205078</v>
       </c>
       <c r="AS3" t="n">
-        <v>123.9192581176758</v>
+        <v>240.2041320800781</v>
       </c>
       <c r="AT3" t="n">
-        <v>124.461296081543</v>
+        <v>240.2677307128906</v>
       </c>
       <c r="AU3" t="n">
-        <v>125.7955856323242</v>
+        <v>240.4955291748047</v>
       </c>
       <c r="AV3" t="n">
-        <v>127.1592254638672</v>
+        <v>241.2205963134766</v>
       </c>
       <c r="AW3" t="n">
-        <v>128.4922943115234</v>
+        <v>242.3392639160156</v>
       </c>
       <c r="AX3" t="n">
-        <v>129.5105285644531</v>
+        <v>243.4742279052734</v>
       </c>
       <c r="AY3" t="n">
-        <v>130.7243347167969</v>
+        <v>244.2515716552734</v>
       </c>
       <c r="AZ3" t="n">
-        <v>131.9483184814453</v>
+        <v>244.7671508789062</v>
       </c>
       <c r="BA3" t="n">
-        <v>133.251953125</v>
+        <v>245.020263671875</v>
       </c>
       <c r="BB3" t="n">
-        <v>134.5927124023438</v>
+        <v>245.1437683105469</v>
       </c>
       <c r="BC3" t="n">
-        <v>136.2324066162109</v>
+        <v>245.2001953125</v>
       </c>
       <c r="BD3" t="n">
-        <v>137.5899810791016</v>
+        <v>245.2239074707031</v>
       </c>
       <c r="BE3" t="n">
-        <v>138.2761688232422</v>
+        <v>245.2348175048828</v>
       </c>
       <c r="BF3" t="n">
-        <v>138.2833557128906</v>
+        <v>245.23486328125</v>
       </c>
       <c r="BG3" t="n">
-        <v>138.0981750488281</v>
+        <v>245.2269134521484</v>
       </c>
       <c r="BH3" t="n">
-        <v>137.6657104492188</v>
+        <v>245.2211303710938</v>
       </c>
       <c r="BI3" t="n">
-        <v>137.3491973876953</v>
+        <v>245.2161865234375</v>
       </c>
       <c r="BJ3" t="n">
-        <v>137.0060424804688</v>
+        <v>245.2088317871094</v>
       </c>
       <c r="BK3" t="n">
-        <v>136.8687286376953</v>
+        <v>245.1986846923828</v>
       </c>
       <c r="BL3" t="n">
-        <v>136.7729339599609</v>
+        <v>245.1940765380859</v>
       </c>
       <c r="BM3" t="n">
-        <v>136.8078765869141</v>
+        <v>245.1933288574219</v>
       </c>
       <c r="BN3" t="n">
-        <v>136.9735565185547</v>
+        <v>245.1932983398438</v>
       </c>
       <c r="BO3" t="n">
-        <v>137.1471252441406</v>
+        <v>245.1934661865234</v>
       </c>
       <c r="BP3" t="n">
-        <v>137.3172607421875</v>
+        <v>245.1938171386719</v>
       </c>
       <c r="BQ3" t="n">
-        <v>137.4561614990234</v>
+        <v>245.1941833496094</v>
       </c>
       <c r="BR3" t="n">
-        <v>137.5478515625</v>
+        <v>245.1947326660156</v>
       </c>
       <c r="BS3" t="n">
-        <v>137.6252136230469</v>
+        <v>245.1951904296875</v>
       </c>
       <c r="BT3" t="n">
-        <v>137.7047119140625</v>
+        <v>245.1957092285156</v>
       </c>
       <c r="BU3" t="n">
-        <v>137.7813110351562</v>
+        <v>245.1966705322266</v>
       </c>
       <c r="BV3" t="n">
-        <v>137.8570709228516</v>
+        <v>245.1989898681641</v>
       </c>
       <c r="BW3" t="n">
-        <v>137.984619140625</v>
+        <v>245.2016296386719</v>
       </c>
       <c r="BX3" t="n">
-        <v>138.1460876464844</v>
+        <v>245.2041473388672</v>
       </c>
       <c r="BY3" t="n">
-        <v>138.3395080566406</v>
+        <v>245.2066650390625</v>
       </c>
       <c r="BZ3" t="n">
-        <v>138.5717468261719</v>
+        <v>245.2095794677734</v>
       </c>
       <c r="CA3" t="n">
-        <v>138.8614501953125</v>
+        <v>245.2155609130859</v>
       </c>
       <c r="CB3" t="n">
-        <v>139.1783905029297</v>
+        <v>245.2199096679688</v>
       </c>
       <c r="CC3" t="n">
-        <v>139.5287628173828</v>
+        <v>245.2244873046875</v>
       </c>
       <c r="CD3" t="n">
-        <v>139.8991394042969</v>
+        <v>245.2288360595703</v>
       </c>
       <c r="CE3" t="n">
-        <v>140.2603149414062</v>
+        <v>245.2344360351562</v>
       </c>
       <c r="CF3" t="n">
-        <v>140.6222991943359</v>
+        <v>245.2402801513672</v>
       </c>
       <c r="CG3" t="n">
-        <v>140.9911346435547</v>
+        <v>245.2464599609375</v>
       </c>
       <c r="CH3" t="n">
-        <v>141.3606719970703</v>
+        <v>245.2524719238281</v>
       </c>
       <c r="CI3" t="n">
-        <v>141.7343292236328</v>
+        <v>245.2740631103516</v>
       </c>
       <c r="CJ3" t="n">
-        <v>142.1065368652344</v>
+        <v>245.3007049560547</v>
       </c>
       <c r="CK3" t="n">
-        <v>142.4024658203125</v>
+        <v>245.3245391845703</v>
       </c>
       <c r="CL3" t="n">
-        <v>142.7638702392578</v>
+        <v>245.3527526855469</v>
       </c>
       <c r="CM3" t="n">
-        <v>142.9938049316406</v>
+        <v>245.3843536376953</v>
       </c>
       <c r="CN3" t="n">
-        <v>143.2262725830078</v>
+        <v>245.4493103027344</v>
       </c>
       <c r="CO3" t="n">
-        <v>143.3619232177734</v>
+        <v>245.5260925292969</v>
       </c>
       <c r="CP3" t="n">
-        <v>143.4768676757812</v>
+        <v>245.5985107421875</v>
       </c>
       <c r="CQ3" t="n">
-        <v>143.5898590087891</v>
+        <v>245.6769866943359</v>
       </c>
       <c r="CR3" t="n">
-        <v>143.82080078125</v>
+        <v>245.7531433105469</v>
       </c>
       <c r="CS3" t="n">
-        <v>143.9080810546875</v>
+        <v>245.8197479248047</v>
       </c>
       <c r="CT3" t="n">
-        <v>143.9808502197266</v>
+        <v>245.8812561035156</v>
       </c>
       <c r="CU3" t="n">
-        <v>144.0557403564453</v>
+        <v>245.9400024414062</v>
       </c>
       <c r="CV3" t="n">
-        <v>144.0994873046875</v>
+        <v>246.0067138671875</v>
       </c>
       <c r="CW3" t="n">
-        <v>144.1092376708984</v>
+        <v>246.0675201416016</v>
       </c>
       <c r="CX3" t="n">
-        <v>144.1167602539062</v>
+        <v>246.1251373291016</v>
       </c>
       <c r="CY3" t="n">
-        <v>144.1181335449219</v>
+        <v>246.1847229003906</v>
       </c>
       <c r="CZ3" t="n">
-        <v>144.1174468994141</v>
+        <v>246.27734375</v>
       </c>
       <c r="DA3" t="n">
-        <v>144.1163940429688</v>
+        <v>246.3648071289062</v>
       </c>
       <c r="DB3" t="n">
-        <v>144.1152038574219</v>
+        <v>246.4468841552734</v>
       </c>
       <c r="DC3" t="n">
-        <v>144.1120910644531</v>
+        <v>246.4913787841797</v>
       </c>
       <c r="DD3" t="n">
-        <v>144.1080780029297</v>
+        <v>246.5429534912109</v>
       </c>
       <c r="DE3" t="n">
-        <v>144.1030120849609</v>
+        <v>246.6032409667969</v>
       </c>
       <c r="DF3" t="n">
-        <v>144.0976715087891</v>
+        <v>246.6465606689453</v>
       </c>
       <c r="DG3" t="n">
-        <v>144.0917663574219</v>
+        <v>246.6975708007812</v>
       </c>
       <c r="DH3" t="n">
-        <v>144.0840606689453</v>
+        <v>246.7474365234375</v>
       </c>
       <c r="DI3" t="n">
-        <v>144.0646514892578</v>
+        <v>246.7545623779297</v>
       </c>
       <c r="DJ3" t="n">
-        <v>143.9488830566406</v>
+        <v>246.7625122070312</v>
       </c>
       <c r="DK3" t="n">
-        <v>143.7870025634766</v>
+        <v>246.7854614257812</v>
       </c>
       <c r="DL3" t="n">
-        <v>143.2419281005859</v>
+        <v>246.8373565673828</v>
       </c>
       <c r="DM3" t="n">
-        <v>142.9558715820312</v>
+        <v>246.8637390136719</v>
       </c>
       <c r="DN3" t="n">
-        <v>143.7559356689453</v>
+        <v>246.9069366455078</v>
       </c>
       <c r="DO3" t="n">
-        <v>144.7039184570312</v>
+        <v>246.9217529296875</v>
       </c>
       <c r="DP3" t="n">
-        <v>145.6322021484375</v>
+        <v>246.93408203125</v>
       </c>
       <c r="DQ3" t="n">
-        <v>145.7694702148438</v>
+        <v>246.9561462402344</v>
       </c>
       <c r="DR3" t="n">
-        <v>145.5754089355469</v>
+        <v>246.9750823974609</v>
       </c>
       <c r="DS3" t="n">
-        <v>144.909912109375</v>
+        <v>247.0061645507812</v>
       </c>
       <c r="DT3" t="n">
-        <v>144.6066284179688</v>
+        <v>247.0809478759766</v>
       </c>
       <c r="DU3" t="n">
-        <v>144.25390625</v>
+        <v>247.1431121826172</v>
       </c>
       <c r="DV3" t="n">
-        <v>140.8247375488281</v>
+        <v>247.2583312988281</v>
       </c>
       <c r="DW3" t="n">
-        <v>135.8255310058594</v>
+        <v>247.3152618408203</v>
       </c>
       <c r="DX3" t="n">
-        <v>134.0219879150391</v>
+        <v>247.3779754638672</v>
       </c>
       <c r="DY3" t="n">
-        <v>132.9365081787109</v>
+        <v>247.4174346923828</v>
       </c>
       <c r="DZ3" t="n">
-        <v>131.7955780029297</v>
+        <v>247.4290466308594</v>
       </c>
       <c r="EA3" t="n">
-        <v>131.3401336669922</v>
+        <v>247.4519958496094</v>
       </c>
       <c r="EB3" t="n">
-        <v>130.3278045654297</v>
+        <v>247.4582214355469</v>
       </c>
       <c r="EC3" t="n">
-        <v>129.7385406494141</v>
+        <v>247.4644165039062</v>
       </c>
       <c r="ED3" t="n">
-        <v>128.3341369628906</v>
+        <v>247.4763641357422</v>
       </c>
       <c r="EE3" t="n">
-        <v>127.4429626464844</v>
+        <v>247.496826171875</v>
       </c>
       <c r="EF3" t="n">
-        <v>126.4423522949219</v>
+        <v>247.5827941894531</v>
       </c>
       <c r="EG3" t="n">
-        <v>124.5228881835938</v>
+        <v>247.656982421875</v>
       </c>
       <c r="EH3" t="n">
-        <v>124.2955932617188</v>
+        <v>247.7284545898438</v>
       </c>
       <c r="EI3" t="n">
-        <v>123.6207427978516</v>
+        <v>247.8650360107422</v>
       </c>
       <c r="EJ3" t="n">
-        <v>123.3111038208008</v>
+        <v>247.8927307128906</v>
       </c>
       <c r="EK3" t="n">
-        <v>122.3844223022461</v>
+        <v>247.9080047607422</v>
       </c>
       <c r="EL3" t="n">
-        <v>122.0866012573242</v>
+        <v>247.9098968505859</v>
       </c>
       <c r="EM3" t="n">
-        <v>119.6541061401367</v>
+        <v>247.9082641601562</v>
       </c>
       <c r="EN3" t="n">
-        <v>118.4915924072266</v>
+        <v>247.9064636230469</v>
       </c>
       <c r="EO3" t="n">
-        <v>117.4541015625</v>
+        <v>247.8924255371094</v>
       </c>
       <c r="EP3" t="n">
-        <v>118.4433670043945</v>
+        <v>247.8816070556641</v>
       </c>
       <c r="EQ3" t="n">
-        <v>118.7890548706055</v>
+        <v>247.8513031005859</v>
       </c>
       <c r="ER3" t="n">
-        <v>118.2781829833984</v>
+        <v>247.8169097900391</v>
       </c>
       <c r="ES3" t="n">
-        <v>118.0422592163086</v>
+        <v>247.7994995117188</v>
       </c>
       <c r="ET3" t="n">
-        <v>118.3603363037109</v>
+        <v>247.7528076171875</v>
       </c>
       <c r="EU3" t="n">
-        <v>118.5360717773438</v>
+        <v>247.7430114746094</v>
       </c>
       <c r="EV3" t="n">
-        <v>117.2243423461914</v>
+        <v>247.7341461181641</v>
       </c>
       <c r="EW3" t="n">
-        <v>115.015380859375</v>
+        <v>247.7117462158203</v>
       </c>
       <c r="EX3" t="n">
-        <v>113.3388442993164</v>
+        <v>247.6861114501953</v>
       </c>
       <c r="EY3" t="n">
-        <v>109.21826171875</v>
+        <v>247.6745300292969</v>
       </c>
       <c r="EZ3" t="n">
-        <v>104.5612258911133</v>
+        <v>247.6636199951172</v>
       </c>
       <c r="FA3" t="n">
-        <v>101.7887802124023</v>
+        <v>247.6353759765625</v>
       </c>
       <c r="FB3" t="n">
-        <v>98.94709777832031</v>
+        <v>247.6288604736328</v>
       </c>
       <c r="FC3" t="n">
-        <v>97.68392181396484</v>
+        <v>247.6245727539062</v>
       </c>
       <c r="FD3" t="n">
-        <v>100.3019027709961</v>
+        <v>247.6251373291016</v>
       </c>
       <c r="FE3" t="n">
-        <v>103.9527587890625</v>
+        <v>247.6262054443359</v>
       </c>
       <c r="FF3" t="n">
-        <v>113.7979049682617</v>
+        <v>247.6278381347656</v>
       </c>
       <c r="FG3" t="n">
-        <v>119.4426803588867</v>
+        <v>247.6381225585938</v>
       </c>
       <c r="FH3" t="n">
-        <v>131.6500701904297</v>
+        <v>247.6436767578125</v>
       </c>
       <c r="FI3" t="n">
-        <v>138.4314117431641</v>
+        <v>247.6522979736328</v>
       </c>
       <c r="FJ3" t="n">
-        <v>159.0625762939453</v>
+        <v>247.6573791503906</v>
       </c>
       <c r="FK3" t="n">
-        <v>174.157958984375</v>
+        <v>247.6590118408203</v>
       </c>
       <c r="FL3" t="n">
-        <v>195.7043914794922</v>
+        <v>247.6621704101562</v>
       </c>
       <c r="FM3" t="n">
-        <v>202.3051452636719</v>
+        <v>247.6628723144531</v>
       </c>
       <c r="FN3" t="n">
-        <v>207.6619262695312</v>
+        <v>247.6652526855469</v>
       </c>
       <c r="FO3" t="n">
-        <v>218.7636413574219</v>
+        <v>247.6664886474609</v>
       </c>
       <c r="FP3" t="n">
-        <v>234.8518981933594</v>
+        <v>247.6672210693359</v>
       </c>
       <c r="FQ3" t="n">
-        <v>241.3850555419922</v>
+        <v>247.6674499511719</v>
       </c>
       <c r="FR3" t="n">
-        <v>242.0652618408203</v>
+        <v>247.6685943603516</v>
       </c>
       <c r="FS3" t="n">
-        <v>237.2874603271484</v>
+        <v>247.6692810058594</v>
       </c>
       <c r="FT3" t="n">
-        <v>231.3535461425781</v>
+        <v>247.670654296875</v>
       </c>
       <c r="FU3" t="n">
-        <v>219.0441436767578</v>
+        <v>247.6722412109375</v>
       </c>
       <c r="FV3" t="n">
-        <v>217.0700988769531</v>
+        <v>247.6720886230469</v>
       </c>
       <c r="FW3" t="n">
-        <v>218.1232147216797</v>
+        <v>247.67041015625</v>
       </c>
       <c r="FX3" t="n">
-        <v>220.5976104736328</v>
+        <v>247.6690063476562</v>
       </c>
       <c r="FY3" t="n">
-        <v>222.1697845458984</v>
+        <v>247.6650848388672</v>
       </c>
       <c r="FZ3" t="n">
-        <v>223.7793121337891</v>
+        <v>247.6631317138672</v>
       </c>
       <c r="GA3" t="n">
-        <v>225.8302307128906</v>
+        <v>247.6595001220703</v>
       </c>
       <c r="GB3" t="n">
-        <v>226.1446533203125</v>
+        <v>247.6577606201172</v>
       </c>
       <c r="GC3" t="n">
-        <v>226.0843658447266</v>
+        <v>247.6539001464844</v>
       </c>
       <c r="GD3" t="n">
-        <v>225.8388519287109</v>
+        <v>247.6517486572266</v>
       </c>
       <c r="GE3" t="n">
-        <v>225.7003784179688</v>
+        <v>247.6491088867188</v>
       </c>
       <c r="GF3" t="n">
-        <v>225.5582885742188</v>
+        <v>247.6486511230469</v>
       </c>
       <c r="GG3" t="n">
-        <v>228.2265167236328</v>
+        <v>247.6486511230469</v>
       </c>
       <c r="GH3" t="n">
-        <v>231.7865447998047</v>
+        <v>247.6486053466797</v>
       </c>
       <c r="GI3" t="n">
-        <v>238.8663024902344</v>
+        <v>247.6485443115234</v>
       </c>
       <c r="GJ3" t="n">
-        <v>240.3814849853516</v>
+        <v>247.6484527587891</v>
       </c>
       <c r="GK3" t="n">
-        <v>244.4493408203125</v>
+        <v>247.64794921875</v>
       </c>
       <c r="GL3" t="n">
-        <v>246.2336883544922</v>
+        <v>247.6477203369141</v>
       </c>
       <c r="GM3" t="n">
-        <v>247.6142730712891</v>
+        <v>247.6474914550781</v>
       </c>
       <c r="GN3" t="n">
-        <v>247.8759155273438</v>
+        <v>247.6475219726562</v>
       </c>
       <c r="GO3" t="n">
-        <v>247.0393676757812</v>
+        <v>247.6479797363281</v>
       </c>
       <c r="GP3" t="n">
-        <v>242.1788940429688</v>
+        <v>247.6489105224609</v>
       </c>
       <c r="GQ3" t="n">
-        <v>231.9430541992188</v>
+        <v>247.6554412841797</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>247.6587219238281</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>247.6651306152344</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>247.6695709228516</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>247.6718292236328</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>247.6750335693359</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>247.6793823242188</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>247.6819000244141</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>247.68212890625</v>
+      </c>
+      <c r="GZ3" t="n">
+        <v>247.6821594238281</v>
+      </c>
+      <c r="HA3" t="n">
+        <v>247.6821594238281</v>
+      </c>
+      <c r="HB3" t="n">
+        <v>247.6821594238281</v>
+      </c>
+      <c r="HC3" t="n">
+        <v>247.68212890625</v>
+      </c>
+      <c r="HD3" t="n">
+        <v>247.68212890625</v>
+      </c>
+      <c r="HE3" t="n">
+        <v>247.6820678710938</v>
+      </c>
+      <c r="HF3" t="n">
+        <v>247.6782379150391</v>
+      </c>
+      <c r="HG3" t="n">
+        <v>247.6702575683594</v>
+      </c>
+      <c r="HH3" t="n">
+        <v>247.6667633056641</v>
+      </c>
+      <c r="HI3" t="n">
+        <v>247.6632537841797</v>
+      </c>
+      <c r="HJ3" t="n">
+        <v>247.6612701416016</v>
+      </c>
+      <c r="HK3" t="n">
+        <v>247.6594390869141</v>
+      </c>
+      <c r="HL3" t="n">
+        <v>247.6578674316406</v>
+      </c>
+      <c r="HM3" t="n">
+        <v>247.6571807861328</v>
+      </c>
+      <c r="HN3" t="n">
+        <v>247.6555786132812</v>
+      </c>
+      <c r="HO3" t="n">
+        <v>247.6539001464844</v>
+      </c>
+      <c r="HP3" t="n">
+        <v>247.6513824462891</v>
+      </c>
+      <c r="HQ3" t="n">
+        <v>247.6483459472656</v>
+      </c>
+      <c r="HR3" t="n">
+        <v>247.6454772949219</v>
+      </c>
+      <c r="HS3" t="n">
+        <v>247.6450500488281</v>
+      </c>
+      <c r="HT3" t="n">
+        <v>247.6451110839844</v>
+      </c>
+      <c r="HU3" t="n">
+        <v>247.6452026367188</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>247.6453094482422</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>247.6454467773438</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>247.6454772949219</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>247.6455993652344</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>247.6457061767578</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>247.6460876464844</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>247.6461944580078</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>247.6481781005859</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>247.6517181396484</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>247.6552734375</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>247.6579895019531</v>
+      </c>
+      <c r="IG3" t="n">
+        <v>247.6589660644531</v>
+      </c>
+      <c r="IH3" t="n">
+        <v>247.6591796875</v>
+      </c>
+      <c r="II3" t="n">
+        <v>247.6593322753906</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>247.6593933105469</v>
+      </c>
+      <c r="IK3" t="n">
+        <v>247.659423828125</v>
+      </c>
+      <c r="IL3" t="n">
+        <v>247.6594390869141</v>
+      </c>
+      <c r="IM3" t="n">
+        <v>247.6569213867188</v>
+      </c>
+      <c r="IN3" t="n">
+        <v>247.6465759277344</v>
+      </c>
+      <c r="IO3" t="n">
+        <v>247.6364135742188</v>
+      </c>
+      <c r="IP3" t="n">
+        <v>247.6256256103516</v>
+      </c>
+      <c r="IQ3" t="n">
+        <v>247.6013031005859</v>
+      </c>
+      <c r="IR3" t="n">
+        <v>247.5754089355469</v>
+      </c>
+      <c r="IS3" t="n">
+        <v>247.5651397705078</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>247.5479278564453</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>247.5302734375</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>247.5096435546875</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>247.4587097167969</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>247.4230346679688</v>
+      </c>
+      <c r="IY3" t="n">
+        <v>247.4139404296875</v>
+      </c>
+      <c r="IZ3" t="n">
+        <v>247.4133148193359</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>247.4128875732422</v>
+      </c>
+      <c r="JB3" t="n">
+        <v>247.4129943847656</v>
+      </c>
+      <c r="JC3" t="n">
+        <v>247.4227600097656</v>
+      </c>
+      <c r="JD3" t="n">
+        <v>247.4501953125</v>
+      </c>
+      <c r="JE3" t="n">
+        <v>247.4664916992188</v>
+      </c>
+      <c r="JF3" t="n">
+        <v>247.4722747802734</v>
+      </c>
+      <c r="JG3" t="n">
+        <v>247.4724426269531</v>
+      </c>
+      <c r="JH3" t="n">
+        <v>247.4722137451172</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>247.4719085693359</v>
+      </c>
+      <c r="JJ3" t="n">
+        <v>247.4713592529297</v>
+      </c>
+      <c r="JK3" t="n">
+        <v>247.4707946777344</v>
+      </c>
+      <c r="JL3" t="n">
+        <v>247.4704132080078</v>
+      </c>
+      <c r="JM3" t="n">
+        <v>247.4700469970703</v>
+      </c>
+      <c r="JN3" t="n">
+        <v>247.4698486328125</v>
+      </c>
+      <c r="JO3" t="n">
+        <v>247.4697570800781</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>247.4696655273438</v>
+      </c>
+      <c r="JQ3" t="n">
+        <v>247.4681549072266</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>247.4115600585938</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>247.3783264160156</v>
+      </c>
+      <c r="JT3" t="n">
+        <v>247.2508544921875</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>247.1908721923828</v>
+      </c>
+      <c r="JV3" t="n">
+        <v>247.1788482666016</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>247.1969604492188</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>247.2362365722656</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>247.2701110839844</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>247.2945556640625</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>247.3320007324219</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>247.3469390869141</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>247.1796569824219</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>246.1230163574219</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>245.4697265625</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>244.7185974121094</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>244.2093963623047</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>243.7599029541016</v>
+      </c>
+      <c r="KI3" t="n">
+        <v>242.6798858642578</v>
+      </c>
+      <c r="KJ3" t="n">
+        <v>240.2242126464844</v>
+      </c>
+      <c r="KK3" t="n">
+        <v>238.7785186767578</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>238.2846832275391</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>238.0159759521484</v>
+      </c>
+      <c r="KN3" t="n">
+        <v>235.8901977539062</v>
+      </c>
+      <c r="KO3" t="n">
+        <v>223.5657043457031</v>
+      </c>
+      <c r="KP3" t="n">
+        <v>218.8349761962891</v>
+      </c>
+      <c r="KQ3" t="n">
+        <v>215.3189697265625</v>
+      </c>
+      <c r="KR3" t="n">
+        <v>210.5709228515625</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>199.2211608886719</v>
+      </c>
+      <c r="KT3" t="n">
+        <v>194.3498077392578</v>
+      </c>
+      <c r="KU3" t="n">
+        <v>189.3633270263672</v>
+      </c>
+      <c r="KV3" t="n">
+        <v>186.8288879394531</v>
+      </c>
+      <c r="KW3" t="n">
+        <v>183.8975982666016</v>
+      </c>
+      <c r="KX3" t="n">
+        <v>176.2991180419922</v>
+      </c>
+      <c r="KY3" t="n">
+        <v>167.9754638671875</v>
+      </c>
+      <c r="KZ3" t="n">
+        <v>158.8792266845703</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>149.6531982421875</v>
+      </c>
+      <c r="LB3" t="n">
+        <v>146.0936431884766</v>
+      </c>
+      <c r="LC3" t="n">
+        <v>143.6179962158203</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>140.9383544921875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1179.1669921875</v>
+        <v>870.9246215820312</v>
       </c>
       <c r="B4" t="n">
-        <v>1174.833618164062</v>
+        <v>893.8133544921875</v>
       </c>
       <c r="C4" t="n">
-        <v>1171.876953125</v>
+        <v>917.9456787109375</v>
       </c>
       <c r="D4" t="n">
-        <v>1168.330078125</v>
+        <v>938.6829833984375</v>
       </c>
       <c r="E4" t="n">
-        <v>1163.72216796875</v>
+        <v>958.9608154296875</v>
       </c>
       <c r="F4" t="n">
-        <v>1158.4462890625</v>
+        <v>993.7230224609375</v>
       </c>
       <c r="G4" t="n">
-        <v>1152.867919921875</v>
+        <v>1034.848510742188</v>
       </c>
       <c r="H4" t="n">
-        <v>1147.56689453125</v>
+        <v>1078.791870117188</v>
       </c>
       <c r="I4" t="n">
-        <v>1143.708862304688</v>
+        <v>1121.237548828125</v>
       </c>
       <c r="J4" t="n">
-        <v>1141.873413085938</v>
+        <v>1161.9267578125</v>
       </c>
       <c r="K4" t="n">
-        <v>1141.617553710938</v>
+        <v>1200.86572265625</v>
       </c>
       <c r="L4" t="n">
-        <v>1144.807983398438</v>
+        <v>1240.0166015625</v>
       </c>
       <c r="M4" t="n">
-        <v>1152.072998046875</v>
+        <v>1279.999755859375</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.27197265625</v>
+        <v>1318.5166015625</v>
       </c>
       <c r="O4" t="n">
-        <v>1199.14990234375</v>
+        <v>1357.804931640625</v>
       </c>
       <c r="P4" t="n">
-        <v>1220.981201171875</v>
+        <v>1394.289306640625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1235.92041015625</v>
+        <v>1427.867797851562</v>
       </c>
       <c r="R4" t="n">
-        <v>1245.987060546875</v>
+        <v>1460.131103515625</v>
       </c>
       <c r="S4" t="n">
-        <v>1254.509765625</v>
+        <v>1489.568359375</v>
       </c>
       <c r="T4" t="n">
-        <v>1264.068481445312</v>
+        <v>1516.41064453125</v>
       </c>
       <c r="U4" t="n">
-        <v>1275.079833984375</v>
+        <v>1546.473388671875</v>
       </c>
       <c r="V4" t="n">
-        <v>1287.171142578125</v>
+        <v>1576.317138671875</v>
       </c>
       <c r="W4" t="n">
-        <v>1298.864013671875</v>
+        <v>1604.88671875</v>
       </c>
       <c r="X4" t="n">
-        <v>1309.779174804688</v>
+        <v>1633.459350585938</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.302734375</v>
+        <v>1668.2021484375</v>
       </c>
       <c r="Z4" t="n">
-        <v>1325.352294921875</v>
+        <v>1700.093017578125</v>
       </c>
       <c r="AA4" t="n">
-        <v>1330.127807617188</v>
+        <v>1726.941162109375</v>
       </c>
       <c r="AB4" t="n">
-        <v>1333.102661132812</v>
+        <v>1754.075927734375</v>
       </c>
       <c r="AC4" t="n">
-        <v>1334.509765625</v>
+        <v>1786.995727539062</v>
       </c>
       <c r="AD4" t="n">
-        <v>1335.184936523438</v>
+        <v>1821.09130859375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1335.501953125</v>
+        <v>1845.572265625</v>
       </c>
       <c r="AF4" t="n">
-        <v>1335.649780273438</v>
+        <v>1864.51123046875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1335.71875</v>
+        <v>1885.708984375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1334.744018554688</v>
+        <v>1912.149658203125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1331.045654296875</v>
+        <v>1943.47314453125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1325.301025390625</v>
+        <v>1971.71923828125</v>
       </c>
       <c r="AK4" t="n">
-        <v>1318.132568359375</v>
+        <v>1991.27197265625</v>
       </c>
       <c r="AL4" t="n">
-        <v>1310.693359375</v>
+        <v>2003.259521484375</v>
       </c>
       <c r="AM4" t="n">
-        <v>1303.472412109375</v>
+        <v>2011.166748046875</v>
       </c>
       <c r="AN4" t="n">
-        <v>1296.650146484375</v>
+        <v>2017.600341796875</v>
       </c>
       <c r="AO4" t="n">
-        <v>1290.506591796875</v>
+        <v>2023.014892578125</v>
       </c>
       <c r="AP4" t="n">
-        <v>1285.621459960938</v>
+        <v>2029.402709960938</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1281.3994140625</v>
+        <v>2037.336791992188</v>
       </c>
       <c r="AR4" t="n">
-        <v>1277.795654296875</v>
+        <v>2045.85546875</v>
       </c>
       <c r="AS4" t="n">
-        <v>1274.876708984375</v>
+        <v>2053.63671875</v>
       </c>
       <c r="AT4" t="n">
-        <v>1273.009399414062</v>
+        <v>2061.44677734375</v>
       </c>
       <c r="AU4" t="n">
-        <v>1272.09619140625</v>
+        <v>2067.888671875</v>
       </c>
       <c r="AV4" t="n">
-        <v>1271.683837890625</v>
+        <v>2075.737060546875</v>
       </c>
       <c r="AW4" t="n">
-        <v>1271.49560546875</v>
+        <v>2083.7060546875</v>
       </c>
       <c r="AX4" t="n">
-        <v>1271.970581054688</v>
+        <v>2093.56640625</v>
       </c>
       <c r="AY4" t="n">
-        <v>1272.5498046875</v>
+        <v>2104.840087890625</v>
       </c>
       <c r="AZ4" t="n">
-        <v>1274.63916015625</v>
+        <v>2112.35302734375</v>
       </c>
       <c r="BA4" t="n">
-        <v>1278.30859375</v>
+        <v>2117.66650390625</v>
       </c>
       <c r="BB4" t="n">
-        <v>1286.48095703125</v>
+        <v>2121.027587890625</v>
       </c>
       <c r="BC4" t="n">
-        <v>1293.174194335938</v>
+        <v>2124.607177734375</v>
       </c>
       <c r="BD4" t="n">
-        <v>1298.827392578125</v>
+        <v>2128.18212890625</v>
       </c>
       <c r="BE4" t="n">
-        <v>1305.172119140625</v>
+        <v>2130.34716796875</v>
       </c>
       <c r="BF4" t="n">
-        <v>1311.080078125</v>
+        <v>2133.6220703125</v>
       </c>
       <c r="BG4" t="n">
-        <v>1317.38037109375</v>
+        <v>2138.511962890625</v>
       </c>
       <c r="BH4" t="n">
-        <v>1322.475341796875</v>
+        <v>2142.29248046875</v>
       </c>
       <c r="BI4" t="n">
-        <v>1326.160888671875</v>
+        <v>2145.81396484375</v>
       </c>
       <c r="BJ4" t="n">
-        <v>1329.085205078125</v>
+        <v>2150.201416015625</v>
       </c>
       <c r="BK4" t="n">
-        <v>1332.309814453125</v>
+        <v>2154.4775390625</v>
       </c>
       <c r="BL4" t="n">
-        <v>1335.257080078125</v>
+        <v>2156.5048828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>1337.801635742188</v>
+        <v>2156.96728515625</v>
       </c>
       <c r="BN4" t="n">
-        <v>1340.99755859375</v>
+        <v>2157.16064453125</v>
       </c>
       <c r="BO4" t="n">
-        <v>1343.78271484375</v>
+        <v>2157.2548828125</v>
       </c>
       <c r="BP4" t="n">
-        <v>1346.2705078125</v>
+        <v>2157.2919921875</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1348.224609375</v>
+        <v>2157.306640625</v>
       </c>
       <c r="BR4" t="n">
-        <v>1349.44384765625</v>
+        <v>2157.31396484375</v>
       </c>
       <c r="BS4" t="n">
-        <v>1350.204956054688</v>
+        <v>2157.31591796875</v>
       </c>
       <c r="BT4" t="n">
-        <v>1350.796142578125</v>
+        <v>2157.31640625</v>
       </c>
       <c r="BU4" t="n">
-        <v>1351.282836914062</v>
+        <v>2157.31591796875</v>
       </c>
       <c r="BV4" t="n">
-        <v>1351.516357421875</v>
+        <v>2157.31494140625</v>
       </c>
       <c r="BW4" t="n">
-        <v>1351.594970703125</v>
+        <v>2157.31396484375</v>
       </c>
       <c r="BX4" t="n">
-        <v>1351.670043945312</v>
+        <v>2157.3125</v>
       </c>
       <c r="BY4" t="n">
-        <v>1351.738525390625</v>
+        <v>2157.26416015625</v>
       </c>
       <c r="BZ4" t="n">
-        <v>1351.812255859375</v>
+        <v>2157.20263671875</v>
       </c>
       <c r="CA4" t="n">
-        <v>1351.915283203125</v>
+        <v>2156.93798828125</v>
       </c>
       <c r="CB4" t="n">
-        <v>1352.035034179688</v>
+        <v>2156.28955078125</v>
       </c>
       <c r="CC4" t="n">
-        <v>1352.166015625</v>
+        <v>2155.59619140625</v>
       </c>
       <c r="CD4" t="n">
-        <v>1352.299560546875</v>
+        <v>2154.94580078125</v>
       </c>
       <c r="CE4" t="n">
-        <v>1352.43798828125</v>
+        <v>2153.75146484375</v>
       </c>
       <c r="CF4" t="n">
-        <v>1352.637451171875</v>
+        <v>2152.4912109375</v>
       </c>
       <c r="CG4" t="n">
-        <v>1352.923583984375</v>
+        <v>2151.175537109375</v>
       </c>
       <c r="CH4" t="n">
-        <v>1353.372436523438</v>
+        <v>2149.96875</v>
       </c>
       <c r="CI4" t="n">
-        <v>1353.94873046875</v>
+        <v>2148.564453125</v>
       </c>
       <c r="CJ4" t="n">
-        <v>1354.601318359375</v>
+        <v>2147.15087890625</v>
       </c>
       <c r="CK4" t="n">
-        <v>1355.444213867188</v>
+        <v>2146.498291015625</v>
       </c>
       <c r="CL4" t="n">
-        <v>1357.215698242188</v>
+        <v>2146.21337890625</v>
       </c>
       <c r="CM4" t="n">
-        <v>1358.0908203125</v>
+        <v>2146.081298828125</v>
       </c>
       <c r="CN4" t="n">
-        <v>1358.937377929688</v>
+        <v>2146.01806640625</v>
       </c>
       <c r="CO4" t="n">
-        <v>1359.783813476562</v>
+        <v>2145.98779296875</v>
       </c>
       <c r="CP4" t="n">
-        <v>1360.61572265625</v>
+        <v>2145.97265625</v>
       </c>
       <c r="CQ4" t="n">
-        <v>1361.452880859375</v>
+        <v>2145.96533203125</v>
       </c>
       <c r="CR4" t="n">
-        <v>1363.081420898438</v>
+        <v>2146.14111328125</v>
       </c>
       <c r="CS4" t="n">
-        <v>1363.8818359375</v>
+        <v>2149.130126953125</v>
       </c>
       <c r="CT4" t="n">
-        <v>1364.615478515625</v>
+        <v>2152.5673828125</v>
       </c>
       <c r="CU4" t="n">
-        <v>1365.320922851562</v>
+        <v>2154.79931640625</v>
       </c>
       <c r="CV4" t="n">
-        <v>1365.534912109375</v>
+        <v>2156.836181640625</v>
       </c>
       <c r="CW4" t="n">
-        <v>1365.593627929688</v>
+        <v>2160.2705078125</v>
       </c>
       <c r="CX4" t="n">
-        <v>1365.5986328125</v>
+        <v>2163.03271484375</v>
       </c>
       <c r="CY4" t="n">
-        <v>1365.592529296875</v>
+        <v>2165.015380859375</v>
       </c>
       <c r="CZ4" t="n">
-        <v>1365.5849609375</v>
+        <v>2165.906005859375</v>
       </c>
       <c r="DA4" t="n">
-        <v>1365.576293945312</v>
+        <v>2166.253662109375</v>
       </c>
       <c r="DB4" t="n">
-        <v>1365.565307617188</v>
+        <v>2166.4462890625</v>
       </c>
       <c r="DC4" t="n">
-        <v>1365.528930664062</v>
+        <v>2166.470703125</v>
       </c>
       <c r="DD4" t="n">
-        <v>1365.480834960938</v>
+        <v>2166.48193359375</v>
       </c>
       <c r="DE4" t="n">
-        <v>1365.417724609375</v>
+        <v>2166.49169921875</v>
       </c>
       <c r="DF4" t="n">
-        <v>1365.350463867188</v>
+        <v>2166.4951171875</v>
       </c>
       <c r="DG4" t="n">
-        <v>1365.27490234375</v>
+        <v>2166.498046875</v>
       </c>
       <c r="DH4" t="n">
-        <v>1365.1728515625</v>
+        <v>2166.49951171875</v>
       </c>
       <c r="DI4" t="n">
-        <v>1364.904052734375</v>
+        <v>2166.49951171875</v>
       </c>
       <c r="DJ4" t="n">
-        <v>1363.266357421875</v>
+        <v>2166.4921875</v>
       </c>
       <c r="DK4" t="n">
-        <v>1360.97265625</v>
+        <v>2166.310546875</v>
       </c>
       <c r="DL4" t="n">
-        <v>1353.08349609375</v>
+        <v>2158.31591796875</v>
       </c>
       <c r="DM4" t="n">
-        <v>1348.6904296875</v>
+        <v>2154.39892578125</v>
       </c>
       <c r="DN4" t="n">
-        <v>1344.493530273438</v>
+        <v>2149.31982421875</v>
       </c>
       <c r="DO4" t="n">
-        <v>1340.830322265625</v>
+        <v>2148.6533203125</v>
       </c>
       <c r="DP4" t="n">
-        <v>1333.23779296875</v>
+        <v>2148.322265625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>1327.913940429688</v>
+        <v>2148.17578125</v>
       </c>
       <c r="DR4" t="n">
-        <v>1322.247802734375</v>
+        <v>2148.10595703125</v>
       </c>
       <c r="DS4" t="n">
-        <v>1311.659790039062</v>
+        <v>2148.0712890625</v>
       </c>
       <c r="DT4" t="n">
-        <v>1307.4150390625</v>
+        <v>2148.0390625</v>
       </c>
       <c r="DU4" t="n">
-        <v>1303.540771484375</v>
+        <v>2148.033203125</v>
       </c>
       <c r="DV4" t="n">
-        <v>1297.369384765625</v>
+        <v>2148.02294921875</v>
       </c>
       <c r="DW4" t="n">
-        <v>1290.68701171875</v>
+        <v>2148.02197265625</v>
       </c>
       <c r="DX4" t="n">
-        <v>1288.01171875</v>
+        <v>2148.02099609375</v>
       </c>
       <c r="DY4" t="n">
-        <v>1285.29052734375</v>
+        <v>2148.02099609375</v>
       </c>
       <c r="DZ4" t="n">
-        <v>1279.424560546875</v>
+        <v>2148.021484375</v>
       </c>
       <c r="EA4" t="n">
-        <v>1275.300537109375</v>
+        <v>2148.0224609375</v>
       </c>
       <c r="EB4" t="n">
-        <v>1264.419311523438</v>
+        <v>2148.02294921875</v>
       </c>
       <c r="EC4" t="n">
-        <v>1257.806030273438</v>
+        <v>2148.0234375</v>
       </c>
       <c r="ED4" t="n">
-        <v>1242.092529296875</v>
+        <v>2148.024169921875</v>
       </c>
       <c r="EE4" t="n">
-        <v>1232.275634765625</v>
+        <v>2148.0244140625</v>
       </c>
       <c r="EF4" t="n">
-        <v>1221.426025390625</v>
+        <v>2148.026123046875</v>
       </c>
       <c r="EG4" t="n">
-        <v>1199.76171875</v>
+        <v>2148.02783203125</v>
       </c>
       <c r="EH4" t="n">
-        <v>1188.8134765625</v>
+        <v>2148.03173828125</v>
       </c>
       <c r="EI4" t="n">
-        <v>1155.796875</v>
+        <v>2148.040771484375</v>
       </c>
       <c r="EJ4" t="n">
-        <v>1134.242065429688</v>
+        <v>2148.045654296875</v>
       </c>
       <c r="EK4" t="n">
-        <v>1092.97021484375</v>
+        <v>2148.055908203125</v>
       </c>
       <c r="EL4" t="n">
-        <v>1078.1435546875</v>
+        <v>2148.06103515625</v>
       </c>
       <c r="EM4" t="n">
-        <v>1041.505859375</v>
+        <v>2148.8037109375</v>
       </c>
       <c r="EN4" t="n">
-        <v>1022.940246582031</v>
+        <v>2149.33251953125</v>
       </c>
       <c r="EO4" t="n">
-        <v>989.0574951171875</v>
+        <v>2150.75244140625</v>
       </c>
       <c r="EP4" t="n">
-        <v>978.494384765625</v>
+        <v>2151.541015625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>958.5186767578125</v>
+        <v>2153.8125</v>
       </c>
       <c r="ER4" t="n">
-        <v>948.1029052734375</v>
+        <v>2155.462890625</v>
       </c>
       <c r="ES4" t="n">
-        <v>930.1110229492188</v>
+        <v>2155.619140625</v>
       </c>
       <c r="ET4" t="n">
-        <v>920.54150390625</v>
+        <v>2155.4501953125</v>
       </c>
       <c r="EU4" t="n">
-        <v>910.4734497070312</v>
+        <v>2155.412109375</v>
       </c>
       <c r="EV4" t="n">
-        <v>887.897216796875</v>
+        <v>2155.3779296875</v>
       </c>
       <c r="EW4" t="n">
-        <v>862.0363159179688</v>
+        <v>2155.404296875</v>
       </c>
       <c r="EX4" t="n">
-        <v>848.8239135742188</v>
+        <v>2155.54541015625</v>
       </c>
       <c r="EY4" t="n">
-        <v>821.7662353515625</v>
+        <v>2155.6083984375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>793.5807495117188</v>
+        <v>2155.62060546875</v>
       </c>
       <c r="FA4" t="n">
-        <v>777.6370239257812</v>
+        <v>2155.612548828125</v>
       </c>
       <c r="FB4" t="n">
-        <v>761.8153076171875</v>
+        <v>2155.6025390625</v>
       </c>
       <c r="FC4" t="n">
-        <v>734.44677734375</v>
+        <v>2155.53857421875</v>
       </c>
       <c r="FD4" t="n">
-        <v>716.2463989257812</v>
+        <v>2155.060546875</v>
       </c>
       <c r="FE4" t="n">
-        <v>710.8529052734375</v>
+        <v>2154.6337890625</v>
       </c>
       <c r="FF4" t="n">
-        <v>707.7108154296875</v>
+        <v>2154.22412109375</v>
       </c>
       <c r="FG4" t="n">
-        <v>707.9349365234375</v>
+        <v>2151.456787109375</v>
       </c>
       <c r="FH4" t="n">
-        <v>714.4282836914062</v>
+        <v>2149.9765625</v>
       </c>
       <c r="FI4" t="n">
-        <v>720.337890625</v>
+        <v>2147.70947265625</v>
       </c>
       <c r="FJ4" t="n">
-        <v>732.62158203125</v>
+        <v>2146.3828125</v>
       </c>
       <c r="FK4" t="n">
-        <v>736.3556518554688</v>
+        <v>2145.94580078125</v>
       </c>
       <c r="FL4" t="n">
-        <v>740.33056640625</v>
+        <v>2145.140625</v>
       </c>
       <c r="FM4" t="n">
-        <v>741.912353515625</v>
+        <v>2144.98193359375</v>
       </c>
       <c r="FN4" t="n">
-        <v>743.703857421875</v>
+        <v>2144.40625</v>
       </c>
       <c r="FO4" t="n">
-        <v>749.433837890625</v>
+        <v>2144.116943359375</v>
       </c>
       <c r="FP4" t="n">
-        <v>763.2491455078125</v>
+        <v>2144.05029296875</v>
       </c>
       <c r="FQ4" t="n">
-        <v>772.3372192382812</v>
+        <v>2144.0556640625</v>
       </c>
       <c r="FR4" t="n">
-        <v>793.5477294921875</v>
+        <v>2144.29833984375</v>
       </c>
       <c r="FS4" t="n">
-        <v>805.5433959960938</v>
+        <v>2144.57861328125</v>
       </c>
       <c r="FT4" t="n">
-        <v>817.032470703125</v>
+        <v>2145.14794921875</v>
       </c>
       <c r="FU4" t="n">
-        <v>836.7892456054688</v>
+        <v>2145.68310546875</v>
       </c>
       <c r="FV4" t="n">
-        <v>843.2254638671875</v>
+        <v>2145.97314453125</v>
       </c>
       <c r="FW4" t="n">
-        <v>853.5164184570312</v>
+        <v>2146.62548828125</v>
       </c>
       <c r="FX4" t="n">
-        <v>860.291748046875</v>
+        <v>2147.0537109375</v>
       </c>
       <c r="FY4" t="n">
-        <v>863.2227783203125</v>
+        <v>2148.162109375</v>
       </c>
       <c r="FZ4" t="n">
-        <v>865.29345703125</v>
+        <v>2148.71142578125</v>
       </c>
       <c r="GA4" t="n">
-        <v>866.9296875</v>
+        <v>2149.7294921875</v>
       </c>
       <c r="GB4" t="n">
-        <v>867.0723876953125</v>
+        <v>2150.220947265625</v>
       </c>
       <c r="GC4" t="n">
-        <v>862.4498901367188</v>
+        <v>2151.302734375</v>
       </c>
       <c r="GD4" t="n">
-        <v>847.5737915039062</v>
+        <v>2151.90673828125</v>
       </c>
       <c r="GE4" t="n">
-        <v>839.3722534179688</v>
+        <v>2152.6455078125</v>
       </c>
       <c r="GF4" t="n">
-        <v>830.9849853515625</v>
+        <v>2152.769775390625</v>
       </c>
       <c r="GG4" t="n">
-        <v>818.6236572265625</v>
+        <v>2152.76513671875</v>
       </c>
       <c r="GH4" t="n">
-        <v>811.8299560546875</v>
+        <v>2152.765869140625</v>
       </c>
       <c r="GI4" t="n">
-        <v>795.7192993164062</v>
+        <v>2152.765625</v>
       </c>
       <c r="GJ4" t="n">
-        <v>786.4503784179688</v>
+        <v>2152.7646484375</v>
       </c>
       <c r="GK4" t="n">
-        <v>764.1544189453125</v>
+        <v>2152.7646484375</v>
       </c>
       <c r="GL4" t="n">
-        <v>753.391845703125</v>
+        <v>2152.7646484375</v>
       </c>
       <c r="GM4" t="n">
-        <v>736.9996337890625</v>
+        <v>2152.7646484375</v>
       </c>
       <c r="GN4" t="n">
-        <v>727.3192138671875</v>
+        <v>2152.7626953125</v>
       </c>
       <c r="GO4" t="n">
-        <v>724.2742919921875</v>
+        <v>2152.646484375</v>
       </c>
       <c r="GP4" t="n">
-        <v>720.6468505859375</v>
+        <v>2152.380859375</v>
       </c>
       <c r="GQ4" t="n">
-        <v>719.8065185546875</v>
+        <v>2150.554931640625</v>
+      </c>
+      <c r="GR4" t="n">
+        <v>2149.627685546875</v>
+      </c>
+      <c r="GS4" t="n">
+        <v>2147.83154296875</v>
+      </c>
+      <c r="GT4" t="n">
+        <v>2146.5869140625</v>
+      </c>
+      <c r="GU4" t="n">
+        <v>2145.9560546875</v>
+      </c>
+      <c r="GV4" t="n">
+        <v>2145.059814453125</v>
+      </c>
+      <c r="GW4" t="n">
+        <v>2143.84228515625</v>
+      </c>
+      <c r="GX4" t="n">
+        <v>2143.14453125</v>
+      </c>
+      <c r="GY4" t="n">
+        <v>2143.07421875</v>
+      </c>
+      <c r="GZ4" t="n">
+        <v>2143.0654296875</v>
+      </c>
+      <c r="HA4" t="n">
+        <v>2143.06982421875</v>
+      </c>
+      <c r="HB4" t="n">
+        <v>2143.07275390625</v>
+      </c>
+      <c r="HC4" t="n">
+        <v>2143.075439453125</v>
+      </c>
+      <c r="HD4" t="n">
+        <v>2143.078125</v>
+      </c>
+      <c r="HE4" t="n">
+        <v>2143.09326171875</v>
+      </c>
+      <c r="HF4" t="n">
+        <v>2144.1025390625</v>
+      </c>
+      <c r="HG4" t="n">
+        <v>2145.99462890625</v>
+      </c>
+      <c r="HH4" t="n">
+        <v>2146.5810546875</v>
+      </c>
+      <c r="HI4" t="n">
+        <v>2147.1572265625</v>
+      </c>
+      <c r="HJ4" t="n">
+        <v>2147.297119140625</v>
+      </c>
+      <c r="HK4" t="n">
+        <v>2147.370361328125</v>
+      </c>
+      <c r="HL4" t="n">
+        <v>2147.388671875</v>
+      </c>
+      <c r="HM4" t="n">
+        <v>2147.3935546875</v>
+      </c>
+      <c r="HN4" t="n">
+        <v>2147.405029296875</v>
+      </c>
+      <c r="HO4" t="n">
+        <v>2147.41796875</v>
+      </c>
+      <c r="HP4" t="n">
+        <v>2147.430908203125</v>
+      </c>
+      <c r="HQ4" t="n">
+        <v>2147.445068359375</v>
+      </c>
+      <c r="HR4" t="n">
+        <v>2147.4609375</v>
+      </c>
+      <c r="HS4" t="n">
+        <v>2147.434326171875</v>
+      </c>
+      <c r="HT4" t="n">
+        <v>2147.404296875</v>
+      </c>
+      <c r="HU4" t="n">
+        <v>2147.37451171875</v>
+      </c>
+      <c r="HV4" t="n">
+        <v>2147.343017578125</v>
+      </c>
+      <c r="HW4" t="n">
+        <v>2147.30908203125</v>
+      </c>
+      <c r="HX4" t="n">
+        <v>2147.29150390625</v>
+      </c>
+      <c r="HY4" t="n">
+        <v>2147.256591796875</v>
+      </c>
+      <c r="HZ4" t="n">
+        <v>2147.22119140625</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>2147.12255859375</v>
+      </c>
+      <c r="IB4" t="n">
+        <v>2147.080810546875</v>
+      </c>
+      <c r="IC4" t="n">
+        <v>2146.53125</v>
+      </c>
+      <c r="ID4" t="n">
+        <v>2145.5322265625</v>
+      </c>
+      <c r="IE4" t="n">
+        <v>2144.54248046875</v>
+      </c>
+      <c r="IF4" t="n">
+        <v>2143.77734375</v>
+      </c>
+      <c r="IG4" t="n">
+        <v>2143.509521484375</v>
+      </c>
+      <c r="IH4" t="n">
+        <v>2143.4482421875</v>
+      </c>
+      <c r="II4" t="n">
+        <v>2143.40234375</v>
+      </c>
+      <c r="IJ4" t="n">
+        <v>2143.38916015625</v>
+      </c>
+      <c r="IK4" t="n">
+        <v>2143.37939453125</v>
+      </c>
+      <c r="IL4" t="n">
+        <v>2143.37548828125</v>
+      </c>
+      <c r="IM4" t="n">
+        <v>2143.374755859375</v>
+      </c>
+      <c r="IN4" t="n">
+        <v>2143.450439453125</v>
+      </c>
+      <c r="IO4" t="n">
+        <v>2143.47216796875</v>
+      </c>
+      <c r="IP4" t="n">
+        <v>2143.658203125</v>
+      </c>
+      <c r="IQ4" t="n">
+        <v>2143.993896484375</v>
+      </c>
+      <c r="IR4" t="n">
+        <v>2144.44384765625</v>
+      </c>
+      <c r="IS4" t="n">
+        <v>2144.7138671875</v>
+      </c>
+      <c r="IT4" t="n">
+        <v>2144.7998046875</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>2144.87890625</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>2144.953857421875</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>2144.9970703125</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>2145.0087890625</v>
+      </c>
+      <c r="IY4" t="n">
+        <v>2145.0107421875</v>
+      </c>
+      <c r="IZ4" t="n">
+        <v>2145.00830078125</v>
+      </c>
+      <c r="JA4" t="n">
+        <v>2145.003662109375</v>
+      </c>
+      <c r="JB4" t="n">
+        <v>2144.83203125</v>
+      </c>
+      <c r="JC4" t="n">
+        <v>2141.968994140625</v>
+      </c>
+      <c r="JD4" t="n">
+        <v>2134.0625</v>
+      </c>
+      <c r="JE4" t="n">
+        <v>2129.309326171875</v>
+      </c>
+      <c r="JF4" t="n">
+        <v>2127.623779296875</v>
+      </c>
+      <c r="JG4" t="n">
+        <v>2127.52880859375</v>
+      </c>
+      <c r="JH4" t="n">
+        <v>2127.5615234375</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>2127.64453125</v>
+      </c>
+      <c r="JJ4" t="n">
+        <v>2127.78076171875</v>
+      </c>
+      <c r="JK4" t="n">
+        <v>2127.94091796875</v>
+      </c>
+      <c r="JL4" t="n">
+        <v>2128.05078125</v>
+      </c>
+      <c r="JM4" t="n">
+        <v>2128.1572265625</v>
+      </c>
+      <c r="JN4" t="n">
+        <v>2128.20458984375</v>
+      </c>
+      <c r="JO4" t="n">
+        <v>2128.22998046875</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>2128.25634765625</v>
+      </c>
+      <c r="JQ4" t="n">
+        <v>2128.677734375</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>2130.14990234375</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>2131.41796875</v>
+      </c>
+      <c r="JT4" t="n">
+        <v>2132.75341796875</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>2132.66259765625</v>
+      </c>
+      <c r="JV4" t="n">
+        <v>2132.521728515625</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>2128.38330078125</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>2117.9130859375</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>2108.108642578125</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>2101.056640625</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>2090.16162109375</v>
+      </c>
+      <c r="KB4" t="n">
+        <v>2083.32763671875</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>2074.942138671875</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>2058.85400390625</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>2051.3037109375</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>2039.318115234375</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>2020.692504882812</v>
+      </c>
+      <c r="KH4" t="n">
+        <v>1999.0029296875</v>
+      </c>
+      <c r="KI4" t="n">
+        <v>1973.380981445312</v>
+      </c>
+      <c r="KJ4" t="n">
+        <v>1929.71337890625</v>
+      </c>
+      <c r="KK4" t="n">
+        <v>1868.7685546875</v>
+      </c>
+      <c r="KL4" t="n">
+        <v>1820.661376953125</v>
+      </c>
+      <c r="KM4" t="n">
+        <v>1765.115356445312</v>
+      </c>
+      <c r="KN4" t="n">
+        <v>1698.7861328125</v>
+      </c>
+      <c r="KO4" t="n">
+        <v>1627.73779296875</v>
+      </c>
+      <c r="KP4" t="n">
+        <v>1567.71875</v>
+      </c>
+      <c r="KQ4" t="n">
+        <v>1512.020263671875</v>
+      </c>
+      <c r="KR4" t="n">
+        <v>1462.12548828125</v>
+      </c>
+      <c r="KS4" t="n">
+        <v>1380.167602539062</v>
+      </c>
+      <c r="KT4" t="n">
+        <v>1313.876220703125</v>
+      </c>
+      <c r="KU4" t="n">
+        <v>1205.158935546875</v>
+      </c>
+      <c r="KV4" t="n">
+        <v>1131.369384765625</v>
+      </c>
+      <c r="KW4" t="n">
+        <v>1055.5322265625</v>
+      </c>
+      <c r="KX4" t="n">
+        <v>950.2872314453125</v>
+      </c>
+      <c r="KY4" t="n">
+        <v>890.4908447265625</v>
+      </c>
+      <c r="KZ4" t="n">
+        <v>842.679443359375</v>
+      </c>
+      <c r="LA4" t="n">
+        <v>792.3088989257812</v>
+      </c>
+      <c r="LB4" t="n">
+        <v>766.5855712890625</v>
+      </c>
+      <c r="LC4" t="n">
+        <v>747.9359741210938</v>
+      </c>
+      <c r="LD4" t="n">
+        <v>728.9661254882812</v>
       </c>
     </row>
   </sheetData>

--- a/neck_Data.xlsx
+++ b/neck_Data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LD4"/>
+  <dimension ref="A1:MF4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1382,2855 +1382,3191 @@
       <c r="LD1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="LE1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LF1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LH1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LI1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LJ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LK1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LL1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LM1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LN1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LO1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LP1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF1" s="1" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>341.4157104492188</v>
+        <v>311.49853515625</v>
       </c>
       <c r="B2" t="n">
-        <v>335.67919921875</v>
+        <v>309.8773498535156</v>
       </c>
       <c r="C2" t="n">
-        <v>332.5799255371094</v>
+        <v>308.7348937988281</v>
       </c>
       <c r="D2" t="n">
-        <v>330.9918212890625</v>
+        <v>306.5735778808594</v>
       </c>
       <c r="E2" t="n">
-        <v>330.1203002929688</v>
+        <v>303.9627685546875</v>
       </c>
       <c r="F2" t="n">
-        <v>329.4667358398438</v>
+        <v>300.2216796875</v>
       </c>
       <c r="G2" t="n">
-        <v>329.0888061523438</v>
+        <v>295.9282531738281</v>
       </c>
       <c r="H2" t="n">
-        <v>328.8490600585938</v>
+        <v>292.6398010253906</v>
       </c>
       <c r="I2" t="n">
-        <v>328.9338684082031</v>
+        <v>290.4142761230469</v>
       </c>
       <c r="J2" t="n">
-        <v>329.003662109375</v>
+        <v>289.1778564453125</v>
       </c>
       <c r="K2" t="n">
-        <v>329.4093627929688</v>
+        <v>288.3804321289062</v>
       </c>
       <c r="L2" t="n">
-        <v>329.9690551757812</v>
+        <v>288.1734008789062</v>
       </c>
       <c r="M2" t="n">
-        <v>330.6268310546875</v>
+        <v>288.2400512695312</v>
       </c>
       <c r="N2" t="n">
-        <v>331.3464660644531</v>
+        <v>288.431884765625</v>
       </c>
       <c r="O2" t="n">
-        <v>331.7200317382812</v>
+        <v>288.7878723144531</v>
       </c>
       <c r="P2" t="n">
-        <v>332.0509033203125</v>
+        <v>288.7364807128906</v>
       </c>
       <c r="Q2" t="n">
-        <v>332.1519165039062</v>
+        <v>289.0313415527344</v>
       </c>
       <c r="R2" t="n">
-        <v>332.218994140625</v>
+        <v>289.5941467285156</v>
       </c>
       <c r="S2" t="n">
-        <v>332.1786193847656</v>
+        <v>290.3716125488281</v>
       </c>
       <c r="T2" t="n">
-        <v>332.06640625</v>
+        <v>291.2684936523438</v>
       </c>
       <c r="U2" t="n">
-        <v>331.8103332519531</v>
+        <v>293.1589660644531</v>
       </c>
       <c r="V2" t="n">
-        <v>331.1759643554688</v>
+        <v>295.6358642578125</v>
       </c>
       <c r="W2" t="n">
-        <v>330.3555908203125</v>
+        <v>297.9026794433594</v>
       </c>
       <c r="X2" t="n">
-        <v>328.7614440917969</v>
+        <v>300.535888671875</v>
       </c>
       <c r="Y2" t="n">
-        <v>326.8114624023438</v>
+        <v>302.7259216308594</v>
       </c>
       <c r="Z2" t="n">
-        <v>325.1721496582031</v>
+        <v>304.8866577148438</v>
       </c>
       <c r="AA2" t="n">
-        <v>323.8190002441406</v>
+        <v>307.0357055664062</v>
       </c>
       <c r="AB2" t="n">
-        <v>322.2191162109375</v>
+        <v>308.5418395996094</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.8228759765625</v>
+        <v>309.5845336914062</v>
       </c>
       <c r="AD2" t="n">
-        <v>319.6546936035156</v>
+        <v>310.58837890625</v>
       </c>
       <c r="AE2" t="n">
-        <v>318.6811828613281</v>
+        <v>311.6498107910156</v>
       </c>
       <c r="AF2" t="n">
-        <v>318.0573425292969</v>
+        <v>312.6438598632812</v>
       </c>
       <c r="AG2" t="n">
-        <v>317.6091003417969</v>
+        <v>313.5369567871094</v>
       </c>
       <c r="AH2" t="n">
-        <v>317.2911682128906</v>
+        <v>314.4465942382812</v>
       </c>
       <c r="AI2" t="n">
-        <v>317.0705261230469</v>
+        <v>314.9982604980469</v>
       </c>
       <c r="AJ2" t="n">
-        <v>316.7501831054688</v>
+        <v>315.3534240722656</v>
       </c>
       <c r="AK2" t="n">
-        <v>316.5993041992188</v>
+        <v>315.664794921875</v>
       </c>
       <c r="AL2" t="n">
-        <v>316.5335998535156</v>
+        <v>315.8145751953125</v>
       </c>
       <c r="AM2" t="n">
-        <v>316.5058288574219</v>
+        <v>315.8797607421875</v>
       </c>
       <c r="AN2" t="n">
-        <v>316.521728515625</v>
+        <v>315.9128723144531</v>
       </c>
       <c r="AO2" t="n">
-        <v>316.6359252929688</v>
+        <v>315.1046142578125</v>
       </c>
       <c r="AP2" t="n">
-        <v>317.3264770507812</v>
+        <v>313.4920043945312</v>
       </c>
       <c r="AQ2" t="n">
-        <v>318.6897277832031</v>
+        <v>312.1956787109375</v>
       </c>
       <c r="AR2" t="n">
-        <v>320.3742065429688</v>
+        <v>310.7540893554688</v>
       </c>
       <c r="AS2" t="n">
-        <v>321.8875427246094</v>
+        <v>309.7571716308594</v>
       </c>
       <c r="AT2" t="n">
-        <v>323.2770385742188</v>
+        <v>308.4697265625</v>
       </c>
       <c r="AU2" t="n">
-        <v>324.2696533203125</v>
+        <v>307.0247802734375</v>
       </c>
       <c r="AV2" t="n">
-        <v>325.0575256347656</v>
+        <v>305.6815185546875</v>
       </c>
       <c r="AW2" t="n">
-        <v>325.7943725585938</v>
+        <v>304.6069030761719</v>
       </c>
       <c r="AX2" t="n">
-        <v>326.36865234375</v>
+        <v>303.5781555175781</v>
       </c>
       <c r="AY2" t="n">
-        <v>326.6440124511719</v>
+        <v>302.7763671875</v>
       </c>
       <c r="AZ2" t="n">
-        <v>326.8147583007812</v>
+        <v>302.3779907226562</v>
       </c>
       <c r="BA2" t="n">
-        <v>326.8915405273438</v>
+        <v>302.167724609375</v>
       </c>
       <c r="BB2" t="n">
-        <v>326.9237060546875</v>
+        <v>301.7612915039062</v>
       </c>
       <c r="BC2" t="n">
-        <v>326.9313354492188</v>
+        <v>301.3565979003906</v>
       </c>
       <c r="BD2" t="n">
-        <v>326.9287719726562</v>
+        <v>301.1966552734375</v>
       </c>
       <c r="BE2" t="n">
-        <v>326.8866577148438</v>
+        <v>301.1183471679688</v>
       </c>
       <c r="BF2" t="n">
-        <v>326.7517395019531</v>
+        <v>301.3844604492188</v>
       </c>
       <c r="BG2" t="n">
-        <v>326.4578552246094</v>
+        <v>301.6274719238281</v>
       </c>
       <c r="BH2" t="n">
-        <v>326.0939025878906</v>
+        <v>301.8458251953125</v>
       </c>
       <c r="BI2" t="n">
-        <v>325.5743408203125</v>
+        <v>302.2263793945312</v>
       </c>
       <c r="BJ2" t="n">
-        <v>324.9788818359375</v>
+        <v>303.0878601074219</v>
       </c>
       <c r="BK2" t="n">
-        <v>324.2959899902344</v>
+        <v>304.3428344726562</v>
       </c>
       <c r="BL2" t="n">
-        <v>323.7096557617188</v>
+        <v>305.8520202636719</v>
       </c>
       <c r="BM2" t="n">
-        <v>323.2943420410156</v>
+        <v>307.3226013183594</v>
       </c>
       <c r="BN2" t="n">
-        <v>323.0065307617188</v>
+        <v>308.7325439453125</v>
       </c>
       <c r="BO2" t="n">
-        <v>322.7412109375</v>
+        <v>309.9841613769531</v>
       </c>
       <c r="BP2" t="n">
-        <v>322.5369567871094</v>
+        <v>310.9383850097656</v>
       </c>
       <c r="BQ2" t="n">
-        <v>322.3633117675781</v>
+        <v>311.73583984375</v>
       </c>
       <c r="BR2" t="n">
-        <v>322.2839660644531</v>
+        <v>312.552734375</v>
       </c>
       <c r="BS2" t="n">
-        <v>322.2464599609375</v>
+        <v>313.190185546875</v>
       </c>
       <c r="BT2" t="n">
-        <v>322.209228515625</v>
+        <v>313.5867614746094</v>
       </c>
       <c r="BU2" t="n">
-        <v>322.171875</v>
+        <v>313.7765808105469</v>
       </c>
       <c r="BV2" t="n">
-        <v>322.1393432617188</v>
+        <v>313.8888549804688</v>
       </c>
       <c r="BW2" t="n">
-        <v>322.1089477539062</v>
+        <v>313.9099426269531</v>
       </c>
       <c r="BX2" t="n">
-        <v>322.0661926269531</v>
+        <v>313.9190673828125</v>
       </c>
       <c r="BY2" t="n">
-        <v>322.0458679199219</v>
+        <v>313.8668823242188</v>
       </c>
       <c r="BZ2" t="n">
-        <v>322.02294921875</v>
+        <v>313.2590942382812</v>
       </c>
       <c r="CA2" t="n">
-        <v>321.9762573242188</v>
+        <v>312.3054504394531</v>
       </c>
       <c r="CB2" t="n">
-        <v>321.9533081054688</v>
+        <v>311.2251892089844</v>
       </c>
       <c r="CC2" t="n">
-        <v>321.9293518066406</v>
+        <v>310.2885131835938</v>
       </c>
       <c r="CD2" t="n">
-        <v>321.9032592773438</v>
+        <v>309.0909118652344</v>
       </c>
       <c r="CE2" t="n">
-        <v>321.8782348632812</v>
+        <v>308.7273864746094</v>
       </c>
       <c r="CF2" t="n">
-        <v>321.8548583984375</v>
+        <v>308.448486328125</v>
       </c>
       <c r="CG2" t="n">
-        <v>321.83056640625</v>
+        <v>308.15185546875</v>
       </c>
       <c r="CH2" t="n">
-        <v>321.8057250976562</v>
+        <v>307.8018493652344</v>
       </c>
       <c r="CI2" t="n">
-        <v>321.7792358398438</v>
+        <v>307.6477966308594</v>
       </c>
       <c r="CJ2" t="n">
-        <v>321.7510986328125</v>
+        <v>307.4874267578125</v>
       </c>
       <c r="CK2" t="n">
-        <v>321.722900390625</v>
+        <v>307.3876953125</v>
       </c>
       <c r="CL2" t="n">
-        <v>321.6953125</v>
+        <v>307.3566284179688</v>
       </c>
       <c r="CM2" t="n">
-        <v>321.6641540527344</v>
+        <v>307.3276977539062</v>
       </c>
       <c r="CN2" t="n">
-        <v>321.6323852539062</v>
+        <v>307.2906188964844</v>
       </c>
       <c r="CO2" t="n">
-        <v>321.6000061035156</v>
+        <v>307.2535400390625</v>
       </c>
       <c r="CP2" t="n">
-        <v>321.5638427734375</v>
+        <v>307.1747131347656</v>
       </c>
       <c r="CQ2" t="n">
-        <v>321.5279846191406</v>
+        <v>307.1334228515625</v>
       </c>
       <c r="CR2" t="n">
-        <v>321.4747314453125</v>
+        <v>307.0876770019531</v>
       </c>
       <c r="CS2" t="n">
-        <v>321.4179077148438</v>
+        <v>306.9933471679688</v>
       </c>
       <c r="CT2" t="n">
-        <v>321.3625793457031</v>
+        <v>306.9450378417969</v>
       </c>
       <c r="CU2" t="n">
-        <v>321.3065795898438</v>
+        <v>306.8470764160156</v>
       </c>
       <c r="CV2" t="n">
-        <v>321.2317504882812</v>
+        <v>306.7946472167969</v>
       </c>
       <c r="CW2" t="n">
-        <v>321.1498413085938</v>
+        <v>306.6923828125</v>
       </c>
       <c r="CX2" t="n">
-        <v>321.0683898925781</v>
+        <v>306.641357421875</v>
       </c>
       <c r="CY2" t="n">
-        <v>320.9831237792969</v>
+        <v>306.5917358398438</v>
       </c>
       <c r="CZ2" t="n">
-        <v>320.9015502929688</v>
+        <v>306.5479125976562</v>
       </c>
       <c r="DA2" t="n">
-        <v>320.82275390625</v>
+        <v>306.5276489257812</v>
       </c>
       <c r="DB2" t="n">
-        <v>320.6627807617188</v>
+        <v>306.4507446289062</v>
       </c>
       <c r="DC2" t="n">
-        <v>320.583251953125</v>
+        <v>306.4008483886719</v>
       </c>
       <c r="DD2" t="n">
-        <v>320.4998779296875</v>
+        <v>306.314453125</v>
       </c>
       <c r="DE2" t="n">
-        <v>320.4165649414062</v>
+        <v>306.2875671386719</v>
       </c>
       <c r="DF2" t="n">
-        <v>320.3375854492188</v>
+        <v>306.263671875</v>
       </c>
       <c r="DG2" t="n">
-        <v>320.25732421875</v>
+        <v>306.2631225585938</v>
       </c>
       <c r="DH2" t="n">
-        <v>320.1368713378906</v>
+        <v>306.284912109375</v>
       </c>
       <c r="DI2" t="n">
-        <v>319.9876098632812</v>
+        <v>306.3592834472656</v>
       </c>
       <c r="DJ2" t="n">
-        <v>319.8403625488281</v>
+        <v>306.4187927246094</v>
       </c>
       <c r="DK2" t="n">
-        <v>319.5579223632812</v>
+        <v>306.4469299316406</v>
       </c>
       <c r="DL2" t="n">
-        <v>319.2660217285156</v>
+        <v>306.4542236328125</v>
       </c>
       <c r="DM2" t="n">
-        <v>319.1342468261719</v>
+        <v>306.4577026367188</v>
       </c>
       <c r="DN2" t="n">
-        <v>318.9424133300781</v>
+        <v>306.4583740234375</v>
       </c>
       <c r="DO2" t="n">
-        <v>318.8835144042969</v>
+        <v>306.4585571289062</v>
       </c>
       <c r="DP2" t="n">
-        <v>318.8150329589844</v>
+        <v>306.4587097167969</v>
       </c>
       <c r="DQ2" t="n">
-        <v>318.7458190917969</v>
+        <v>306.4588012695312</v>
       </c>
       <c r="DR2" t="n">
-        <v>318.6776428222656</v>
+        <v>306.4587707519531</v>
       </c>
       <c r="DS2" t="n">
-        <v>318.6047973632812</v>
+        <v>306.4587707519531</v>
       </c>
       <c r="DT2" t="n">
-        <v>318.4636840820312</v>
+        <v>306.458740234375</v>
       </c>
       <c r="DU2" t="n">
-        <v>318.39892578125</v>
+        <v>306.458740234375</v>
       </c>
       <c r="DV2" t="n">
-        <v>318.2643432617188</v>
+        <v>306.4587097167969</v>
       </c>
       <c r="DW2" t="n">
-        <v>318.2005004882812</v>
+        <v>306.4585571289062</v>
       </c>
       <c r="DX2" t="n">
-        <v>318.1375732421875</v>
+        <v>306.45849609375</v>
       </c>
       <c r="DY2" t="n">
-        <v>318.001220703125</v>
+        <v>306.4584655761719</v>
       </c>
       <c r="DZ2" t="n">
-        <v>317.9301147460938</v>
+        <v>306.4584045410156</v>
       </c>
       <c r="EA2" t="n">
-        <v>317.7664794921875</v>
+        <v>306.4584350585938</v>
       </c>
       <c r="EB2" t="n">
-        <v>317.6940307617188</v>
+        <v>306.4584655761719</v>
       </c>
       <c r="EC2" t="n">
-        <v>317.5997314453125</v>
+        <v>306.45849609375</v>
       </c>
       <c r="ED2" t="n">
-        <v>317.421142578125</v>
+        <v>306.45849609375</v>
       </c>
       <c r="EE2" t="n">
-        <v>317.3310852050781</v>
+        <v>306.4599304199219</v>
       </c>
       <c r="EF2" t="n">
-        <v>317.1551818847656</v>
+        <v>306.4623413085938</v>
       </c>
       <c r="EG2" t="n">
-        <v>317.0648498535156</v>
+        <v>306.4671630859375</v>
       </c>
       <c r="EH2" t="n">
-        <v>317.0012512207031</v>
+        <v>306.4837036132812</v>
       </c>
       <c r="EI2" t="n">
-        <v>316.9491882324219</v>
+        <v>306.5012817382812</v>
       </c>
       <c r="EJ2" t="n">
-        <v>316.9590148925781</v>
+        <v>306.5210266113281</v>
       </c>
       <c r="EK2" t="n">
-        <v>316.9535827636719</v>
+        <v>306.5296020507812</v>
       </c>
       <c r="EL2" t="n">
-        <v>316.9502258300781</v>
+        <v>306.5337829589844</v>
       </c>
       <c r="EM2" t="n">
-        <v>316.9629821777344</v>
+        <v>306.5348510742188</v>
       </c>
       <c r="EN2" t="n">
-        <v>316.9709777832031</v>
+        <v>306.5350646972656</v>
       </c>
       <c r="EO2" t="n">
-        <v>316.9790649414062</v>
+        <v>306.5349426269531</v>
       </c>
       <c r="EP2" t="n">
-        <v>316.9841918945312</v>
+        <v>306.53466796875</v>
       </c>
       <c r="EQ2" t="n">
-        <v>316.9967956542969</v>
+        <v>306.5344848632812</v>
       </c>
       <c r="ER2" t="n">
-        <v>317.0095520019531</v>
+        <v>306.534423828125</v>
       </c>
       <c r="ES2" t="n">
-        <v>317.0149536132812</v>
+        <v>306.5320129394531</v>
       </c>
       <c r="ET2" t="n">
-        <v>317.0248413085938</v>
+        <v>306.5038757324219</v>
       </c>
       <c r="EU2" t="n">
-        <v>317.0297546386719</v>
+        <v>306.4680786132812</v>
       </c>
       <c r="EV2" t="n">
-        <v>317.0339660644531</v>
+        <v>306.4657897949219</v>
       </c>
       <c r="EW2" t="n">
-        <v>317.0433654785156</v>
+        <v>306.4654541015625</v>
       </c>
       <c r="EX2" t="n">
-        <v>317.0594482421875</v>
+        <v>306.4652404785156</v>
       </c>
       <c r="EY2" t="n">
-        <v>317.0769653320312</v>
+        <v>306.466064453125</v>
       </c>
       <c r="EZ2" t="n">
-        <v>317.0826110839844</v>
+        <v>306.4670715332031</v>
       </c>
       <c r="FA2" t="n">
-        <v>317.0869750976562</v>
+        <v>306.4676818847656</v>
       </c>
       <c r="FB2" t="n">
-        <v>317.0870056152344</v>
+        <v>306.4683837890625</v>
       </c>
       <c r="FC2" t="n">
-        <v>317.0860900878906</v>
+        <v>306.4691467285156</v>
       </c>
       <c r="FD2" t="n">
-        <v>317.08447265625</v>
+        <v>306.4695434570312</v>
       </c>
       <c r="FE2" t="n">
-        <v>317.0832824707031</v>
+        <v>306.470458984375</v>
       </c>
       <c r="FF2" t="n">
-        <v>317.0819396972656</v>
+        <v>306.4713745117188</v>
       </c>
       <c r="FG2" t="n">
-        <v>317.0761413574219</v>
+        <v>306.4718933105469</v>
       </c>
       <c r="FH2" t="n">
-        <v>317.0703735351562</v>
+        <v>306.4942016601562</v>
       </c>
       <c r="FI2" t="n">
-        <v>316.9576416015625</v>
+        <v>306.5393676757812</v>
       </c>
       <c r="FJ2" t="n">
-        <v>316.7678527832031</v>
+        <v>306.55322265625</v>
       </c>
       <c r="FK2" t="n">
-        <v>316.6392211914062</v>
+        <v>306.561279296875</v>
       </c>
       <c r="FL2" t="n">
-        <v>316.1016540527344</v>
+        <v>306.5628967285156</v>
       </c>
       <c r="FM2" t="n">
-        <v>315.6121520996094</v>
+        <v>306.5629577636719</v>
       </c>
       <c r="FN2" t="n">
-        <v>314.8493041992188</v>
+        <v>306.5624084472656</v>
       </c>
       <c r="FO2" t="n">
-        <v>314.6268005371094</v>
+        <v>306.5623168945312</v>
       </c>
       <c r="FP2" t="n">
-        <v>314.5162353515625</v>
+        <v>306.562255859375</v>
       </c>
       <c r="FQ2" t="n">
-        <v>314.4879760742188</v>
+        <v>306.5597229003906</v>
       </c>
       <c r="FR2" t="n">
-        <v>314.48388671875</v>
+        <v>306.5581970214844</v>
       </c>
       <c r="FS2" t="n">
-        <v>314.4843139648438</v>
+        <v>306.5563659667969</v>
       </c>
       <c r="FT2" t="n">
-        <v>314.4850463867188</v>
+        <v>306.5533752441406</v>
       </c>
       <c r="FU2" t="n">
-        <v>314.4861145019531</v>
+        <v>306.5519104003906</v>
       </c>
       <c r="FV2" t="n">
-        <v>314.4867858886719</v>
+        <v>306.5489501953125</v>
       </c>
       <c r="FW2" t="n">
-        <v>314.4883117675781</v>
+        <v>306.5356750488281</v>
       </c>
       <c r="FX2" t="n">
-        <v>314.4893493652344</v>
+        <v>306.5211486816406</v>
       </c>
       <c r="FY2" t="n">
-        <v>314.4921264648438</v>
+        <v>306.5060729980469</v>
       </c>
       <c r="FZ2" t="n">
-        <v>314.4934997558594</v>
+        <v>306.4968566894531</v>
       </c>
       <c r="GA2" t="n">
-        <v>314.49609375</v>
+        <v>306.4947204589844</v>
       </c>
       <c r="GB2" t="n">
-        <v>314.4973449707031</v>
+        <v>306.492919921875</v>
       </c>
       <c r="GC2" t="n">
-        <v>314.5000610351562</v>
+        <v>306.4900512695312</v>
       </c>
       <c r="GD2" t="n">
-        <v>314.5015869140625</v>
+        <v>306.4856872558594</v>
       </c>
       <c r="GE2" t="n">
-        <v>314.5034484863281</v>
+        <v>306.4835510253906</v>
       </c>
       <c r="GF2" t="n">
-        <v>314.5037536621094</v>
+        <v>306.478759765625</v>
       </c>
       <c r="GG2" t="n">
-        <v>314.5037231445312</v>
+        <v>306.4445190429688</v>
       </c>
       <c r="GH2" t="n">
-        <v>314.5037231445312</v>
+        <v>306.4095458984375</v>
       </c>
       <c r="GI2" t="n">
-        <v>314.5036926269531</v>
+        <v>306.3648986816406</v>
       </c>
       <c r="GJ2" t="n">
-        <v>314.503662109375</v>
+        <v>306.3202209472656</v>
       </c>
       <c r="GK2" t="n">
-        <v>314.5036315917969</v>
+        <v>306.2571411132812</v>
       </c>
       <c r="GL2" t="n">
-        <v>314.5036315917969</v>
+        <v>306.200439453125</v>
       </c>
       <c r="GM2" t="n">
-        <v>314.5036010742188</v>
+        <v>306.1748962402344</v>
       </c>
       <c r="GN2" t="n">
-        <v>314.5036010742188</v>
+        <v>306.0876159667969</v>
       </c>
       <c r="GO2" t="n">
-        <v>314.5032653808594</v>
+        <v>306.0206604003906</v>
       </c>
       <c r="GP2" t="n">
-        <v>314.5025939941406</v>
+        <v>305.9529418945312</v>
       </c>
       <c r="GQ2" t="n">
-        <v>314.4978942871094</v>
+        <v>305.9100646972656</v>
       </c>
       <c r="GR2" t="n">
-        <v>314.4955139160156</v>
+        <v>305.9049987792969</v>
       </c>
       <c r="GS2" t="n">
-        <v>314.4908752441406</v>
+        <v>305.8949890136719</v>
       </c>
       <c r="GT2" t="n">
-        <v>314.4876708984375</v>
+        <v>305.9052124023438</v>
       </c>
       <c r="GU2" t="n">
-        <v>314.4860229492188</v>
+        <v>305.9391479492188</v>
       </c>
       <c r="GV2" t="n">
-        <v>314.4835205078125</v>
+        <v>305.9448852539062</v>
       </c>
       <c r="GW2" t="n">
-        <v>314.4801025390625</v>
+        <v>305.9461059570312</v>
       </c>
       <c r="GX2" t="n">
-        <v>314.4776916503906</v>
+        <v>305.9445190429688</v>
       </c>
       <c r="GY2" t="n">
-        <v>314.4768676757812</v>
+        <v>305.9423828125</v>
       </c>
       <c r="GZ2" t="n">
-        <v>314.4758911132812</v>
+        <v>305.939453125</v>
       </c>
       <c r="HA2" t="n">
-        <v>314.4747924804688</v>
+        <v>305.93798828125</v>
       </c>
       <c r="HB2" t="n">
-        <v>314.4742736816406</v>
+        <v>305.9368591308594</v>
       </c>
       <c r="HC2" t="n">
-        <v>314.47314453125</v>
+        <v>305.9361877441406</v>
       </c>
       <c r="HD2" t="n">
-        <v>314.4718322753906</v>
+        <v>305.9360656738281</v>
       </c>
       <c r="HE2" t="n">
-        <v>314.4700622558594</v>
+        <v>305.9358215332031</v>
       </c>
       <c r="HF2" t="n">
-        <v>314.4717407226562</v>
+        <v>305.9357299804688</v>
       </c>
       <c r="HG2" t="n">
-        <v>314.4748840332031</v>
+        <v>305.9356384277344</v>
       </c>
       <c r="HH2" t="n">
-        <v>314.4747009277344</v>
+        <v>305.9355163574219</v>
       </c>
       <c r="HI2" t="n">
-        <v>314.4745178222656</v>
+        <v>305.9354858398438</v>
       </c>
       <c r="HJ2" t="n">
-        <v>314.4732666015625</v>
+        <v>305.9354553222656</v>
       </c>
       <c r="HK2" t="n">
-        <v>314.4719543457031</v>
+        <v>305.9354858398438</v>
       </c>
       <c r="HL2" t="n">
-        <v>314.4703369140625</v>
+        <v>305.9354858398438</v>
       </c>
       <c r="HM2" t="n">
-        <v>314.4695739746094</v>
+        <v>305.9354858398438</v>
       </c>
       <c r="HN2" t="n">
-        <v>314.4674682617188</v>
+        <v>305.9525451660156</v>
       </c>
       <c r="HO2" t="n">
-        <v>314.4652709960938</v>
+        <v>305.9906311035156</v>
       </c>
       <c r="HP2" t="n">
-        <v>314.4629821777344</v>
+        <v>305.9947509765625</v>
       </c>
       <c r="HQ2" t="n">
-        <v>314.4607849121094</v>
+        <v>306.0002136230469</v>
       </c>
       <c r="HR2" t="n">
-        <v>314.4584655761719</v>
+        <v>306.0025634765625</v>
       </c>
       <c r="HS2" t="n">
-        <v>314.4557189941406</v>
+        <v>306.0035095214844</v>
       </c>
       <c r="HT2" t="n">
-        <v>314.4530639648438</v>
+        <v>306.0039978027344</v>
       </c>
       <c r="HU2" t="n">
-        <v>314.4502563476562</v>
+        <v>306.0044555664062</v>
       </c>
       <c r="HV2" t="n">
-        <v>314.4471435546875</v>
+        <v>306.0056762695312</v>
       </c>
       <c r="HW2" t="n">
-        <v>314.4440002441406</v>
+        <v>306.0065307617188</v>
       </c>
       <c r="HX2" t="n">
-        <v>314.4423217773438</v>
+        <v>306.0063171386719</v>
       </c>
       <c r="HY2" t="n">
-        <v>314.4391479492188</v>
+        <v>306.0059204101562</v>
       </c>
       <c r="HZ2" t="n">
-        <v>314.4357604980469</v>
+        <v>306.0050048828125</v>
       </c>
       <c r="IA2" t="n">
-        <v>314.4285278320312</v>
+        <v>306.0044860839844</v>
       </c>
       <c r="IB2" t="n">
-        <v>314.4232788085938</v>
+        <v>305.9943542480469</v>
       </c>
       <c r="IC2" t="n">
-        <v>314.4113464355469</v>
+        <v>305.9891052246094</v>
       </c>
       <c r="ID2" t="n">
-        <v>314.3964233398438</v>
+        <v>305.9878540039062</v>
       </c>
       <c r="IE2" t="n">
-        <v>314.3786010742188</v>
+        <v>305.9814758300781</v>
       </c>
       <c r="IF2" t="n">
-        <v>314.3607177734375</v>
+        <v>305.9748840332031</v>
       </c>
       <c r="IG2" t="n">
-        <v>314.3441162109375</v>
+        <v>305.9657897949219</v>
       </c>
       <c r="IH2" t="n">
-        <v>314.3281555175781</v>
+        <v>305.9514770507812</v>
       </c>
       <c r="II2" t="n">
-        <v>314.3119506835938</v>
+        <v>305.9435729980469</v>
       </c>
       <c r="IJ2" t="n">
-        <v>314.2953491210938</v>
+        <v>305.9440307617188</v>
       </c>
       <c r="IK2" t="n">
-        <v>314.2768859863281</v>
+        <v>305.9635314941406</v>
       </c>
       <c r="IL2" t="n">
-        <v>314.258544921875</v>
+        <v>305.9849853515625</v>
       </c>
       <c r="IM2" t="n">
-        <v>314.2314147949219</v>
+        <v>305.9908447265625</v>
       </c>
       <c r="IN2" t="n">
-        <v>314.21337890625</v>
+        <v>305.9991760253906</v>
       </c>
       <c r="IO2" t="n">
-        <v>314.1966247558594</v>
+        <v>305.9996337890625</v>
       </c>
       <c r="IP2" t="n">
-        <v>314.1855163574219</v>
+        <v>305.9994506835938</v>
       </c>
       <c r="IQ2" t="n">
-        <v>314.1846008300781</v>
+        <v>305.9992370605469</v>
       </c>
       <c r="IR2" t="n">
-        <v>314.1850280761719</v>
+        <v>305.9986267089844</v>
       </c>
       <c r="IS2" t="n">
-        <v>314.1861877441406</v>
+        <v>305.9967346191406</v>
       </c>
       <c r="IT2" t="n">
-        <v>314.1866760253906</v>
+        <v>305.9913330078125</v>
       </c>
       <c r="IU2" t="n">
-        <v>314.18701171875</v>
+        <v>305.9597473144531</v>
       </c>
       <c r="IV2" t="n">
-        <v>314.18994140625</v>
+        <v>305.9069213867188</v>
       </c>
       <c r="IW2" t="n">
-        <v>314.1931457519531</v>
+        <v>305.857421875</v>
       </c>
       <c r="IX2" t="n">
-        <v>314.1960144042969</v>
+        <v>305.8377685546875</v>
       </c>
       <c r="IY2" t="n">
-        <v>314.1981811523438</v>
+        <v>305.8208618164062</v>
       </c>
       <c r="IZ2" t="n">
-        <v>314.1983032226562</v>
+        <v>305.8018798828125</v>
       </c>
       <c r="JA2" t="n">
-        <v>314.1983032226562</v>
+        <v>305.7682800292969</v>
       </c>
       <c r="JB2" t="n">
-        <v>314.1978149414062</v>
+        <v>305.7409973144531</v>
       </c>
       <c r="JC2" t="n">
-        <v>314.1898498535156</v>
+        <v>305.6986999511719</v>
       </c>
       <c r="JD2" t="n">
-        <v>314.1636962890625</v>
+        <v>305.6661376953125</v>
       </c>
       <c r="JE2" t="n">
-        <v>314.1272277832031</v>
+        <v>305.6206665039062</v>
       </c>
       <c r="JF2" t="n">
-        <v>314.0927124023438</v>
+        <v>305.6129150390625</v>
       </c>
       <c r="JG2" t="n">
-        <v>314.0200805664062</v>
+        <v>305.6136779785156</v>
       </c>
       <c r="JH2" t="n">
-        <v>313.78857421875</v>
+        <v>305.6153869628906</v>
       </c>
       <c r="JI2" t="n">
-        <v>313.3875732421875</v>
+        <v>305.5972900390625</v>
       </c>
       <c r="JJ2" t="n">
-        <v>312.9136657714844</v>
+        <v>305.5925598144531</v>
       </c>
       <c r="JK2" t="n">
-        <v>312.4308166503906</v>
+        <v>305.5765686035156</v>
       </c>
       <c r="JL2" t="n">
-        <v>311.9747924804688</v>
+        <v>305.5780639648438</v>
       </c>
       <c r="JM2" t="n">
-        <v>311.7631225585938</v>
+        <v>305.578125</v>
       </c>
       <c r="JN2" t="n">
-        <v>311.6158142089844</v>
+        <v>305.5665283203125</v>
       </c>
       <c r="JO2" t="n">
-        <v>311.5734558105469</v>
+        <v>305.5537109375</v>
       </c>
       <c r="JP2" t="n">
-        <v>311.553466796875</v>
+        <v>305.5068664550781</v>
       </c>
       <c r="JQ2" t="n">
-        <v>311.5565795898438</v>
+        <v>305.4532775878906</v>
       </c>
       <c r="JR2" t="n">
-        <v>311.5628051757812</v>
+        <v>305.4374084472656</v>
       </c>
       <c r="JS2" t="n">
-        <v>311.5680541992188</v>
+        <v>305.4403686523438</v>
       </c>
       <c r="JT2" t="n">
-        <v>311.5741271972656</v>
+        <v>305.4435424804688</v>
       </c>
       <c r="JU2" t="n">
-        <v>311.5743713378906</v>
+        <v>305.4494323730469</v>
       </c>
       <c r="JV2" t="n">
-        <v>311.5741577148438</v>
+        <v>305.4586791992188</v>
       </c>
       <c r="JW2" t="n">
-        <v>311.5578918457031</v>
+        <v>305.4656372070312</v>
       </c>
       <c r="JX2" t="n">
-        <v>311.5154724121094</v>
+        <v>305.4705505371094</v>
       </c>
       <c r="JY2" t="n">
-        <v>311.4757385253906</v>
+        <v>305.4716186523438</v>
       </c>
       <c r="JZ2" t="n">
-        <v>311.4468688964844</v>
+        <v>305.4716491699219</v>
       </c>
       <c r="KA2" t="n">
-        <v>311.3568725585938</v>
+        <v>305.5581665039062</v>
       </c>
       <c r="KB2" t="n">
-        <v>311.0596923828125</v>
+        <v>306.7279357910156</v>
       </c>
       <c r="KC2" t="n">
-        <v>309.6220703125</v>
+        <v>309.4288330078125</v>
       </c>
       <c r="KD2" t="n">
-        <v>306.8376159667969</v>
+        <v>310.2817993164062</v>
       </c>
       <c r="KE2" t="n">
-        <v>306.3552551269531</v>
+        <v>310.5731811523438</v>
       </c>
       <c r="KF2" t="n">
-        <v>305.7235107421875</v>
+        <v>310.69140625</v>
       </c>
       <c r="KG2" t="n">
-        <v>305.40478515625</v>
+        <v>310.7677001953125</v>
       </c>
       <c r="KH2" t="n">
-        <v>305.2048950195312</v>
+        <v>310.9409484863281</v>
       </c>
       <c r="KI2" t="n">
-        <v>304.9589233398438</v>
+        <v>311.0494384765625</v>
       </c>
       <c r="KJ2" t="n">
-        <v>304.5729064941406</v>
+        <v>311.1141052246094</v>
       </c>
       <c r="KK2" t="n">
-        <v>304.3817749023438</v>
+        <v>311.2060546875</v>
       </c>
       <c r="KL2" t="n">
-        <v>305.3908081054688</v>
+        <v>311.1979370117188</v>
       </c>
       <c r="KM2" t="n">
-        <v>308.36669921875</v>
+        <v>311.1886596679688</v>
       </c>
       <c r="KN2" t="n">
-        <v>313.3908996582031</v>
+        <v>311.1873168945312</v>
       </c>
       <c r="KO2" t="n">
-        <v>318.7683410644531</v>
+        <v>311.1889953613281</v>
       </c>
       <c r="KP2" t="n">
-        <v>322.1834106445312</v>
+        <v>313.7579956054688</v>
       </c>
       <c r="KQ2" t="n">
-        <v>324.6438903808594</v>
+        <v>316.885498046875</v>
       </c>
       <c r="KR2" t="n">
-        <v>326.3900451660156</v>
+        <v>320.116943359375</v>
       </c>
       <c r="KS2" t="n">
-        <v>327.5307922363281</v>
+        <v>321.2458801269531</v>
       </c>
       <c r="KT2" t="n">
-        <v>327.7221069335938</v>
+        <v>322.7511596679688</v>
       </c>
       <c r="KU2" t="n">
-        <v>325.7066650390625</v>
+        <v>323.0670471191406</v>
       </c>
       <c r="KV2" t="n">
-        <v>322.6015930175781</v>
+        <v>322.2071533203125</v>
       </c>
       <c r="KW2" t="n">
-        <v>320.7037658691406</v>
+        <v>320.3576354980469</v>
       </c>
       <c r="KX2" t="n">
-        <v>317.1883544921875</v>
+        <v>316.3949279785156</v>
       </c>
       <c r="KY2" t="n">
-        <v>313.8320922851562</v>
+        <v>313.6310729980469</v>
       </c>
       <c r="KZ2" t="n">
-        <v>311.8976440429688</v>
+        <v>311.0827941894531</v>
       </c>
       <c r="LA2" t="n">
-        <v>309.5957336425781</v>
+        <v>309.901611328125</v>
       </c>
       <c r="LB2" t="n">
-        <v>308.7563171386719</v>
+        <v>309.51318359375</v>
       </c>
       <c r="LC2" t="n">
-        <v>308.3052062988281</v>
+        <v>312.2586975097656</v>
       </c>
       <c r="LD2" t="n">
-        <v>307.9757995605469</v>
+        <v>315.5938720703125</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>318.9093017578125</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>321.9217224121094</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>322.583251953125</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>322.3232421875</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>319.6145935058594</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>314.4400329589844</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>310.2276306152344</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>302.2014465332031</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>295.2576904296875</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>292.3793640136719</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>294.5413208007812</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>309.40625</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>326.4834594726562</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>340.9369506835938</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>346.5545043945312</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>349.9990234375</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>353.610595703125</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>357.3364562988281</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>361.284423828125</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>365.0485534667969</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>366.439453125</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>367.5945434570312</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>369.1045532226562</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>370.628662109375</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>372.041259765625</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>373.12890625</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>374.6912841796875</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>374.9031372070312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>176.4213256835938</v>
+        <v>127.514289855957</v>
       </c>
       <c r="B3" t="n">
-        <v>173.0287322998047</v>
+        <v>132.2129058837891</v>
       </c>
       <c r="C3" t="n">
-        <v>172.3586120605469</v>
+        <v>136.1164245605469</v>
       </c>
       <c r="D3" t="n">
-        <v>173.0521697998047</v>
+        <v>139.0442810058594</v>
       </c>
       <c r="E3" t="n">
-        <v>174.1908874511719</v>
+        <v>141.4230499267578</v>
       </c>
       <c r="F3" t="n">
-        <v>176.6848907470703</v>
+        <v>144.7997283935547</v>
       </c>
       <c r="G3" t="n">
-        <v>179.5757141113281</v>
+        <v>148.6658020019531</v>
       </c>
       <c r="H3" t="n">
-        <v>182.2479858398438</v>
+        <v>152.113037109375</v>
       </c>
       <c r="I3" t="n">
-        <v>184.9903259277344</v>
+        <v>154.9909973144531</v>
       </c>
       <c r="J3" t="n">
-        <v>188.015380859375</v>
+        <v>157.3904113769531</v>
       </c>
       <c r="K3" t="n">
-        <v>192.7366180419922</v>
+        <v>159.3151092529297</v>
       </c>
       <c r="L3" t="n">
-        <v>197.4456329345703</v>
+        <v>160.742431640625</v>
       </c>
       <c r="M3" t="n">
-        <v>202.24560546875</v>
+        <v>160.5151824951172</v>
       </c>
       <c r="N3" t="n">
-        <v>205.3798217773438</v>
+        <v>158.4348907470703</v>
       </c>
       <c r="O3" t="n">
-        <v>207.4192657470703</v>
+        <v>157.0053405761719</v>
       </c>
       <c r="P3" t="n">
-        <v>208.6260528564453</v>
+        <v>156.2088317871094</v>
       </c>
       <c r="Q3" t="n">
-        <v>208.3698272705078</v>
+        <v>156.4317932128906</v>
       </c>
       <c r="R3" t="n">
-        <v>206.9243469238281</v>
+        <v>157.4975433349609</v>
       </c>
       <c r="S3" t="n">
-        <v>206.2222442626953</v>
+        <v>159.0591125488281</v>
       </c>
       <c r="T3" t="n">
-        <v>205.9533996582031</v>
+        <v>161.316162109375</v>
       </c>
       <c r="U3" t="n">
-        <v>206.1926116943359</v>
+        <v>163.6532440185547</v>
       </c>
       <c r="V3" t="n">
-        <v>207.0742797851562</v>
+        <v>166.1598663330078</v>
       </c>
       <c r="W3" t="n">
-        <v>210.1886291503906</v>
+        <v>168.8295288085938</v>
       </c>
       <c r="X3" t="n">
-        <v>213.6457672119141</v>
+        <v>171.4410552978516</v>
       </c>
       <c r="Y3" t="n">
-        <v>216.7426452636719</v>
+        <v>174.0236358642578</v>
       </c>
       <c r="Z3" t="n">
-        <v>220.2987976074219</v>
+        <v>176.6350860595703</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.2847747802734</v>
+        <v>179.0892333984375</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.6392517089844</v>
+        <v>181.2290954589844</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.0756530761719</v>
+        <v>182.8580627441406</v>
       </c>
       <c r="AD3" t="n">
-        <v>233.676513671875</v>
+        <v>183.9912109375</v>
       </c>
       <c r="AE3" t="n">
-        <v>235.18115234375</v>
+        <v>184.4691009521484</v>
       </c>
       <c r="AF3" t="n">
-        <v>236.5723266601562</v>
+        <v>183.7052459716797</v>
       </c>
       <c r="AG3" t="n">
-        <v>237.7558135986328</v>
+        <v>182.1355285644531</v>
       </c>
       <c r="AH3" t="n">
-        <v>238.7725067138672</v>
+        <v>180.2755584716797</v>
       </c>
       <c r="AI3" t="n">
-        <v>239.4140625</v>
+        <v>179.6109161376953</v>
       </c>
       <c r="AJ3" t="n">
-        <v>239.7355346679688</v>
+        <v>179.6367950439453</v>
       </c>
       <c r="AK3" t="n">
-        <v>239.8852081298828</v>
+        <v>179.8081665039062</v>
       </c>
       <c r="AL3" t="n">
-        <v>239.9563446044922</v>
+        <v>180.1531982421875</v>
       </c>
       <c r="AM3" t="n">
-        <v>239.9914398193359</v>
+        <v>180.1848602294922</v>
       </c>
       <c r="AN3" t="n">
-        <v>240.021484375</v>
+        <v>180.2901611328125</v>
       </c>
       <c r="AO3" t="n">
-        <v>240.0550537109375</v>
+        <v>180.6291198730469</v>
       </c>
       <c r="AP3" t="n">
-        <v>240.0877532958984</v>
+        <v>181.3348236083984</v>
       </c>
       <c r="AQ3" t="n">
-        <v>240.1197357177734</v>
+        <v>182.2813110351562</v>
       </c>
       <c r="AR3" t="n">
-        <v>240.1549835205078</v>
+        <v>183.2508697509766</v>
       </c>
       <c r="AS3" t="n">
-        <v>240.2041320800781</v>
+        <v>184.3659210205078</v>
       </c>
       <c r="AT3" t="n">
-        <v>240.2677307128906</v>
+        <v>185.2588348388672</v>
       </c>
       <c r="AU3" t="n">
-        <v>240.4955291748047</v>
+        <v>186.2734222412109</v>
       </c>
       <c r="AV3" t="n">
-        <v>241.2205963134766</v>
+        <v>187.3382720947266</v>
       </c>
       <c r="AW3" t="n">
-        <v>242.3392639160156</v>
+        <v>188.2827911376953</v>
       </c>
       <c r="AX3" t="n">
-        <v>243.4742279052734</v>
+        <v>189.0712432861328</v>
       </c>
       <c r="AY3" t="n">
-        <v>244.2515716552734</v>
+        <v>189.5412445068359</v>
       </c>
       <c r="AZ3" t="n">
-        <v>244.7671508789062</v>
+        <v>189.5791320800781</v>
       </c>
       <c r="BA3" t="n">
-        <v>245.020263671875</v>
+        <v>189.2766723632812</v>
       </c>
       <c r="BB3" t="n">
-        <v>245.1437683105469</v>
+        <v>188.9301605224609</v>
       </c>
       <c r="BC3" t="n">
-        <v>245.2001953125</v>
+        <v>188.4469146728516</v>
       </c>
       <c r="BD3" t="n">
-        <v>245.2239074707031</v>
+        <v>188.2953338623047</v>
       </c>
       <c r="BE3" t="n">
-        <v>245.2348175048828</v>
+        <v>188.2829437255859</v>
       </c>
       <c r="BF3" t="n">
-        <v>245.23486328125</v>
+        <v>188.5748748779297</v>
       </c>
       <c r="BG3" t="n">
-        <v>245.2269134521484</v>
+        <v>188.7512969970703</v>
       </c>
       <c r="BH3" t="n">
-        <v>245.2211303710938</v>
+        <v>188.865966796875</v>
       </c>
       <c r="BI3" t="n">
-        <v>245.2161865234375</v>
+        <v>188.9598541259766</v>
       </c>
       <c r="BJ3" t="n">
-        <v>245.2088317871094</v>
+        <v>189.0176086425781</v>
       </c>
       <c r="BK3" t="n">
-        <v>245.1986846923828</v>
+        <v>189.0837249755859</v>
       </c>
       <c r="BL3" t="n">
-        <v>245.1940765380859</v>
+        <v>189.1611480712891</v>
       </c>
       <c r="BM3" t="n">
-        <v>245.1933288574219</v>
+        <v>189.2337188720703</v>
       </c>
       <c r="BN3" t="n">
-        <v>245.1932983398438</v>
+        <v>189.3469390869141</v>
       </c>
       <c r="BO3" t="n">
-        <v>245.1934661865234</v>
+        <v>189.4519195556641</v>
       </c>
       <c r="BP3" t="n">
-        <v>245.1938171386719</v>
+        <v>189.5421142578125</v>
       </c>
       <c r="BQ3" t="n">
-        <v>245.1941833496094</v>
+        <v>189.5871124267578</v>
       </c>
       <c r="BR3" t="n">
-        <v>245.1947326660156</v>
+        <v>189.6253204345703</v>
       </c>
       <c r="BS3" t="n">
-        <v>245.1951904296875</v>
+        <v>189.6830139160156</v>
       </c>
       <c r="BT3" t="n">
-        <v>245.1957092285156</v>
+        <v>189.7526550292969</v>
       </c>
       <c r="BU3" t="n">
-        <v>245.1966705322266</v>
+        <v>189.8084411621094</v>
       </c>
       <c r="BV3" t="n">
-        <v>245.1989898681641</v>
+        <v>189.9492034912109</v>
       </c>
       <c r="BW3" t="n">
-        <v>245.2016296386719</v>
+        <v>190.5634765625</v>
       </c>
       <c r="BX3" t="n">
-        <v>245.2041473388672</v>
+        <v>191.3363800048828</v>
       </c>
       <c r="BY3" t="n">
-        <v>245.2066650390625</v>
+        <v>192.0639190673828</v>
       </c>
       <c r="BZ3" t="n">
-        <v>245.2095794677734</v>
+        <v>192.4864196777344</v>
       </c>
       <c r="CA3" t="n">
-        <v>245.2155609130859</v>
+        <v>192.5727233886719</v>
       </c>
       <c r="CB3" t="n">
-        <v>245.2199096679688</v>
+        <v>192.6531524658203</v>
       </c>
       <c r="CC3" t="n">
-        <v>245.2244873046875</v>
+        <v>192.6384735107422</v>
       </c>
       <c r="CD3" t="n">
-        <v>245.2288360595703</v>
+        <v>192.6390991210938</v>
       </c>
       <c r="CE3" t="n">
-        <v>245.2344360351562</v>
+        <v>192.6275787353516</v>
       </c>
       <c r="CF3" t="n">
-        <v>245.2402801513672</v>
+        <v>192.5689544677734</v>
       </c>
       <c r="CG3" t="n">
-        <v>245.2464599609375</v>
+        <v>192.5041198730469</v>
       </c>
       <c r="CH3" t="n">
-        <v>245.2524719238281</v>
+        <v>192.393310546875</v>
       </c>
       <c r="CI3" t="n">
-        <v>245.2740631103516</v>
+        <v>192.3562316894531</v>
       </c>
       <c r="CJ3" t="n">
-        <v>245.3007049560547</v>
+        <v>192.3308868408203</v>
       </c>
       <c r="CK3" t="n">
-        <v>245.3245391845703</v>
+        <v>192.3233032226562</v>
       </c>
       <c r="CL3" t="n">
-        <v>245.3527526855469</v>
+        <v>192.3229370117188</v>
       </c>
       <c r="CM3" t="n">
-        <v>245.3843536376953</v>
+        <v>192.324462890625</v>
       </c>
       <c r="CN3" t="n">
-        <v>245.4493103027344</v>
+        <v>192.3252258300781</v>
       </c>
       <c r="CO3" t="n">
-        <v>245.5260925292969</v>
+        <v>192.3259887695312</v>
       </c>
       <c r="CP3" t="n">
-        <v>245.5985107421875</v>
+        <v>192.3272552490234</v>
       </c>
       <c r="CQ3" t="n">
-        <v>245.6769866943359</v>
+        <v>192.3273468017578</v>
       </c>
       <c r="CR3" t="n">
-        <v>245.7531433105469</v>
+        <v>192.3273620605469</v>
       </c>
       <c r="CS3" t="n">
-        <v>245.8197479248047</v>
+        <v>192.3275299072266</v>
       </c>
       <c r="CT3" t="n">
-        <v>245.8812561035156</v>
+        <v>192.3277130126953</v>
       </c>
       <c r="CU3" t="n">
-        <v>245.9400024414062</v>
+        <v>192.3333129882812</v>
       </c>
       <c r="CV3" t="n">
-        <v>246.0067138671875</v>
+        <v>192.3355407714844</v>
       </c>
       <c r="CW3" t="n">
-        <v>246.0675201416016</v>
+        <v>192.3398895263672</v>
       </c>
       <c r="CX3" t="n">
-        <v>246.1251373291016</v>
+        <v>192.3420715332031</v>
       </c>
       <c r="CY3" t="n">
-        <v>246.1847229003906</v>
+        <v>192.3447418212891</v>
       </c>
       <c r="CZ3" t="n">
-        <v>246.27734375</v>
+        <v>192.3554534912109</v>
       </c>
       <c r="DA3" t="n">
-        <v>246.3648071289062</v>
+        <v>192.3664855957031</v>
       </c>
       <c r="DB3" t="n">
-        <v>246.4468841552734</v>
+        <v>192.3898162841797</v>
       </c>
       <c r="DC3" t="n">
-        <v>246.4913787841797</v>
+        <v>192.4018402099609</v>
       </c>
       <c r="DD3" t="n">
-        <v>246.5429534912109</v>
+        <v>192.4284057617188</v>
       </c>
       <c r="DE3" t="n">
-        <v>246.6032409667969</v>
+        <v>192.4420928955078</v>
       </c>
       <c r="DF3" t="n">
-        <v>246.6465606689453</v>
+        <v>192.4686889648438</v>
       </c>
       <c r="DG3" t="n">
-        <v>246.6975708007812</v>
+        <v>192.5131225585938</v>
       </c>
       <c r="DH3" t="n">
-        <v>246.7474365234375</v>
+        <v>192.5162811279297</v>
       </c>
       <c r="DI3" t="n">
-        <v>246.7545623779297</v>
+        <v>192.5240936279297</v>
       </c>
       <c r="DJ3" t="n">
-        <v>246.7625122070312</v>
+        <v>192.5283813476562</v>
       </c>
       <c r="DK3" t="n">
-        <v>246.7854614257812</v>
+        <v>192.5370025634766</v>
       </c>
       <c r="DL3" t="n">
-        <v>246.8373565673828</v>
+        <v>192.5386962890625</v>
       </c>
       <c r="DM3" t="n">
-        <v>246.8637390136719</v>
+        <v>192.5399322509766</v>
       </c>
       <c r="DN3" t="n">
-        <v>246.9069366455078</v>
+        <v>192.5401763916016</v>
       </c>
       <c r="DO3" t="n">
-        <v>246.9217529296875</v>
+        <v>192.5402069091797</v>
       </c>
       <c r="DP3" t="n">
-        <v>246.93408203125</v>
+        <v>192.5402374267578</v>
       </c>
       <c r="DQ3" t="n">
-        <v>246.9561462402344</v>
+        <v>192.5403442382812</v>
       </c>
       <c r="DR3" t="n">
-        <v>246.9750823974609</v>
+        <v>192.5401153564453</v>
       </c>
       <c r="DS3" t="n">
-        <v>247.0061645507812</v>
+        <v>192.5398712158203</v>
       </c>
       <c r="DT3" t="n">
-        <v>247.0809478759766</v>
+        <v>192.5400238037109</v>
       </c>
       <c r="DU3" t="n">
-        <v>247.1431121826172</v>
+        <v>192.5401763916016</v>
       </c>
       <c r="DV3" t="n">
-        <v>247.2583312988281</v>
+        <v>192.5402069091797</v>
       </c>
       <c r="DW3" t="n">
-        <v>247.3152618408203</v>
+        <v>192.5402984619141</v>
       </c>
       <c r="DX3" t="n">
-        <v>247.3779754638672</v>
+        <v>192.5403442382812</v>
       </c>
       <c r="DY3" t="n">
-        <v>247.4174346923828</v>
+        <v>192.5401916503906</v>
       </c>
       <c r="DZ3" t="n">
-        <v>247.4290466308594</v>
+        <v>192.5399780273438</v>
       </c>
       <c r="EA3" t="n">
-        <v>247.4519958496094</v>
+        <v>192.5399169921875</v>
       </c>
       <c r="EB3" t="n">
-        <v>247.4582214355469</v>
+        <v>192.5399780273438</v>
       </c>
       <c r="EC3" t="n">
-        <v>247.4644165039062</v>
+        <v>192.5400085449219</v>
       </c>
       <c r="ED3" t="n">
-        <v>247.4763641357422</v>
+        <v>192.5400695800781</v>
       </c>
       <c r="EE3" t="n">
-        <v>247.496826171875</v>
+        <v>192.5451049804688</v>
       </c>
       <c r="EF3" t="n">
-        <v>247.5827941894531</v>
+        <v>192.5535278320312</v>
       </c>
       <c r="EG3" t="n">
-        <v>247.656982421875</v>
+        <v>192.5704956054688</v>
       </c>
       <c r="EH3" t="n">
-        <v>247.7284545898438</v>
+        <v>192.6284484863281</v>
       </c>
       <c r="EI3" t="n">
-        <v>247.8650360107422</v>
+        <v>192.6901397705078</v>
       </c>
       <c r="EJ3" t="n">
-        <v>247.8927307128906</v>
+        <v>192.7593383789062</v>
       </c>
       <c r="EK3" t="n">
-        <v>247.9080047607422</v>
+        <v>192.7894592285156</v>
       </c>
       <c r="EL3" t="n">
-        <v>247.9098968505859</v>
+        <v>192.8040924072266</v>
       </c>
       <c r="EM3" t="n">
-        <v>247.9082641601562</v>
+        <v>192.8078460693359</v>
       </c>
       <c r="EN3" t="n">
-        <v>247.9064636230469</v>
+        <v>192.8086700439453</v>
       </c>
       <c r="EO3" t="n">
-        <v>247.8924255371094</v>
+        <v>192.8082275390625</v>
       </c>
       <c r="EP3" t="n">
-        <v>247.8816070556641</v>
+        <v>192.8073120117188</v>
       </c>
       <c r="EQ3" t="n">
-        <v>247.8513031005859</v>
+        <v>192.8067169189453</v>
       </c>
       <c r="ER3" t="n">
-        <v>247.8169097900391</v>
+        <v>192.8064880371094</v>
       </c>
       <c r="ES3" t="n">
-        <v>247.7994995117188</v>
+        <v>192.798095703125</v>
       </c>
       <c r="ET3" t="n">
-        <v>247.7528076171875</v>
+        <v>192.6995391845703</v>
       </c>
       <c r="EU3" t="n">
-        <v>247.7430114746094</v>
+        <v>192.5740661621094</v>
       </c>
       <c r="EV3" t="n">
-        <v>247.7341461181641</v>
+        <v>192.5660552978516</v>
       </c>
       <c r="EW3" t="n">
-        <v>247.7117462158203</v>
+        <v>192.5649566650391</v>
       </c>
       <c r="EX3" t="n">
-        <v>247.6861114501953</v>
+        <v>192.5642242431641</v>
       </c>
       <c r="EY3" t="n">
-        <v>247.6745300292969</v>
+        <v>192.5675201416016</v>
       </c>
       <c r="EZ3" t="n">
-        <v>247.6636199951172</v>
+        <v>192.5741119384766</v>
       </c>
       <c r="FA3" t="n">
-        <v>247.6353759765625</v>
+        <v>192.5830383300781</v>
       </c>
       <c r="FB3" t="n">
-        <v>247.6288604736328</v>
+        <v>192.593505859375</v>
       </c>
       <c r="FC3" t="n">
-        <v>247.6245727539062</v>
+        <v>192.5997161865234</v>
       </c>
       <c r="FD3" t="n">
-        <v>247.6251373291016</v>
+        <v>192.6021118164062</v>
       </c>
       <c r="FE3" t="n">
-        <v>247.6262054443359</v>
+        <v>192.6056060791016</v>
       </c>
       <c r="FF3" t="n">
-        <v>247.6278381347656</v>
+        <v>192.6092834472656</v>
       </c>
       <c r="FG3" t="n">
-        <v>247.6381225585938</v>
+        <v>192.6113128662109</v>
       </c>
       <c r="FH3" t="n">
-        <v>247.6436767578125</v>
+        <v>192.6894836425781</v>
       </c>
       <c r="FI3" t="n">
-        <v>247.6522979736328</v>
+        <v>192.8476715087891</v>
       </c>
       <c r="FJ3" t="n">
-        <v>247.6573791503906</v>
+        <v>192.8962249755859</v>
       </c>
       <c r="FK3" t="n">
-        <v>247.6590118408203</v>
+        <v>192.9245147705078</v>
       </c>
       <c r="FL3" t="n">
-        <v>247.6621704101562</v>
+        <v>193.1521301269531</v>
       </c>
       <c r="FM3" t="n">
-        <v>247.6628723144531</v>
+        <v>193.3587951660156</v>
       </c>
       <c r="FN3" t="n">
-        <v>247.6652526855469</v>
+        <v>193.4088439941406</v>
       </c>
       <c r="FO3" t="n">
-        <v>247.6664886474609</v>
+        <v>193.4145355224609</v>
       </c>
       <c r="FP3" t="n">
-        <v>247.6672210693359</v>
+        <v>193.4151763916016</v>
       </c>
       <c r="FQ3" t="n">
-        <v>247.6674499511719</v>
+        <v>193.4064483642578</v>
       </c>
       <c r="FR3" t="n">
-        <v>247.6685943603516</v>
+        <v>193.4011840820312</v>
       </c>
       <c r="FS3" t="n">
-        <v>247.6692810058594</v>
+        <v>193.3948822021484</v>
       </c>
       <c r="FT3" t="n">
-        <v>247.670654296875</v>
+        <v>193.3844909667969</v>
       </c>
       <c r="FU3" t="n">
-        <v>247.6722412109375</v>
+        <v>193.3794555664062</v>
       </c>
       <c r="FV3" t="n">
-        <v>247.6720886230469</v>
+        <v>193.3692779541016</v>
       </c>
       <c r="FW3" t="n">
-        <v>247.67041015625</v>
+        <v>193.3232879638672</v>
       </c>
       <c r="FX3" t="n">
-        <v>247.6690063476562</v>
+        <v>193.2731475830078</v>
       </c>
       <c r="FY3" t="n">
-        <v>247.6650848388672</v>
+        <v>193.2210693359375</v>
       </c>
       <c r="FZ3" t="n">
-        <v>247.6631317138672</v>
+        <v>193.1905670166016</v>
       </c>
       <c r="GA3" t="n">
-        <v>247.6595001220703</v>
+        <v>193.1878662109375</v>
       </c>
       <c r="GB3" t="n">
-        <v>247.6577606201172</v>
+        <v>193.1867065429688</v>
       </c>
       <c r="GC3" t="n">
-        <v>247.6539001464844</v>
+        <v>193.1864776611328</v>
       </c>
       <c r="GD3" t="n">
-        <v>247.6517486572266</v>
+        <v>193.1863250732422</v>
       </c>
       <c r="GE3" t="n">
-        <v>247.6491088867188</v>
+        <v>193.1862640380859</v>
       </c>
       <c r="GF3" t="n">
-        <v>247.6486511230469</v>
+        <v>193.1862182617188</v>
       </c>
       <c r="GG3" t="n">
-        <v>247.6486511230469</v>
+        <v>193.1862030029297</v>
       </c>
       <c r="GH3" t="n">
-        <v>247.6486053466797</v>
+        <v>193.1862182617188</v>
       </c>
       <c r="GI3" t="n">
-        <v>247.6485443115234</v>
+        <v>193.1863403320312</v>
       </c>
       <c r="GJ3" t="n">
-        <v>247.6484527587891</v>
+        <v>193.1971740722656</v>
       </c>
       <c r="GK3" t="n">
-        <v>247.64794921875</v>
+        <v>193.2053833007812</v>
       </c>
       <c r="GL3" t="n">
-        <v>247.6477203369141</v>
+        <v>193.2345123291016</v>
       </c>
       <c r="GM3" t="n">
-        <v>247.6474914550781</v>
+        <v>193.2501373291016</v>
       </c>
       <c r="GN3" t="n">
-        <v>247.6475219726562</v>
+        <v>193.272216796875</v>
       </c>
       <c r="GO3" t="n">
-        <v>247.6479797363281</v>
+        <v>193.2709350585938</v>
       </c>
       <c r="GP3" t="n">
-        <v>247.6489105224609</v>
+        <v>193.2711791992188</v>
       </c>
       <c r="GQ3" t="n">
-        <v>247.6554412841797</v>
+        <v>193.2715148925781</v>
       </c>
       <c r="GR3" t="n">
-        <v>247.6587219238281</v>
+        <v>193.2716979980469</v>
       </c>
       <c r="GS3" t="n">
-        <v>247.6651306152344</v>
+        <v>193.2726135253906</v>
       </c>
       <c r="GT3" t="n">
-        <v>247.6695709228516</v>
+        <v>193.3350830078125</v>
       </c>
       <c r="GU3" t="n">
-        <v>247.6718292236328</v>
+        <v>193.4595031738281</v>
       </c>
       <c r="GV3" t="n">
-        <v>247.6750335693359</v>
+        <v>193.4862365722656</v>
       </c>
       <c r="GW3" t="n">
-        <v>247.6793823242188</v>
+        <v>193.50537109375</v>
       </c>
       <c r="GX3" t="n">
-        <v>247.6819000244141</v>
+        <v>193.5078277587891</v>
       </c>
       <c r="GY3" t="n">
-        <v>247.68212890625</v>
+        <v>193.507568359375</v>
       </c>
       <c r="GZ3" t="n">
-        <v>247.6821594238281</v>
+        <v>193.5057220458984</v>
       </c>
       <c r="HA3" t="n">
-        <v>247.6821594238281</v>
+        <v>193.5041046142578</v>
       </c>
       <c r="HB3" t="n">
-        <v>247.6821594238281</v>
+        <v>193.5008544921875</v>
       </c>
       <c r="HC3" t="n">
-        <v>247.68212890625</v>
+        <v>193.4985046386719</v>
       </c>
       <c r="HD3" t="n">
-        <v>247.68212890625</v>
+        <v>193.4980773925781</v>
       </c>
       <c r="HE3" t="n">
-        <v>247.6820678710938</v>
+        <v>193.4768218994141</v>
       </c>
       <c r="HF3" t="n">
-        <v>247.6782379150391</v>
+        <v>193.4507904052734</v>
       </c>
       <c r="HG3" t="n">
-        <v>247.6702575683594</v>
+        <v>193.4447784423828</v>
       </c>
       <c r="HH3" t="n">
-        <v>247.6667633056641</v>
+        <v>193.4450988769531</v>
       </c>
       <c r="HI3" t="n">
-        <v>247.6632537841797</v>
+        <v>193.4458618164062</v>
       </c>
       <c r="HJ3" t="n">
-        <v>247.6612701416016</v>
+        <v>193.4460906982422</v>
       </c>
       <c r="HK3" t="n">
-        <v>247.6594390869141</v>
+        <v>193.4459228515625</v>
       </c>
       <c r="HL3" t="n">
-        <v>247.6578674316406</v>
+        <v>193.4459075927734</v>
       </c>
       <c r="HM3" t="n">
-        <v>247.6571807861328</v>
+        <v>193.4459381103516</v>
       </c>
       <c r="HN3" t="n">
-        <v>247.6555786132812</v>
+        <v>193.5023193359375</v>
       </c>
       <c r="HO3" t="n">
-        <v>247.6539001464844</v>
+        <v>193.6284637451172</v>
       </c>
       <c r="HP3" t="n">
-        <v>247.6513824462891</v>
+        <v>193.6420745849609</v>
       </c>
       <c r="HQ3" t="n">
-        <v>247.6483459472656</v>
+        <v>193.6379699707031</v>
       </c>
       <c r="HR3" t="n">
-        <v>247.6454772949219</v>
+        <v>193.6293182373047</v>
       </c>
       <c r="HS3" t="n">
-        <v>247.6450500488281</v>
+        <v>193.6220550537109</v>
       </c>
       <c r="HT3" t="n">
-        <v>247.6451110839844</v>
+        <v>193.6130065917969</v>
       </c>
       <c r="HU3" t="n">
-        <v>247.6452026367188</v>
+        <v>193.6081085205078</v>
       </c>
       <c r="HV3" t="n">
-        <v>247.6453094482422</v>
+        <v>193.5987396240234</v>
       </c>
       <c r="HW3" t="n">
-        <v>247.6454467773438</v>
+        <v>193.5768585205078</v>
       </c>
       <c r="HX3" t="n">
-        <v>247.6454772949219</v>
+        <v>193.5692138671875</v>
       </c>
       <c r="HY3" t="n">
-        <v>247.6455993652344</v>
+        <v>193.5659484863281</v>
       </c>
       <c r="HZ3" t="n">
-        <v>247.6457061767578</v>
+        <v>193.5621490478516</v>
       </c>
       <c r="IA3" t="n">
-        <v>247.6460876464844</v>
+        <v>193.5603942871094</v>
       </c>
       <c r="IB3" t="n">
-        <v>247.6461944580078</v>
+        <v>193.5268707275391</v>
       </c>
       <c r="IC3" t="n">
-        <v>247.6481781005859</v>
+        <v>193.5093994140625</v>
       </c>
       <c r="ID3" t="n">
-        <v>247.6517181396484</v>
+        <v>193.5052490234375</v>
       </c>
       <c r="IE3" t="n">
-        <v>247.6552734375</v>
+        <v>193.4832916259766</v>
       </c>
       <c r="IF3" t="n">
-        <v>247.6579895019531</v>
+        <v>193.4583892822266</v>
       </c>
       <c r="IG3" t="n">
-        <v>247.6589660644531</v>
+        <v>193.4250030517578</v>
       </c>
       <c r="IH3" t="n">
-        <v>247.6591796875</v>
+        <v>193.3720855712891</v>
       </c>
       <c r="II3" t="n">
-        <v>247.6593322753906</v>
+        <v>193.3423309326172</v>
       </c>
       <c r="IJ3" t="n">
-        <v>247.6593933105469</v>
+        <v>193.3417205810547</v>
       </c>
       <c r="IK3" t="n">
-        <v>247.659423828125</v>
+        <v>193.4042510986328</v>
       </c>
       <c r="IL3" t="n">
-        <v>247.6594390869141</v>
+        <v>193.4738464355469</v>
       </c>
       <c r="IM3" t="n">
-        <v>247.6569213867188</v>
+        <v>193.4904479980469</v>
       </c>
       <c r="IN3" t="n">
-        <v>247.6465759277344</v>
+        <v>193.517578125</v>
       </c>
       <c r="IO3" t="n">
-        <v>247.6364135742188</v>
+        <v>193.5199890136719</v>
       </c>
       <c r="IP3" t="n">
-        <v>247.6256256103516</v>
+        <v>193.5196380615234</v>
       </c>
       <c r="IQ3" t="n">
-        <v>247.6013031005859</v>
+        <v>193.5190887451172</v>
       </c>
       <c r="IR3" t="n">
-        <v>247.5754089355469</v>
+        <v>193.5171661376953</v>
       </c>
       <c r="IS3" t="n">
-        <v>247.5651397705078</v>
+        <v>193.5109405517578</v>
       </c>
       <c r="IT3" t="n">
-        <v>247.5479278564453</v>
+        <v>193.4935913085938</v>
       </c>
       <c r="IU3" t="n">
-        <v>247.5302734375</v>
+        <v>193.3932342529297</v>
       </c>
       <c r="IV3" t="n">
-        <v>247.5096435546875</v>
+        <v>193.2230377197266</v>
       </c>
       <c r="IW3" t="n">
-        <v>247.4587097167969</v>
+        <v>193.0722503662109</v>
       </c>
       <c r="IX3" t="n">
-        <v>247.4230346679688</v>
+        <v>193.0247497558594</v>
       </c>
       <c r="IY3" t="n">
-        <v>247.4139404296875</v>
+        <v>193.0101013183594</v>
       </c>
       <c r="IZ3" t="n">
-        <v>247.4133148193359</v>
+        <v>193.0042419433594</v>
       </c>
       <c r="JA3" t="n">
-        <v>247.4128875732422</v>
+        <v>192.9783020019531</v>
       </c>
       <c r="JB3" t="n">
-        <v>247.4129943847656</v>
+        <v>192.9469451904297</v>
       </c>
       <c r="JC3" t="n">
-        <v>247.4227600097656</v>
+        <v>192.9266052246094</v>
       </c>
       <c r="JD3" t="n">
-        <v>247.4501953125</v>
+        <v>192.9153594970703</v>
       </c>
       <c r="JE3" t="n">
-        <v>247.4664916992188</v>
+        <v>192.9154357910156</v>
       </c>
       <c r="JF3" t="n">
-        <v>247.4722747802734</v>
+        <v>192.9411926269531</v>
       </c>
       <c r="JG3" t="n">
-        <v>247.4724426269531</v>
+        <v>192.9974212646484</v>
       </c>
       <c r="JH3" t="n">
-        <v>247.4722137451172</v>
+        <v>193.0676116943359</v>
       </c>
       <c r="JI3" t="n">
-        <v>247.4719085693359</v>
+        <v>193.1509857177734</v>
       </c>
       <c r="JJ3" t="n">
-        <v>247.4713592529297</v>
+        <v>193.2412872314453</v>
       </c>
       <c r="JK3" t="n">
-        <v>247.4707946777344</v>
+        <v>193.1912994384766</v>
       </c>
       <c r="JL3" t="n">
-        <v>247.4704132080078</v>
+        <v>193.1962127685547</v>
       </c>
       <c r="JM3" t="n">
-        <v>247.4700469970703</v>
+        <v>193.1963958740234</v>
       </c>
       <c r="JN3" t="n">
-        <v>247.4698486328125</v>
+        <v>193.1587371826172</v>
       </c>
       <c r="JO3" t="n">
-        <v>247.4697570800781</v>
+        <v>193.1171875</v>
       </c>
       <c r="JP3" t="n">
-        <v>247.4696655273438</v>
+        <v>192.9651336669922</v>
       </c>
       <c r="JQ3" t="n">
-        <v>247.4681549072266</v>
+        <v>192.791259765625</v>
       </c>
       <c r="JR3" t="n">
-        <v>247.4115600585938</v>
+        <v>192.7397003173828</v>
       </c>
       <c r="JS3" t="n">
-        <v>247.3783264160156</v>
+        <v>192.7479705810547</v>
       </c>
       <c r="JT3" t="n">
-        <v>247.2508544921875</v>
+        <v>192.7576904296875</v>
       </c>
       <c r="JU3" t="n">
-        <v>247.1908721923828</v>
+        <v>192.7754364013672</v>
       </c>
       <c r="JV3" t="n">
-        <v>247.1788482666016</v>
+        <v>192.7997283935547</v>
       </c>
       <c r="JW3" t="n">
-        <v>247.1969604492188</v>
+        <v>192.8147583007812</v>
       </c>
       <c r="JX3" t="n">
-        <v>247.2362365722656</v>
+        <v>192.8260803222656</v>
       </c>
       <c r="JY3" t="n">
-        <v>247.2701110839844</v>
+        <v>192.8220977783203</v>
       </c>
       <c r="JZ3" t="n">
-        <v>247.2945556640625</v>
+        <v>192.8156127929688</v>
       </c>
       <c r="KA3" t="n">
-        <v>247.3320007324219</v>
+        <v>192.7077941894531</v>
       </c>
       <c r="KB3" t="n">
-        <v>247.3469390869141</v>
+        <v>192.5382385253906</v>
       </c>
       <c r="KC3" t="n">
-        <v>247.1796569824219</v>
+        <v>192.4537811279297</v>
       </c>
       <c r="KD3" t="n">
-        <v>246.1230163574219</v>
+        <v>192.4338684082031</v>
       </c>
       <c r="KE3" t="n">
-        <v>245.4697265625</v>
+        <v>192.4020690917969</v>
       </c>
       <c r="KF3" t="n">
-        <v>244.7185974121094</v>
+        <v>192.3741760253906</v>
       </c>
       <c r="KG3" t="n">
-        <v>244.2093963623047</v>
+        <v>192.3561553955078</v>
       </c>
       <c r="KH3" t="n">
-        <v>243.7599029541016</v>
+        <v>192.3529815673828</v>
       </c>
       <c r="KI3" t="n">
-        <v>242.6798858642578</v>
+        <v>192.3548736572266</v>
       </c>
       <c r="KJ3" t="n">
-        <v>240.2242126464844</v>
+        <v>192.3554229736328</v>
       </c>
       <c r="KK3" t="n">
-        <v>238.7785186767578</v>
+        <v>192.3567199707031</v>
       </c>
       <c r="KL3" t="n">
-        <v>238.2846832275391</v>
+        <v>192.3564453125</v>
       </c>
       <c r="KM3" t="n">
-        <v>238.0159759521484</v>
+        <v>192.3571166992188</v>
       </c>
       <c r="KN3" t="n">
-        <v>235.8901977539062</v>
+        <v>192.3572540283203</v>
       </c>
       <c r="KO3" t="n">
-        <v>223.5657043457031</v>
+        <v>192.3551177978516</v>
       </c>
       <c r="KP3" t="n">
-        <v>218.8349761962891</v>
+        <v>191.9283752441406</v>
       </c>
       <c r="KQ3" t="n">
-        <v>215.3189697265625</v>
+        <v>191.5110015869141</v>
       </c>
       <c r="KR3" t="n">
-        <v>210.5709228515625</v>
+        <v>192.0571441650391</v>
       </c>
       <c r="KS3" t="n">
-        <v>199.2211608886719</v>
+        <v>191.3031311035156</v>
       </c>
       <c r="KT3" t="n">
-        <v>194.3498077392578</v>
+        <v>190.1147918701172</v>
       </c>
       <c r="KU3" t="n">
-        <v>189.3633270263672</v>
+        <v>192.0486145019531</v>
       </c>
       <c r="KV3" t="n">
-        <v>186.8288879394531</v>
+        <v>195.7071685791016</v>
       </c>
       <c r="KW3" t="n">
-        <v>183.8975982666016</v>
+        <v>195.7021484375</v>
       </c>
       <c r="KX3" t="n">
-        <v>176.2991180419922</v>
+        <v>190.0383758544922</v>
       </c>
       <c r="KY3" t="n">
-        <v>167.9754638671875</v>
+        <v>184.0317535400391</v>
       </c>
       <c r="KZ3" t="n">
-        <v>158.8792266845703</v>
+        <v>174.7839813232422</v>
       </c>
       <c r="LA3" t="n">
-        <v>149.6531982421875</v>
+        <v>168.6507110595703</v>
       </c>
       <c r="LB3" t="n">
-        <v>146.0936431884766</v>
+        <v>167.3311004638672</v>
       </c>
       <c r="LC3" t="n">
-        <v>143.6179962158203</v>
+        <v>168.3209838867188</v>
       </c>
       <c r="LD3" t="n">
-        <v>140.9383544921875</v>
+        <v>163.2551574707031</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>150.9661865234375</v>
+      </c>
+      <c r="LF3" t="n">
+        <v>139.1552429199219</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>131.6058959960938</v>
+      </c>
+      <c r="LH3" t="n">
+        <v>123.4833068847656</v>
+      </c>
+      <c r="LI3" t="n">
+        <v>124.1220321655273</v>
+      </c>
+      <c r="LJ3" t="n">
+        <v>118.8757553100586</v>
+      </c>
+      <c r="LK3" t="n">
+        <v>119.6638946533203</v>
+      </c>
+      <c r="LL3" t="n">
+        <v>130.2669525146484</v>
+      </c>
+      <c r="LM3" t="n">
+        <v>142.4608154296875</v>
+      </c>
+      <c r="LN3" t="n">
+        <v>139.8158264160156</v>
+      </c>
+      <c r="LO3" t="n">
+        <v>130.1181488037109</v>
+      </c>
+      <c r="LP3" t="n">
+        <v>118.4618301391602</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>105.2146987915039</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>98.61623382568359</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>96.36842346191406</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>95.03045654296875</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>94.43697357177734</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>98.46269989013672</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>111.1866455078125</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>113.6759262084961</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>113.0738067626953</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>111.7065124511719</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>110.3919143676758</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>108.9970092773438</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>107.5569763183594</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>106.0020294189453</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>102.9673538208008</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>99.90589141845703</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>870.9246215820312</v>
+        <v>808.82275390625</v>
       </c>
       <c r="B4" t="n">
-        <v>893.8133544921875</v>
+        <v>834.3646850585938</v>
       </c>
       <c r="C4" t="n">
-        <v>917.9456787109375</v>
+        <v>860.8365478515625</v>
       </c>
       <c r="D4" t="n">
-        <v>938.6829833984375</v>
+        <v>883.4034423828125</v>
       </c>
       <c r="E4" t="n">
-        <v>958.9608154296875</v>
+        <v>903.1420288085938</v>
       </c>
       <c r="F4" t="n">
-        <v>993.7230224609375</v>
+        <v>933.4879150390625</v>
       </c>
       <c r="G4" t="n">
-        <v>1034.848510742188</v>
+        <v>968.0572509765625</v>
       </c>
       <c r="H4" t="n">
-        <v>1078.791870117188</v>
+        <v>1001.669067382812</v>
       </c>
       <c r="I4" t="n">
-        <v>1121.237548828125</v>
+        <v>1032.555053710938</v>
       </c>
       <c r="J4" t="n">
-        <v>1161.9267578125</v>
+        <v>1060.7666015625</v>
       </c>
       <c r="K4" t="n">
-        <v>1200.86572265625</v>
+        <v>1086.392578125</v>
       </c>
       <c r="L4" t="n">
-        <v>1240.0166015625</v>
+        <v>1111.968383789062</v>
       </c>
       <c r="M4" t="n">
-        <v>1279.999755859375</v>
+        <v>1137.538696289062</v>
       </c>
       <c r="N4" t="n">
-        <v>1318.5166015625</v>
+        <v>1164.709594726562</v>
       </c>
       <c r="O4" t="n">
-        <v>1357.804931640625</v>
+        <v>1191.224609375</v>
       </c>
       <c r="P4" t="n">
-        <v>1394.289306640625</v>
+        <v>1218.435791015625</v>
       </c>
       <c r="Q4" t="n">
-        <v>1427.867797851562</v>
+        <v>1246.1083984375</v>
       </c>
       <c r="R4" t="n">
-        <v>1460.131103515625</v>
+        <v>1274.61962890625</v>
       </c>
       <c r="S4" t="n">
-        <v>1489.568359375</v>
+        <v>1303.161376953125</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.41064453125</v>
+        <v>1331.7392578125</v>
       </c>
       <c r="U4" t="n">
-        <v>1546.473388671875</v>
+        <v>1363.283813476562</v>
       </c>
       <c r="V4" t="n">
-        <v>1576.317138671875</v>
+        <v>1396.440185546875</v>
       </c>
       <c r="W4" t="n">
-        <v>1604.88671875</v>
+        <v>1430.932861328125</v>
       </c>
       <c r="X4" t="n">
-        <v>1633.459350585938</v>
+        <v>1464.12646484375</v>
       </c>
       <c r="Y4" t="n">
-        <v>1668.2021484375</v>
+        <v>1495.415161132812</v>
       </c>
       <c r="Z4" t="n">
-        <v>1700.093017578125</v>
+        <v>1525.717529296875</v>
       </c>
       <c r="AA4" t="n">
-        <v>1726.941162109375</v>
+        <v>1556.86572265625</v>
       </c>
       <c r="AB4" t="n">
-        <v>1754.075927734375</v>
+        <v>1588.90576171875</v>
       </c>
       <c r="AC4" t="n">
-        <v>1786.995727539062</v>
+        <v>1621.614501953125</v>
       </c>
       <c r="AD4" t="n">
-        <v>1821.09130859375</v>
+        <v>1653.441162109375</v>
       </c>
       <c r="AE4" t="n">
-        <v>1845.572265625</v>
+        <v>1682.804443359375</v>
       </c>
       <c r="AF4" t="n">
-        <v>1864.51123046875</v>
+        <v>1710.336669921875</v>
       </c>
       <c r="AG4" t="n">
-        <v>1885.708984375</v>
+        <v>1732.021728515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1912.149658203125</v>
+        <v>1748.63720703125</v>
       </c>
       <c r="AI4" t="n">
-        <v>1943.47314453125</v>
+        <v>1773.751953125</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1971.71923828125</v>
+        <v>1803.908325195312</v>
       </c>
       <c r="AK4" t="n">
-        <v>1991.27197265625</v>
+        <v>1828.8154296875</v>
       </c>
       <c r="AL4" t="n">
-        <v>2003.259521484375</v>
+        <v>1851.7587890625</v>
       </c>
       <c r="AM4" t="n">
-        <v>2011.166748046875</v>
+        <v>1867.752075195312</v>
       </c>
       <c r="AN4" t="n">
-        <v>2017.600341796875</v>
+        <v>1879.544189453125</v>
       </c>
       <c r="AO4" t="n">
-        <v>2023.014892578125</v>
+        <v>1894.555908203125</v>
       </c>
       <c r="AP4" t="n">
-        <v>2029.402709960938</v>
+        <v>1918.496337890625</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2037.336791992188</v>
+        <v>1947.703979492188</v>
       </c>
       <c r="AR4" t="n">
-        <v>2045.85546875</v>
+        <v>1975.165405273438</v>
       </c>
       <c r="AS4" t="n">
-        <v>2053.63671875</v>
+        <v>1993.69921875</v>
       </c>
       <c r="AT4" t="n">
-        <v>2061.44677734375</v>
+        <v>2007.99462890625</v>
       </c>
       <c r="AU4" t="n">
-        <v>2067.888671875</v>
+        <v>2020.400634765625</v>
       </c>
       <c r="AV4" t="n">
-        <v>2075.737060546875</v>
+        <v>2032.060791015625</v>
       </c>
       <c r="AW4" t="n">
-        <v>2083.7060546875</v>
+        <v>2043.043212890625</v>
       </c>
       <c r="AX4" t="n">
-        <v>2093.56640625</v>
+        <v>2061.4873046875</v>
       </c>
       <c r="AY4" t="n">
-        <v>2104.840087890625</v>
+        <v>2082.297607421875</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2112.35302734375</v>
+        <v>2108.96630859375</v>
       </c>
       <c r="BA4" t="n">
-        <v>2117.66650390625</v>
+        <v>2135.51513671875</v>
       </c>
       <c r="BB4" t="n">
-        <v>2121.027587890625</v>
+        <v>2151.2841796875</v>
       </c>
       <c r="BC4" t="n">
-        <v>2124.607177734375</v>
+        <v>2160.84765625</v>
       </c>
       <c r="BD4" t="n">
-        <v>2128.18212890625</v>
+        <v>2170.31640625</v>
       </c>
       <c r="BE4" t="n">
-        <v>2130.34716796875</v>
+        <v>2182.16845703125</v>
       </c>
       <c r="BF4" t="n">
-        <v>2133.6220703125</v>
+        <v>2201.121826171875</v>
       </c>
       <c r="BG4" t="n">
-        <v>2138.511962890625</v>
+        <v>2214.569091796875</v>
       </c>
       <c r="BH4" t="n">
-        <v>2142.29248046875</v>
+        <v>2221.89501953125</v>
       </c>
       <c r="BI4" t="n">
-        <v>2145.81396484375</v>
+        <v>2226.90966796875</v>
       </c>
       <c r="BJ4" t="n">
-        <v>2150.201416015625</v>
+        <v>2230.236328125</v>
       </c>
       <c r="BK4" t="n">
-        <v>2154.4775390625</v>
+        <v>2233.270263671875</v>
       </c>
       <c r="BL4" t="n">
-        <v>2156.5048828125</v>
+        <v>2236.643798828125</v>
       </c>
       <c r="BM4" t="n">
-        <v>2156.96728515625</v>
+        <v>2239.8076171875</v>
       </c>
       <c r="BN4" t="n">
-        <v>2157.16064453125</v>
+        <v>2244.7607421875</v>
       </c>
       <c r="BO4" t="n">
-        <v>2157.2548828125</v>
+        <v>2249.3583984375</v>
       </c>
       <c r="BP4" t="n">
-        <v>2157.2919921875</v>
+        <v>2253.31396484375</v>
       </c>
       <c r="BQ4" t="n">
-        <v>2157.306640625</v>
+        <v>2255.26220703125</v>
       </c>
       <c r="BR4" t="n">
-        <v>2157.31396484375</v>
+        <v>2256.915771484375</v>
       </c>
       <c r="BS4" t="n">
-        <v>2157.31591796875</v>
+        <v>2259.5</v>
       </c>
       <c r="BT4" t="n">
-        <v>2157.31640625</v>
+        <v>2262.61865234375</v>
       </c>
       <c r="BU4" t="n">
-        <v>2157.31591796875</v>
+        <v>2265.12158203125</v>
       </c>
       <c r="BV4" t="n">
-        <v>2157.31494140625</v>
+        <v>2270.72900390625</v>
       </c>
       <c r="BW4" t="n">
-        <v>2157.31396484375</v>
+        <v>2274.07373046875</v>
       </c>
       <c r="BX4" t="n">
-        <v>2157.3125</v>
+        <v>2275.382568359375</v>
       </c>
       <c r="BY4" t="n">
-        <v>2157.26416015625</v>
+        <v>2276.60888671875</v>
       </c>
       <c r="BZ4" t="n">
-        <v>2157.20263671875</v>
+        <v>2276.7509765625</v>
       </c>
       <c r="CA4" t="n">
-        <v>2156.93798828125</v>
+        <v>2276.62109375</v>
       </c>
       <c r="CB4" t="n">
-        <v>2156.28955078125</v>
+        <v>2276.2578125</v>
       </c>
       <c r="CC4" t="n">
-        <v>2155.59619140625</v>
+        <v>2275.75537109375</v>
       </c>
       <c r="CD4" t="n">
-        <v>2154.94580078125</v>
+        <v>2274.2470703125</v>
       </c>
       <c r="CE4" t="n">
-        <v>2153.75146484375</v>
+        <v>2272.884033203125</v>
       </c>
       <c r="CF4" t="n">
-        <v>2152.4912109375</v>
+        <v>2269.70703125</v>
       </c>
       <c r="CG4" t="n">
-        <v>2151.175537109375</v>
+        <v>2266.45751953125</v>
       </c>
       <c r="CH4" t="n">
-        <v>2149.96875</v>
+        <v>2260.66357421875</v>
       </c>
       <c r="CI4" t="n">
-        <v>2148.564453125</v>
+        <v>2258.68212890625</v>
       </c>
       <c r="CJ4" t="n">
-        <v>2147.15087890625</v>
+        <v>2257.26708984375</v>
       </c>
       <c r="CK4" t="n">
-        <v>2146.498291015625</v>
+        <v>2256.541015625</v>
       </c>
       <c r="CL4" t="n">
-        <v>2146.21337890625</v>
+        <v>2256.477294921875</v>
       </c>
       <c r="CM4" t="n">
-        <v>2146.081298828125</v>
+        <v>2256.454345703125</v>
       </c>
       <c r="CN4" t="n">
-        <v>2146.01806640625</v>
+        <v>2256.4453125</v>
       </c>
       <c r="CO4" t="n">
-        <v>2145.98779296875</v>
+        <v>2256.44189453125</v>
       </c>
       <c r="CP4" t="n">
-        <v>2145.97265625</v>
+        <v>2256.439453125</v>
       </c>
       <c r="CQ4" t="n">
-        <v>2145.96533203125</v>
+        <v>2256.439453125</v>
       </c>
       <c r="CR4" t="n">
-        <v>2146.14111328125</v>
+        <v>2256.43994140625</v>
       </c>
       <c r="CS4" t="n">
-        <v>2149.130126953125</v>
+        <v>2256.448486328125</v>
       </c>
       <c r="CT4" t="n">
-        <v>2152.5673828125</v>
+        <v>2256.45654296875</v>
       </c>
       <c r="CU4" t="n">
-        <v>2154.79931640625</v>
+        <v>2256.72216796875</v>
       </c>
       <c r="CV4" t="n">
-        <v>2156.836181640625</v>
+        <v>2256.8271484375</v>
       </c>
       <c r="CW4" t="n">
-        <v>2160.2705078125</v>
+        <v>2257.033447265625</v>
       </c>
       <c r="CX4" t="n">
-        <v>2163.03271484375</v>
+        <v>2257.136474609375</v>
       </c>
       <c r="CY4" t="n">
-        <v>2165.015380859375</v>
+        <v>2257.262939453125</v>
       </c>
       <c r="CZ4" t="n">
-        <v>2165.906005859375</v>
+        <v>2257.7705078125</v>
       </c>
       <c r="DA4" t="n">
-        <v>2166.253662109375</v>
+        <v>2258.2939453125</v>
       </c>
       <c r="DB4" t="n">
-        <v>2166.4462890625</v>
+        <v>2259.39990234375</v>
       </c>
       <c r="DC4" t="n">
-        <v>2166.470703125</v>
+        <v>2259.970947265625</v>
       </c>
       <c r="DD4" t="n">
-        <v>2166.48193359375</v>
+        <v>2261.23291015625</v>
       </c>
       <c r="DE4" t="n">
-        <v>2166.49169921875</v>
+        <v>2261.8837890625</v>
       </c>
       <c r="DF4" t="n">
-        <v>2166.4951171875</v>
+        <v>2263.149658203125</v>
       </c>
       <c r="DG4" t="n">
-        <v>2166.498046875</v>
+        <v>2265.26708984375</v>
       </c>
       <c r="DH4" t="n">
-        <v>2166.49951171875</v>
+        <v>2265.41796875</v>
       </c>
       <c r="DI4" t="n">
-        <v>2166.49951171875</v>
+        <v>2265.80322265625</v>
       </c>
       <c r="DJ4" t="n">
-        <v>2166.4921875</v>
+        <v>2266.0126953125</v>
       </c>
       <c r="DK4" t="n">
-        <v>2166.310546875</v>
+        <v>2266.42822265625</v>
       </c>
       <c r="DL4" t="n">
-        <v>2158.31591796875</v>
+        <v>2266.509521484375</v>
       </c>
       <c r="DM4" t="n">
-        <v>2154.39892578125</v>
+        <v>2266.5556640625</v>
       </c>
       <c r="DN4" t="n">
-        <v>2149.31982421875</v>
+        <v>2266.560546875</v>
       </c>
       <c r="DO4" t="n">
-        <v>2148.6533203125</v>
+        <v>2266.5615234375</v>
       </c>
       <c r="DP4" t="n">
-        <v>2148.322265625</v>
+        <v>2266.5625</v>
       </c>
       <c r="DQ4" t="n">
-        <v>2148.17578125</v>
+        <v>2266.56689453125</v>
       </c>
       <c r="DR4" t="n">
-        <v>2148.10595703125</v>
+        <v>2266.5556640625</v>
       </c>
       <c r="DS4" t="n">
-        <v>2148.0712890625</v>
+        <v>2266.53857421875</v>
       </c>
       <c r="DT4" t="n">
-        <v>2148.0390625</v>
+        <v>2266.536376953125</v>
       </c>
       <c r="DU4" t="n">
-        <v>2148.033203125</v>
+        <v>2266.5341796875</v>
       </c>
       <c r="DV4" t="n">
-        <v>2148.02294921875</v>
+        <v>2266.5302734375</v>
       </c>
       <c r="DW4" t="n">
-        <v>2148.02197265625</v>
+        <v>2266.53271484375</v>
       </c>
       <c r="DX4" t="n">
-        <v>2148.02099609375</v>
+        <v>2266.53369140625</v>
       </c>
       <c r="DY4" t="n">
-        <v>2148.02099609375</v>
+        <v>2266.5341796875</v>
       </c>
       <c r="DZ4" t="n">
-        <v>2148.021484375</v>
+        <v>2266.53564453125</v>
       </c>
       <c r="EA4" t="n">
-        <v>2148.0224609375</v>
+        <v>2266.537109375</v>
       </c>
       <c r="EB4" t="n">
-        <v>2148.02294921875</v>
+        <v>2266.54052734375</v>
       </c>
       <c r="EC4" t="n">
-        <v>2148.0234375</v>
+        <v>2266.54248046875</v>
       </c>
       <c r="ED4" t="n">
-        <v>2148.024169921875</v>
+        <v>2266.546142578125</v>
       </c>
       <c r="EE4" t="n">
-        <v>2148.0244140625</v>
+        <v>2266.787109375</v>
       </c>
       <c r="EF4" t="n">
-        <v>2148.026123046875</v>
+        <v>2267.1904296875</v>
       </c>
       <c r="EG4" t="n">
-        <v>2148.02783203125</v>
+        <v>2268.00146484375</v>
       </c>
       <c r="EH4" t="n">
-        <v>2148.03173828125</v>
+        <v>2270.77490234375</v>
       </c>
       <c r="EI4" t="n">
-        <v>2148.040771484375</v>
+        <v>2273.7353515625</v>
       </c>
       <c r="EJ4" t="n">
-        <v>2148.045654296875</v>
+        <v>2277.0654296875</v>
       </c>
       <c r="EK4" t="n">
-        <v>2148.055908203125</v>
+        <v>2278.517578125</v>
       </c>
       <c r="EL4" t="n">
-        <v>2148.06103515625</v>
+        <v>2279.22412109375</v>
       </c>
       <c r="EM4" t="n">
-        <v>2148.8037109375</v>
+        <v>2279.405517578125</v>
       </c>
       <c r="EN4" t="n">
-        <v>2149.33251953125</v>
+        <v>2279.4453125</v>
       </c>
       <c r="EO4" t="n">
-        <v>2150.75244140625</v>
+        <v>2279.42333984375</v>
       </c>
       <c r="EP4" t="n">
-        <v>2151.541015625</v>
+        <v>2279.3759765625</v>
       </c>
       <c r="EQ4" t="n">
-        <v>2153.8125</v>
+        <v>2279.345703125</v>
       </c>
       <c r="ER4" t="n">
-        <v>2155.462890625</v>
+        <v>2279.334228515625</v>
       </c>
       <c r="ES4" t="n">
-        <v>2155.619140625</v>
+        <v>2278.92919921875</v>
       </c>
       <c r="ET4" t="n">
-        <v>2155.4501953125</v>
+        <v>2274.177490234375</v>
       </c>
       <c r="EU4" t="n">
-        <v>2155.412109375</v>
+        <v>2268.158447265625</v>
       </c>
       <c r="EV4" t="n">
-        <v>2155.3779296875</v>
+        <v>2267.775390625</v>
       </c>
       <c r="EW4" t="n">
-        <v>2155.404296875</v>
+        <v>2267.72265625</v>
       </c>
       <c r="EX4" t="n">
-        <v>2155.54541015625</v>
+        <v>2267.6875</v>
       </c>
       <c r="EY4" t="n">
-        <v>2155.6083984375</v>
+        <v>2267.82568359375</v>
       </c>
       <c r="EZ4" t="n">
-        <v>2155.62060546875</v>
+        <v>2267.99169921875</v>
       </c>
       <c r="FA4" t="n">
-        <v>2155.612548828125</v>
+        <v>2268.09423828125</v>
       </c>
       <c r="FB4" t="n">
-        <v>2155.6025390625</v>
+        <v>2268.212890625</v>
       </c>
       <c r="FC4" t="n">
-        <v>2155.53857421875</v>
+        <v>2268.34716796875</v>
       </c>
       <c r="FD4" t="n">
-        <v>2155.060546875</v>
+        <v>2268.41650390625</v>
       </c>
       <c r="FE4" t="n">
-        <v>2154.6337890625</v>
+        <v>2268.57568359375</v>
       </c>
       <c r="FF4" t="n">
-        <v>2154.22412109375</v>
+        <v>2268.752685546875</v>
       </c>
       <c r="FG4" t="n">
-        <v>2151.456787109375</v>
+        <v>2268.85009765625</v>
       </c>
       <c r="FH4" t="n">
-        <v>2149.9765625</v>
+        <v>2272.6025390625</v>
       </c>
       <c r="FI4" t="n">
-        <v>2147.70947265625</v>
+        <v>2280.227294921875</v>
       </c>
       <c r="FJ4" t="n">
-        <v>2146.3828125</v>
+        <v>2282.57763671875</v>
       </c>
       <c r="FK4" t="n">
-        <v>2145.94580078125</v>
+        <v>2283.94921875</v>
       </c>
       <c r="FL4" t="n">
-        <v>2145.140625</v>
+        <v>2284.22265625</v>
       </c>
       <c r="FM4" t="n">
-        <v>2144.98193359375</v>
+        <v>2284.231201171875</v>
       </c>
       <c r="FN4" t="n">
-        <v>2144.40625</v>
+        <v>2284.140625</v>
       </c>
       <c r="FO4" t="n">
-        <v>2144.116943359375</v>
+        <v>2284.123291015625</v>
       </c>
       <c r="FP4" t="n">
-        <v>2144.05029296875</v>
+        <v>2284.11572265625</v>
       </c>
       <c r="FQ4" t="n">
-        <v>2144.0556640625</v>
+        <v>2283.68408203125</v>
       </c>
       <c r="FR4" t="n">
-        <v>2144.29833984375</v>
+        <v>2283.4248046875</v>
       </c>
       <c r="FS4" t="n">
-        <v>2144.57861328125</v>
+        <v>2283.114990234375</v>
       </c>
       <c r="FT4" t="n">
-        <v>2145.14794921875</v>
+        <v>2282.6064453125</v>
       </c>
       <c r="FU4" t="n">
-        <v>2145.68310546875</v>
+        <v>2282.357421875</v>
       </c>
       <c r="FV4" t="n">
-        <v>2145.97314453125</v>
+        <v>2281.859130859375</v>
       </c>
       <c r="FW4" t="n">
-        <v>2146.62548828125</v>
+        <v>2279.61279296875</v>
       </c>
       <c r="FX4" t="n">
-        <v>2147.0537109375</v>
+        <v>2277.1669921875</v>
       </c>
       <c r="FY4" t="n">
-        <v>2148.162109375</v>
+        <v>2274.62841796875</v>
       </c>
       <c r="FZ4" t="n">
-        <v>2148.71142578125</v>
+        <v>2273.14404296875</v>
       </c>
       <c r="GA4" t="n">
-        <v>2149.7294921875</v>
+        <v>2272.96826171875</v>
       </c>
       <c r="GB4" t="n">
-        <v>2150.220947265625</v>
+        <v>2272.904541015625</v>
       </c>
       <c r="GC4" t="n">
-        <v>2151.302734375</v>
+        <v>2272.892822265625</v>
       </c>
       <c r="GD4" t="n">
-        <v>2151.90673828125</v>
+        <v>2272.88671875</v>
       </c>
       <c r="GE4" t="n">
-        <v>2152.6455078125</v>
+        <v>2272.8837890625</v>
       </c>
       <c r="GF4" t="n">
-        <v>2152.769775390625</v>
+        <v>2272.88232421875</v>
       </c>
       <c r="GG4" t="n">
-        <v>2152.76513671875</v>
+        <v>2272.882568359375</v>
       </c>
       <c r="GH4" t="n">
-        <v>2152.765869140625</v>
+        <v>2272.884033203125</v>
       </c>
       <c r="GI4" t="n">
-        <v>2152.765625</v>
+        <v>2272.89208984375</v>
       </c>
       <c r="GJ4" t="n">
-        <v>2152.7646484375</v>
+        <v>2273.420654296875</v>
       </c>
       <c r="GK4" t="n">
-        <v>2152.7646484375</v>
+        <v>2273.822265625</v>
       </c>
       <c r="GL4" t="n">
-        <v>2152.7646484375</v>
+        <v>2275.2470703125</v>
       </c>
       <c r="GM4" t="n">
-        <v>2152.7646484375</v>
+        <v>2276.0107421875</v>
       </c>
       <c r="GN4" t="n">
-        <v>2152.7626953125</v>
+        <v>2277.09521484375</v>
       </c>
       <c r="GO4" t="n">
-        <v>2152.646484375</v>
+        <v>2277.036376953125</v>
       </c>
       <c r="GP4" t="n">
-        <v>2152.380859375</v>
+        <v>2277.0556640625</v>
       </c>
       <c r="GQ4" t="n">
-        <v>2150.554931640625</v>
+        <v>2277.0732421875</v>
       </c>
       <c r="GR4" t="n">
-        <v>2149.627685546875</v>
+        <v>2277.08203125</v>
       </c>
       <c r="GS4" t="n">
-        <v>2147.83154296875</v>
+        <v>2277.12744140625</v>
       </c>
       <c r="GT4" t="n">
-        <v>2146.5869140625</v>
+        <v>2280.176025390625</v>
       </c>
       <c r="GU4" t="n">
-        <v>2145.9560546875</v>
+        <v>2286.27099609375</v>
       </c>
       <c r="GV4" t="n">
-        <v>2145.059814453125</v>
+        <v>2287.58544921875</v>
       </c>
       <c r="GW4" t="n">
-        <v>2143.84228515625</v>
+        <v>2288.52685546875</v>
       </c>
       <c r="GX4" t="n">
-        <v>2143.14453125</v>
+        <v>2288.647705078125</v>
       </c>
       <c r="GY4" t="n">
-        <v>2143.07421875</v>
+        <v>2288.634521484375</v>
       </c>
       <c r="GZ4" t="n">
-        <v>2143.0654296875</v>
+        <v>2288.54345703125</v>
       </c>
       <c r="HA4" t="n">
-        <v>2143.06982421875</v>
+        <v>2288.46435546875</v>
       </c>
       <c r="HB4" t="n">
-        <v>2143.07275390625</v>
+        <v>2288.306640625</v>
       </c>
       <c r="HC4" t="n">
-        <v>2143.075439453125</v>
+        <v>2288.193115234375</v>
       </c>
       <c r="HD4" t="n">
-        <v>2143.078125</v>
+        <v>2288.173095703125</v>
       </c>
       <c r="HE4" t="n">
-        <v>2143.09326171875</v>
+        <v>2288.1357421875</v>
       </c>
       <c r="HF4" t="n">
-        <v>2144.1025390625</v>
+        <v>2288.12060546875</v>
       </c>
       <c r="HG4" t="n">
-        <v>2145.99462890625</v>
+        <v>2288.10400390625</v>
       </c>
       <c r="HH4" t="n">
-        <v>2146.5810546875</v>
+        <v>2288.0859375</v>
       </c>
       <c r="HI4" t="n">
-        <v>2147.1572265625</v>
+        <v>2288.07958984375</v>
       </c>
       <c r="HJ4" t="n">
-        <v>2147.297119140625</v>
+        <v>2288.078369140625</v>
       </c>
       <c r="HK4" t="n">
-        <v>2147.370361328125</v>
+        <v>2288.079345703125</v>
       </c>
       <c r="HL4" t="n">
-        <v>2147.388671875</v>
+        <v>2288.0810546875</v>
       </c>
       <c r="HM4" t="n">
-        <v>2147.3935546875</v>
+        <v>2288.0830078125</v>
       </c>
       <c r="HN4" t="n">
-        <v>2147.405029296875</v>
+        <v>2290.85791015625</v>
       </c>
       <c r="HO4" t="n">
-        <v>2147.41796875</v>
+        <v>2297.0908203125</v>
       </c>
       <c r="HP4" t="n">
-        <v>2147.430908203125</v>
+        <v>2297.76611328125</v>
       </c>
       <c r="HQ4" t="n">
-        <v>2147.445068359375</v>
+        <v>2298.662109375</v>
       </c>
       <c r="HR4" t="n">
-        <v>2147.4609375</v>
+        <v>2299.048828125</v>
       </c>
       <c r="HS4" t="n">
-        <v>2147.434326171875</v>
+        <v>2299.2041015625</v>
       </c>
       <c r="HT4" t="n">
-        <v>2147.404296875</v>
+        <v>2299.288330078125</v>
       </c>
       <c r="HU4" t="n">
-        <v>2147.37451171875</v>
+        <v>2299.36181640625</v>
       </c>
       <c r="HV4" t="n">
-        <v>2147.343017578125</v>
+        <v>2299.5634765625</v>
       </c>
       <c r="HW4" t="n">
-        <v>2147.30908203125</v>
+        <v>2299.705078125</v>
       </c>
       <c r="HX4" t="n">
-        <v>2147.29150390625</v>
+        <v>2299.669189453125</v>
       </c>
       <c r="HY4" t="n">
-        <v>2147.256591796875</v>
+        <v>2299.6015625</v>
       </c>
       <c r="HZ4" t="n">
-        <v>2147.22119140625</v>
+        <v>2299.451416015625</v>
       </c>
       <c r="IA4" t="n">
-        <v>2147.12255859375</v>
+        <v>2299.364990234375</v>
       </c>
       <c r="IB4" t="n">
-        <v>2147.080810546875</v>
+        <v>2297.705078125</v>
       </c>
       <c r="IC4" t="n">
-        <v>2146.53125</v>
+        <v>2296.84130859375</v>
       </c>
       <c r="ID4" t="n">
-        <v>2145.5322265625</v>
+        <v>2296.635986328125</v>
       </c>
       <c r="IE4" t="n">
-        <v>2144.54248046875</v>
+        <v>2295.550048828125</v>
       </c>
       <c r="IF4" t="n">
-        <v>2143.77734375</v>
+        <v>2294.32080078125</v>
       </c>
       <c r="IG4" t="n">
-        <v>2143.509521484375</v>
+        <v>2292.675537109375</v>
       </c>
       <c r="IH4" t="n">
-        <v>2143.4482421875</v>
+        <v>2290.07861328125</v>
       </c>
       <c r="II4" t="n">
-        <v>2143.40234375</v>
+        <v>2288.619384765625</v>
       </c>
       <c r="IJ4" t="n">
-        <v>2143.38916015625</v>
+        <v>2288.62939453125</v>
       </c>
       <c r="IK4" t="n">
-        <v>2143.37939453125</v>
+        <v>2291.74951171875</v>
       </c>
       <c r="IL4" t="n">
-        <v>2143.37548828125</v>
+        <v>2295.20751953125</v>
       </c>
       <c r="IM4" t="n">
-        <v>2143.374755859375</v>
+        <v>2296.094970703125</v>
       </c>
       <c r="IN4" t="n">
-        <v>2143.450439453125</v>
+        <v>2297.4580078125</v>
       </c>
       <c r="IO4" t="n">
-        <v>2143.47216796875</v>
+        <v>2297.533935546875</v>
       </c>
       <c r="IP4" t="n">
-        <v>2143.658203125</v>
+        <v>2297.5048828125</v>
       </c>
       <c r="IQ4" t="n">
-        <v>2143.993896484375</v>
+        <v>2297.47265625</v>
       </c>
       <c r="IR4" t="n">
-        <v>2144.44384765625</v>
+        <v>2297.376953125</v>
       </c>
       <c r="IS4" t="n">
-        <v>2144.7138671875</v>
+        <v>2297.06982421875</v>
       </c>
       <c r="IT4" t="n">
-        <v>2144.7998046875</v>
+        <v>2296.19091796875</v>
       </c>
       <c r="IU4" t="n">
-        <v>2144.87890625</v>
+        <v>2291.23583984375</v>
       </c>
       <c r="IV4" t="n">
-        <v>2144.953857421875</v>
+        <v>2282.893310546875</v>
       </c>
       <c r="IW4" t="n">
-        <v>2144.9970703125</v>
+        <v>2275.5556640625</v>
       </c>
       <c r="IX4" t="n">
-        <v>2145.0087890625</v>
+        <v>2273.29931640625</v>
       </c>
       <c r="IY4" t="n">
-        <v>2145.0107421875</v>
+        <v>2272.703857421875</v>
       </c>
       <c r="IZ4" t="n">
-        <v>2145.00830078125</v>
+        <v>2272.474609375</v>
       </c>
       <c r="JA4" t="n">
-        <v>2145.003662109375</v>
+        <v>2272.417236328125</v>
       </c>
       <c r="JB4" t="n">
-        <v>2144.83203125</v>
+        <v>2272.41552734375</v>
       </c>
       <c r="JC4" t="n">
-        <v>2141.968994140625</v>
+        <v>2272.41552734375</v>
       </c>
       <c r="JD4" t="n">
-        <v>2134.0625</v>
+        <v>2272.41552734375</v>
       </c>
       <c r="JE4" t="n">
-        <v>2129.309326171875</v>
+        <v>2272.501220703125</v>
       </c>
       <c r="JF4" t="n">
-        <v>2127.623779296875</v>
+        <v>2273.744140625</v>
       </c>
       <c r="JG4" t="n">
-        <v>2127.52880859375</v>
+        <v>2276.4638671875</v>
       </c>
       <c r="JH4" t="n">
-        <v>2127.5615234375</v>
+        <v>2279.86865234375</v>
       </c>
       <c r="JI4" t="n">
-        <v>2127.64453125</v>
+        <v>2283.92626953125</v>
       </c>
       <c r="JJ4" t="n">
-        <v>2127.78076171875</v>
+        <v>2288.33544921875</v>
       </c>
       <c r="JK4" t="n">
-        <v>2127.94091796875</v>
+        <v>2285.89453125</v>
       </c>
       <c r="JL4" t="n">
-        <v>2128.05078125</v>
+        <v>2286.13671875</v>
       </c>
       <c r="JM4" t="n">
-        <v>2128.1572265625</v>
+        <v>2286.14599609375</v>
       </c>
       <c r="JN4" t="n">
-        <v>2128.20458984375</v>
+        <v>2284.30810546875</v>
       </c>
       <c r="JO4" t="n">
-        <v>2128.22998046875</v>
+        <v>2282.283203125</v>
       </c>
       <c r="JP4" t="n">
-        <v>2128.25634765625</v>
+        <v>2274.904296875</v>
       </c>
       <c r="JQ4" t="n">
-        <v>2128.677734375</v>
+        <v>2266.524658203125</v>
       </c>
       <c r="JR4" t="n">
-        <v>2130.14990234375</v>
+        <v>2264.05126953125</v>
       </c>
       <c r="JS4" t="n">
-        <v>2131.41796875</v>
+        <v>2264.44775390625</v>
       </c>
       <c r="JT4" t="n">
-        <v>2132.75341796875</v>
+        <v>2264.91455078125</v>
       </c>
       <c r="JU4" t="n">
-        <v>2132.66259765625</v>
+        <v>2265.7666015625</v>
       </c>
       <c r="JV4" t="n">
-        <v>2132.521728515625</v>
+        <v>2267.17626953125</v>
       </c>
       <c r="JW4" t="n">
-        <v>2128.38330078125</v>
+        <v>2268.25244140625</v>
       </c>
       <c r="JX4" t="n">
-        <v>2117.9130859375</v>
+        <v>2269.00732421875</v>
       </c>
       <c r="JY4" t="n">
-        <v>2108.108642578125</v>
+        <v>2269.154052734375</v>
       </c>
       <c r="JZ4" t="n">
-        <v>2101.056640625</v>
+        <v>2269.0947265625</v>
       </c>
       <c r="KA4" t="n">
-        <v>2090.16162109375</v>
+        <v>2264.69677734375</v>
       </c>
       <c r="KB4" t="n">
-        <v>2083.32763671875</v>
+        <v>2257.7626953125</v>
       </c>
       <c r="KC4" t="n">
-        <v>2074.942138671875</v>
+        <v>2255.51416015625</v>
       </c>
       <c r="KD4" t="n">
-        <v>2058.85400390625</v>
+        <v>2255.131591796875</v>
       </c>
       <c r="KE4" t="n">
-        <v>2051.3037109375</v>
+        <v>2253.975341796875</v>
       </c>
       <c r="KF4" t="n">
-        <v>2039.318115234375</v>
+        <v>2252.9814453125</v>
       </c>
       <c r="KG4" t="n">
-        <v>2020.692504882812</v>
+        <v>2252.37158203125</v>
       </c>
       <c r="KH4" t="n">
-        <v>1999.0029296875</v>
+        <v>2252.26171875</v>
       </c>
       <c r="KI4" t="n">
-        <v>1973.380981445312</v>
+        <v>2252.258544921875</v>
       </c>
       <c r="KJ4" t="n">
-        <v>1929.71337890625</v>
+        <v>2252.2666015625</v>
       </c>
       <c r="KK4" t="n">
-        <v>1868.7685546875</v>
+        <v>2252.287109375</v>
       </c>
       <c r="KL4" t="n">
-        <v>1820.661376953125</v>
+        <v>2252.298828125</v>
       </c>
       <c r="KM4" t="n">
-        <v>1765.115356445312</v>
+        <v>2252.3330078125</v>
       </c>
       <c r="KN4" t="n">
-        <v>1698.7861328125</v>
+        <v>2252.34033203125</v>
       </c>
       <c r="KO4" t="n">
-        <v>1627.73779296875</v>
+        <v>2252.240234375</v>
       </c>
       <c r="KP4" t="n">
-        <v>1567.71875</v>
+        <v>2232.644775390625</v>
       </c>
       <c r="KQ4" t="n">
-        <v>1512.020263671875</v>
+        <v>2213.4560546875</v>
       </c>
       <c r="KR4" t="n">
-        <v>1462.12548828125</v>
+        <v>2156.30322265625</v>
       </c>
       <c r="KS4" t="n">
-        <v>1380.167602539062</v>
+        <v>2079.166259765625</v>
       </c>
       <c r="KT4" t="n">
-        <v>1313.876220703125</v>
+        <v>2020.552856445312</v>
       </c>
       <c r="KU4" t="n">
-        <v>1205.158935546875</v>
+        <v>1979.5791015625</v>
       </c>
       <c r="KV4" t="n">
-        <v>1131.369384765625</v>
+        <v>1858.292602539062</v>
       </c>
       <c r="KW4" t="n">
-        <v>1055.5322265625</v>
+        <v>1788.726806640625</v>
       </c>
       <c r="KX4" t="n">
-        <v>950.2872314453125</v>
+        <v>1670.739013671875</v>
       </c>
       <c r="KY4" t="n">
-        <v>890.4908447265625</v>
+        <v>1602.401977539062</v>
       </c>
       <c r="KZ4" t="n">
-        <v>842.679443359375</v>
+        <v>1510.309814453125</v>
       </c>
       <c r="LA4" t="n">
-        <v>792.3088989257812</v>
+        <v>1413.431274414062</v>
       </c>
       <c r="LB4" t="n">
-        <v>766.5855712890625</v>
+        <v>1305.97509765625</v>
       </c>
       <c r="LC4" t="n">
-        <v>747.9359741210938</v>
+        <v>1195.081787109375</v>
       </c>
       <c r="LD4" t="n">
-        <v>728.9661254882812</v>
+        <v>1084.794677734375</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>980.8745727539062</v>
+      </c>
+      <c r="LF4" t="n">
+        <v>890.8101806640625</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>831.7398681640625</v>
+      </c>
+      <c r="LH4" t="n">
+        <v>745.6942138671875</v>
+      </c>
+      <c r="LI4" t="n">
+        <v>678.46044921875</v>
+      </c>
+      <c r="LJ4" t="n">
+        <v>591.6517333984375</v>
+      </c>
+      <c r="LK4" t="n">
+        <v>546.552978515625</v>
+      </c>
+      <c r="LL4" t="n">
+        <v>504.2454833984375</v>
+      </c>
+      <c r="LM4" t="n">
+        <v>464.2551574707031</v>
+      </c>
+      <c r="LN4" t="n">
+        <v>428.3914794921875</v>
+      </c>
+      <c r="LO4" t="n">
+        <v>404.522705078125</v>
+      </c>
+      <c r="LP4" t="n">
+        <v>387.6004028320312</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>374.7836303710938</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>363.219482421875</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>356.2943420410156</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>352.2874755859375</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>349.27734375</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>348.9801025390625</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>348.9683837890625</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>348.96826171875</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>348.96826171875</v>
       </c>
     </row>
   </sheetData>
